--- a/2017/BANGKE - 17.xlsx
+++ b/2017/BANGKE - 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TH-MV" sheetId="15" r:id="rId1"/>
@@ -16,11 +16,11 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TH - BR'!$A$25:$N$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TH - BR'!$A$25:$N$223</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TH-MV'!$A$15:$O$164</definedName>
     <definedName name="Dong">IF(Loai=#REF!,ROW(Loai)-1,"")</definedName>
     <definedName name="Dong1">IF(Loai1=#REF!,ROW(Loai1)-1,"")</definedName>
-    <definedName name="DSBR">'Huong dan BR'!$R$2:$S$78</definedName>
+    <definedName name="DSBR">'Huong dan BR'!$R$2:$S$104</definedName>
     <definedName name="DSMV">'Huong dan MV'!$R$2:$T$50</definedName>
     <definedName name="Loai">OFFSET('TH-MV'!$M$17,,,COUNTA('TH-MV'!$M$17:$M$38808))</definedName>
     <definedName name="Loai1">OFFSET('TH - BR'!#REF!,,,COUNTA('[1]TH-BR'!$L$18:$M$38745))</definedName>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="614">
   <si>
     <t>(Kèm theo tờ khai thuế GTGT theo mẫu số 01/GTGT)</t>
   </si>
@@ -2021,6 +2021,24 @@
   </si>
   <si>
     <t>LP/12P</t>
+  </si>
+  <si>
+    <t>Cty TNHH TMDV Vĩnh Nguyên</t>
+  </si>
+  <si>
+    <t>Cty CP Chuyển Phát Nhanh Vietstar</t>
+  </si>
+  <si>
+    <t>Cty TNHH SXKD Bai Bì Carton Gấp Nếp Vina Toyo</t>
+  </si>
+  <si>
+    <t>6000454526</t>
+  </si>
+  <si>
+    <t>Cty TNHH HFP Việt Nam</t>
+  </si>
+  <si>
+    <t>3702110954</t>
   </si>
 </sst>
 </file>
@@ -2392,7 +2410,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2741,6 +2759,12 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2879,12 +2903,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3591,10 +3613,10 @@
   </sheetPr>
   <dimension ref="A1:Q184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="J101" sqref="J101"/>
+      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3651,70 +3673,70 @@
       <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:15" s="37" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
     </row>
     <row r="5" spans="1:15" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
     </row>
     <row r="6" spans="1:15" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
     </row>
     <row r="7" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133" t="str">
+      <c r="B7" s="135" t="str">
         <f>"Kỳ tính thuế: Quý "&amp;O14&amp;" Năm "&amp;YEAR(F17)</f>
         <v>Kỳ tính thuế: Quý 3 Năm 2017</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
     </row>
     <row r="8" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="39"/>
@@ -3739,67 +3761,67 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
     </row>
     <row r="12" spans="1:15" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="124" t="s">
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="124" t="s">
+      <c r="H12" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="124" t="s">
+      <c r="I12" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="124" t="s">
+      <c r="J12" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="125" t="s">
+      <c r="K12" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="124" t="s">
+      <c r="L12" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="124" t="s">
+      <c r="M12" s="126" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="37" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="126"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
     </row>
     <row r="14" spans="1:15" s="37" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="126"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="42" t="s">
         <v>43</v>
       </c>
@@ -3812,13 +3834,13 @@
       <c r="F14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
       <c r="O14" s="120">
         <v>3</v>
       </c>
@@ -9595,31 +9617,30 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:N237"/>
+  <dimension ref="A1:N375"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="14" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="K128" sqref="K128:K223"/>
+      <selection pane="bottomLeft" activeCell="J251" sqref="J251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12" style="15" customWidth="1"/>
-    <col min="7" max="7" width="48.140625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="15" customWidth="1"/>
-    <col min="10" max="11" width="15.5703125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="48.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -9630,7 +9651,7 @@
       <c r="I1" s="16"/>
       <c r="L1" s="16"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -9641,7 +9662,7 @@
       <c r="I2" s="16"/>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="16"/>
@@ -9652,69 +9673,69 @@
       <c r="I3" s="16"/>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="139" t="s">
+    <row r="4" spans="1:14" s="15" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-    </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+    </row>
+    <row r="5" spans="1:14" s="15" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="141" t="s">
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+    </row>
+    <row r="6" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="141" t="e">
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+    </row>
+    <row r="7" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="143" t="e">
         <f>"Kỳ tính thuế: Quý "&amp;N14&amp;" Năm "&amp;YEAR(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+    </row>
+    <row r="8" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="16"/>
@@ -9725,73 +9746,73 @@
       <c r="I8" s="16"/>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="137" t="s">
+    <row r="11" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-    </row>
-    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="138" t="s">
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+    </row>
+    <row r="12" spans="1:14" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138" t="s">
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="138" t="s">
+      <c r="H12" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="138" t="s">
+      <c r="I12" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="138" t="s">
+      <c r="J12" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="138" t="s">
+      <c r="K12" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="138" t="s">
+      <c r="L12" s="140" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-    </row>
-    <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="138"/>
+    <row r="13" spans="1:14" s="15" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+    </row>
+    <row r="14" spans="1:14" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="140"/>
       <c r="C14" s="115" t="s">
         <v>43</v>
       </c>
@@ -9804,17 +9825,17 @@
       <c r="F14" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
       <c r="N14" s="117">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -9849,22 +9870,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="135" t="s">
+    <row r="16" spans="1:14" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -9892,22 +9913,22 @@
       <c r="K18" s="24"/>
       <c r="L18" s="23"/>
     </row>
-    <row r="19" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="135" t="s">
+    <row r="19" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -9935,22 +9956,22 @@
       <c r="K21" s="24"/>
       <c r="L21" s="23"/>
     </row>
-    <row r="22" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="135" t="s">
+    <row r="22" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="25"/>
     </row>
-    <row r="23" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -9993,7 +10014,7 @@
       <c r="K25" s="26"/>
       <c r="L25" s="27"/>
     </row>
-    <row r="26" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <f>IF(G26&lt;&gt;"",ROW()-25,"")</f>
         <v>1</v>
@@ -10030,7 +10051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <f t="shared" ref="B27:B91" si="1">IF(G27&lt;&gt;"",ROW()-25,"")</f>
         <v>2</v>
@@ -10067,7 +10088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -10104,7 +10125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -10141,7 +10162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -10178,7 +10199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -10215,7 +10236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -10252,7 +10273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -10289,7 +10310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -10326,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -10363,7 +10384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="9">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -10400,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -10437,7 +10458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="9">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -10474,7 +10495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -10511,7 +10532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -10548,7 +10569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10572,7 +10593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="9">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -10609,7 +10630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -10646,7 +10667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="9">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -10683,7 +10704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -10720,7 +10741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="9">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -10757,7 +10778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -10794,7 +10815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="9">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -10831,7 +10852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="9">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -10868,7 +10889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -10905,7 +10926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10932,7 +10953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10959,7 +10980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10986,7 +11007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -11023,7 +11044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -11060,7 +11081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11087,7 +11108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -11124,7 +11145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="9">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -11161,7 +11182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -11198,7 +11219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="9">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -11235,7 +11256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11262,7 +11283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="9">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -11299,7 +11320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="9">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -11336,7 +11357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="9">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -11373,7 +11394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -11410,7 +11431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="9">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -11447,7 +11468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="9">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -11484,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="9">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -11521,7 +11542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="9">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -11558,7 +11579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="9">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -11595,7 +11616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="9">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -11632,7 +11653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11659,7 +11680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="9">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -11696,7 +11717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="9">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -11733,7 +11754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="9">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -11770,7 +11791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="9">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -11807,7 +11828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="9">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -11844,7 +11865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="9">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -11881,7 +11902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -11918,7 +11939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="9">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -11955,7 +11976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="9">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -11992,7 +12013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -12019,7 +12040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -12056,7 +12077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="9">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -12093,7 +12114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="9">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -12130,7 +12151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="9">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -12167,7 +12188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="9">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -12204,7 +12225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="9">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -12241,7 +12262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -12268,7 +12289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -12295,7 +12316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="9">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -12332,7 +12353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="9">
         <f>IF(G92&lt;&gt;"",ROW()-25,"")</f>
         <v>67</v>
@@ -12369,7 +12390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="9">
         <f>IF(G93&lt;&gt;"",ROW()-25,"")</f>
         <v>68</v>
@@ -12406,7 +12427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="9">
         <f>IF(G94&lt;&gt;"",ROW()-25,"")</f>
         <v>69</v>
@@ -12443,7 +12464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="9">
         <f>IF(G95&lt;&gt;"",ROW()-25,"")</f>
         <v>70</v>
@@ -12480,7 +12501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="9">
         <f>IF(G96&lt;&gt;"",ROW()-25,"")</f>
         <v>71</v>
@@ -12501,7 +12522,7 @@
         <v>312</v>
       </c>
       <c r="H96" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G96,DSBR,2,0)),"",VLOOKUP(G96,DSBR,2,0))</f>
+        <f t="shared" ref="H96:H114" si="3">IF(ISNA(VLOOKUP(G96,DSBR,2,0)),"",VLOOKUP(G96,DSBR,2,0))</f>
         <v>1101819710</v>
       </c>
       <c r="I96" s="12" t="s">
@@ -12517,9 +12538,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="9" t="str">
-        <f t="shared" ref="B97:B160" si="3">IF(G97&lt;&gt;"",ROW()-25,"")</f>
+        <f t="shared" ref="B97:B160" si="4">IF(G97&lt;&gt;"",ROW()-25,"")</f>
         <v/>
       </c>
       <c r="C97" s="32" t="s">
@@ -12534,7 +12555,7 @@
       <c r="F97" s="33"/>
       <c r="G97" s="11"/>
       <c r="H97" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G97,DSBR,2,0)),"",VLOOKUP(G97,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I97" s="12"/>
@@ -12544,9 +12565,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C98" s="32" t="s">
@@ -12561,7 +12582,7 @@
       <c r="F98" s="33"/>
       <c r="G98" s="11"/>
       <c r="H98" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G98,DSBR,2,0)),"",VLOOKUP(G98,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I98" s="12"/>
@@ -12571,9 +12592,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="C99" s="32" t="s">
@@ -12588,11 +12609,11 @@
       <c r="F99" s="33">
         <v>42829</v>
       </c>
-      <c r="G99" s="170" t="s">
+      <c r="G99" s="124" t="s">
         <v>535</v>
       </c>
       <c r="H99" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G99,DSBR,2,0)),"",VLOOKUP(G99,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v>3600677913</v>
       </c>
       <c r="I99" s="12" t="s">
@@ -12609,9 +12630,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="C100" s="32" t="s">
@@ -12630,7 +12651,7 @@
         <v>142</v>
       </c>
       <c r="H100" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G100,DSBR,2,0)),"",VLOOKUP(G100,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v>0313919539</v>
       </c>
       <c r="I100" s="12" t="s">
@@ -12640,16 +12661,16 @@
         <v>6546100</v>
       </c>
       <c r="K100" s="13">
-        <f t="shared" ref="K100:K163" si="4">ROUND(J100*10%,0)</f>
+        <f t="shared" ref="K100:K163" si="5">ROUND(J100*10%,0)</f>
         <v>654610</v>
       </c>
       <c r="L100" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C101" s="32" t="s">
@@ -12664,22 +12685,22 @@
       <c r="F101" s="33"/>
       <c r="G101" s="11"/>
       <c r="H101" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G101,DSBR,2,0)),"",VLOOKUP(G101,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I101" s="12"/>
       <c r="J101" s="13"/>
       <c r="K101" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L101" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="C102" s="32" t="s">
@@ -12698,7 +12719,7 @@
         <v>124</v>
       </c>
       <c r="H102" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G102,DSBR,2,0)),"",VLOOKUP(G102,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v>0307717894</v>
       </c>
       <c r="I102" s="12" t="s">
@@ -12708,16 +12729,16 @@
         <v>43680000</v>
       </c>
       <c r="K102" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4368000</v>
       </c>
       <c r="L102" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="C103" s="32" t="s">
@@ -12736,7 +12757,7 @@
         <v>95</v>
       </c>
       <c r="H103" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G103,DSBR,2,0)),"",VLOOKUP(G103,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v>0311731926</v>
       </c>
       <c r="I103" s="12" t="s">
@@ -12746,16 +12767,16 @@
         <v>2409000</v>
       </c>
       <c r="K103" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>240900</v>
       </c>
       <c r="L103" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C104" s="32" t="s">
@@ -12770,22 +12791,22 @@
       <c r="F104" s="33"/>
       <c r="G104" s="11"/>
       <c r="H104" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G104,DSBR,2,0)),"",VLOOKUP(G104,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I104" s="12"/>
       <c r="J104" s="13"/>
       <c r="K104" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L104" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C105" s="32" t="s">
@@ -12800,22 +12821,22 @@
       <c r="F105" s="33"/>
       <c r="G105" s="11"/>
       <c r="H105" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G105,DSBR,2,0)),"",VLOOKUP(G105,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I105" s="12"/>
       <c r="J105" s="13"/>
       <c r="K105" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L105" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="C106" s="32" t="s">
@@ -12830,11 +12851,11 @@
       <c r="F106" s="33">
         <v>42833</v>
       </c>
-      <c r="G106" s="170" t="s">
+      <c r="G106" s="124" t="s">
         <v>535</v>
       </c>
       <c r="H106" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G106,DSBR,2,0)),"",VLOOKUP(G106,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v>3600677913</v>
       </c>
       <c r="I106" s="12" t="s">
@@ -12844,16 +12865,16 @@
         <v>30895820</v>
       </c>
       <c r="K106" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3089582</v>
       </c>
       <c r="L106" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C107" s="32" t="s">
@@ -12868,22 +12889,22 @@
       <c r="F107" s="33"/>
       <c r="G107" s="11"/>
       <c r="H107" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G107,DSBR,2,0)),"",VLOOKUP(G107,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I107" s="12"/>
       <c r="J107" s="13"/>
       <c r="K107" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L107" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="C108" s="32" t="s">
@@ -12898,11 +12919,11 @@
       <c r="F108" s="33">
         <v>42837</v>
       </c>
-      <c r="G108" s="170" t="s">
+      <c r="G108" s="124" t="s">
         <v>537</v>
       </c>
       <c r="H108" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G108,DSBR,2,0)),"",VLOOKUP(G108,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v>3700363445</v>
       </c>
       <c r="I108" s="12" t="s">
@@ -12912,16 +12933,16 @@
         <v>5000000</v>
       </c>
       <c r="K108" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500000</v>
       </c>
       <c r="L108" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="C109" s="32" t="s">
@@ -12940,7 +12961,7 @@
         <v>130</v>
       </c>
       <c r="H109" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G109,DSBR,2,0)),"",VLOOKUP(G109,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v>3601409272</v>
       </c>
       <c r="I109" s="12" t="s">
@@ -12950,16 +12971,16 @@
         <v>14450000</v>
       </c>
       <c r="K109" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1445000</v>
       </c>
       <c r="L109" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C110" s="32" t="s">
@@ -12974,22 +12995,22 @@
       <c r="F110" s="33"/>
       <c r="G110" s="11"/>
       <c r="H110" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G110,DSBR,2,0)),"",VLOOKUP(G110,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I110" s="12"/>
       <c r="J110" s="13"/>
       <c r="K110" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L110" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C111" s="32" t="s">
@@ -13004,22 +13025,22 @@
       <c r="F111" s="33"/>
       <c r="G111" s="11"/>
       <c r="H111" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G111,DSBR,2,0)),"",VLOOKUP(G111,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I111" s="12"/>
       <c r="J111" s="13"/>
       <c r="K111" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L111" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="C112" s="32" t="s">
@@ -13038,7 +13059,7 @@
         <v>130</v>
       </c>
       <c r="H112" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G112,DSBR,2,0)),"",VLOOKUP(G112,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v>3601409272</v>
       </c>
       <c r="I112" s="12" t="s">
@@ -13048,16 +13069,16 @@
         <v>15300000</v>
       </c>
       <c r="K112" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1530000</v>
       </c>
       <c r="L112" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="C113" s="32" t="s">
@@ -13076,7 +13097,7 @@
         <v>103</v>
       </c>
       <c r="H113" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G113,DSBR,2,0)),"",VLOOKUP(G113,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v>3603093803</v>
       </c>
       <c r="I113" s="12" t="s">
@@ -13086,16 +13107,16 @@
         <v>5767000</v>
       </c>
       <c r="K113" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>576700</v>
       </c>
       <c r="L113" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="C114" s="32" t="s">
@@ -13110,11 +13131,11 @@
       <c r="F114" s="33">
         <v>42843</v>
       </c>
-      <c r="G114" s="170" t="s">
+      <c r="G114" s="124" t="s">
         <v>540</v>
       </c>
       <c r="H114" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G114,DSBR,2,0)),"",VLOOKUP(G114,DSBR,2,0))</f>
+        <f t="shared" si="3"/>
         <v>3700347309</v>
       </c>
       <c r="I114" s="12" t="s">
@@ -13124,16 +13145,16 @@
         <v>7600000</v>
       </c>
       <c r="K114" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>760000</v>
       </c>
       <c r="L114" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C115" s="32" t="s">
@@ -13146,21 +13167,21 @@
         <v>474</v>
       </c>
       <c r="F115" s="33"/>
-      <c r="G115" s="170"/>
+      <c r="G115" s="124"/>
       <c r="H115" s="34"/>
       <c r="I115" s="12"/>
       <c r="J115" s="13"/>
       <c r="K115" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L115" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="C116" s="32" t="s">
@@ -13175,7 +13196,7 @@
       <c r="F116" s="33">
         <v>42844</v>
       </c>
-      <c r="G116" s="170" t="s">
+      <c r="G116" s="124" t="s">
         <v>535</v>
       </c>
       <c r="H116" s="34" t="str">
@@ -13189,16 +13210,16 @@
         <v>25471000</v>
       </c>
       <c r="K116" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2547100</v>
       </c>
       <c r="L116" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="C117" s="32" t="s">
@@ -13213,7 +13234,7 @@
       <c r="F117" s="33">
         <v>42844</v>
       </c>
-      <c r="G117" s="170" t="s">
+      <c r="G117" s="124" t="s">
         <v>90</v>
       </c>
       <c r="H117" s="34" t="str">
@@ -13227,16 +13248,16 @@
         <v>307250000</v>
       </c>
       <c r="K117" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30725000</v>
       </c>
       <c r="L117" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C118" s="32" t="s">
@@ -13249,21 +13270,21 @@
         <v>477</v>
       </c>
       <c r="F118" s="33"/>
-      <c r="G118" s="170"/>
+      <c r="G118" s="124"/>
       <c r="H118" s="34"/>
       <c r="I118" s="12"/>
       <c r="J118" s="13"/>
       <c r="K118" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L118" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="C119" s="32" t="s">
@@ -13278,7 +13299,7 @@
       <c r="F119" s="33">
         <v>42846</v>
       </c>
-      <c r="G119" s="170" t="s">
+      <c r="G119" s="124" t="s">
         <v>541</v>
       </c>
       <c r="H119" s="34" t="str">
@@ -13292,16 +13313,16 @@
         <v>8860000</v>
       </c>
       <c r="K119" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>886000</v>
       </c>
       <c r="L119" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="C120" s="32" t="s">
@@ -13316,7 +13337,7 @@
       <c r="F120" s="33">
         <v>42846</v>
       </c>
-      <c r="G120" s="170" t="s">
+      <c r="G120" s="124" t="s">
         <v>130</v>
       </c>
       <c r="H120" s="34" t="str">
@@ -13330,16 +13351,16 @@
         <v>12750000</v>
       </c>
       <c r="K120" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1275000</v>
       </c>
       <c r="L120" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C121" s="32" t="s">
@@ -13352,21 +13373,21 @@
         <v>480</v>
       </c>
       <c r="F121" s="33"/>
-      <c r="G121" s="171"/>
+      <c r="G121" s="125"/>
       <c r="H121" s="34"/>
       <c r="I121" s="12"/>
       <c r="J121" s="13"/>
       <c r="K121" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L121" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="C122" s="32" t="s">
@@ -13381,11 +13402,11 @@
       <c r="F122" s="33">
         <v>42851</v>
       </c>
-      <c r="G122" s="171" t="s">
+      <c r="G122" s="125" t="s">
         <v>95</v>
       </c>
       <c r="H122" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G122,DSBR,2,0)),"",VLOOKUP(G122,DSBR,2,0))</f>
+        <f t="shared" ref="H122:H153" si="6">IF(ISNA(VLOOKUP(G122,DSBR,2,0)),"",VLOOKUP(G122,DSBR,2,0))</f>
         <v>0311731926</v>
       </c>
       <c r="I122" s="12" t="s">
@@ -13395,16 +13416,16 @@
         <v>3382500</v>
       </c>
       <c r="K122" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>338250</v>
       </c>
       <c r="L122" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="C123" s="32" t="s">
@@ -13419,11 +13440,11 @@
       <c r="F123" s="33">
         <v>42851</v>
       </c>
-      <c r="G123" s="170" t="s">
+      <c r="G123" s="124" t="s">
         <v>315</v>
       </c>
       <c r="H123" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G123,DSBR,2,0)),"",VLOOKUP(G123,DSBR,2,0))</f>
+        <f t="shared" si="6"/>
         <v>3700339107</v>
       </c>
       <c r="I123" s="12" t="s">
@@ -13433,16 +13454,16 @@
         <v>3800000</v>
       </c>
       <c r="K123" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>380000</v>
       </c>
       <c r="L123" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C124" s="32" t="s">
@@ -13457,22 +13478,22 @@
       <c r="F124" s="33"/>
       <c r="G124" s="11"/>
       <c r="H124" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G124,DSBR,2,0)),"",VLOOKUP(G124,DSBR,2,0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I124" s="12"/>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L124" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="C125" s="32" t="s">
@@ -13491,7 +13512,7 @@
         <v>94</v>
       </c>
       <c r="H125" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G125,DSBR,2,0)),"",VLOOKUP(G125,DSBR,2,0))</f>
+        <f t="shared" si="6"/>
         <v>3701773902</v>
       </c>
       <c r="I125" s="12" t="s">
@@ -13501,17 +13522,17 @@
         <v>160917522</v>
       </c>
       <c r="K125" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16091752</v>
       </c>
       <c r="L125" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="126" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="9">
+        <f t="shared" si="4"/>
+        <v>101</v>
       </c>
       <c r="C126" s="32" t="s">
         <v>85</v>
@@ -13522,25 +13543,33 @@
       <c r="E126" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F126" s="33"/>
-      <c r="G126" s="11"/>
+      <c r="F126" s="33">
+        <v>42860</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="H126" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G126,DSBR,2,0)),"",VLOOKUP(G126,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I126" s="12"/>
-      <c r="J126" s="13"/>
+        <f t="shared" si="6"/>
+        <v>0307717894</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="J126" s="13">
+        <v>45000480</v>
+      </c>
       <c r="K126" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4500048</v>
       </c>
       <c r="L126" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C127" s="32" t="s">
@@ -13554,24 +13583,21 @@
       </c>
       <c r="F127" s="33"/>
       <c r="G127" s="11"/>
-      <c r="H127" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G127,DSBR,2,0)),"",VLOOKUP(G127,DSBR,2,0))</f>
-        <v/>
-      </c>
+      <c r="H127" s="34"/>
       <c r="I127" s="12"/>
       <c r="J127" s="13"/>
       <c r="K127" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L127" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="128" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="9">
+        <f t="shared" si="4"/>
+        <v>103</v>
       </c>
       <c r="C128" s="32" t="s">
         <v>85</v>
@@ -13582,26 +13608,34 @@
       <c r="E128" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="F128" s="33"/>
-      <c r="G128" s="11"/>
+      <c r="F128" s="33">
+        <v>42872</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>378</v>
+      </c>
       <c r="H128" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G128,DSBR,2,0)),"",VLOOKUP(G128,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I128" s="12"/>
-      <c r="J128" s="13"/>
+        <f t="shared" si="6"/>
+        <v>3701872678</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="J128" s="13">
+        <v>1440000</v>
+      </c>
       <c r="K128" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>144000</v>
       </c>
       <c r="L128" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="129" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="9">
+        <f t="shared" si="4"/>
+        <v>104</v>
       </c>
       <c r="C129" s="32" t="s">
         <v>85</v>
@@ -13612,26 +13646,34 @@
       <c r="E129" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="F129" s="33"/>
-      <c r="G129" s="11"/>
+      <c r="F129" s="33">
+        <v>42873</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="H129" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G129,DSBR,2,0)),"",VLOOKUP(G129,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I129" s="12"/>
-      <c r="J129" s="13"/>
+        <f t="shared" si="6"/>
+        <v>3701770098</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="J129" s="13">
+        <v>111000000</v>
+      </c>
       <c r="K129" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>11100000</v>
       </c>
       <c r="L129" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="130" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="9">
+        <f t="shared" si="4"/>
+        <v>105</v>
       </c>
       <c r="C130" s="32" t="s">
         <v>85</v>
@@ -13642,26 +13684,34 @@
       <c r="E130" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="F130" s="33"/>
-      <c r="G130" s="11"/>
+      <c r="F130" s="33">
+        <v>42873</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="H130" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G130,DSBR,2,0)),"",VLOOKUP(G130,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I130" s="12"/>
-      <c r="J130" s="13"/>
+        <f t="shared" si="6"/>
+        <v>3700583144</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="J130" s="13">
+        <v>9120000</v>
+      </c>
       <c r="K130" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>912000</v>
       </c>
       <c r="L130" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="131" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="9">
+        <f t="shared" si="4"/>
+        <v>106</v>
       </c>
       <c r="C131" s="32" t="s">
         <v>85</v>
@@ -13672,26 +13722,34 @@
       <c r="E131" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="F131" s="33"/>
-      <c r="G131" s="11"/>
+      <c r="F131" s="33">
+        <v>42875</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="H131" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G131,DSBR,2,0)),"",VLOOKUP(G131,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I131" s="12"/>
-      <c r="J131" s="13"/>
+        <f t="shared" si="6"/>
+        <v>3601409272</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="J131" s="13">
+        <v>17850000</v>
+      </c>
       <c r="K131" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1785000</v>
       </c>
       <c r="L131" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="132" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="9">
+        <f t="shared" si="4"/>
+        <v>107</v>
       </c>
       <c r="C132" s="32" t="s">
         <v>85</v>
@@ -13702,26 +13760,34 @@
       <c r="E132" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="F132" s="33"/>
-      <c r="G132" s="11"/>
+      <c r="F132" s="33">
+        <v>42878</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="H132" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G132,DSBR,2,0)),"",VLOOKUP(G132,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I132" s="12"/>
-      <c r="J132" s="13"/>
+        <f t="shared" si="6"/>
+        <v>0302535072</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="J132" s="13">
+        <v>7426600</v>
+      </c>
       <c r="K132" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>742660</v>
       </c>
       <c r="L132" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="133" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="9">
+        <f t="shared" si="4"/>
+        <v>108</v>
       </c>
       <c r="C133" s="32" t="s">
         <v>85</v>
@@ -13732,25 +13798,33 @@
       <c r="E133" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="F133" s="33"/>
-      <c r="G133" s="11"/>
+      <c r="F133" s="33">
+        <v>42879</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>608</v>
+      </c>
       <c r="H133" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G133,DSBR,2,0)),"",VLOOKUP(G133,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I133" s="12"/>
-      <c r="J133" s="13"/>
+        <f t="shared" si="6"/>
+        <v>6000454526</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="J133" s="13">
+        <v>11041500</v>
+      </c>
       <c r="K133" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1104150</v>
       </c>
       <c r="L133" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C134" s="32" t="s">
@@ -13765,22 +13839,22 @@
       <c r="F134" s="33"/>
       <c r="G134" s="11"/>
       <c r="H134" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G134,DSBR,2,0)),"",VLOOKUP(G134,DSBR,2,0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I134" s="12"/>
       <c r="J134" s="13"/>
       <c r="K134" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L134" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C135" s="32" t="s">
@@ -13795,22 +13869,22 @@
       <c r="F135" s="33"/>
       <c r="G135" s="11"/>
       <c r="H135" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G135,DSBR,2,0)),"",VLOOKUP(G135,DSBR,2,0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I135" s="12"/>
       <c r="J135" s="13"/>
       <c r="K135" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L135" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C136" s="32" t="s">
@@ -13825,22 +13899,22 @@
       <c r="F136" s="33"/>
       <c r="G136" s="11"/>
       <c r="H136" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G136,DSBR,2,0)),"",VLOOKUP(G136,DSBR,2,0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I136" s="12"/>
       <c r="J136" s="13"/>
       <c r="K136" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L136" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C137" s="32" t="s">
@@ -13855,23 +13929,23 @@
       <c r="F137" s="33"/>
       <c r="G137" s="11"/>
       <c r="H137" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G137,DSBR,2,0)),"",VLOOKUP(G137,DSBR,2,0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I137" s="12"/>
       <c r="J137" s="13"/>
       <c r="K137" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L137" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="138" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="9">
+        <f t="shared" si="4"/>
+        <v>113</v>
       </c>
       <c r="C138" s="32" t="s">
         <v>85</v>
@@ -13882,26 +13956,34 @@
       <c r="E138" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="F138" s="33"/>
-      <c r="G138" s="11"/>
+      <c r="F138" s="33">
+        <v>42882</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="H138" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G138,DSBR,2,0)),"",VLOOKUP(G138,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I138" s="12"/>
-      <c r="J138" s="13"/>
+        <f t="shared" si="6"/>
+        <v>0310857404</v>
+      </c>
+      <c r="I138" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="J138" s="13">
+        <v>18018190</v>
+      </c>
       <c r="K138" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1801819</v>
       </c>
       <c r="L138" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="139" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="9">
+        <f t="shared" si="4"/>
+        <v>114</v>
       </c>
       <c r="C139" s="32" t="s">
         <v>85</v>
@@ -13912,26 +13994,34 @@
       <c r="E139" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="F139" s="33"/>
-      <c r="G139" s="11"/>
+      <c r="F139" s="33">
+        <v>42882</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>315</v>
+      </c>
       <c r="H139" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G139,DSBR,2,0)),"",VLOOKUP(G139,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I139" s="12"/>
-      <c r="J139" s="13"/>
+        <f t="shared" si="6"/>
+        <v>3700339107</v>
+      </c>
+      <c r="I139" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="J139" s="13">
+        <v>1800000</v>
+      </c>
       <c r="K139" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>180000</v>
       </c>
       <c r="L139" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="140" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="9">
+        <f t="shared" si="4"/>
+        <v>115</v>
       </c>
       <c r="C140" s="32" t="s">
         <v>85</v>
@@ -13942,26 +14032,34 @@
       <c r="E140" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="F140" s="33"/>
-      <c r="G140" s="11"/>
+      <c r="F140" s="33">
+        <v>42884</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>609</v>
+      </c>
       <c r="H140" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G140,DSBR,2,0)),"",VLOOKUP(G140,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I140" s="12"/>
-      <c r="J140" s="13"/>
+        <f t="shared" si="6"/>
+        <v>0313076430</v>
+      </c>
+      <c r="I140" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="J140" s="13">
+        <v>2600000</v>
+      </c>
       <c r="K140" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>260000</v>
       </c>
       <c r="L140" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="141" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="9">
+        <f t="shared" si="4"/>
+        <v>116</v>
       </c>
       <c r="C141" s="32" t="s">
         <v>85</v>
@@ -13972,25 +14070,33 @@
       <c r="E141" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="F141" s="33"/>
-      <c r="G141" s="11"/>
+      <c r="F141" s="33">
+        <v>42884</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>610</v>
+      </c>
       <c r="H141" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G141,DSBR,2,0)),"",VLOOKUP(G141,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I141" s="12"/>
-      <c r="J141" s="13"/>
+        <f t="shared" si="6"/>
+        <v>0301798826</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="J141" s="13">
+        <v>1222440</v>
+      </c>
       <c r="K141" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>122244</v>
       </c>
       <c r="L141" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C142" s="32" t="s">
@@ -14005,23 +14111,23 @@
       <c r="F142" s="33"/>
       <c r="G142" s="11"/>
       <c r="H142" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G142,DSBR,2,0)),"",VLOOKUP(G142,DSBR,2,0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I142" s="12"/>
       <c r="J142" s="13"/>
       <c r="K142" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L142" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="143" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="9">
+        <f t="shared" si="4"/>
+        <v>118</v>
       </c>
       <c r="C143" s="32" t="s">
         <v>85</v>
@@ -14032,25 +14138,33 @@
       <c r="E143" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="F143" s="33"/>
-      <c r="G143" s="11"/>
+      <c r="F143" s="33">
+        <v>42886</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="H143" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G143,DSBR,2,0)),"",VLOOKUP(G143,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I143" s="12"/>
-      <c r="J143" s="13"/>
+        <f t="shared" si="6"/>
+        <v>3701773902</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="J143" s="13">
+        <v>102404549</v>
+      </c>
       <c r="K143" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10240455</v>
       </c>
       <c r="L143" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C144" s="32" t="s">
@@ -14065,23 +14179,23 @@
       <c r="F144" s="33"/>
       <c r="G144" s="11"/>
       <c r="H144" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G144,DSBR,2,0)),"",VLOOKUP(G144,DSBR,2,0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I144" s="12"/>
       <c r="J144" s="13"/>
       <c r="K144" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L144" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="145" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="9">
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="C145" s="32" t="s">
         <v>85</v>
@@ -14092,26 +14206,34 @@
       <c r="E145" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="F145" s="33"/>
-      <c r="G145" s="11"/>
+      <c r="F145" s="33">
+        <v>42888</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="H145" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G145,DSBR,2,0)),"",VLOOKUP(G145,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I145" s="12"/>
-      <c r="J145" s="13"/>
+        <f t="shared" si="6"/>
+        <v>0311731926</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="J145" s="13">
+        <v>1853775</v>
+      </c>
       <c r="K145" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>185378</v>
       </c>
       <c r="L145" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="146" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="9">
+        <f t="shared" si="4"/>
+        <v>121</v>
       </c>
       <c r="C146" s="32" t="s">
         <v>85</v>
@@ -14122,26 +14244,34 @@
       <c r="E146" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="F146" s="33"/>
-      <c r="G146" s="11"/>
+      <c r="F146" s="33">
+        <v>42889</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="H146" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G146,DSBR,2,0)),"",VLOOKUP(G146,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I146" s="12"/>
-      <c r="J146" s="13"/>
+        <f t="shared" si="6"/>
+        <v>0307717894</v>
+      </c>
+      <c r="I146" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="J146" s="13">
+        <v>42126000</v>
+      </c>
       <c r="K146" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4212600</v>
       </c>
       <c r="L146" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="147" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="9">
+        <f t="shared" si="4"/>
+        <v>122</v>
       </c>
       <c r="C147" s="32" t="s">
         <v>85</v>
@@ -14152,25 +14282,33 @@
       <c r="E147" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="F147" s="33"/>
-      <c r="G147" s="11"/>
+      <c r="F147" s="33">
+        <v>42896</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="H147" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G147,DSBR,2,0)),"",VLOOKUP(G147,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I147" s="12"/>
-      <c r="J147" s="13"/>
+        <f t="shared" si="6"/>
+        <v>3701770098</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="J147" s="13">
+        <v>111000000</v>
+      </c>
       <c r="K147" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>11100000</v>
       </c>
       <c r="L147" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C148" s="32" t="s">
@@ -14185,23 +14323,23 @@
       <c r="F148" s="33"/>
       <c r="G148" s="11"/>
       <c r="H148" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G148,DSBR,2,0)),"",VLOOKUP(G148,DSBR,2,0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I148" s="12"/>
       <c r="J148" s="13"/>
       <c r="K148" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L148" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="149" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="9">
+        <f t="shared" si="4"/>
+        <v>124</v>
       </c>
       <c r="C149" s="32" t="s">
         <v>85</v>
@@ -14212,25 +14350,33 @@
       <c r="E149" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="F149" s="33"/>
-      <c r="G149" s="11"/>
+      <c r="F149" s="33">
+        <v>42868</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>386</v>
+      </c>
       <c r="H149" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G149,DSBR,2,0)),"",VLOOKUP(G149,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I149" s="12"/>
-      <c r="J149" s="13"/>
+        <f t="shared" si="6"/>
+        <v>0301937607</v>
+      </c>
+      <c r="I149" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="J149" s="13">
+        <v>4650000</v>
+      </c>
       <c r="K149" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>465000</v>
       </c>
       <c r="L149" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C150" s="32" t="s">
@@ -14245,23 +14391,23 @@
       <c r="F150" s="33"/>
       <c r="G150" s="11"/>
       <c r="H150" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G150,DSBR,2,0)),"",VLOOKUP(G150,DSBR,2,0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I150" s="12"/>
       <c r="J150" s="13"/>
       <c r="K150" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L150" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="151" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="9">
+        <f t="shared" si="4"/>
+        <v>126</v>
       </c>
       <c r="C151" s="32" t="s">
         <v>85</v>
@@ -14272,25 +14418,33 @@
       <c r="E151" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="F151" s="33"/>
-      <c r="G151" s="11"/>
+      <c r="F151" s="33">
+        <v>42914</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>612</v>
+      </c>
       <c r="H151" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G151,DSBR,2,0)),"",VLOOKUP(G151,DSBR,2,0))</f>
-        <v/>
-      </c>
-      <c r="I151" s="12"/>
-      <c r="J151" s="13"/>
+        <f t="shared" si="6"/>
+        <v>3702110954</v>
+      </c>
+      <c r="I151" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="J151" s="13">
+        <v>862000</v>
+      </c>
       <c r="K151" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>86200</v>
       </c>
       <c r="L151" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C152" s="32" t="s">
@@ -14305,22 +14459,22 @@
       <c r="F152" s="33"/>
       <c r="G152" s="11"/>
       <c r="H152" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G152,DSBR,2,0)),"",VLOOKUP(G152,DSBR,2,0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I152" s="12"/>
       <c r="J152" s="13"/>
       <c r="K152" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L152" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C153" s="32" t="s">
@@ -14335,22 +14489,22 @@
       <c r="F153" s="33"/>
       <c r="G153" s="11"/>
       <c r="H153" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G153,DSBR,2,0)),"",VLOOKUP(G153,DSBR,2,0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I153" s="12"/>
       <c r="J153" s="13"/>
       <c r="K153" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L153" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C154" s="32" t="s">
@@ -14365,22 +14519,22 @@
       <c r="F154" s="33"/>
       <c r="G154" s="11"/>
       <c r="H154" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G154,DSBR,2,0)),"",VLOOKUP(G154,DSBR,2,0))</f>
+        <f t="shared" ref="H154:H175" si="7">IF(ISNA(VLOOKUP(G154,DSBR,2,0)),"",VLOOKUP(G154,DSBR,2,0))</f>
         <v/>
       </c>
       <c r="I154" s="12"/>
       <c r="J154" s="13"/>
       <c r="K154" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L154" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C155" s="32" t="s">
@@ -14395,22 +14549,22 @@
       <c r="F155" s="33"/>
       <c r="G155" s="11"/>
       <c r="H155" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G155,DSBR,2,0)),"",VLOOKUP(G155,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I155" s="12"/>
       <c r="J155" s="13"/>
       <c r="K155" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L155" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C156" s="32" t="s">
@@ -14425,22 +14579,22 @@
       <c r="F156" s="33"/>
       <c r="G156" s="11"/>
       <c r="H156" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G156,DSBR,2,0)),"",VLOOKUP(G156,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I156" s="12"/>
       <c r="J156" s="13"/>
       <c r="K156" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L156" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C157" s="32" t="s">
@@ -14455,22 +14609,22 @@
       <c r="F157" s="33"/>
       <c r="G157" s="11"/>
       <c r="H157" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G157,DSBR,2,0)),"",VLOOKUP(G157,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I157" s="12"/>
       <c r="J157" s="13"/>
       <c r="K157" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L157" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C158" s="32" t="s">
@@ -14485,22 +14639,22 @@
       <c r="F158" s="33"/>
       <c r="G158" s="11"/>
       <c r="H158" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G158,DSBR,2,0)),"",VLOOKUP(G158,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I158" s="12"/>
       <c r="J158" s="13"/>
       <c r="K158" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L158" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C159" s="32" t="s">
@@ -14515,22 +14669,22 @@
       <c r="F159" s="33"/>
       <c r="G159" s="11"/>
       <c r="H159" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G159,DSBR,2,0)),"",VLOOKUP(G159,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I159" s="12"/>
       <c r="J159" s="13"/>
       <c r="K159" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L159" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C160" s="32" t="s">
@@ -14545,22 +14699,22 @@
       <c r="F160" s="33"/>
       <c r="G160" s="11"/>
       <c r="H160" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G160,DSBR,2,0)),"",VLOOKUP(G160,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I160" s="12"/>
       <c r="J160" s="13"/>
       <c r="K160" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L160" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="9" t="str">
-        <f t="shared" ref="B161:B175" si="5">IF(G161&lt;&gt;"",ROW()-25,"")</f>
+        <f t="shared" ref="B161:B175" si="8">IF(G161&lt;&gt;"",ROW()-25,"")</f>
         <v/>
       </c>
       <c r="C161" s="32" t="s">
@@ -14575,22 +14729,22 @@
       <c r="F161" s="33"/>
       <c r="G161" s="11"/>
       <c r="H161" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G161,DSBR,2,0)),"",VLOOKUP(G161,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I161" s="12"/>
       <c r="J161" s="13"/>
       <c r="K161" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L161" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C162" s="32" t="s">
@@ -14605,22 +14759,22 @@
       <c r="F162" s="33"/>
       <c r="G162" s="11"/>
       <c r="H162" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G162,DSBR,2,0)),"",VLOOKUP(G162,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I162" s="12"/>
       <c r="J162" s="13"/>
       <c r="K162" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L162" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C163" s="32" t="s">
@@ -14635,22 +14789,22 @@
       <c r="F163" s="33"/>
       <c r="G163" s="11"/>
       <c r="H163" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G163,DSBR,2,0)),"",VLOOKUP(G163,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I163" s="12"/>
       <c r="J163" s="13"/>
       <c r="K163" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L163" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C164" s="32" t="s">
@@ -14665,22 +14819,22 @@
       <c r="F164" s="33"/>
       <c r="G164" s="11"/>
       <c r="H164" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G164,DSBR,2,0)),"",VLOOKUP(G164,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I164" s="12"/>
       <c r="J164" s="13"/>
       <c r="K164" s="13">
-        <f t="shared" ref="K164:K223" si="6">ROUND(J164*10%,0)</f>
+        <f t="shared" ref="K164:K223" si="9">ROUND(J164*10%,0)</f>
         <v>0</v>
       </c>
       <c r="L164" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C165" s="32" t="s">
@@ -14695,22 +14849,22 @@
       <c r="F165" s="33"/>
       <c r="G165" s="11"/>
       <c r="H165" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G165,DSBR,2,0)),"",VLOOKUP(G165,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I165" s="12"/>
       <c r="J165" s="13"/>
       <c r="K165" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L165" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C166" s="32" t="s">
@@ -14725,22 +14879,22 @@
       <c r="F166" s="33"/>
       <c r="G166" s="11"/>
       <c r="H166" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G166,DSBR,2,0)),"",VLOOKUP(G166,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I166" s="12"/>
       <c r="J166" s="13"/>
       <c r="K166" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L166" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C167" s="32" t="s">
@@ -14755,22 +14909,22 @@
       <c r="F167" s="33"/>
       <c r="G167" s="11"/>
       <c r="H167" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G167,DSBR,2,0)),"",VLOOKUP(G167,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I167" s="12"/>
       <c r="J167" s="13"/>
       <c r="K167" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L167" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C168" s="32" t="s">
@@ -14785,22 +14939,22 @@
       <c r="F168" s="33"/>
       <c r="G168" s="11"/>
       <c r="H168" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G168,DSBR,2,0)),"",VLOOKUP(G168,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I168" s="12"/>
       <c r="J168" s="13"/>
       <c r="K168" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L168" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C169" s="32" t="s">
@@ -14815,22 +14969,22 @@
       <c r="F169" s="33"/>
       <c r="G169" s="11"/>
       <c r="H169" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G169,DSBR,2,0)),"",VLOOKUP(G169,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I169" s="12"/>
       <c r="J169" s="13"/>
       <c r="K169" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L169" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C170" s="32" t="s">
@@ -14845,22 +14999,22 @@
       <c r="F170" s="33"/>
       <c r="G170" s="11"/>
       <c r="H170" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G170,DSBR,2,0)),"",VLOOKUP(G170,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I170" s="12"/>
       <c r="J170" s="13"/>
       <c r="K170" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L170" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C171" s="32" t="s">
@@ -14875,22 +15029,22 @@
       <c r="F171" s="33"/>
       <c r="G171" s="11"/>
       <c r="H171" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G171,DSBR,2,0)),"",VLOOKUP(G171,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I171" s="12"/>
       <c r="J171" s="13"/>
       <c r="K171" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L171" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C172" s="32" t="s">
@@ -14905,22 +15059,22 @@
       <c r="F172" s="33"/>
       <c r="G172" s="11"/>
       <c r="H172" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G172,DSBR,2,0)),"",VLOOKUP(G172,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I172" s="12"/>
       <c r="J172" s="13"/>
       <c r="K172" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L172" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C173" s="32" t="s">
@@ -14935,22 +15089,22 @@
       <c r="F173" s="33"/>
       <c r="G173" s="11"/>
       <c r="H173" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G173,DSBR,2,0)),"",VLOOKUP(G173,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I173" s="12"/>
       <c r="J173" s="13"/>
       <c r="K173" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L173" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C174" s="32" t="s">
@@ -14965,20 +15119,20 @@
       <c r="F174" s="33"/>
       <c r="G174" s="11"/>
       <c r="H174" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G174,DSBR,2,0)),"",VLOOKUP(G174,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I174" s="12"/>
       <c r="J174" s="13"/>
       <c r="K174" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L174" s="14"/>
     </row>
-    <row r="175" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C175" s="32" t="s">
@@ -14993,18 +15147,18 @@
       <c r="F175" s="33"/>
       <c r="G175" s="11"/>
       <c r="H175" s="34" t="str">
-        <f>IF(ISNA(VLOOKUP(G175,DSBR,2,0)),"",VLOOKUP(G175,DSBR,2,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I175" s="12"/>
       <c r="J175" s="13"/>
       <c r="K175" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L175" s="14"/>
     </row>
-    <row r="176" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="9"/>
       <c r="C176" s="32" t="s">
         <v>85</v>
@@ -15021,12 +15175,12 @@
       <c r="I176" s="12"/>
       <c r="J176" s="13"/>
       <c r="K176" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L176" s="14"/>
     </row>
-    <row r="177" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="9"/>
       <c r="C177" s="32" t="s">
         <v>85</v>
@@ -15043,12 +15197,12 @@
       <c r="I177" s="12"/>
       <c r="J177" s="13"/>
       <c r="K177" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L177" s="14"/>
     </row>
-    <row r="178" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="9"/>
       <c r="C178" s="32" t="s">
         <v>85</v>
@@ -15065,12 +15219,12 @@
       <c r="I178" s="12"/>
       <c r="J178" s="13"/>
       <c r="K178" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L178" s="14"/>
     </row>
-    <row r="179" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="9"/>
       <c r="C179" s="32" t="s">
         <v>85</v>
@@ -15087,12 +15241,12 @@
       <c r="I179" s="12"/>
       <c r="J179" s="13"/>
       <c r="K179" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L179" s="14"/>
     </row>
-    <row r="180" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="9"/>
       <c r="C180" s="32" t="s">
         <v>85</v>
@@ -15109,12 +15263,12 @@
       <c r="I180" s="12"/>
       <c r="J180" s="13"/>
       <c r="K180" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L180" s="14"/>
     </row>
-    <row r="181" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="9"/>
       <c r="C181" s="32" t="s">
         <v>85</v>
@@ -15131,12 +15285,12 @@
       <c r="I181" s="12"/>
       <c r="J181" s="13"/>
       <c r="K181" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L181" s="14"/>
     </row>
-    <row r="182" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="9"/>
       <c r="C182" s="32" t="s">
         <v>85</v>
@@ -15153,12 +15307,12 @@
       <c r="I182" s="12"/>
       <c r="J182" s="13"/>
       <c r="K182" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L182" s="14"/>
     </row>
-    <row r="183" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="9"/>
       <c r="C183" s="32" t="s">
         <v>85</v>
@@ -15175,12 +15329,12 @@
       <c r="I183" s="12"/>
       <c r="J183" s="13"/>
       <c r="K183" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L183" s="14"/>
     </row>
-    <row r="184" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="9"/>
       <c r="C184" s="32" t="s">
         <v>85</v>
@@ -15197,12 +15351,12 @@
       <c r="I184" s="12"/>
       <c r="J184" s="13"/>
       <c r="K184" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L184" s="14"/>
     </row>
-    <row r="185" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="9"/>
       <c r="C185" s="32" t="s">
         <v>85</v>
@@ -15219,12 +15373,12 @@
       <c r="I185" s="12"/>
       <c r="J185" s="13"/>
       <c r="K185" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L185" s="14"/>
     </row>
-    <row r="186" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="9"/>
       <c r="C186" s="32" t="s">
         <v>85</v>
@@ -15241,12 +15395,12 @@
       <c r="I186" s="12"/>
       <c r="J186" s="13"/>
       <c r="K186" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L186" s="14"/>
     </row>
-    <row r="187" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="9"/>
       <c r="C187" s="32" t="s">
         <v>85</v>
@@ -15263,12 +15417,12 @@
       <c r="I187" s="12"/>
       <c r="J187" s="13"/>
       <c r="K187" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L187" s="14"/>
     </row>
-    <row r="188" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="9"/>
       <c r="C188" s="32" t="s">
         <v>85</v>
@@ -15285,12 +15439,12 @@
       <c r="I188" s="12"/>
       <c r="J188" s="13"/>
       <c r="K188" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L188" s="14"/>
     </row>
-    <row r="189" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="9"/>
       <c r="C189" s="32" t="s">
         <v>85</v>
@@ -15307,12 +15461,12 @@
       <c r="I189" s="12"/>
       <c r="J189" s="13"/>
       <c r="K189" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L189" s="14"/>
     </row>
-    <row r="190" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="9"/>
       <c r="C190" s="32" t="s">
         <v>85</v>
@@ -15329,12 +15483,12 @@
       <c r="I190" s="12"/>
       <c r="J190" s="13"/>
       <c r="K190" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L190" s="14"/>
     </row>
-    <row r="191" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="9"/>
       <c r="C191" s="32" t="s">
         <v>85</v>
@@ -15351,12 +15505,12 @@
       <c r="I191" s="12"/>
       <c r="J191" s="13"/>
       <c r="K191" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L191" s="14"/>
     </row>
-    <row r="192" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="9"/>
       <c r="C192" s="32" t="s">
         <v>85</v>
@@ -15373,12 +15527,12 @@
       <c r="I192" s="12"/>
       <c r="J192" s="13"/>
       <c r="K192" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L192" s="14"/>
     </row>
-    <row r="193" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="9"/>
       <c r="C193" s="32" t="s">
         <v>85</v>
@@ -15395,12 +15549,12 @@
       <c r="I193" s="12"/>
       <c r="J193" s="13"/>
       <c r="K193" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L193" s="14"/>
     </row>
-    <row r="194" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="9"/>
       <c r="C194" s="32" t="s">
         <v>85</v>
@@ -15417,12 +15571,12 @@
       <c r="I194" s="12"/>
       <c r="J194" s="13"/>
       <c r="K194" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L194" s="14"/>
     </row>
-    <row r="195" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="9"/>
       <c r="C195" s="32" t="s">
         <v>85</v>
@@ -15439,12 +15593,12 @@
       <c r="I195" s="12"/>
       <c r="J195" s="13"/>
       <c r="K195" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L195" s="14"/>
     </row>
-    <row r="196" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="9"/>
       <c r="C196" s="32" t="s">
         <v>85</v>
@@ -15461,12 +15615,12 @@
       <c r="I196" s="12"/>
       <c r="J196" s="13"/>
       <c r="K196" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L196" s="14"/>
     </row>
-    <row r="197" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="9"/>
       <c r="C197" s="32" t="s">
         <v>85</v>
@@ -15483,12 +15637,12 @@
       <c r="I197" s="12"/>
       <c r="J197" s="13"/>
       <c r="K197" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L197" s="14"/>
     </row>
-    <row r="198" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="9"/>
       <c r="C198" s="32" t="s">
         <v>85</v>
@@ -15505,12 +15659,12 @@
       <c r="I198" s="12"/>
       <c r="J198" s="13"/>
       <c r="K198" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L198" s="14"/>
     </row>
-    <row r="199" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="9"/>
       <c r="C199" s="32" t="s">
         <v>85</v>
@@ -15527,12 +15681,12 @@
       <c r="I199" s="12"/>
       <c r="J199" s="13"/>
       <c r="K199" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L199" s="14"/>
     </row>
-    <row r="200" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="9"/>
       <c r="C200" s="32" t="s">
         <v>85</v>
@@ -15549,12 +15703,12 @@
       <c r="I200" s="12"/>
       <c r="J200" s="13"/>
       <c r="K200" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L200" s="14"/>
     </row>
-    <row r="201" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="9"/>
       <c r="C201" s="32" t="s">
         <v>85</v>
@@ -15571,12 +15725,12 @@
       <c r="I201" s="12"/>
       <c r="J201" s="13"/>
       <c r="K201" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L201" s="14"/>
     </row>
-    <row r="202" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="9"/>
       <c r="C202" s="32" t="s">
         <v>85</v>
@@ -15593,12 +15747,12 @@
       <c r="I202" s="12"/>
       <c r="J202" s="13"/>
       <c r="K202" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L202" s="14"/>
     </row>
-    <row r="203" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="9"/>
       <c r="C203" s="32" t="s">
         <v>85</v>
@@ -15615,12 +15769,12 @@
       <c r="I203" s="12"/>
       <c r="J203" s="13"/>
       <c r="K203" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L203" s="14"/>
     </row>
-    <row r="204" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="9"/>
       <c r="C204" s="32" t="s">
         <v>85</v>
@@ -15637,12 +15791,12 @@
       <c r="I204" s="12"/>
       <c r="J204" s="13"/>
       <c r="K204" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L204" s="14"/>
     </row>
-    <row r="205" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="9"/>
       <c r="C205" s="32" t="s">
         <v>85</v>
@@ -15659,12 +15813,12 @@
       <c r="I205" s="12"/>
       <c r="J205" s="13"/>
       <c r="K205" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L205" s="14"/>
     </row>
-    <row r="206" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="9"/>
       <c r="C206" s="32" t="s">
         <v>85</v>
@@ -15681,12 +15835,12 @@
       <c r="I206" s="12"/>
       <c r="J206" s="13"/>
       <c r="K206" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L206" s="14"/>
     </row>
-    <row r="207" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="9"/>
       <c r="C207" s="32" t="s">
         <v>85</v>
@@ -15703,12 +15857,12 @@
       <c r="I207" s="12"/>
       <c r="J207" s="13"/>
       <c r="K207" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L207" s="14"/>
     </row>
-    <row r="208" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="9"/>
       <c r="C208" s="32" t="s">
         <v>85</v>
@@ -15725,12 +15879,12 @@
       <c r="I208" s="12"/>
       <c r="J208" s="13"/>
       <c r="K208" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L208" s="14"/>
     </row>
-    <row r="209" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="9"/>
       <c r="C209" s="32" t="s">
         <v>85</v>
@@ -15747,12 +15901,12 @@
       <c r="I209" s="12"/>
       <c r="J209" s="13"/>
       <c r="K209" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L209" s="14"/>
     </row>
-    <row r="210" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="9"/>
       <c r="C210" s="32" t="s">
         <v>85</v>
@@ -15769,12 +15923,12 @@
       <c r="I210" s="12"/>
       <c r="J210" s="13"/>
       <c r="K210" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L210" s="14"/>
     </row>
-    <row r="211" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="9"/>
       <c r="C211" s="32" t="s">
         <v>85</v>
@@ -15791,12 +15945,12 @@
       <c r="I211" s="12"/>
       <c r="J211" s="13"/>
       <c r="K211" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L211" s="14"/>
     </row>
-    <row r="212" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="9"/>
       <c r="C212" s="32" t="s">
         <v>85</v>
@@ -15813,12 +15967,12 @@
       <c r="I212" s="12"/>
       <c r="J212" s="13"/>
       <c r="K212" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L212" s="14"/>
     </row>
-    <row r="213" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="9"/>
       <c r="C213" s="32" t="s">
         <v>85</v>
@@ -15835,12 +15989,12 @@
       <c r="I213" s="12"/>
       <c r="J213" s="13"/>
       <c r="K213" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L213" s="14"/>
     </row>
-    <row r="214" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="9"/>
       <c r="C214" s="32" t="s">
         <v>85</v>
@@ -15857,12 +16011,12 @@
       <c r="I214" s="12"/>
       <c r="J214" s="13"/>
       <c r="K214" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L214" s="14"/>
     </row>
-    <row r="215" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="9"/>
       <c r="C215" s="32" t="s">
         <v>85</v>
@@ -15879,12 +16033,12 @@
       <c r="I215" s="12"/>
       <c r="J215" s="13"/>
       <c r="K215" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L215" s="14"/>
     </row>
-    <row r="216" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="9"/>
       <c r="C216" s="32" t="s">
         <v>85</v>
@@ -15901,12 +16055,12 @@
       <c r="I216" s="12"/>
       <c r="J216" s="13"/>
       <c r="K216" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L216" s="14"/>
     </row>
-    <row r="217" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="9"/>
       <c r="C217" s="32" t="s">
         <v>85</v>
@@ -15923,12 +16077,12 @@
       <c r="I217" s="12"/>
       <c r="J217" s="13"/>
       <c r="K217" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L217" s="14"/>
     </row>
-    <row r="218" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="9"/>
       <c r="C218" s="32" t="s">
         <v>85</v>
@@ -15945,12 +16099,12 @@
       <c r="I218" s="12"/>
       <c r="J218" s="13"/>
       <c r="K218" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L218" s="14"/>
     </row>
-    <row r="219" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="9"/>
       <c r="C219" s="32" t="s">
         <v>85</v>
@@ -15967,12 +16121,12 @@
       <c r="I219" s="12"/>
       <c r="J219" s="13"/>
       <c r="K219" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L219" s="14"/>
     </row>
-    <row r="220" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="9"/>
       <c r="C220" s="32" t="s">
         <v>85</v>
@@ -15989,12 +16143,12 @@
       <c r="I220" s="12"/>
       <c r="J220" s="13"/>
       <c r="K220" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L220" s="14"/>
     </row>
-    <row r="221" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="9"/>
       <c r="C221" s="32" t="s">
         <v>85</v>
@@ -16011,12 +16165,12 @@
       <c r="I221" s="12"/>
       <c r="J221" s="13"/>
       <c r="K221" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L221" s="14"/>
     </row>
-    <row r="222" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="9"/>
       <c r="C222" s="32" t="s">
         <v>85</v>
@@ -16033,12 +16187,12 @@
       <c r="I222" s="12"/>
       <c r="J222" s="13"/>
       <c r="K222" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L222" s="14"/>
     </row>
-    <row r="223" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="9"/>
       <c r="C223" s="32" t="s">
         <v>85</v>
@@ -16055,12 +16209,12 @@
       <c r="I223" s="12"/>
       <c r="J223" s="13"/>
       <c r="K223" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L223" s="14"/>
     </row>
-    <row r="224" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="9"/>
       <c r="C224" s="32"/>
       <c r="D224" s="32"/>
@@ -16086,31 +16240,31 @@
       <c r="I225" s="28"/>
       <c r="J225" s="29">
         <f>SUBTOTAL(9,J26:J224)</f>
-        <v>3160686924</v>
+        <v>3650102458</v>
       </c>
       <c r="K225" s="29">
         <f>SUBTOTAL(9,K26:K224)</f>
-        <v>316068693</v>
+        <v>365010247</v>
       </c>
       <c r="L225" s="30"/>
     </row>
-    <row r="226" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B227" s="135" t="s">
+    <row r="226" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B227" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="C227" s="136"/>
-      <c r="D227" s="136"/>
-      <c r="E227" s="136"/>
-      <c r="F227" s="136"/>
-      <c r="G227" s="136"/>
-      <c r="H227" s="136"/>
-      <c r="I227" s="136"/>
+      <c r="C227" s="138"/>
+      <c r="D227" s="138"/>
+      <c r="E227" s="138"/>
+      <c r="F227" s="138"/>
+      <c r="G227" s="138"/>
+      <c r="H227" s="138"/>
+      <c r="I227" s="138"/>
       <c r="J227" s="20"/>
       <c r="K227" s="20"/>
       <c r="L227" s="25"/>
     </row>
-    <row r="228" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
@@ -16138,7 +16292,7 @@
       <c r="K229" s="24"/>
       <c r="L229" s="23"/>
     </row>
-    <row r="230" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:12" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="C230" s="16"/>
       <c r="D230" s="16"/>
       <c r="E230" s="16"/>
@@ -16148,12 +16302,12 @@
       <c r="G230" s="16"/>
       <c r="H230" s="88">
         <f>J225</f>
-        <v>3160686924</v>
+        <v>3650102458</v>
       </c>
       <c r="I230" s="16"/>
       <c r="L230" s="16"/>
     </row>
-    <row r="231" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:12" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="C231" s="16"/>
       <c r="D231" s="16"/>
       <c r="E231" s="16"/>
@@ -16163,12 +16317,12 @@
       <c r="G231" s="16"/>
       <c r="H231" s="88">
         <f>K225</f>
-        <v>316068693</v>
+        <v>365010247</v>
       </c>
       <c r="I231" s="16"/>
       <c r="L231" s="16"/>
     </row>
-    <row r="232" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:12" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="31"/>
       <c r="C232" s="31"/>
       <c r="D232" s="16"/>
@@ -16179,7 +16333,7 @@
       <c r="I232" s="16"/>
       <c r="L232" s="16"/>
     </row>
-    <row r="233" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:12" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B233" s="31"/>
       <c r="C233" s="31"/>
       <c r="D233" s="16"/>
@@ -16192,7 +16346,7 @@
         <v>Bình Dương, Ngày 31 Tháng 12  Năm  2017</v>
       </c>
     </row>
-    <row r="234" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:12" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B234" s="16"/>
       <c r="C234" s="16"/>
       <c r="D234" s="16"/>
@@ -16204,7 +16358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:12" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B235" s="16"/>
       <c r="C235" s="16"/>
       <c r="D235" s="16"/>
@@ -16216,7 +16370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:12" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B236" s="16"/>
       <c r="C236" s="16"/>
       <c r="D236" s="16"/>
@@ -16228,19 +16382,728 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B237" s="16"/>
-      <c r="C237" s="16"/>
-      <c r="D237" s="16"/>
-      <c r="E237" s="16"/>
-      <c r="F237" s="16"/>
-      <c r="G237" s="16"/>
-      <c r="H237" s="16"/>
-      <c r="I237" s="16"/>
-      <c r="L237" s="16"/>
+    <row r="237" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J237" s="13"/>
+      <c r="K237" s="172"/>
+      <c r="L237" s="173">
+        <f>J237-K237</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J238" s="13"/>
+      <c r="K238" s="172"/>
+      <c r="L238" s="173">
+        <f t="shared" ref="L238:L259" si="10">J238-K238</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J239" s="13"/>
+      <c r="K239" s="172"/>
+      <c r="L239" s="173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J240" s="13"/>
+      <c r="K240" s="172"/>
+      <c r="L240" s="173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J241" s="13"/>
+      <c r="K241" s="172"/>
+      <c r="L241" s="173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J242" s="13"/>
+      <c r="K242" s="172"/>
+      <c r="L242" s="173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J243" s="13"/>
+      <c r="K243" s="172"/>
+      <c r="L243" s="173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J244" s="13"/>
+      <c r="K244" s="172"/>
+      <c r="L244" s="173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J245" s="13"/>
+      <c r="K245" s="172"/>
+      <c r="L245" s="173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J246" s="13"/>
+      <c r="K246" s="172"/>
+      <c r="L246" s="173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J247" s="13"/>
+      <c r="K247" s="172"/>
+      <c r="L247" s="173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J248" s="13"/>
+      <c r="K248" s="172"/>
+      <c r="L248" s="173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J249" s="13"/>
+      <c r="K249" s="172"/>
+      <c r="L249" s="173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J250" s="13"/>
+      <c r="K250" s="172"/>
+      <c r="L250" s="173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J251" s="13"/>
+      <c r="K251" s="172"/>
+      <c r="L251" s="173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J252" s="13">
+        <v>18018190</v>
+      </c>
+      <c r="K252" s="172"/>
+      <c r="L252" s="173">
+        <f t="shared" si="10"/>
+        <v>18018190</v>
+      </c>
+    </row>
+    <row r="253" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J253" s="13">
+        <v>1800000</v>
+      </c>
+      <c r="K253" s="172"/>
+      <c r="L253" s="173">
+        <f t="shared" si="10"/>
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="254" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J254" s="13">
+        <v>2600000</v>
+      </c>
+      <c r="K254" s="172"/>
+      <c r="L254" s="173">
+        <f t="shared" si="10"/>
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="255" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J255" s="13">
+        <v>1222440</v>
+      </c>
+      <c r="K255" s="172"/>
+      <c r="L255" s="173">
+        <f t="shared" si="10"/>
+        <v>1222440</v>
+      </c>
+    </row>
+    <row r="256" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J256" s="13">
+        <v>102404549</v>
+      </c>
+      <c r="K256" s="172">
+        <v>18018000</v>
+      </c>
+      <c r="L256" s="173">
+        <f t="shared" si="10"/>
+        <v>84386549</v>
+      </c>
+    </row>
+    <row r="257" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J257" s="13">
+        <v>1853775</v>
+      </c>
+      <c r="K257" s="172">
+        <v>1800000</v>
+      </c>
+      <c r="L257" s="173">
+        <f t="shared" si="10"/>
+        <v>53775</v>
+      </c>
+    </row>
+    <row r="258" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J258" s="13">
+        <v>42126000</v>
+      </c>
+      <c r="K258" s="172">
+        <v>2600000</v>
+      </c>
+      <c r="L258" s="173">
+        <f t="shared" si="10"/>
+        <v>39526000</v>
+      </c>
+    </row>
+    <row r="259" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J259" s="13">
+        <v>111000000</v>
+      </c>
+      <c r="K259" s="172">
+        <v>580920</v>
+      </c>
+      <c r="L259" s="173">
+        <f t="shared" si="10"/>
+        <v>110419080</v>
+      </c>
+    </row>
+    <row r="260" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J260" s="13">
+        <v>4650000</v>
+      </c>
+      <c r="K260" s="172">
+        <v>641520</v>
+      </c>
+    </row>
+    <row r="261" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="J261" s="13">
+        <v>862000</v>
+      </c>
+      <c r="K261" s="172">
+        <v>1946220</v>
+      </c>
+    </row>
+    <row r="262" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="K262" s="172">
+        <v>1478700</v>
+      </c>
+    </row>
+    <row r="263" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="K263" s="172">
+        <v>2062640</v>
+      </c>
+    </row>
+    <row r="264" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="K264" s="172">
+        <v>3789140</v>
+      </c>
+    </row>
+    <row r="265" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="K265" s="172">
+        <v>896580</v>
+      </c>
+    </row>
+    <row r="266" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="K266" s="172">
+        <v>791308</v>
+      </c>
+    </row>
+    <row r="267" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="K267" s="172">
+        <v>2488320</v>
+      </c>
+    </row>
+    <row r="268" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="K268" s="172">
+        <v>1100592</v>
+      </c>
+    </row>
+    <row r="269" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="K269" s="172">
+        <v>471678</v>
+      </c>
+    </row>
+    <row r="270" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="K270" s="172">
+        <v>804032</v>
+      </c>
+    </row>
+    <row r="271" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="K271" s="172">
+        <v>8621850</v>
+      </c>
+    </row>
+    <row r="272" spans="10:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="K272" s="172">
+        <v>2252800</v>
+      </c>
+    </row>
+    <row r="273" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K273" s="172">
+        <v>1132215</v>
+      </c>
+    </row>
+    <row r="274" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K274" s="172">
+        <v>4913628</v>
+      </c>
+    </row>
+    <row r="275" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K275" s="172">
+        <v>613340</v>
+      </c>
+    </row>
+    <row r="276" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K276" s="172">
+        <v>245280</v>
+      </c>
+    </row>
+    <row r="277" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K277" s="172">
+        <v>1766394</v>
+      </c>
+    </row>
+    <row r="278" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K278" s="172">
+        <v>538848</v>
+      </c>
+    </row>
+    <row r="279" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K279" s="172">
+        <v>2244000</v>
+      </c>
+    </row>
+    <row r="280" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K280" s="172">
+        <v>1018800</v>
+      </c>
+    </row>
+    <row r="281" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K281" s="172">
+        <v>1428884</v>
+      </c>
+    </row>
+    <row r="282" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K282" s="172">
+        <v>899520</v>
+      </c>
+    </row>
+    <row r="283" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K283" s="172">
+        <v>295656</v>
+      </c>
+    </row>
+    <row r="284" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K284" s="172">
+        <v>1237140</v>
+      </c>
+    </row>
+    <row r="285" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K285" s="172">
+        <v>158496</v>
+      </c>
+    </row>
+    <row r="286" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K286" s="172">
+        <v>229524</v>
+      </c>
+    </row>
+    <row r="287" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K287" s="172">
+        <v>650100</v>
+      </c>
+    </row>
+    <row r="288" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K288" s="172">
+        <v>306252</v>
+      </c>
+    </row>
+    <row r="289" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K289" s="172">
+        <v>163120</v>
+      </c>
+    </row>
+    <row r="290" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K290" s="172">
+        <v>1033170</v>
+      </c>
+    </row>
+    <row r="291" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K291" s="172">
+        <v>2651880</v>
+      </c>
+    </row>
+    <row r="292" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K292" s="172">
+        <v>1673540</v>
+      </c>
+    </row>
+    <row r="293" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K293" s="172">
+        <v>521208</v>
+      </c>
+    </row>
+    <row r="294" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K294" s="172">
+        <v>814122</v>
+      </c>
+    </row>
+    <row r="295" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K295" s="172">
+        <v>613716</v>
+      </c>
+    </row>
+    <row r="296" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K296" s="172">
+        <v>615656</v>
+      </c>
+    </row>
+    <row r="297" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K297" s="172">
+        <v>381024</v>
+      </c>
+    </row>
+    <row r="298" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K298" s="172">
+        <v>2801872</v>
+      </c>
+    </row>
+    <row r="299" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K299" s="172">
+        <v>1414996</v>
+      </c>
+    </row>
+    <row r="300" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K300" s="172">
+        <v>928018</v>
+      </c>
+    </row>
+    <row r="301" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K301" s="172">
+        <v>257856</v>
+      </c>
+    </row>
+    <row r="302" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K302" s="172">
+        <v>1934496</v>
+      </c>
+    </row>
+    <row r="303" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K303" s="172">
+        <v>302058</v>
+      </c>
+    </row>
+    <row r="304" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K304" s="172">
+        <v>62604</v>
+      </c>
+    </row>
+    <row r="305" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K305" s="172">
+        <v>137022</v>
+      </c>
+    </row>
+    <row r="306" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K306" s="172">
+        <v>490104</v>
+      </c>
+    </row>
+    <row r="307" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K307" s="172">
+        <v>869652</v>
+      </c>
+    </row>
+    <row r="308" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K308" s="172">
+        <v>643412</v>
+      </c>
+    </row>
+    <row r="309" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K309" s="172">
+        <v>586224</v>
+      </c>
+    </row>
+    <row r="310" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K310" s="172">
+        <v>171708</v>
+      </c>
+    </row>
+    <row r="311" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K311" s="172">
+        <v>299616</v>
+      </c>
+    </row>
+    <row r="312" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K312" s="172">
+        <v>680184</v>
+      </c>
+    </row>
+    <row r="313" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K313" s="172">
+        <v>3192360</v>
+      </c>
+    </row>
+    <row r="314" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K314" s="172">
+        <v>1474020</v>
+      </c>
+    </row>
+    <row r="315" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K315" s="172">
+        <v>5499386</v>
+      </c>
+    </row>
+    <row r="316" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K316" s="172">
+        <v>1459140</v>
+      </c>
+    </row>
+    <row r="317" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K317" s="172">
+        <v>2544880</v>
+      </c>
+    </row>
+    <row r="318" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K318" s="172">
+        <v>2547320</v>
+      </c>
+    </row>
+    <row r="319" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K319" s="172">
+        <v>2224680</v>
+      </c>
+    </row>
+    <row r="320" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K320" s="172">
+        <v>3022920</v>
+      </c>
+    </row>
+    <row r="321" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K321" s="172">
+        <v>7161760</v>
+      </c>
+    </row>
+    <row r="322" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K322" s="172">
+        <v>1936480</v>
+      </c>
+    </row>
+    <row r="323" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K323" s="172">
+        <v>661032</v>
+      </c>
+    </row>
+    <row r="324" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K324" s="172">
+        <v>1227456</v>
+      </c>
+    </row>
+    <row r="325" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K325" s="172">
+        <v>63900</v>
+      </c>
+    </row>
+    <row r="326" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K326" s="172">
+        <v>1335294</v>
+      </c>
+    </row>
+    <row r="327" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K327" s="172">
+        <v>1819008</v>
+      </c>
+    </row>
+    <row r="328" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K328" s="172">
+        <v>786060</v>
+      </c>
+    </row>
+    <row r="329" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K329" s="172">
+        <v>125988</v>
+      </c>
+    </row>
+    <row r="330" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K330" s="172">
+        <v>70836</v>
+      </c>
+    </row>
+    <row r="331" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K331" s="172">
+        <v>195984</v>
+      </c>
+    </row>
+    <row r="332" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K332" s="172">
+        <v>626850</v>
+      </c>
+    </row>
+    <row r="333" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K333" s="172">
+        <v>1853775</v>
+      </c>
+    </row>
+    <row r="334" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K334" s="172">
+        <v>42126000</v>
+      </c>
+    </row>
+    <row r="335" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K335" s="172">
+        <v>53650000</v>
+      </c>
+    </row>
+    <row r="336" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K336" s="172">
+        <v>57350000</v>
+      </c>
+    </row>
+    <row r="337" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K337" s="172">
+        <v>4650000</v>
+      </c>
+    </row>
+    <row r="338" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K338" s="172">
+        <v>862000</v>
+      </c>
+    </row>
+    <row r="339" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K339" s="172"/>
+    </row>
+    <row r="340" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K340" s="172"/>
+    </row>
+    <row r="341" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K341" s="172"/>
+    </row>
+    <row r="342" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K342" s="172"/>
+    </row>
+    <row r="343" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K343" s="172"/>
+    </row>
+    <row r="344" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K344" s="172"/>
+    </row>
+    <row r="345" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K345" s="172"/>
+    </row>
+    <row r="346" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K346" s="172"/>
+    </row>
+    <row r="347" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K347" s="172"/>
+    </row>
+    <row r="348" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K348" s="172"/>
+    </row>
+    <row r="349" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K349" s="172"/>
+    </row>
+    <row r="350" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K350" s="172"/>
+    </row>
+    <row r="351" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K351" s="172"/>
+    </row>
+    <row r="352" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K352" s="172"/>
+    </row>
+    <row r="353" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K353" s="172"/>
+    </row>
+    <row r="354" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K354" s="172"/>
+    </row>
+    <row r="355" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K355" s="172"/>
+    </row>
+    <row r="356" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K356" s="172"/>
+    </row>
+    <row r="357" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K357" s="172"/>
+    </row>
+    <row r="358" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K358" s="172"/>
+    </row>
+    <row r="359" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K359" s="172"/>
+    </row>
+    <row r="360" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K360" s="172"/>
+    </row>
+    <row r="361" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K361" s="172"/>
+    </row>
+    <row r="362" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K362" s="172"/>
+    </row>
+    <row r="363" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K363" s="172"/>
+    </row>
+    <row r="364" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K364" s="172"/>
+    </row>
+    <row r="365" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K365" s="172"/>
+    </row>
+    <row r="366" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K366" s="172"/>
+    </row>
+    <row r="367" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K367" s="172"/>
+    </row>
+    <row r="368" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K368" s="172"/>
+    </row>
+    <row r="369" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K369" s="172"/>
+    </row>
+    <row r="370" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K370" s="172"/>
+    </row>
+    <row r="371" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K371" s="172"/>
+    </row>
+    <row r="372" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K372" s="172"/>
+    </row>
+    <row r="373" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K373" s="172"/>
+    </row>
+    <row r="374" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K374" s="172"/>
+    </row>
+    <row r="375" spans="11:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="K375" s="172"/>
     </row>
   </sheetData>
-  <autoFilter ref="A25:N175"/>
+  <autoFilter ref="A25:N223"/>
   <mergeCells count="17">
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="B5:L5"/>
@@ -16274,10 +17137,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B1:S93"/>
+  <dimension ref="B1:S119"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S75" sqref="S75"/>
+    <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S79" sqref="S79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16296,23 +17159,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="149"/>
       <c r="R2" s="11" t="s">
         <v>311</v>
       </c>
@@ -16321,23 +17184,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="152"/>
       <c r="R3" s="11" t="s">
         <v>116</v>
       </c>
@@ -16347,22 +17210,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="95"/>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="151"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="153"/>
       <c r="R4" s="11" t="s">
         <v>108</v>
       </c>
@@ -16372,22 +17235,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="95"/>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="151"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="153"/>
       <c r="R5" s="11" t="s">
         <v>95</v>
       </c>
@@ -16398,21 +17261,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="95"/>
       <c r="C6" s="96"/>
-      <c r="D6" s="142" t="s">
+      <c r="D6" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="144"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="146"/>
       <c r="R6" s="11" t="s">
         <v>114</v>
       </c>
@@ -16423,21 +17286,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="95"/>
       <c r="C7" s="96"/>
-      <c r="D7" s="142" t="s">
+      <c r="D7" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="144"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="146"/>
       <c r="R7" s="11" t="s">
         <v>121</v>
       </c>
@@ -16448,21 +17311,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="95"/>
       <c r="C8" s="96"/>
-      <c r="D8" s="142" t="s">
+      <c r="D8" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="144"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="146"/>
       <c r="R8" s="11" t="s">
         <v>314</v>
       </c>
@@ -16473,21 +17336,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="95"/>
       <c r="C9" s="96"/>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="143"/>
-      <c r="O9" s="143"/>
-      <c r="P9" s="144"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="146"/>
       <c r="R9" s="11" t="s">
         <v>126</v>
       </c>
@@ -16498,21 +17361,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
-      <c r="D10" s="142" t="s">
+      <c r="D10" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="144"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="146"/>
       <c r="R10" s="11" t="s">
         <v>94</v>
       </c>
@@ -16522,22 +17385,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="95"/>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="142"/>
-      <c r="P11" s="151"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="153"/>
       <c r="R11" s="11" t="s">
         <v>90</v>
       </c>
@@ -16547,22 +17410,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="95"/>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="142"/>
-      <c r="M12" s="142"/>
-      <c r="N12" s="142"/>
-      <c r="O12" s="142"/>
-      <c r="P12" s="151"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="153"/>
       <c r="R12" s="11" t="s">
         <v>119</v>
       </c>
@@ -16594,23 +17457,23 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="149"/>
-      <c r="M14" s="149"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="150"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="152"/>
       <c r="R14" s="11" t="s">
         <v>103</v>
       </c>
@@ -16620,22 +17483,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="95"/>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="151"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="144"/>
+      <c r="N15" s="144"/>
+      <c r="O15" s="144"/>
+      <c r="P15" s="153"/>
       <c r="R15" s="11" t="s">
         <v>122</v>
       </c>
@@ -16646,21 +17509,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="95"/>
       <c r="C16" s="98"/>
-      <c r="D16" s="143" t="s">
+      <c r="D16" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="143"/>
-      <c r="N16" s="143"/>
-      <c r="O16" s="143"/>
-      <c r="P16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="146"/>
       <c r="R16" s="11" t="s">
         <v>120</v>
       </c>
@@ -16696,21 +17559,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
-      <c r="D18" s="143" t="s">
+      <c r="D18" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="144"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="146"/>
       <c r="R18" s="11" t="s">
         <v>313</v>
       </c>
@@ -16721,21 +17584,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
-      <c r="D19" s="143" t="s">
+      <c r="D19" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="145"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="146"/>
       <c r="R19" s="11" t="s">
         <v>93</v>
       </c>
@@ -16746,21 +17609,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="95"/>
       <c r="C20" s="96"/>
-      <c r="D20" s="143" t="s">
+      <c r="D20" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="145"/>
+      <c r="P20" s="146"/>
       <c r="R20" s="11" t="s">
         <v>123</v>
       </c>
@@ -16771,21 +17634,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="95"/>
       <c r="C21" s="96"/>
-      <c r="D21" s="143" t="s">
+      <c r="D21" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="143"/>
-      <c r="O21" s="143"/>
-      <c r="P21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="146"/>
       <c r="R21" s="11" t="s">
         <v>125</v>
       </c>
@@ -16796,21 +17659,21 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="95"/>
       <c r="C22" s="96"/>
-      <c r="D22" s="143" t="s">
+      <c r="D22" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="143"/>
-      <c r="O22" s="143"/>
-      <c r="P22" s="144"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="146"/>
       <c r="R22" s="11" t="s">
         <v>315</v>
       </c>
@@ -16821,21 +17684,21 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="95"/>
       <c r="C23" s="96"/>
-      <c r="D23" s="143" t="s">
+      <c r="D23" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="144"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="145"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="146"/>
       <c r="R23" s="11" t="s">
         <v>118</v>
       </c>
@@ -16846,21 +17709,21 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="95"/>
       <c r="C24" s="96"/>
-      <c r="D24" s="143" t="s">
+      <c r="D24" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="143"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="143"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="144"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="145"/>
+      <c r="O24" s="145"/>
+      <c r="P24" s="146"/>
       <c r="R24" s="11" t="s">
         <v>117</v>
       </c>
@@ -16871,21 +17734,21 @@
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="95"/>
       <c r="C25" s="96"/>
-      <c r="D25" s="143" t="s">
+      <c r="D25" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
-      <c r="O25" s="143"/>
-      <c r="P25" s="144"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="146"/>
       <c r="R25" s="11" t="s">
         <v>127</v>
       </c>
@@ -16896,21 +17759,21 @@
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
-      <c r="D26" s="143" t="s">
+      <c r="D26" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="143"/>
-      <c r="P26" s="144"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="145"/>
+      <c r="O26" s="145"/>
+      <c r="P26" s="146"/>
       <c r="R26" s="11" t="s">
         <v>128</v>
       </c>
@@ -16943,22 +17806,22 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="95"/>
-      <c r="C28" s="142" t="s">
+      <c r="C28" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="142"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="142"/>
-      <c r="O28" s="142"/>
-      <c r="P28" s="151"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="144"/>
+      <c r="N28" s="144"/>
+      <c r="O28" s="144"/>
+      <c r="P28" s="153"/>
       <c r="R28" s="11" t="s">
         <v>130</v>
       </c>
@@ -16969,21 +17832,21 @@
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="95"/>
       <c r="C29" s="96"/>
-      <c r="D29" s="143" t="s">
+      <c r="D29" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="143"/>
-      <c r="N29" s="143"/>
-      <c r="O29" s="143"/>
-      <c r="P29" s="144"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="146"/>
       <c r="R29" s="11" t="s">
         <v>135</v>
       </c>
@@ -16994,21 +17857,21 @@
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="95"/>
       <c r="C30" s="96"/>
-      <c r="D30" s="143" t="s">
+      <c r="D30" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="143"/>
-      <c r="L30" s="143"/>
-      <c r="M30" s="143"/>
-      <c r="N30" s="143"/>
-      <c r="O30" s="143"/>
-      <c r="P30" s="144"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="145"/>
+      <c r="M30" s="145"/>
+      <c r="N30" s="145"/>
+      <c r="O30" s="145"/>
+      <c r="P30" s="146"/>
       <c r="R30" s="11" t="s">
         <v>136</v>
       </c>
@@ -17019,21 +17882,21 @@
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="95"/>
       <c r="C31" s="96"/>
-      <c r="D31" s="143" t="s">
+      <c r="D31" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143"/>
-      <c r="N31" s="143"/>
-      <c r="O31" s="143"/>
-      <c r="P31" s="144"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="145"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="145"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="146"/>
       <c r="R31" s="11" t="s">
         <v>137</v>
       </c>
@@ -17044,21 +17907,21 @@
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="95"/>
       <c r="C32" s="96"/>
-      <c r="D32" s="143" t="s">
+      <c r="D32" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="143"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="143"/>
-      <c r="L32" s="143"/>
-      <c r="M32" s="143"/>
-      <c r="N32" s="143"/>
-      <c r="O32" s="143"/>
-      <c r="P32" s="144"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="146"/>
       <c r="R32" s="11" t="s">
         <v>112</v>
       </c>
@@ -17069,21 +17932,21 @@
     <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="95"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="154" t="s">
+      <c r="D33" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="154"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="154"/>
-      <c r="N33" s="154"/>
-      <c r="O33" s="154"/>
-      <c r="P33" s="155"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="156"/>
+      <c r="N33" s="156"/>
+      <c r="O33" s="156"/>
+      <c r="P33" s="157"/>
       <c r="R33" s="11" t="s">
         <v>111</v>
       </c>
@@ -17094,21 +17957,21 @@
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="101"/>
       <c r="C34" s="102"/>
-      <c r="D34" s="152" t="s">
+      <c r="D34" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="152"/>
-      <c r="L34" s="152"/>
-      <c r="M34" s="152"/>
-      <c r="N34" s="152"/>
-      <c r="O34" s="152"/>
-      <c r="P34" s="153"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
+      <c r="N34" s="154"/>
+      <c r="O34" s="154"/>
+      <c r="P34" s="155"/>
       <c r="R34" s="11" t="s">
         <v>102</v>
       </c>
@@ -17779,7 +18642,7 @@
       <c r="L71" s="103"/>
       <c r="M71" s="103"/>
       <c r="N71" s="103"/>
-      <c r="R71" s="170" t="s">
+      <c r="R71" s="124" t="s">
         <v>535</v>
       </c>
       <c r="S71" s="94" t="s">
@@ -17798,7 +18661,7 @@
       <c r="L72" s="103"/>
       <c r="M72" s="103"/>
       <c r="N72" s="103"/>
-      <c r="R72" s="170" t="s">
+      <c r="R72" s="124" t="s">
         <v>537</v>
       </c>
       <c r="S72" s="94" t="s">
@@ -17817,7 +18680,7 @@
       <c r="L73" s="103"/>
       <c r="M73" s="103"/>
       <c r="N73" s="103"/>
-      <c r="R73" s="170" t="s">
+      <c r="R73" s="124" t="s">
         <v>540</v>
       </c>
       <c r="S73" s="94" t="s">
@@ -17836,7 +18699,7 @@
       <c r="L74" s="103"/>
       <c r="M74" s="103"/>
       <c r="N74" s="103"/>
-      <c r="R74" s="170" t="s">
+      <c r="R74" s="124" t="s">
         <v>541</v>
       </c>
       <c r="S74" s="94" t="s">
@@ -17855,8 +18718,12 @@
       <c r="L75" s="103"/>
       <c r="M75" s="103"/>
       <c r="N75" s="103"/>
-      <c r="R75" s="170"/>
-      <c r="S75" s="94"/>
+      <c r="R75" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="S75" s="94" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="76" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D76" s="103"/>
@@ -17870,8 +18737,12 @@
       <c r="L76" s="103"/>
       <c r="M76" s="103"/>
       <c r="N76" s="103"/>
-      <c r="R76" s="170"/>
-      <c r="S76" s="94"/>
+      <c r="R76" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="S76" s="94" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="77" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D77" s="103"/>
@@ -17885,8 +18756,12 @@
       <c r="L77" s="103"/>
       <c r="M77" s="103"/>
       <c r="N77" s="103"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
+      <c r="R77" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="S77" s="94" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="78" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D78" s="103"/>
@@ -17900,8 +18775,12 @@
       <c r="L78" s="103"/>
       <c r="M78" s="103"/>
       <c r="N78" s="103"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
+      <c r="R78" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="S78" s="94" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="79" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D79" s="103"/>
@@ -17915,6 +18794,8 @@
       <c r="L79" s="103"/>
       <c r="M79" s="103"/>
       <c r="N79" s="103"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
     </row>
     <row r="80" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D80" s="103"/>
@@ -17928,8 +18809,10 @@
       <c r="L80" s="103"/>
       <c r="M80" s="103"/>
       <c r="N80" s="103"/>
-    </row>
-    <row r="81" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+    </row>
+    <row r="81" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D81" s="103"/>
       <c r="E81" s="103"/>
       <c r="F81" s="103"/>
@@ -17941,8 +18824,10 @@
       <c r="L81" s="103"/>
       <c r="M81" s="103"/>
       <c r="N81" s="103"/>
-    </row>
-    <row r="82" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+    </row>
+    <row r="82" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D82" s="103"/>
       <c r="E82" s="103"/>
       <c r="F82" s="103"/>
@@ -17954,8 +18839,10 @@
       <c r="L82" s="103"/>
       <c r="M82" s="103"/>
       <c r="N82" s="103"/>
-    </row>
-    <row r="83" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+    </row>
+    <row r="83" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D83" s="103"/>
       <c r="E83" s="103"/>
       <c r="F83" s="103"/>
@@ -17967,8 +18854,10 @@
       <c r="L83" s="103"/>
       <c r="M83" s="103"/>
       <c r="N83" s="103"/>
-    </row>
-    <row r="84" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+    </row>
+    <row r="84" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D84" s="103"/>
       <c r="E84" s="103"/>
       <c r="F84" s="103"/>
@@ -17980,8 +18869,10 @@
       <c r="L84" s="103"/>
       <c r="M84" s="103"/>
       <c r="N84" s="103"/>
-    </row>
-    <row r="85" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+    </row>
+    <row r="85" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D85" s="103"/>
       <c r="E85" s="103"/>
       <c r="F85" s="103"/>
@@ -17993,8 +18884,10 @@
       <c r="L85" s="103"/>
       <c r="M85" s="103"/>
       <c r="N85" s="103"/>
-    </row>
-    <row r="86" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+    </row>
+    <row r="86" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D86" s="103"/>
       <c r="E86" s="103"/>
       <c r="F86" s="103"/>
@@ -18006,8 +18899,10 @@
       <c r="L86" s="103"/>
       <c r="M86" s="103"/>
       <c r="N86" s="103"/>
-    </row>
-    <row r="87" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+    </row>
+    <row r="87" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D87" s="103"/>
       <c r="E87" s="103"/>
       <c r="F87" s="103"/>
@@ -18019,8 +18914,10 @@
       <c r="L87" s="103"/>
       <c r="M87" s="103"/>
       <c r="N87" s="103"/>
-    </row>
-    <row r="88" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+    </row>
+    <row r="88" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D88" s="103"/>
       <c r="E88" s="103"/>
       <c r="F88" s="103"/>
@@ -18032,8 +18929,10 @@
       <c r="L88" s="103"/>
       <c r="M88" s="103"/>
       <c r="N88" s="103"/>
-    </row>
-    <row r="89" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+    </row>
+    <row r="89" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D89" s="103"/>
       <c r="E89" s="103"/>
       <c r="F89" s="103"/>
@@ -18045,8 +18944,10 @@
       <c r="L89" s="103"/>
       <c r="M89" s="103"/>
       <c r="N89" s="103"/>
-    </row>
-    <row r="90" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+    </row>
+    <row r="90" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D90" s="103"/>
       <c r="E90" s="103"/>
       <c r="F90" s="103"/>
@@ -18058,8 +18959,10 @@
       <c r="L90" s="103"/>
       <c r="M90" s="103"/>
       <c r="N90" s="103"/>
-    </row>
-    <row r="91" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+    </row>
+    <row r="91" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D91" s="103"/>
       <c r="E91" s="103"/>
       <c r="F91" s="103"/>
@@ -18071,8 +18974,10 @@
       <c r="L91" s="103"/>
       <c r="M91" s="103"/>
       <c r="N91" s="103"/>
-    </row>
-    <row r="92" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+    </row>
+    <row r="92" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D92" s="103"/>
       <c r="E92" s="103"/>
       <c r="F92" s="103"/>
@@ -18084,8 +18989,10 @@
       <c r="L92" s="103"/>
       <c r="M92" s="103"/>
       <c r="N92" s="103"/>
-    </row>
-    <row r="93" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+    </row>
+    <row r="93" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D93" s="103"/>
       <c r="E93" s="103"/>
       <c r="F93" s="103"/>
@@ -18097,6 +19004,368 @@
       <c r="L93" s="103"/>
       <c r="M93" s="103"/>
       <c r="N93" s="103"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+    </row>
+    <row r="94" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D94" s="103"/>
+      <c r="E94" s="103"/>
+      <c r="F94" s="103"/>
+      <c r="G94" s="103"/>
+      <c r="H94" s="103"/>
+      <c r="I94" s="103"/>
+      <c r="J94" s="103"/>
+      <c r="K94" s="103"/>
+      <c r="L94" s="103"/>
+      <c r="M94" s="103"/>
+      <c r="N94" s="103"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+    </row>
+    <row r="95" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D95" s="103"/>
+      <c r="E95" s="103"/>
+      <c r="F95" s="103"/>
+      <c r="G95" s="103"/>
+      <c r="H95" s="103"/>
+      <c r="I95" s="103"/>
+      <c r="J95" s="103"/>
+      <c r="K95" s="103"/>
+      <c r="L95" s="103"/>
+      <c r="M95" s="103"/>
+      <c r="N95" s="103"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+    </row>
+    <row r="96" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D96" s="103"/>
+      <c r="E96" s="103"/>
+      <c r="F96" s="103"/>
+      <c r="G96" s="103"/>
+      <c r="H96" s="103"/>
+      <c r="I96" s="103"/>
+      <c r="J96" s="103"/>
+      <c r="K96" s="103"/>
+      <c r="L96" s="103"/>
+      <c r="M96" s="103"/>
+      <c r="N96" s="103"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+    </row>
+    <row r="97" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D97" s="103"/>
+      <c r="E97" s="103"/>
+      <c r="F97" s="103"/>
+      <c r="G97" s="103"/>
+      <c r="H97" s="103"/>
+      <c r="I97" s="103"/>
+      <c r="J97" s="103"/>
+      <c r="K97" s="103"/>
+      <c r="L97" s="103"/>
+      <c r="M97" s="103"/>
+      <c r="N97" s="103"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+    </row>
+    <row r="98" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D98" s="103"/>
+      <c r="E98" s="103"/>
+      <c r="F98" s="103"/>
+      <c r="G98" s="103"/>
+      <c r="H98" s="103"/>
+      <c r="I98" s="103"/>
+      <c r="J98" s="103"/>
+      <c r="K98" s="103"/>
+      <c r="L98" s="103"/>
+      <c r="M98" s="103"/>
+      <c r="N98" s="103"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+    </row>
+    <row r="99" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D99" s="103"/>
+      <c r="E99" s="103"/>
+      <c r="F99" s="103"/>
+      <c r="G99" s="103"/>
+      <c r="H99" s="103"/>
+      <c r="I99" s="103"/>
+      <c r="J99" s="103"/>
+      <c r="K99" s="103"/>
+      <c r="L99" s="103"/>
+      <c r="M99" s="103"/>
+      <c r="N99" s="103"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+    </row>
+    <row r="100" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D100" s="103"/>
+      <c r="E100" s="103"/>
+      <c r="F100" s="103"/>
+      <c r="G100" s="103"/>
+      <c r="H100" s="103"/>
+      <c r="I100" s="103"/>
+      <c r="J100" s="103"/>
+      <c r="K100" s="103"/>
+      <c r="L100" s="103"/>
+      <c r="M100" s="103"/>
+      <c r="N100" s="103"/>
+      <c r="R100" s="11"/>
+      <c r="S100" s="11"/>
+    </row>
+    <row r="101" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D101" s="103"/>
+      <c r="E101" s="103"/>
+      <c r="F101" s="103"/>
+      <c r="G101" s="103"/>
+      <c r="H101" s="103"/>
+      <c r="I101" s="103"/>
+      <c r="J101" s="103"/>
+      <c r="K101" s="103"/>
+      <c r="L101" s="103"/>
+      <c r="M101" s="103"/>
+      <c r="N101" s="103"/>
+      <c r="R101" s="11"/>
+      <c r="S101" s="11"/>
+    </row>
+    <row r="102" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D102" s="103"/>
+      <c r="E102" s="103"/>
+      <c r="F102" s="103"/>
+      <c r="G102" s="103"/>
+      <c r="H102" s="103"/>
+      <c r="I102" s="103"/>
+      <c r="J102" s="103"/>
+      <c r="K102" s="103"/>
+      <c r="L102" s="103"/>
+      <c r="M102" s="103"/>
+      <c r="N102" s="103"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+    </row>
+    <row r="103" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D103" s="103"/>
+      <c r="E103" s="103"/>
+      <c r="F103" s="103"/>
+      <c r="G103" s="103"/>
+      <c r="H103" s="103"/>
+      <c r="I103" s="103"/>
+      <c r="J103" s="103"/>
+      <c r="K103" s="103"/>
+      <c r="L103" s="103"/>
+      <c r="M103" s="103"/>
+      <c r="N103" s="103"/>
+      <c r="R103" s="11"/>
+      <c r="S103" s="11"/>
+    </row>
+    <row r="104" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D104" s="103"/>
+      <c r="E104" s="103"/>
+      <c r="F104" s="103"/>
+      <c r="G104" s="103"/>
+      <c r="H104" s="103"/>
+      <c r="I104" s="103"/>
+      <c r="J104" s="103"/>
+      <c r="K104" s="103"/>
+      <c r="L104" s="103"/>
+      <c r="M104" s="103"/>
+      <c r="N104" s="103"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="11"/>
+    </row>
+    <row r="105" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D105" s="103"/>
+      <c r="E105" s="103"/>
+      <c r="F105" s="103"/>
+      <c r="G105" s="103"/>
+      <c r="H105" s="103"/>
+      <c r="I105" s="103"/>
+      <c r="J105" s="103"/>
+      <c r="K105" s="103"/>
+      <c r="L105" s="103"/>
+      <c r="M105" s="103"/>
+      <c r="N105" s="103"/>
+    </row>
+    <row r="106" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D106" s="103"/>
+      <c r="E106" s="103"/>
+      <c r="F106" s="103"/>
+      <c r="G106" s="103"/>
+      <c r="H106" s="103"/>
+      <c r="I106" s="103"/>
+      <c r="J106" s="103"/>
+      <c r="K106" s="103"/>
+      <c r="L106" s="103"/>
+      <c r="M106" s="103"/>
+      <c r="N106" s="103"/>
+    </row>
+    <row r="107" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D107" s="103"/>
+      <c r="E107" s="103"/>
+      <c r="F107" s="103"/>
+      <c r="G107" s="103"/>
+      <c r="H107" s="103"/>
+      <c r="I107" s="103"/>
+      <c r="J107" s="103"/>
+      <c r="K107" s="103"/>
+      <c r="L107" s="103"/>
+      <c r="M107" s="103"/>
+      <c r="N107" s="103"/>
+    </row>
+    <row r="108" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D108" s="103"/>
+      <c r="E108" s="103"/>
+      <c r="F108" s="103"/>
+      <c r="G108" s="103"/>
+      <c r="H108" s="103"/>
+      <c r="I108" s="103"/>
+      <c r="J108" s="103"/>
+      <c r="K108" s="103"/>
+      <c r="L108" s="103"/>
+      <c r="M108" s="103"/>
+      <c r="N108" s="103"/>
+    </row>
+    <row r="109" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D109" s="103"/>
+      <c r="E109" s="103"/>
+      <c r="F109" s="103"/>
+      <c r="G109" s="103"/>
+      <c r="H109" s="103"/>
+      <c r="I109" s="103"/>
+      <c r="J109" s="103"/>
+      <c r="K109" s="103"/>
+      <c r="L109" s="103"/>
+      <c r="M109" s="103"/>
+      <c r="N109" s="103"/>
+    </row>
+    <row r="110" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D110" s="103"/>
+      <c r="E110" s="103"/>
+      <c r="F110" s="103"/>
+      <c r="G110" s="103"/>
+      <c r="H110" s="103"/>
+      <c r="I110" s="103"/>
+      <c r="J110" s="103"/>
+      <c r="K110" s="103"/>
+      <c r="L110" s="103"/>
+      <c r="M110" s="103"/>
+      <c r="N110" s="103"/>
+    </row>
+    <row r="111" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D111" s="103"/>
+      <c r="E111" s="103"/>
+      <c r="F111" s="103"/>
+      <c r="G111" s="103"/>
+      <c r="H111" s="103"/>
+      <c r="I111" s="103"/>
+      <c r="J111" s="103"/>
+      <c r="K111" s="103"/>
+      <c r="L111" s="103"/>
+      <c r="M111" s="103"/>
+      <c r="N111" s="103"/>
+    </row>
+    <row r="112" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D112" s="103"/>
+      <c r="E112" s="103"/>
+      <c r="F112" s="103"/>
+      <c r="G112" s="103"/>
+      <c r="H112" s="103"/>
+      <c r="I112" s="103"/>
+      <c r="J112" s="103"/>
+      <c r="K112" s="103"/>
+      <c r="L112" s="103"/>
+      <c r="M112" s="103"/>
+      <c r="N112" s="103"/>
+    </row>
+    <row r="113" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D113" s="103"/>
+      <c r="E113" s="103"/>
+      <c r="F113" s="103"/>
+      <c r="G113" s="103"/>
+      <c r="H113" s="103"/>
+      <c r="I113" s="103"/>
+      <c r="J113" s="103"/>
+      <c r="K113" s="103"/>
+      <c r="L113" s="103"/>
+      <c r="M113" s="103"/>
+      <c r="N113" s="103"/>
+    </row>
+    <row r="114" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D114" s="103"/>
+      <c r="E114" s="103"/>
+      <c r="F114" s="103"/>
+      <c r="G114" s="103"/>
+      <c r="H114" s="103"/>
+      <c r="I114" s="103"/>
+      <c r="J114" s="103"/>
+      <c r="K114" s="103"/>
+      <c r="L114" s="103"/>
+      <c r="M114" s="103"/>
+      <c r="N114" s="103"/>
+    </row>
+    <row r="115" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D115" s="103"/>
+      <c r="E115" s="103"/>
+      <c r="F115" s="103"/>
+      <c r="G115" s="103"/>
+      <c r="H115" s="103"/>
+      <c r="I115" s="103"/>
+      <c r="J115" s="103"/>
+      <c r="K115" s="103"/>
+      <c r="L115" s="103"/>
+      <c r="M115" s="103"/>
+      <c r="N115" s="103"/>
+    </row>
+    <row r="116" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D116" s="103"/>
+      <c r="E116" s="103"/>
+      <c r="F116" s="103"/>
+      <c r="G116" s="103"/>
+      <c r="H116" s="103"/>
+      <c r="I116" s="103"/>
+      <c r="J116" s="103"/>
+      <c r="K116" s="103"/>
+      <c r="L116" s="103"/>
+      <c r="M116" s="103"/>
+      <c r="N116" s="103"/>
+    </row>
+    <row r="117" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D117" s="103"/>
+      <c r="E117" s="103"/>
+      <c r="F117" s="103"/>
+      <c r="G117" s="103"/>
+      <c r="H117" s="103"/>
+      <c r="I117" s="103"/>
+      <c r="J117" s="103"/>
+      <c r="K117" s="103"/>
+      <c r="L117" s="103"/>
+      <c r="M117" s="103"/>
+      <c r="N117" s="103"/>
+    </row>
+    <row r="118" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D118" s="103"/>
+      <c r="E118" s="103"/>
+      <c r="F118" s="103"/>
+      <c r="G118" s="103"/>
+      <c r="H118" s="103"/>
+      <c r="I118" s="103"/>
+      <c r="J118" s="103"/>
+      <c r="K118" s="103"/>
+      <c r="L118" s="103"/>
+      <c r="M118" s="103"/>
+      <c r="N118" s="103"/>
+    </row>
+    <row r="119" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D119" s="103"/>
+      <c r="E119" s="103"/>
+      <c r="F119" s="103"/>
+      <c r="G119" s="103"/>
+      <c r="H119" s="103"/>
+      <c r="I119" s="103"/>
+      <c r="J119" s="103"/>
+      <c r="K119" s="103"/>
+      <c r="L119" s="103"/>
+      <c r="M119" s="103"/>
+      <c r="N119" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -18164,23 +19433,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="169"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="171"/>
       <c r="R2" s="11" t="s">
         <v>98</v>
       </c>
@@ -18192,23 +19461,23 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="168"/>
       <c r="R3" s="11" t="s">
         <v>100</v>
       </c>
@@ -18221,22 +19490,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="105"/>
-      <c r="C4" s="160" t="s">
+      <c r="C4" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="161"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
+      <c r="O4" s="162"/>
+      <c r="P4" s="163"/>
       <c r="R4" s="11" t="s">
         <v>153</v>
       </c>
@@ -18249,22 +19518,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="105"/>
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="161"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="163"/>
       <c r="R5" s="11" t="s">
         <v>146</v>
       </c>
@@ -18278,21 +19547,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="105"/>
       <c r="C6" s="106"/>
-      <c r="D6" s="162" t="s">
+      <c r="D6" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="162"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="162"/>
-      <c r="O6" s="162"/>
-      <c r="P6" s="163"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="164"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="165"/>
       <c r="R6" s="11" t="s">
         <v>162</v>
       </c>
@@ -18306,21 +19575,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="105"/>
       <c r="C7" s="106"/>
-      <c r="D7" s="160" t="s">
+      <c r="D7" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="163"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="165"/>
       <c r="R7" s="11" t="s">
         <v>151</v>
       </c>
@@ -18334,21 +19603,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="105"/>
       <c r="C8" s="106"/>
-      <c r="D8" s="160" t="s">
+      <c r="D8" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="162"/>
-      <c r="P8" s="163"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="165"/>
       <c r="R8" s="11" t="s">
         <v>148</v>
       </c>
@@ -18362,21 +19631,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="105"/>
       <c r="C9" s="106"/>
-      <c r="D9" s="160" t="s">
+      <c r="D9" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="163"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="165"/>
       <c r="R9" s="62" t="s">
         <v>289</v>
       </c>
@@ -18390,21 +19659,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="105"/>
       <c r="C10" s="106"/>
-      <c r="D10" s="160" t="s">
+      <c r="D10" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="163"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="165"/>
       <c r="R10" s="11" t="s">
         <v>155</v>
       </c>
@@ -18417,22 +19686,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="105"/>
-      <c r="C11" s="160" t="s">
+      <c r="C11" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="160"/>
-      <c r="M11" s="160"/>
-      <c r="N11" s="160"/>
-      <c r="O11" s="160"/>
-      <c r="P11" s="161"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="163"/>
       <c r="R11" s="11" t="s">
         <v>97</v>
       </c>
@@ -18445,22 +19714,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="105"/>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="160"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="160"/>
-      <c r="P12" s="161"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="163"/>
       <c r="R12" s="62" t="s">
         <v>99</v>
       </c>
@@ -18498,23 +19767,23 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
-      <c r="P14" s="166"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
+      <c r="L14" s="167"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="167"/>
+      <c r="O14" s="167"/>
+      <c r="P14" s="168"/>
       <c r="R14" s="11" t="s">
         <v>89</v>
       </c>
@@ -18527,22 +19796,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="105"/>
-      <c r="C15" s="160" t="s">
+      <c r="C15" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="160"/>
-      <c r="M15" s="160"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="161"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="162"/>
+      <c r="P15" s="163"/>
       <c r="R15" s="11" t="s">
         <v>163</v>
       </c>
@@ -18556,21 +19825,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="105"/>
       <c r="C16" s="108"/>
-      <c r="D16" s="162" t="s">
+      <c r="D16" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="163"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="165"/>
       <c r="R16" s="11" t="s">
         <v>149</v>
       </c>
@@ -18612,21 +19881,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="105"/>
       <c r="C18" s="106"/>
-      <c r="D18" s="162" t="s">
+      <c r="D18" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="162"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="163"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="164"/>
+      <c r="P18" s="165"/>
       <c r="R18" s="62" t="s">
         <v>156</v>
       </c>
@@ -18640,21 +19909,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="105"/>
       <c r="C19" s="106"/>
-      <c r="D19" s="162" t="s">
+      <c r="D19" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="163"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="165"/>
       <c r="R19" s="62" t="s">
         <v>87</v>
       </c>
@@ -18668,21 +19937,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="105"/>
       <c r="C20" s="106"/>
-      <c r="D20" s="162" t="s">
+      <c r="D20" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="162"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="163"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="164"/>
+      <c r="P20" s="165"/>
       <c r="R20" s="62" t="s">
         <v>154</v>
       </c>
@@ -18696,21 +19965,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="105"/>
       <c r="C21" s="106"/>
-      <c r="D21" s="162" t="s">
+      <c r="D21" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="162"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="162"/>
-      <c r="O21" s="162"/>
-      <c r="P21" s="163"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="164"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
+      <c r="O21" s="164"/>
+      <c r="P21" s="165"/>
       <c r="R21" s="62" t="s">
         <v>158</v>
       </c>
@@ -18724,21 +19993,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="105"/>
       <c r="C22" s="106"/>
-      <c r="D22" s="162" t="s">
+      <c r="D22" s="164" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="163"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="165"/>
       <c r="R22" s="62" t="s">
         <v>101</v>
       </c>
@@ -18752,21 +20021,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="105"/>
       <c r="C23" s="106"/>
-      <c r="D23" s="162" t="s">
+      <c r="D23" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="162"/>
-      <c r="L23" s="162"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="163"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="165"/>
       <c r="R23" s="62" t="s">
         <v>157</v>
       </c>
@@ -18780,21 +20049,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="105"/>
       <c r="C24" s="106"/>
-      <c r="D24" s="162" t="s">
+      <c r="D24" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="162"/>
-      <c r="J24" s="162"/>
-      <c r="K24" s="162"/>
-      <c r="L24" s="162"/>
-      <c r="M24" s="162"/>
-      <c r="N24" s="162"/>
-      <c r="O24" s="162"/>
-      <c r="P24" s="163"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="164"/>
+      <c r="P24" s="165"/>
       <c r="R24" s="62" t="s">
         <v>291</v>
       </c>
@@ -18808,21 +20077,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="105"/>
       <c r="C25" s="106"/>
-      <c r="D25" s="162" t="s">
+      <c r="D25" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="162"/>
-      <c r="P25" s="163"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="164"/>
+      <c r="P25" s="165"/>
       <c r="R25" s="62" t="s">
         <v>147</v>
       </c>
@@ -18836,21 +20105,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="105"/>
       <c r="C26" s="106"/>
-      <c r="D26" s="162" t="s">
+      <c r="D26" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="162"/>
-      <c r="L26" s="162"/>
-      <c r="M26" s="162"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="162"/>
-      <c r="P26" s="163"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="165"/>
       <c r="R26" s="62" t="s">
         <v>159</v>
       </c>
@@ -18864,21 +20133,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="105"/>
       <c r="C27" s="106"/>
-      <c r="D27" s="162" t="s">
+      <c r="D27" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="162"/>
-      <c r="L27" s="162"/>
-      <c r="M27" s="162"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="162"/>
-      <c r="P27" s="163"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="164"/>
+      <c r="L27" s="164"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="164"/>
+      <c r="P27" s="165"/>
       <c r="R27" s="62" t="s">
         <v>290</v>
       </c>
@@ -18917,22 +20186,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="105"/>
-      <c r="C29" s="160" t="s">
+      <c r="C29" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="160"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="160"/>
-      <c r="M29" s="160"/>
-      <c r="N29" s="160"/>
-      <c r="O29" s="160"/>
-      <c r="P29" s="161"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="162"/>
+      <c r="L29" s="162"/>
+      <c r="M29" s="162"/>
+      <c r="N29" s="162"/>
+      <c r="O29" s="162"/>
+      <c r="P29" s="163"/>
       <c r="R29" s="62" t="s">
         <v>150</v>
       </c>
@@ -18946,21 +20215,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="105"/>
       <c r="C30" s="106"/>
-      <c r="D30" s="162" t="s">
+      <c r="D30" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="162"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="162"/>
-      <c r="H30" s="162"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="162"/>
-      <c r="K30" s="162"/>
-      <c r="L30" s="162"/>
-      <c r="M30" s="162"/>
-      <c r="N30" s="162"/>
-      <c r="O30" s="162"/>
-      <c r="P30" s="163"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="164"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="165"/>
       <c r="R30" s="62" t="s">
         <v>88</v>
       </c>
@@ -18974,21 +20243,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="105"/>
       <c r="C31" s="106"/>
-      <c r="D31" s="162" t="s">
+      <c r="D31" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="162"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="162"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="162"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="162"/>
-      <c r="P31" s="163"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="164"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="165"/>
       <c r="R31" s="62" t="s">
         <v>243</v>
       </c>
@@ -19002,21 +20271,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="105"/>
       <c r="C32" s="106"/>
-      <c r="D32" s="162" t="s">
+      <c r="D32" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="162"/>
-      <c r="L32" s="162"/>
-      <c r="M32" s="162"/>
-      <c r="N32" s="162"/>
-      <c r="O32" s="162"/>
-      <c r="P32" s="163"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="164"/>
+      <c r="M32" s="164"/>
+      <c r="N32" s="164"/>
+      <c r="O32" s="164"/>
+      <c r="P32" s="165"/>
       <c r="R32" s="62" t="s">
         <v>312</v>
       </c>
@@ -19030,21 +20299,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="105"/>
       <c r="C33" s="106"/>
-      <c r="D33" s="162" t="s">
+      <c r="D33" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="162"/>
-      <c r="I33" s="162"/>
-      <c r="J33" s="162"/>
-      <c r="K33" s="162"/>
-      <c r="L33" s="162"/>
-      <c r="M33" s="162"/>
-      <c r="N33" s="162"/>
-      <c r="O33" s="162"/>
-      <c r="P33" s="163"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="164"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="165"/>
       <c r="R33" s="122" t="s">
         <v>448</v>
       </c>
@@ -19058,21 +20327,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="105"/>
       <c r="C34" s="106"/>
-      <c r="D34" s="156" t="s">
+      <c r="D34" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="156"/>
-      <c r="O34" s="156"/>
-      <c r="P34" s="157"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
+      <c r="K34" s="158"/>
+      <c r="L34" s="158"/>
+      <c r="M34" s="158"/>
+      <c r="N34" s="158"/>
+      <c r="O34" s="158"/>
+      <c r="P34" s="159"/>
       <c r="R34" s="62" t="s">
         <v>603</v>
       </c>
@@ -19086,21 +20355,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="105"/>
       <c r="C35" s="106"/>
-      <c r="D35" s="156" t="s">
+      <c r="D35" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="156"/>
-      <c r="O35" s="156"/>
-      <c r="P35" s="157"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
+      <c r="K35" s="158"/>
+      <c r="L35" s="158"/>
+      <c r="M35" s="158"/>
+      <c r="N35" s="158"/>
+      <c r="O35" s="158"/>
+      <c r="P35" s="159"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
@@ -19108,21 +20377,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="111"/>
       <c r="C36" s="112"/>
-      <c r="D36" s="158" t="s">
+      <c r="D36" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="158"/>
-      <c r="N36" s="158"/>
-      <c r="O36" s="158"/>
-      <c r="P36" s="159"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
+      <c r="K36" s="160"/>
+      <c r="L36" s="160"/>
+      <c r="M36" s="160"/>
+      <c r="N36" s="160"/>
+      <c r="O36" s="160"/>
+      <c r="P36" s="161"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>

--- a/2017/BANGKE - 17.xlsx
+++ b/2017/BANGKE - 17.xlsx
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="616">
   <si>
     <t>(Kèm theo tờ khai thuế GTGT theo mẫu số 01/GTGT)</t>
   </si>
@@ -2039,6 +2039,12 @@
   </si>
   <si>
     <t>3702110954</t>
+  </si>
+  <si>
+    <t>1100878093</t>
+  </si>
+  <si>
+    <t>Cty TNHH Hải Sản An Lạc</t>
   </si>
 </sst>
 </file>
@@ -2410,7 +2416,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2903,10 +2909,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3614,7 +3616,7 @@
   <dimension ref="A1:Q184"/>
   <sheetViews>
     <sheetView topLeftCell="B12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
       <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
     </sheetView>
@@ -9617,12 +9619,12 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:N375"/>
+  <dimension ref="A1:N236"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="14" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="J251" sqref="J251"/>
+      <selection pane="bottomLeft" activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12539,9 +12541,9 @@
       </c>
     </row>
     <row r="97" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="9" t="str">
+      <c r="B97" s="9">
         <f t="shared" ref="B97:B160" si="4">IF(G97&lt;&gt;"",ROW()-25,"")</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="C97" s="32" t="s">
         <v>85</v>
@@ -12552,15 +12554,26 @@
       <c r="E97" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="F97" s="33"/>
-      <c r="G97" s="11"/>
+      <c r="F97" s="33">
+        <v>42829</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>615</v>
+      </c>
       <c r="H97" s="34" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I97" s="12"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
+        <v>1100878093</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="J97" s="13">
+        <v>17864000</v>
+      </c>
+      <c r="K97" s="13">
+        <f t="shared" ref="K97:K98" si="5">ROUND(J97*10%,0)</f>
+        <v>1786400</v>
+      </c>
       <c r="L97" s="113">
         <v>2</v>
       </c>
@@ -12587,7 +12600,10 @@
       </c>
       <c r="I98" s="12"/>
       <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
+      <c r="K98" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="L98" s="113">
         <v>2</v>
       </c>
@@ -12661,7 +12677,7 @@
         <v>6546100</v>
       </c>
       <c r="K100" s="13">
-        <f t="shared" ref="K100:K163" si="5">ROUND(J100*10%,0)</f>
+        <f t="shared" ref="K100:K163" si="6">ROUND(J100*10%,0)</f>
         <v>654610</v>
       </c>
       <c r="L100" s="113">
@@ -12691,7 +12707,7 @@
       <c r="I101" s="12"/>
       <c r="J101" s="13"/>
       <c r="K101" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L101" s="113">
@@ -12729,7 +12745,7 @@
         <v>43680000</v>
       </c>
       <c r="K102" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4368000</v>
       </c>
       <c r="L102" s="113">
@@ -12767,7 +12783,7 @@
         <v>2409000</v>
       </c>
       <c r="K103" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>240900</v>
       </c>
       <c r="L103" s="113">
@@ -12797,7 +12813,7 @@
       <c r="I104" s="12"/>
       <c r="J104" s="13"/>
       <c r="K104" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L104" s="113">
@@ -12827,7 +12843,7 @@
       <c r="I105" s="12"/>
       <c r="J105" s="13"/>
       <c r="K105" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L105" s="113">
@@ -12865,7 +12881,7 @@
         <v>30895820</v>
       </c>
       <c r="K106" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3089582</v>
       </c>
       <c r="L106" s="113">
@@ -12895,7 +12911,7 @@
       <c r="I107" s="12"/>
       <c r="J107" s="13"/>
       <c r="K107" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L107" s="113">
@@ -12933,7 +12949,7 @@
         <v>5000000</v>
       </c>
       <c r="K108" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>500000</v>
       </c>
       <c r="L108" s="113">
@@ -12971,7 +12987,7 @@
         <v>14450000</v>
       </c>
       <c r="K109" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1445000</v>
       </c>
       <c r="L109" s="113">
@@ -13001,7 +13017,7 @@
       <c r="I110" s="12"/>
       <c r="J110" s="13"/>
       <c r="K110" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L110" s="113">
@@ -13031,7 +13047,7 @@
       <c r="I111" s="12"/>
       <c r="J111" s="13"/>
       <c r="K111" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L111" s="113">
@@ -13069,7 +13085,7 @@
         <v>15300000</v>
       </c>
       <c r="K112" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1530000</v>
       </c>
       <c r="L112" s="113">
@@ -13107,7 +13123,7 @@
         <v>5767000</v>
       </c>
       <c r="K113" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>576700</v>
       </c>
       <c r="L113" s="113">
@@ -13145,7 +13161,7 @@
         <v>7600000</v>
       </c>
       <c r="K114" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>760000</v>
       </c>
       <c r="L114" s="113">
@@ -13172,7 +13188,7 @@
       <c r="I115" s="12"/>
       <c r="J115" s="13"/>
       <c r="K115" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L115" s="113">
@@ -13210,7 +13226,7 @@
         <v>25471000</v>
       </c>
       <c r="K116" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2547100</v>
       </c>
       <c r="L116" s="113">
@@ -13248,7 +13264,7 @@
         <v>307250000</v>
       </c>
       <c r="K117" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30725000</v>
       </c>
       <c r="L117" s="113">
@@ -13275,7 +13291,7 @@
       <c r="I118" s="12"/>
       <c r="J118" s="13"/>
       <c r="K118" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L118" s="113">
@@ -13313,7 +13329,7 @@
         <v>8860000</v>
       </c>
       <c r="K119" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>886000</v>
       </c>
       <c r="L119" s="113">
@@ -13351,7 +13367,7 @@
         <v>12750000</v>
       </c>
       <c r="K120" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1275000</v>
       </c>
       <c r="L120" s="113">
@@ -13378,7 +13394,7 @@
       <c r="I121" s="12"/>
       <c r="J121" s="13"/>
       <c r="K121" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L121" s="113">
@@ -13406,7 +13422,7 @@
         <v>95</v>
       </c>
       <c r="H122" s="34" t="str">
-        <f t="shared" ref="H122:H153" si="6">IF(ISNA(VLOOKUP(G122,DSBR,2,0)),"",VLOOKUP(G122,DSBR,2,0))</f>
+        <f t="shared" ref="H122:H153" si="7">IF(ISNA(VLOOKUP(G122,DSBR,2,0)),"",VLOOKUP(G122,DSBR,2,0))</f>
         <v>0311731926</v>
       </c>
       <c r="I122" s="12" t="s">
@@ -13416,7 +13432,7 @@
         <v>3382500</v>
       </c>
       <c r="K122" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>338250</v>
       </c>
       <c r="L122" s="113">
@@ -13444,7 +13460,7 @@
         <v>315</v>
       </c>
       <c r="H123" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3700339107</v>
       </c>
       <c r="I123" s="12" t="s">
@@ -13454,7 +13470,7 @@
         <v>3800000</v>
       </c>
       <c r="K123" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>380000</v>
       </c>
       <c r="L123" s="113">
@@ -13478,13 +13494,13 @@
       <c r="F124" s="33"/>
       <c r="G124" s="11"/>
       <c r="H124" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I124" s="12"/>
       <c r="J124" s="13"/>
       <c r="K124" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L124" s="113">
@@ -13512,7 +13528,7 @@
         <v>94</v>
       </c>
       <c r="H125" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3701773902</v>
       </c>
       <c r="I125" s="12" t="s">
@@ -13522,7 +13538,7 @@
         <v>160917522</v>
       </c>
       <c r="K125" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16091752</v>
       </c>
       <c r="L125" s="113">
@@ -13550,7 +13566,7 @@
         <v>124</v>
       </c>
       <c r="H126" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0307717894</v>
       </c>
       <c r="I126" s="12" t="s">
@@ -13560,7 +13576,7 @@
         <v>45000480</v>
       </c>
       <c r="K126" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4500048</v>
       </c>
       <c r="L126" s="113">
@@ -13568,9 +13584,9 @@
       </c>
     </row>
     <row r="127" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="9" t="str">
+      <c r="B127" s="9">
         <f t="shared" si="4"/>
-        <v/>
+        <v>102</v>
       </c>
       <c r="C127" s="32" t="s">
         <v>85</v>
@@ -13581,14 +13597,25 @@
       <c r="E127" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="F127" s="33"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="34"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="13"/>
+      <c r="F127" s="33">
+        <v>42872</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="H127" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v>1100878093</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="J127" s="13">
+        <v>17864000</v>
+      </c>
       <c r="K127" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1786400</v>
       </c>
       <c r="L127" s="113">
         <v>2</v>
@@ -13615,7 +13642,7 @@
         <v>378</v>
       </c>
       <c r="H128" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3701872678</v>
       </c>
       <c r="I128" s="12" t="s">
@@ -13625,7 +13652,7 @@
         <v>1440000</v>
       </c>
       <c r="K128" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>144000</v>
       </c>
       <c r="L128" s="113">
@@ -13653,7 +13680,7 @@
         <v>90</v>
       </c>
       <c r="H129" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3701770098</v>
       </c>
       <c r="I129" s="12" t="s">
@@ -13663,7 +13690,7 @@
         <v>111000000</v>
       </c>
       <c r="K129" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11100000</v>
       </c>
       <c r="L129" s="113">
@@ -13691,7 +13718,7 @@
         <v>135</v>
       </c>
       <c r="H130" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3700583144</v>
       </c>
       <c r="I130" s="12" t="s">
@@ -13701,7 +13728,7 @@
         <v>9120000</v>
       </c>
       <c r="K130" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>912000</v>
       </c>
       <c r="L130" s="113">
@@ -13729,7 +13756,7 @@
         <v>130</v>
       </c>
       <c r="H131" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3601409272</v>
       </c>
       <c r="I131" s="12" t="s">
@@ -13739,7 +13766,7 @@
         <v>17850000</v>
       </c>
       <c r="K131" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1785000</v>
       </c>
       <c r="L131" s="113">
@@ -13767,7 +13794,7 @@
         <v>129</v>
       </c>
       <c r="H132" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0302535072</v>
       </c>
       <c r="I132" s="12" t="s">
@@ -13777,7 +13804,7 @@
         <v>7426600</v>
       </c>
       <c r="K132" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>742660</v>
       </c>
       <c r="L132" s="113">
@@ -13805,7 +13832,7 @@
         <v>608</v>
       </c>
       <c r="H133" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6000454526</v>
       </c>
       <c r="I133" s="12" t="s">
@@ -13815,7 +13842,7 @@
         <v>11041500</v>
       </c>
       <c r="K133" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1104150</v>
       </c>
       <c r="L133" s="113">
@@ -13823,9 +13850,9 @@
       </c>
     </row>
     <row r="134" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="9" t="str">
+      <c r="B134" s="9">
         <f t="shared" si="4"/>
-        <v/>
+        <v>109</v>
       </c>
       <c r="C134" s="32" t="s">
         <v>85</v>
@@ -13836,17 +13863,25 @@
       <c r="E134" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="F134" s="33"/>
-      <c r="G134" s="11"/>
+      <c r="F134" s="33">
+        <v>42879</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>615</v>
+      </c>
       <c r="H134" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v>1100878093</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="J134" s="13">
+        <v>17864000</v>
+      </c>
+      <c r="K134" s="13">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I134" s="12"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1786400</v>
       </c>
       <c r="L134" s="113">
         <v>2</v>
@@ -13869,13 +13904,13 @@
       <c r="F135" s="33"/>
       <c r="G135" s="11"/>
       <c r="H135" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I135" s="12"/>
       <c r="J135" s="13"/>
       <c r="K135" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L135" s="113">
@@ -13899,13 +13934,13 @@
       <c r="F136" s="33"/>
       <c r="G136" s="11"/>
       <c r="H136" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I136" s="12"/>
       <c r="J136" s="13"/>
       <c r="K136" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L136" s="113">
@@ -13929,13 +13964,13 @@
       <c r="F137" s="33"/>
       <c r="G137" s="11"/>
       <c r="H137" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I137" s="12"/>
       <c r="J137" s="13"/>
       <c r="K137" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L137" s="113">
@@ -13963,7 +13998,7 @@
         <v>112</v>
       </c>
       <c r="H138" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0310857404</v>
       </c>
       <c r="I138" s="12" t="s">
@@ -13973,7 +14008,7 @@
         <v>18018190</v>
       </c>
       <c r="K138" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1801819</v>
       </c>
       <c r="L138" s="113">
@@ -14001,7 +14036,7 @@
         <v>315</v>
       </c>
       <c r="H139" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3700339107</v>
       </c>
       <c r="I139" s="12" t="s">
@@ -14011,7 +14046,7 @@
         <v>1800000</v>
       </c>
       <c r="K139" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>180000</v>
       </c>
       <c r="L139" s="113">
@@ -14039,7 +14074,7 @@
         <v>609</v>
       </c>
       <c r="H140" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0313076430</v>
       </c>
       <c r="I140" s="12" t="s">
@@ -14049,7 +14084,7 @@
         <v>2600000</v>
       </c>
       <c r="K140" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>260000</v>
       </c>
       <c r="L140" s="113">
@@ -14077,7 +14112,7 @@
         <v>610</v>
       </c>
       <c r="H141" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0301798826</v>
       </c>
       <c r="I141" s="12" t="s">
@@ -14087,7 +14122,7 @@
         <v>1222440</v>
       </c>
       <c r="K141" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>122244</v>
       </c>
       <c r="L141" s="113">
@@ -14095,9 +14130,9 @@
       </c>
     </row>
     <row r="142" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="9" t="str">
+      <c r="B142" s="9">
         <f t="shared" si="4"/>
-        <v/>
+        <v>117</v>
       </c>
       <c r="C142" s="32" t="s">
         <v>85</v>
@@ -14108,17 +14143,25 @@
       <c r="E142" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="F142" s="33"/>
-      <c r="G142" s="11"/>
+      <c r="F142" s="33">
+        <v>42886</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>615</v>
+      </c>
       <c r="H142" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v>1100878093</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="J142" s="13">
+        <v>17864000</v>
+      </c>
+      <c r="K142" s="13">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I142" s="12"/>
-      <c r="J142" s="13"/>
-      <c r="K142" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1786400</v>
       </c>
       <c r="L142" s="113">
         <v>2</v>
@@ -14145,7 +14188,7 @@
         <v>94</v>
       </c>
       <c r="H143" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3701773902</v>
       </c>
       <c r="I143" s="12" t="s">
@@ -14155,7 +14198,7 @@
         <v>102404549</v>
       </c>
       <c r="K143" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10240455</v>
       </c>
       <c r="L143" s="113">
@@ -14179,13 +14222,13 @@
       <c r="F144" s="33"/>
       <c r="G144" s="11"/>
       <c r="H144" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I144" s="12"/>
       <c r="J144" s="13"/>
       <c r="K144" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L144" s="113">
@@ -14213,7 +14256,7 @@
         <v>95</v>
       </c>
       <c r="H145" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0311731926</v>
       </c>
       <c r="I145" s="12" t="s">
@@ -14223,7 +14266,7 @@
         <v>1853775</v>
       </c>
       <c r="K145" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185378</v>
       </c>
       <c r="L145" s="113">
@@ -14251,7 +14294,7 @@
         <v>124</v>
       </c>
       <c r="H146" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0307717894</v>
       </c>
       <c r="I146" s="12" t="s">
@@ -14261,7 +14304,7 @@
         <v>42126000</v>
       </c>
       <c r="K146" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4212600</v>
       </c>
       <c r="L146" s="113">
@@ -14289,7 +14332,7 @@
         <v>90</v>
       </c>
       <c r="H147" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3701770098</v>
       </c>
       <c r="I147" s="12" t="s">
@@ -14299,7 +14342,7 @@
         <v>111000000</v>
       </c>
       <c r="K147" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11100000</v>
       </c>
       <c r="L147" s="113">
@@ -14323,13 +14366,13 @@
       <c r="F148" s="33"/>
       <c r="G148" s="11"/>
       <c r="H148" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I148" s="12"/>
       <c r="J148" s="13"/>
       <c r="K148" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L148" s="113">
@@ -14351,13 +14394,13 @@
         <v>508</v>
       </c>
       <c r="F149" s="33">
-        <v>42868</v>
+        <v>42899</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>386</v>
       </c>
       <c r="H149" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0301937607</v>
       </c>
       <c r="I149" s="12" t="s">
@@ -14367,7 +14410,7 @@
         <v>4650000</v>
       </c>
       <c r="K149" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>465000</v>
       </c>
       <c r="L149" s="113">
@@ -14375,9 +14418,9 @@
       </c>
     </row>
     <row r="150" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="9" t="str">
+      <c r="B150" s="9">
         <f t="shared" si="4"/>
-        <v/>
+        <v>125</v>
       </c>
       <c r="C150" s="32" t="s">
         <v>85</v>
@@ -14388,17 +14431,25 @@
       <c r="E150" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="F150" s="33"/>
-      <c r="G150" s="11"/>
+      <c r="F150" s="33">
+        <v>42914</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="H150" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v>3701773902</v>
+      </c>
+      <c r="I150" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="J150" s="13">
+        <v>117324837</v>
+      </c>
+      <c r="K150" s="13">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I150" s="12"/>
-      <c r="J150" s="13"/>
-      <c r="K150" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11732484</v>
       </c>
       <c r="L150" s="113">
         <v>2</v>
@@ -14425,7 +14476,7 @@
         <v>612</v>
       </c>
       <c r="H151" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3702110954</v>
       </c>
       <c r="I151" s="12" t="s">
@@ -14435,7 +14486,7 @@
         <v>862000</v>
       </c>
       <c r="K151" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>86200</v>
       </c>
       <c r="L151" s="113">
@@ -14459,13 +14510,13 @@
       <c r="F152" s="33"/>
       <c r="G152" s="11"/>
       <c r="H152" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I152" s="12"/>
       <c r="J152" s="13"/>
       <c r="K152" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L152" s="113">
@@ -14489,13 +14540,13 @@
       <c r="F153" s="33"/>
       <c r="G153" s="11"/>
       <c r="H153" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I153" s="12"/>
       <c r="J153" s="13"/>
       <c r="K153" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L153" s="113">
@@ -14519,13 +14570,13 @@
       <c r="F154" s="33"/>
       <c r="G154" s="11"/>
       <c r="H154" s="34" t="str">
-        <f t="shared" ref="H154:H175" si="7">IF(ISNA(VLOOKUP(G154,DSBR,2,0)),"",VLOOKUP(G154,DSBR,2,0))</f>
+        <f t="shared" ref="H154:H175" si="8">IF(ISNA(VLOOKUP(G154,DSBR,2,0)),"",VLOOKUP(G154,DSBR,2,0))</f>
         <v/>
       </c>
       <c r="I154" s="12"/>
       <c r="J154" s="13"/>
       <c r="K154" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L154" s="113">
@@ -14549,13 +14600,13 @@
       <c r="F155" s="33"/>
       <c r="G155" s="11"/>
       <c r="H155" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I155" s="12"/>
       <c r="J155" s="13"/>
       <c r="K155" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L155" s="113">
@@ -14579,13 +14630,13 @@
       <c r="F156" s="33"/>
       <c r="G156" s="11"/>
       <c r="H156" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I156" s="12"/>
       <c r="J156" s="13"/>
       <c r="K156" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L156" s="113">
@@ -14609,13 +14660,13 @@
       <c r="F157" s="33"/>
       <c r="G157" s="11"/>
       <c r="H157" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I157" s="12"/>
       <c r="J157" s="13"/>
       <c r="K157" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L157" s="113">
@@ -14639,13 +14690,13 @@
       <c r="F158" s="33"/>
       <c r="G158" s="11"/>
       <c r="H158" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I158" s="12"/>
       <c r="J158" s="13"/>
       <c r="K158" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L158" s="113">
@@ -14669,13 +14720,13 @@
       <c r="F159" s="33"/>
       <c r="G159" s="11"/>
       <c r="H159" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I159" s="12"/>
       <c r="J159" s="13"/>
       <c r="K159" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L159" s="113">
@@ -14699,13 +14750,13 @@
       <c r="F160" s="33"/>
       <c r="G160" s="11"/>
       <c r="H160" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I160" s="12"/>
       <c r="J160" s="13"/>
       <c r="K160" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L160" s="113">
@@ -14714,7 +14765,7 @@
     </row>
     <row r="161" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="9" t="str">
-        <f t="shared" ref="B161:B175" si="8">IF(G161&lt;&gt;"",ROW()-25,"")</f>
+        <f t="shared" ref="B161:B175" si="9">IF(G161&lt;&gt;"",ROW()-25,"")</f>
         <v/>
       </c>
       <c r="C161" s="32" t="s">
@@ -14729,13 +14780,13 @@
       <c r="F161" s="33"/>
       <c r="G161" s="11"/>
       <c r="H161" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I161" s="12"/>
       <c r="J161" s="13"/>
       <c r="K161" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L161" s="113">
@@ -14744,7 +14795,7 @@
     </row>
     <row r="162" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C162" s="32" t="s">
@@ -14759,13 +14810,13 @@
       <c r="F162" s="33"/>
       <c r="G162" s="11"/>
       <c r="H162" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I162" s="12"/>
       <c r="J162" s="13"/>
       <c r="K162" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L162" s="113">
@@ -14774,7 +14825,7 @@
     </row>
     <row r="163" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C163" s="32" t="s">
@@ -14789,13 +14840,13 @@
       <c r="F163" s="33"/>
       <c r="G163" s="11"/>
       <c r="H163" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I163" s="12"/>
       <c r="J163" s="13"/>
       <c r="K163" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L163" s="113">
@@ -14804,7 +14855,7 @@
     </row>
     <row r="164" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C164" s="32" t="s">
@@ -14819,13 +14870,13 @@
       <c r="F164" s="33"/>
       <c r="G164" s="11"/>
       <c r="H164" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I164" s="12"/>
       <c r="J164" s="13"/>
       <c r="K164" s="13">
-        <f t="shared" ref="K164:K223" si="9">ROUND(J164*10%,0)</f>
+        <f t="shared" ref="K164:K223" si="10">ROUND(J164*10%,0)</f>
         <v>0</v>
       </c>
       <c r="L164" s="113">
@@ -14834,7 +14885,7 @@
     </row>
     <row r="165" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C165" s="32" t="s">
@@ -14849,13 +14900,13 @@
       <c r="F165" s="33"/>
       <c r="G165" s="11"/>
       <c r="H165" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I165" s="12"/>
       <c r="J165" s="13"/>
       <c r="K165" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L165" s="113">
@@ -14864,7 +14915,7 @@
     </row>
     <row r="166" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C166" s="32" t="s">
@@ -14879,13 +14930,13 @@
       <c r="F166" s="33"/>
       <c r="G166" s="11"/>
       <c r="H166" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I166" s="12"/>
       <c r="J166" s="13"/>
       <c r="K166" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L166" s="113">
@@ -14894,7 +14945,7 @@
     </row>
     <row r="167" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C167" s="32" t="s">
@@ -14909,13 +14960,13 @@
       <c r="F167" s="33"/>
       <c r="G167" s="11"/>
       <c r="H167" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I167" s="12"/>
       <c r="J167" s="13"/>
       <c r="K167" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L167" s="113">
@@ -14924,7 +14975,7 @@
     </row>
     <row r="168" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C168" s="32" t="s">
@@ -14939,13 +14990,13 @@
       <c r="F168" s="33"/>
       <c r="G168" s="11"/>
       <c r="H168" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I168" s="12"/>
       <c r="J168" s="13"/>
       <c r="K168" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L168" s="113">
@@ -14954,7 +15005,7 @@
     </row>
     <row r="169" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C169" s="32" t="s">
@@ -14969,13 +15020,13 @@
       <c r="F169" s="33"/>
       <c r="G169" s="11"/>
       <c r="H169" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I169" s="12"/>
       <c r="J169" s="13"/>
       <c r="K169" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L169" s="113">
@@ -14984,7 +15035,7 @@
     </row>
     <row r="170" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C170" s="32" t="s">
@@ -14999,13 +15050,13 @@
       <c r="F170" s="33"/>
       <c r="G170" s="11"/>
       <c r="H170" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I170" s="12"/>
       <c r="J170" s="13"/>
       <c r="K170" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L170" s="113">
@@ -15014,7 +15065,7 @@
     </row>
     <row r="171" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C171" s="32" t="s">
@@ -15029,13 +15080,13 @@
       <c r="F171" s="33"/>
       <c r="G171" s="11"/>
       <c r="H171" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I171" s="12"/>
       <c r="J171" s="13"/>
       <c r="K171" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L171" s="113">
@@ -15044,7 +15095,7 @@
     </row>
     <row r="172" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C172" s="32" t="s">
@@ -15059,13 +15110,13 @@
       <c r="F172" s="33"/>
       <c r="G172" s="11"/>
       <c r="H172" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I172" s="12"/>
       <c r="J172" s="13"/>
       <c r="K172" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L172" s="113">
@@ -15074,7 +15125,7 @@
     </row>
     <row r="173" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C173" s="32" t="s">
@@ -15089,13 +15140,13 @@
       <c r="F173" s="33"/>
       <c r="G173" s="11"/>
       <c r="H173" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I173" s="12"/>
       <c r="J173" s="13"/>
       <c r="K173" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L173" s="113">
@@ -15104,7 +15155,7 @@
     </row>
     <row r="174" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C174" s="32" t="s">
@@ -15119,20 +15170,20 @@
       <c r="F174" s="33"/>
       <c r="G174" s="11"/>
       <c r="H174" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I174" s="12"/>
       <c r="J174" s="13"/>
       <c r="K174" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L174" s="14"/>
     </row>
     <row r="175" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C175" s="32" t="s">
@@ -15147,13 +15198,13 @@
       <c r="F175" s="33"/>
       <c r="G175" s="11"/>
       <c r="H175" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I175" s="12"/>
       <c r="J175" s="13"/>
       <c r="K175" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L175" s="14"/>
@@ -15175,7 +15226,7 @@
       <c r="I176" s="12"/>
       <c r="J176" s="13"/>
       <c r="K176" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L176" s="14"/>
@@ -15197,7 +15248,7 @@
       <c r="I177" s="12"/>
       <c r="J177" s="13"/>
       <c r="K177" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L177" s="14"/>
@@ -15219,7 +15270,7 @@
       <c r="I178" s="12"/>
       <c r="J178" s="13"/>
       <c r="K178" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L178" s="14"/>
@@ -15241,7 +15292,7 @@
       <c r="I179" s="12"/>
       <c r="J179" s="13"/>
       <c r="K179" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L179" s="14"/>
@@ -15263,7 +15314,7 @@
       <c r="I180" s="12"/>
       <c r="J180" s="13"/>
       <c r="K180" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L180" s="14"/>
@@ -15285,7 +15336,7 @@
       <c r="I181" s="12"/>
       <c r="J181" s="13"/>
       <c r="K181" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L181" s="14"/>
@@ -15307,7 +15358,7 @@
       <c r="I182" s="12"/>
       <c r="J182" s="13"/>
       <c r="K182" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L182" s="14"/>
@@ -15329,7 +15380,7 @@
       <c r="I183" s="12"/>
       <c r="J183" s="13"/>
       <c r="K183" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L183" s="14"/>
@@ -15351,7 +15402,7 @@
       <c r="I184" s="12"/>
       <c r="J184" s="13"/>
       <c r="K184" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L184" s="14"/>
@@ -15373,7 +15424,7 @@
       <c r="I185" s="12"/>
       <c r="J185" s="13"/>
       <c r="K185" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L185" s="14"/>
@@ -15395,7 +15446,7 @@
       <c r="I186" s="12"/>
       <c r="J186" s="13"/>
       <c r="K186" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L186" s="14"/>
@@ -15417,7 +15468,7 @@
       <c r="I187" s="12"/>
       <c r="J187" s="13"/>
       <c r="K187" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L187" s="14"/>
@@ -15439,7 +15490,7 @@
       <c r="I188" s="12"/>
       <c r="J188" s="13"/>
       <c r="K188" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L188" s="14"/>
@@ -15461,7 +15512,7 @@
       <c r="I189" s="12"/>
       <c r="J189" s="13"/>
       <c r="K189" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L189" s="14"/>
@@ -15483,7 +15534,7 @@
       <c r="I190" s="12"/>
       <c r="J190" s="13"/>
       <c r="K190" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L190" s="14"/>
@@ -15505,7 +15556,7 @@
       <c r="I191" s="12"/>
       <c r="J191" s="13"/>
       <c r="K191" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L191" s="14"/>
@@ -15527,7 +15578,7 @@
       <c r="I192" s="12"/>
       <c r="J192" s="13"/>
       <c r="K192" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L192" s="14"/>
@@ -15549,7 +15600,7 @@
       <c r="I193" s="12"/>
       <c r="J193" s="13"/>
       <c r="K193" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L193" s="14"/>
@@ -15571,7 +15622,7 @@
       <c r="I194" s="12"/>
       <c r="J194" s="13"/>
       <c r="K194" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L194" s="14"/>
@@ -15593,7 +15644,7 @@
       <c r="I195" s="12"/>
       <c r="J195" s="13"/>
       <c r="K195" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L195" s="14"/>
@@ -15615,7 +15666,7 @@
       <c r="I196" s="12"/>
       <c r="J196" s="13"/>
       <c r="K196" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L196" s="14"/>
@@ -15637,7 +15688,7 @@
       <c r="I197" s="12"/>
       <c r="J197" s="13"/>
       <c r="K197" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L197" s="14"/>
@@ -15659,7 +15710,7 @@
       <c r="I198" s="12"/>
       <c r="J198" s="13"/>
       <c r="K198" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L198" s="14"/>
@@ -15681,7 +15732,7 @@
       <c r="I199" s="12"/>
       <c r="J199" s="13"/>
       <c r="K199" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L199" s="14"/>
@@ -15703,7 +15754,7 @@
       <c r="I200" s="12"/>
       <c r="J200" s="13"/>
       <c r="K200" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L200" s="14"/>
@@ -15725,7 +15776,7 @@
       <c r="I201" s="12"/>
       <c r="J201" s="13"/>
       <c r="K201" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L201" s="14"/>
@@ -15747,7 +15798,7 @@
       <c r="I202" s="12"/>
       <c r="J202" s="13"/>
       <c r="K202" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L202" s="14"/>
@@ -15769,7 +15820,7 @@
       <c r="I203" s="12"/>
       <c r="J203" s="13"/>
       <c r="K203" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L203" s="14"/>
@@ -15791,7 +15842,7 @@
       <c r="I204" s="12"/>
       <c r="J204" s="13"/>
       <c r="K204" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L204" s="14"/>
@@ -15813,7 +15864,7 @@
       <c r="I205" s="12"/>
       <c r="J205" s="13"/>
       <c r="K205" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L205" s="14"/>
@@ -15835,7 +15886,7 @@
       <c r="I206" s="12"/>
       <c r="J206" s="13"/>
       <c r="K206" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L206" s="14"/>
@@ -15857,7 +15908,7 @@
       <c r="I207" s="12"/>
       <c r="J207" s="13"/>
       <c r="K207" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L207" s="14"/>
@@ -15879,7 +15930,7 @@
       <c r="I208" s="12"/>
       <c r="J208" s="13"/>
       <c r="K208" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L208" s="14"/>
@@ -15901,7 +15952,7 @@
       <c r="I209" s="12"/>
       <c r="J209" s="13"/>
       <c r="K209" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L209" s="14"/>
@@ -15923,7 +15974,7 @@
       <c r="I210" s="12"/>
       <c r="J210" s="13"/>
       <c r="K210" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L210" s="14"/>
@@ -15945,7 +15996,7 @@
       <c r="I211" s="12"/>
       <c r="J211" s="13"/>
       <c r="K211" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L211" s="14"/>
@@ -15967,7 +16018,7 @@
       <c r="I212" s="12"/>
       <c r="J212" s="13"/>
       <c r="K212" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L212" s="14"/>
@@ -15989,7 +16040,7 @@
       <c r="I213" s="12"/>
       <c r="J213" s="13"/>
       <c r="K213" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L213" s="14"/>
@@ -16011,7 +16062,7 @@
       <c r="I214" s="12"/>
       <c r="J214" s="13"/>
       <c r="K214" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L214" s="14"/>
@@ -16033,7 +16084,7 @@
       <c r="I215" s="12"/>
       <c r="J215" s="13"/>
       <c r="K215" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L215" s="14"/>
@@ -16055,7 +16106,7 @@
       <c r="I216" s="12"/>
       <c r="J216" s="13"/>
       <c r="K216" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L216" s="14"/>
@@ -16077,7 +16128,7 @@
       <c r="I217" s="12"/>
       <c r="J217" s="13"/>
       <c r="K217" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L217" s="14"/>
@@ -16099,7 +16150,7 @@
       <c r="I218" s="12"/>
       <c r="J218" s="13"/>
       <c r="K218" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L218" s="14"/>
@@ -16121,7 +16172,7 @@
       <c r="I219" s="12"/>
       <c r="J219" s="13"/>
       <c r="K219" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L219" s="14"/>
@@ -16143,7 +16194,7 @@
       <c r="I220" s="12"/>
       <c r="J220" s="13"/>
       <c r="K220" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L220" s="14"/>
@@ -16165,7 +16216,7 @@
       <c r="I221" s="12"/>
       <c r="J221" s="13"/>
       <c r="K221" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L221" s="14"/>
@@ -16187,7 +16238,7 @@
       <c r="I222" s="12"/>
       <c r="J222" s="13"/>
       <c r="K222" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L222" s="14"/>
@@ -16209,7 +16260,7 @@
       <c r="I223" s="12"/>
       <c r="J223" s="13"/>
       <c r="K223" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L223" s="14"/>
@@ -16240,11 +16291,11 @@
       <c r="I225" s="28"/>
       <c r="J225" s="29">
         <f>SUBTOTAL(9,J26:J224)</f>
-        <v>3650102458</v>
+        <v>3838883295</v>
       </c>
       <c r="K225" s="29">
         <f>SUBTOTAL(9,K26:K224)</f>
-        <v>365010247</v>
+        <v>383888331</v>
       </c>
       <c r="L225" s="30"/>
     </row>
@@ -16302,7 +16353,7 @@
       <c r="G230" s="16"/>
       <c r="H230" s="88">
         <f>J225</f>
-        <v>3650102458</v>
+        <v>3838883295</v>
       </c>
       <c r="I230" s="16"/>
       <c r="L230" s="16"/>
@@ -16317,7 +16368,7 @@
       <c r="G231" s="16"/>
       <c r="H231" s="88">
         <f>K225</f>
-        <v>365010247</v>
+        <v>383888331</v>
       </c>
       <c r="I231" s="16"/>
       <c r="L231" s="16"/>
@@ -16381,726 +16432,6 @@
       <c r="I236" s="36" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="237" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J237" s="13"/>
-      <c r="K237" s="172"/>
-      <c r="L237" s="173">
-        <f>J237-K237</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J238" s="13"/>
-      <c r="K238" s="172"/>
-      <c r="L238" s="173">
-        <f t="shared" ref="L238:L259" si="10">J238-K238</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J239" s="13"/>
-      <c r="K239" s="172"/>
-      <c r="L239" s="173">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J240" s="13"/>
-      <c r="K240" s="172"/>
-      <c r="L240" s="173">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J241" s="13"/>
-      <c r="K241" s="172"/>
-      <c r="L241" s="173">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J242" s="13"/>
-      <c r="K242" s="172"/>
-      <c r="L242" s="173">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J243" s="13"/>
-      <c r="K243" s="172"/>
-      <c r="L243" s="173">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J244" s="13"/>
-      <c r="K244" s="172"/>
-      <c r="L244" s="173">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J245" s="13"/>
-      <c r="K245" s="172"/>
-      <c r="L245" s="173">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J246" s="13"/>
-      <c r="K246" s="172"/>
-      <c r="L246" s="173">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J247" s="13"/>
-      <c r="K247" s="172"/>
-      <c r="L247" s="173">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J248" s="13"/>
-      <c r="K248" s="172"/>
-      <c r="L248" s="173">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J249" s="13"/>
-      <c r="K249" s="172"/>
-      <c r="L249" s="173">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J250" s="13"/>
-      <c r="K250" s="172"/>
-      <c r="L250" s="173">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J251" s="13"/>
-      <c r="K251" s="172"/>
-      <c r="L251" s="173">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J252" s="13">
-        <v>18018190</v>
-      </c>
-      <c r="K252" s="172"/>
-      <c r="L252" s="173">
-        <f t="shared" si="10"/>
-        <v>18018190</v>
-      </c>
-    </row>
-    <row r="253" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J253" s="13">
-        <v>1800000</v>
-      </c>
-      <c r="K253" s="172"/>
-      <c r="L253" s="173">
-        <f t="shared" si="10"/>
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="254" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J254" s="13">
-        <v>2600000</v>
-      </c>
-      <c r="K254" s="172"/>
-      <c r="L254" s="173">
-        <f t="shared" si="10"/>
-        <v>2600000</v>
-      </c>
-    </row>
-    <row r="255" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J255" s="13">
-        <v>1222440</v>
-      </c>
-      <c r="K255" s="172"/>
-      <c r="L255" s="173">
-        <f t="shared" si="10"/>
-        <v>1222440</v>
-      </c>
-    </row>
-    <row r="256" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J256" s="13">
-        <v>102404549</v>
-      </c>
-      <c r="K256" s="172">
-        <v>18018000</v>
-      </c>
-      <c r="L256" s="173">
-        <f t="shared" si="10"/>
-        <v>84386549</v>
-      </c>
-    </row>
-    <row r="257" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J257" s="13">
-        <v>1853775</v>
-      </c>
-      <c r="K257" s="172">
-        <v>1800000</v>
-      </c>
-      <c r="L257" s="173">
-        <f t="shared" si="10"/>
-        <v>53775</v>
-      </c>
-    </row>
-    <row r="258" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J258" s="13">
-        <v>42126000</v>
-      </c>
-      <c r="K258" s="172">
-        <v>2600000</v>
-      </c>
-      <c r="L258" s="173">
-        <f t="shared" si="10"/>
-        <v>39526000</v>
-      </c>
-    </row>
-    <row r="259" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J259" s="13">
-        <v>111000000</v>
-      </c>
-      <c r="K259" s="172">
-        <v>580920</v>
-      </c>
-      <c r="L259" s="173">
-        <f t="shared" si="10"/>
-        <v>110419080</v>
-      </c>
-    </row>
-    <row r="260" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J260" s="13">
-        <v>4650000</v>
-      </c>
-      <c r="K260" s="172">
-        <v>641520</v>
-      </c>
-    </row>
-    <row r="261" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="J261" s="13">
-        <v>862000</v>
-      </c>
-      <c r="K261" s="172">
-        <v>1946220</v>
-      </c>
-    </row>
-    <row r="262" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="K262" s="172">
-        <v>1478700</v>
-      </c>
-    </row>
-    <row r="263" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="K263" s="172">
-        <v>2062640</v>
-      </c>
-    </row>
-    <row r="264" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="K264" s="172">
-        <v>3789140</v>
-      </c>
-    </row>
-    <row r="265" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="K265" s="172">
-        <v>896580</v>
-      </c>
-    </row>
-    <row r="266" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="K266" s="172">
-        <v>791308</v>
-      </c>
-    </row>
-    <row r="267" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="K267" s="172">
-        <v>2488320</v>
-      </c>
-    </row>
-    <row r="268" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="K268" s="172">
-        <v>1100592</v>
-      </c>
-    </row>
-    <row r="269" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="K269" s="172">
-        <v>471678</v>
-      </c>
-    </row>
-    <row r="270" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="K270" s="172">
-        <v>804032</v>
-      </c>
-    </row>
-    <row r="271" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="K271" s="172">
-        <v>8621850</v>
-      </c>
-    </row>
-    <row r="272" spans="10:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="K272" s="172">
-        <v>2252800</v>
-      </c>
-    </row>
-    <row r="273" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K273" s="172">
-        <v>1132215</v>
-      </c>
-    </row>
-    <row r="274" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K274" s="172">
-        <v>4913628</v>
-      </c>
-    </row>
-    <row r="275" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K275" s="172">
-        <v>613340</v>
-      </c>
-    </row>
-    <row r="276" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K276" s="172">
-        <v>245280</v>
-      </c>
-    </row>
-    <row r="277" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K277" s="172">
-        <v>1766394</v>
-      </c>
-    </row>
-    <row r="278" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K278" s="172">
-        <v>538848</v>
-      </c>
-    </row>
-    <row r="279" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K279" s="172">
-        <v>2244000</v>
-      </c>
-    </row>
-    <row r="280" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K280" s="172">
-        <v>1018800</v>
-      </c>
-    </row>
-    <row r="281" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K281" s="172">
-        <v>1428884</v>
-      </c>
-    </row>
-    <row r="282" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K282" s="172">
-        <v>899520</v>
-      </c>
-    </row>
-    <row r="283" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K283" s="172">
-        <v>295656</v>
-      </c>
-    </row>
-    <row r="284" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K284" s="172">
-        <v>1237140</v>
-      </c>
-    </row>
-    <row r="285" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K285" s="172">
-        <v>158496</v>
-      </c>
-    </row>
-    <row r="286" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K286" s="172">
-        <v>229524</v>
-      </c>
-    </row>
-    <row r="287" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K287" s="172">
-        <v>650100</v>
-      </c>
-    </row>
-    <row r="288" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K288" s="172">
-        <v>306252</v>
-      </c>
-    </row>
-    <row r="289" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K289" s="172">
-        <v>163120</v>
-      </c>
-    </row>
-    <row r="290" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K290" s="172">
-        <v>1033170</v>
-      </c>
-    </row>
-    <row r="291" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K291" s="172">
-        <v>2651880</v>
-      </c>
-    </row>
-    <row r="292" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K292" s="172">
-        <v>1673540</v>
-      </c>
-    </row>
-    <row r="293" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K293" s="172">
-        <v>521208</v>
-      </c>
-    </row>
-    <row r="294" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K294" s="172">
-        <v>814122</v>
-      </c>
-    </row>
-    <row r="295" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K295" s="172">
-        <v>613716</v>
-      </c>
-    </row>
-    <row r="296" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K296" s="172">
-        <v>615656</v>
-      </c>
-    </row>
-    <row r="297" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K297" s="172">
-        <v>381024</v>
-      </c>
-    </row>
-    <row r="298" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K298" s="172">
-        <v>2801872</v>
-      </c>
-    </row>
-    <row r="299" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K299" s="172">
-        <v>1414996</v>
-      </c>
-    </row>
-    <row r="300" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K300" s="172">
-        <v>928018</v>
-      </c>
-    </row>
-    <row r="301" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K301" s="172">
-        <v>257856</v>
-      </c>
-    </row>
-    <row r="302" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K302" s="172">
-        <v>1934496</v>
-      </c>
-    </row>
-    <row r="303" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K303" s="172">
-        <v>302058</v>
-      </c>
-    </row>
-    <row r="304" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K304" s="172">
-        <v>62604</v>
-      </c>
-    </row>
-    <row r="305" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K305" s="172">
-        <v>137022</v>
-      </c>
-    </row>
-    <row r="306" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K306" s="172">
-        <v>490104</v>
-      </c>
-    </row>
-    <row r="307" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K307" s="172">
-        <v>869652</v>
-      </c>
-    </row>
-    <row r="308" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K308" s="172">
-        <v>643412</v>
-      </c>
-    </row>
-    <row r="309" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K309" s="172">
-        <v>586224</v>
-      </c>
-    </row>
-    <row r="310" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K310" s="172">
-        <v>171708</v>
-      </c>
-    </row>
-    <row r="311" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K311" s="172">
-        <v>299616</v>
-      </c>
-    </row>
-    <row r="312" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K312" s="172">
-        <v>680184</v>
-      </c>
-    </row>
-    <row r="313" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K313" s="172">
-        <v>3192360</v>
-      </c>
-    </row>
-    <row r="314" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K314" s="172">
-        <v>1474020</v>
-      </c>
-    </row>
-    <row r="315" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K315" s="172">
-        <v>5499386</v>
-      </c>
-    </row>
-    <row r="316" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K316" s="172">
-        <v>1459140</v>
-      </c>
-    </row>
-    <row r="317" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K317" s="172">
-        <v>2544880</v>
-      </c>
-    </row>
-    <row r="318" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K318" s="172">
-        <v>2547320</v>
-      </c>
-    </row>
-    <row r="319" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K319" s="172">
-        <v>2224680</v>
-      </c>
-    </row>
-    <row r="320" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K320" s="172">
-        <v>3022920</v>
-      </c>
-    </row>
-    <row r="321" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K321" s="172">
-        <v>7161760</v>
-      </c>
-    </row>
-    <row r="322" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K322" s="172">
-        <v>1936480</v>
-      </c>
-    </row>
-    <row r="323" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K323" s="172">
-        <v>661032</v>
-      </c>
-    </row>
-    <row r="324" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K324" s="172">
-        <v>1227456</v>
-      </c>
-    </row>
-    <row r="325" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K325" s="172">
-        <v>63900</v>
-      </c>
-    </row>
-    <row r="326" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K326" s="172">
-        <v>1335294</v>
-      </c>
-    </row>
-    <row r="327" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K327" s="172">
-        <v>1819008</v>
-      </c>
-    </row>
-    <row r="328" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K328" s="172">
-        <v>786060</v>
-      </c>
-    </row>
-    <row r="329" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K329" s="172">
-        <v>125988</v>
-      </c>
-    </row>
-    <row r="330" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K330" s="172">
-        <v>70836</v>
-      </c>
-    </row>
-    <row r="331" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K331" s="172">
-        <v>195984</v>
-      </c>
-    </row>
-    <row r="332" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K332" s="172">
-        <v>626850</v>
-      </c>
-    </row>
-    <row r="333" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K333" s="172">
-        <v>1853775</v>
-      </c>
-    </row>
-    <row r="334" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K334" s="172">
-        <v>42126000</v>
-      </c>
-    </row>
-    <row r="335" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K335" s="172">
-        <v>53650000</v>
-      </c>
-    </row>
-    <row r="336" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K336" s="172">
-        <v>57350000</v>
-      </c>
-    </row>
-    <row r="337" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K337" s="172">
-        <v>4650000</v>
-      </c>
-    </row>
-    <row r="338" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K338" s="172">
-        <v>862000</v>
-      </c>
-    </row>
-    <row r="339" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K339" s="172"/>
-    </row>
-    <row r="340" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K340" s="172"/>
-    </row>
-    <row r="341" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K341" s="172"/>
-    </row>
-    <row r="342" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K342" s="172"/>
-    </row>
-    <row r="343" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K343" s="172"/>
-    </row>
-    <row r="344" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K344" s="172"/>
-    </row>
-    <row r="345" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K345" s="172"/>
-    </row>
-    <row r="346" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K346" s="172"/>
-    </row>
-    <row r="347" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K347" s="172"/>
-    </row>
-    <row r="348" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K348" s="172"/>
-    </row>
-    <row r="349" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K349" s="172"/>
-    </row>
-    <row r="350" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K350" s="172"/>
-    </row>
-    <row r="351" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K351" s="172"/>
-    </row>
-    <row r="352" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K352" s="172"/>
-    </row>
-    <row r="353" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K353" s="172"/>
-    </row>
-    <row r="354" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K354" s="172"/>
-    </row>
-    <row r="355" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K355" s="172"/>
-    </row>
-    <row r="356" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K356" s="172"/>
-    </row>
-    <row r="357" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K357" s="172"/>
-    </row>
-    <row r="358" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K358" s="172"/>
-    </row>
-    <row r="359" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K359" s="172"/>
-    </row>
-    <row r="360" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K360" s="172"/>
-    </row>
-    <row r="361" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K361" s="172"/>
-    </row>
-    <row r="362" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K362" s="172"/>
-    </row>
-    <row r="363" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K363" s="172"/>
-    </row>
-    <row r="364" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K364" s="172"/>
-    </row>
-    <row r="365" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K365" s="172"/>
-    </row>
-    <row r="366" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K366" s="172"/>
-    </row>
-    <row r="367" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K367" s="172"/>
-    </row>
-    <row r="368" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K368" s="172"/>
-    </row>
-    <row r="369" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K369" s="172"/>
-    </row>
-    <row r="370" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K370" s="172"/>
-    </row>
-    <row r="371" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K371" s="172"/>
-    </row>
-    <row r="372" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K372" s="172"/>
-    </row>
-    <row r="373" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K373" s="172"/>
-    </row>
-    <row r="374" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K374" s="172"/>
-    </row>
-    <row r="375" spans="11:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="K375" s="172"/>
     </row>
   </sheetData>
   <autoFilter ref="A25:N223"/>
@@ -17140,7 +16471,7 @@
   <dimension ref="B1:S119"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S79" sqref="S79"/>
+      <selection activeCell="R79" sqref="R79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18794,8 +18125,12 @@
       <c r="L79" s="103"/>
       <c r="M79" s="103"/>
       <c r="N79" s="103"/>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
+      <c r="R79" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="S79" s="94" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="80" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D80" s="103"/>

--- a/2017/BANGKE - 17.xlsx
+++ b/2017/BANGKE - 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20400" windowHeight="8760" tabRatio="756" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20400" windowHeight="8760" tabRatio="756"/>
   </bookViews>
   <sheets>
     <sheet name="TH-MV" sheetId="15" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="676">
   <si>
     <t>(Kèm theo tờ khai thuế GTGT theo mẫu số 01/GTGT)</t>
   </si>
@@ -2993,6 +2993,33 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3130,33 +3157,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3859,15 +3859,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:Q256"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="G181" sqref="G181"/>
+      <selection pane="bottomLeft" activeCell="J253" sqref="J253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3924,70 +3924,70 @@
       <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:15" s="37" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
     </row>
     <row r="5" spans="1:15" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
     </row>
     <row r="6" spans="1:15" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
     </row>
     <row r="7" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="140" t="str">
+      <c r="B7" s="149" t="str">
         <f>"Kỳ tính thuế: Quý "&amp;O14&amp;" Năm "&amp;YEAR(F17)</f>
-        <v>Kỳ tính thuế: Quý 3 Năm 2017</v>
-      </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
+        <v>Kỳ tính thuế: Quý 2 Năm 2017</v>
+      </c>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
     </row>
     <row r="8" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="39"/>
@@ -4012,67 +4012,67 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
     </row>
     <row r="12" spans="1:15" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="142" t="s">
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="142" t="s">
+      <c r="H12" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="142" t="s">
+      <c r="I12" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="142" t="s">
+      <c r="J12" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="143" t="s">
+      <c r="K12" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="142" t="s">
+      <c r="L12" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="142" t="s">
+      <c r="M12" s="151" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="37" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="144"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="142"/>
-      <c r="M13" s="142"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
     </row>
     <row r="14" spans="1:15" s="37" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="144"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="42" t="s">
         <v>43</v>
       </c>
@@ -4085,15 +4085,15 @@
       <c r="F14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="142"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
       <c r="O14" s="120">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -4134,7 +4134,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="47" t="s">
         <v>69</v>
       </c>
@@ -4150,7 +4150,7 @@
       <c r="L16" s="47"/>
       <c r="M16" s="47"/>
     </row>
-    <row r="17" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="48">
         <f t="shared" ref="B17:B32" si="0">IF(G17&lt;&gt;"",ROW()-16,"")</f>
         <v>1</v>
@@ -4193,7 +4193,7 @@
       <c r="P17" s="56"/>
       <c r="Q17" s="58"/>
     </row>
-    <row r="18" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4236,7 +4236,7 @@
       <c r="P18" s="56"/>
       <c r="Q18" s="58"/>
     </row>
-    <row r="19" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4274,7 +4274,7 @@
       <c r="O19" s="57"/>
       <c r="P19" s="56"/>
     </row>
-    <row r="20" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="48">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4316,7 +4316,7 @@
       <c r="O20" s="57"/>
       <c r="P20" s="56"/>
     </row>
-    <row r="21" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4358,7 +4358,7 @@
       <c r="O21" s="57"/>
       <c r="P21" s="56"/>
     </row>
-    <row r="22" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="48">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4400,7 +4400,7 @@
       <c r="O22" s="57"/>
       <c r="P22" s="56"/>
     </row>
-    <row r="23" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="48">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4442,7 +4442,7 @@
       <c r="O23" s="57"/>
       <c r="P23" s="56"/>
     </row>
-    <row r="24" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="48">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4484,7 +4484,7 @@
       <c r="O24" s="57"/>
       <c r="P24" s="56"/>
     </row>
-    <row r="25" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="48">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4526,7 +4526,7 @@
       <c r="O25" s="57"/>
       <c r="P25" s="56"/>
     </row>
-    <row r="26" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4564,7 +4564,7 @@
       <c r="O26" s="57"/>
       <c r="P26" s="56"/>
     </row>
-    <row r="27" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="48">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4606,7 +4606,7 @@
       <c r="O27" s="57"/>
       <c r="P27" s="56"/>
     </row>
-    <row r="28" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="48">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4648,7 +4648,7 @@
       <c r="O28" s="57"/>
       <c r="P28" s="56"/>
     </row>
-    <row r="29" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="48">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4690,7 +4690,7 @@
       <c r="O29" s="57"/>
       <c r="P29" s="56"/>
     </row>
-    <row r="30" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="48">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4732,7 +4732,7 @@
       <c r="O30" s="57"/>
       <c r="P30" s="56"/>
     </row>
-    <row r="31" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="48">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4774,7 +4774,7 @@
       <c r="O31" s="57"/>
       <c r="P31" s="56"/>
     </row>
-    <row r="32" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4812,7 +4812,7 @@
       <c r="O32" s="57"/>
       <c r="P32" s="56"/>
     </row>
-    <row r="33" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="48">
         <f t="shared" ref="B33:B54" si="3">IF(G33&lt;&gt;"",ROW()-16,"")</f>
         <v>17</v>
@@ -4854,7 +4854,7 @@
       <c r="O33" s="57"/>
       <c r="P33" s="56"/>
     </row>
-    <row r="34" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="48">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -4896,7 +4896,7 @@
       <c r="O34" s="57"/>
       <c r="P34" s="56"/>
     </row>
-    <row r="35" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="48">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -4938,7 +4938,7 @@
       <c r="O35" s="57"/>
       <c r="P35" s="56"/>
     </row>
-    <row r="36" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="48">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -4980,7 +4980,7 @@
       <c r="O36" s="57"/>
       <c r="P36" s="56"/>
     </row>
-    <row r="37" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="48">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -5022,7 +5022,7 @@
       <c r="O37" s="57"/>
       <c r="P37" s="56"/>
     </row>
-    <row r="38" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="48">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -5064,7 +5064,7 @@
       <c r="O38" s="57"/>
       <c r="P38" s="56"/>
     </row>
-    <row r="39" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="48">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -5106,7 +5106,7 @@
       <c r="O39" s="57"/>
       <c r="P39" s="56"/>
     </row>
-    <row r="40" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="48">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -5148,7 +5148,7 @@
       <c r="O40" s="57"/>
       <c r="P40" s="56"/>
     </row>
-    <row r="41" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="48">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -5190,7 +5190,7 @@
       <c r="O41" s="57"/>
       <c r="P41" s="56"/>
     </row>
-    <row r="42" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="48">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -5232,7 +5232,7 @@
       <c r="O42" s="57"/>
       <c r="P42" s="56"/>
     </row>
-    <row r="43" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="48">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5274,7 +5274,7 @@
       <c r="O43" s="57"/>
       <c r="P43" s="56"/>
     </row>
-    <row r="44" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="48">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -5316,7 +5316,7 @@
       <c r="O44" s="57"/>
       <c r="P44" s="56"/>
     </row>
-    <row r="45" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="48">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -5358,7 +5358,7 @@
       <c r="O45" s="57"/>
       <c r="P45" s="56"/>
     </row>
-    <row r="46" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="48">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -5400,7 +5400,7 @@
       <c r="O46" s="57"/>
       <c r="P46" s="56"/>
     </row>
-    <row r="47" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="48">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -5442,7 +5442,7 @@
       <c r="O47" s="57"/>
       <c r="P47" s="56"/>
     </row>
-    <row r="48" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="48">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -5484,7 +5484,7 @@
       <c r="O48" s="57"/>
       <c r="P48" s="56"/>
     </row>
-    <row r="49" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="48">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -5526,7 +5526,7 @@
       <c r="O49" s="57"/>
       <c r="P49" s="56"/>
     </row>
-    <row r="50" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="48">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -5568,7 +5568,7 @@
       <c r="O50" s="57"/>
       <c r="P50" s="56"/>
     </row>
-    <row r="51" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="48">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -5610,7 +5610,7 @@
       <c r="O51" s="57"/>
       <c r="P51" s="56"/>
     </row>
-    <row r="52" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="48">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -5652,7 +5652,7 @@
       <c r="O52" s="57"/>
       <c r="P52" s="56"/>
     </row>
-    <row r="53" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="48">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -5694,7 +5694,7 @@
       <c r="O53" s="57"/>
       <c r="P53" s="56"/>
     </row>
-    <row r="54" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="48">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -5736,7 +5736,7 @@
       <c r="O54" s="57"/>
       <c r="P54" s="56"/>
     </row>
-    <row r="55" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="48" t="str">
         <f t="shared" ref="B55:B231" si="6">IF(G55&lt;&gt;"",ROW()-16,"")</f>
         <v/>
@@ -5776,7 +5776,7 @@
       <c r="O55" s="57"/>
       <c r="P55" s="56"/>
     </row>
-    <row r="56" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5816,7 +5816,7 @@
       <c r="O56" s="57"/>
       <c r="P56" s="56"/>
     </row>
-    <row r="57" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5856,7 +5856,7 @@
       <c r="O57" s="57"/>
       <c r="P57" s="56"/>
     </row>
-    <row r="58" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5896,7 +5896,7 @@
       <c r="O58" s="57"/>
       <c r="P58" s="56"/>
     </row>
-    <row r="59" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5936,7 +5936,7 @@
       <c r="O59" s="57"/>
       <c r="P59" s="56"/>
     </row>
-    <row r="60" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5976,7 +5976,7 @@
       <c r="O60" s="57"/>
       <c r="P60" s="56"/>
     </row>
-    <row r="61" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6016,7 +6016,7 @@
       <c r="O61" s="57"/>
       <c r="P61" s="56"/>
     </row>
-    <row r="62" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6056,7 +6056,7 @@
       <c r="O62" s="57"/>
       <c r="P62" s="56"/>
     </row>
-    <row r="63" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6096,7 +6096,7 @@
       <c r="O63" s="57"/>
       <c r="P63" s="56"/>
     </row>
-    <row r="64" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6136,7 +6136,7 @@
       <c r="O64" s="57"/>
       <c r="P64" s="56"/>
     </row>
-    <row r="65" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6176,7 +6176,7 @@
       <c r="O65" s="57"/>
       <c r="P65" s="56"/>
     </row>
-    <row r="66" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6216,7 +6216,7 @@
       <c r="O66" s="57"/>
       <c r="P66" s="56"/>
     </row>
-    <row r="67" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6256,7 +6256,7 @@
       <c r="O67" s="57"/>
       <c r="P67" s="56"/>
     </row>
-    <row r="68" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6296,7 +6296,7 @@
       <c r="O68" s="57"/>
       <c r="P68" s="56"/>
     </row>
-    <row r="69" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6336,7 +6336,7 @@
       <c r="O69" s="57"/>
       <c r="P69" s="56"/>
     </row>
-    <row r="70" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6376,7 +6376,7 @@
       <c r="O70" s="57"/>
       <c r="P70" s="56"/>
     </row>
-    <row r="71" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6416,7 +6416,7 @@
       <c r="O71" s="57"/>
       <c r="P71" s="56"/>
     </row>
-    <row r="72" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6456,7 +6456,7 @@
       <c r="O72" s="57"/>
       <c r="P72" s="56"/>
     </row>
-    <row r="73" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6496,7 +6496,7 @@
       <c r="O73" s="57"/>
       <c r="P73" s="56"/>
     </row>
-    <row r="74" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6536,7 +6536,7 @@
       <c r="O74" s="57"/>
       <c r="P74" s="56"/>
     </row>
-    <row r="75" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6576,7 +6576,7 @@
       <c r="O75" s="57"/>
       <c r="P75" s="56"/>
     </row>
-    <row r="76" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6616,7 +6616,7 @@
       <c r="O76" s="57"/>
       <c r="P76" s="56"/>
     </row>
-    <row r="77" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6656,7 +6656,7 @@
       <c r="O77" s="57"/>
       <c r="P77" s="56"/>
     </row>
-    <row r="78" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6696,7 +6696,7 @@
       <c r="O78" s="57"/>
       <c r="P78" s="56"/>
     </row>
-    <row r="79" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6736,7 +6736,7 @@
       <c r="O79" s="57"/>
       <c r="P79" s="56"/>
     </row>
-    <row r="80" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6776,7 +6776,7 @@
       <c r="O80" s="57"/>
       <c r="P80" s="56"/>
     </row>
-    <row r="81" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6816,7 +6816,7 @@
       <c r="O81" s="57"/>
       <c r="P81" s="56"/>
     </row>
-    <row r="82" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6856,7 +6856,7 @@
       <c r="O82" s="57"/>
       <c r="P82" s="56"/>
     </row>
-    <row r="83" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -11085,7 +11085,7 @@
       <c r="N180" s="56"/>
       <c r="O180" s="57"/>
     </row>
-    <row r="181" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11115,7 +11115,7 @@
       <c r="N181" s="56"/>
       <c r="O181" s="57"/>
     </row>
-    <row r="182" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11145,7 +11145,7 @@
       <c r="N182" s="56"/>
       <c r="O182" s="57"/>
     </row>
-    <row r="183" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11175,7 +11175,7 @@
       <c r="N183" s="56"/>
       <c r="O183" s="57"/>
     </row>
-    <row r="184" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11205,7 +11205,7 @@
       <c r="N184" s="56"/>
       <c r="O184" s="57"/>
     </row>
-    <row r="185" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11235,7 +11235,7 @@
       <c r="N185" s="56"/>
       <c r="O185" s="57"/>
     </row>
-    <row r="186" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11265,7 +11265,7 @@
       <c r="N186" s="56"/>
       <c r="O186" s="57"/>
     </row>
-    <row r="187" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11295,7 +11295,7 @@
       <c r="N187" s="56"/>
       <c r="O187" s="57"/>
     </row>
-    <row r="188" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11325,7 +11325,7 @@
       <c r="N188" s="56"/>
       <c r="O188" s="57"/>
     </row>
-    <row r="189" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11355,7 +11355,7 @@
       <c r="N189" s="56"/>
       <c r="O189" s="57"/>
     </row>
-    <row r="190" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11385,7 +11385,7 @@
       <c r="N190" s="56"/>
       <c r="O190" s="57"/>
     </row>
-    <row r="191" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11415,7 +11415,7 @@
       <c r="N191" s="56"/>
       <c r="O191" s="57"/>
     </row>
-    <row r="192" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11445,7 +11445,7 @@
       <c r="N192" s="56"/>
       <c r="O192" s="57"/>
     </row>
-    <row r="193" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11475,7 +11475,7 @@
       <c r="N193" s="56"/>
       <c r="O193" s="57"/>
     </row>
-    <row r="194" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11505,7 +11505,7 @@
       <c r="N194" s="56"/>
       <c r="O194" s="57"/>
     </row>
-    <row r="195" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11535,7 +11535,7 @@
       <c r="N195" s="56"/>
       <c r="O195" s="57"/>
     </row>
-    <row r="196" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11565,7 +11565,7 @@
       <c r="N196" s="56"/>
       <c r="O196" s="57"/>
     </row>
-    <row r="197" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11595,7 +11595,7 @@
       <c r="N197" s="56"/>
       <c r="O197" s="57"/>
     </row>
-    <row r="198" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11625,7 +11625,7 @@
       <c r="N198" s="56"/>
       <c r="O198" s="57"/>
     </row>
-    <row r="199" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11655,7 +11655,7 @@
       <c r="N199" s="56"/>
       <c r="O199" s="57"/>
     </row>
-    <row r="200" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11685,7 +11685,7 @@
       <c r="N200" s="56"/>
       <c r="O200" s="57"/>
     </row>
-    <row r="201" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11715,7 +11715,7 @@
       <c r="N201" s="56"/>
       <c r="O201" s="57"/>
     </row>
-    <row r="202" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11745,7 +11745,7 @@
       <c r="N202" s="56"/>
       <c r="O202" s="57"/>
     </row>
-    <row r="203" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11775,7 +11775,7 @@
       <c r="N203" s="56"/>
       <c r="O203" s="57"/>
     </row>
-    <row r="204" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11805,7 +11805,7 @@
       <c r="N204" s="56"/>
       <c r="O204" s="57"/>
     </row>
-    <row r="205" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11835,7 +11835,7 @@
       <c r="N205" s="56"/>
       <c r="O205" s="57"/>
     </row>
-    <row r="206" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11865,7 +11865,7 @@
       <c r="N206" s="56"/>
       <c r="O206" s="57"/>
     </row>
-    <row r="207" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11895,7 +11895,7 @@
       <c r="N207" s="56"/>
       <c r="O207" s="57"/>
     </row>
-    <row r="208" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11925,7 +11925,7 @@
       <c r="N208" s="56"/>
       <c r="O208" s="57"/>
     </row>
-    <row r="209" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11955,7 +11955,7 @@
       <c r="N209" s="56"/>
       <c r="O209" s="57"/>
     </row>
-    <row r="210" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11985,7 +11985,7 @@
       <c r="N210" s="56"/>
       <c r="O210" s="57"/>
     </row>
-    <row r="211" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -12015,7 +12015,7 @@
       <c r="N211" s="56"/>
       <c r="O211" s="57"/>
     </row>
-    <row r="212" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -12045,7 +12045,7 @@
       <c r="N212" s="56"/>
       <c r="O212" s="57"/>
     </row>
-    <row r="213" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -12075,7 +12075,7 @@
       <c r="N213" s="56"/>
       <c r="O213" s="57"/>
     </row>
-    <row r="214" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -12105,7 +12105,7 @@
       <c r="N214" s="56"/>
       <c r="O214" s="57"/>
     </row>
-    <row r="215" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -12135,7 +12135,7 @@
       <c r="N215" s="56"/>
       <c r="O215" s="57"/>
     </row>
-    <row r="216" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12165,7 +12165,7 @@
       <c r="N216" s="56"/>
       <c r="O216" s="57"/>
     </row>
-    <row r="217" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12195,7 +12195,7 @@
       <c r="N217" s="56"/>
       <c r="O217" s="57"/>
     </row>
-    <row r="218" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12225,7 +12225,7 @@
       <c r="N218" s="56"/>
       <c r="O218" s="57"/>
     </row>
-    <row r="219" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12255,7 +12255,7 @@
       <c r="N219" s="56"/>
       <c r="O219" s="57"/>
     </row>
-    <row r="220" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12285,7 +12285,7 @@
       <c r="N220" s="56"/>
       <c r="O220" s="57"/>
     </row>
-    <row r="221" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="48" t="str">
         <f t="shared" ref="B221:B225" si="21">IF(G221&lt;&gt;"",ROW()-16,"")</f>
         <v/>
@@ -12315,7 +12315,7 @@
       <c r="N221" s="56"/>
       <c r="O221" s="57"/>
     </row>
-    <row r="222" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="48" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -12345,7 +12345,7 @@
       <c r="N222" s="56"/>
       <c r="O222" s="57"/>
     </row>
-    <row r="223" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="48" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -12375,7 +12375,7 @@
       <c r="N223" s="56"/>
       <c r="O223" s="57"/>
     </row>
-    <row r="224" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="48" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -12405,7 +12405,7 @@
       <c r="N224" s="56"/>
       <c r="O224" s="57"/>
     </row>
-    <row r="225" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="48" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -12435,7 +12435,7 @@
       <c r="N225" s="56"/>
       <c r="O225" s="57"/>
     </row>
-    <row r="226" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="48" t="str">
         <f t="shared" ref="B226:B230" si="22">IF(G226&lt;&gt;"",ROW()-16,"")</f>
         <v/>
@@ -12465,7 +12465,7 @@
       <c r="N226" s="56"/>
       <c r="O226" s="57"/>
     </row>
-    <row r="227" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="48" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -12495,7 +12495,7 @@
       <c r="N227" s="56"/>
       <c r="O227" s="57"/>
     </row>
-    <row r="228" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="48" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -12525,7 +12525,7 @@
       <c r="N228" s="56"/>
       <c r="O228" s="57"/>
     </row>
-    <row r="229" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="48" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -12555,7 +12555,7 @@
       <c r="N229" s="56"/>
       <c r="O229" s="57"/>
     </row>
-    <row r="230" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="48" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -12585,7 +12585,7 @@
       <c r="N230" s="56"/>
       <c r="O230" s="57"/>
     </row>
-    <row r="231" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -12615,7 +12615,7 @@
       <c r="N231" s="56"/>
       <c r="O231" s="57"/>
     </row>
-    <row r="232" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="48" t="str">
         <f t="shared" ref="B232:B235" si="26">IF(G232&lt;&gt;"",ROW()-16,"")</f>
         <v/>
@@ -12645,7 +12645,7 @@
       <c r="N232" s="56"/>
       <c r="O232" s="57"/>
     </row>
-    <row r="233" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="48" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -12675,7 +12675,7 @@
       <c r="N233" s="56"/>
       <c r="O233" s="57"/>
     </row>
-    <row r="234" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="48" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -12705,7 +12705,7 @@
       <c r="N234" s="56"/>
       <c r="O234" s="57"/>
     </row>
-    <row r="235" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="48" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -12735,7 +12735,7 @@
       <c r="N235" s="56"/>
       <c r="O235" s="57"/>
     </row>
-    <row r="236" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="48" t="str">
         <f>IF(G236&lt;&gt;"",ROW()-16,"")</f>
         <v/>
@@ -12767,12 +12767,12 @@
       <c r="I237" s="70"/>
       <c r="J237" s="72">
         <f>SUBTOTAL(9,J17:J236)</f>
-        <v>3943276567.4545455</v>
+        <v>1482029575</v>
       </c>
       <c r="K237" s="72"/>
       <c r="L237" s="72">
         <f>SUBTOTAL(9,L17:L236)</f>
-        <v>394327661</v>
+        <v>148202960</v>
       </c>
       <c r="M237" s="70"/>
       <c r="N237" s="57"/>
@@ -12982,7 +12982,7 @@
       <c r="G250" s="38"/>
       <c r="H250" s="88">
         <f>J237</f>
-        <v>3943276567.4545455</v>
+        <v>1482029575</v>
       </c>
       <c r="I250" s="38"/>
       <c r="K250" s="40"/>
@@ -12998,7 +12998,7 @@
       <c r="G251" s="38"/>
       <c r="H251" s="88">
         <f>L237</f>
-        <v>394327661</v>
+        <v>148202960</v>
       </c>
       <c r="I251" s="38"/>
       <c r="K251" s="40"/>
@@ -13014,9 +13014,9 @@
       <c r="G252" s="38"/>
       <c r="H252" s="38"/>
       <c r="I252" s="38"/>
-      <c r="J252" s="116" t="e">
-        <f>"Bình Dương, "&amp;IF($O$14=1,"Ngày 31 Tháng 03  ",IF($O$14=2,"Ngày 30 Tháng 06  ",IF($O$14=3,"Ngày 30 Tháng 09  ",IF($O$14=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR(#REF!)</f>
-        <v>#REF!</v>
+      <c r="J252" s="116" t="str">
+        <f>"Bình Dương, "&amp;IF($O$14=1,"Ngày 31 Tháng 03  ",IF($O$14=2,"Ngày 30 Tháng 06  ",IF($O$14=3,"Ngày 30 Tháng 09  ",IF($O$14=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR(F17)</f>
+        <v>Bình Dương, Ngày 30 Tháng 06  Năm  2017</v>
       </c>
       <c r="K252" s="116"/>
       <c r="N252" s="57"/>
@@ -13074,7 +13074,13 @@
       <c r="M256" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A15:O236"/>
+  <autoFilter ref="A15:O236">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A33:Q54">
     <sortCondition ref="F33:F54"/>
   </sortState>
@@ -13110,10 +13116,10 @@
   </sheetPr>
   <dimension ref="A1:N236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="14" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="J195" sqref="J195"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13165,66 +13171,66 @@
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:14" s="15" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
     </row>
     <row r="5" spans="1:14" s="15" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
     </row>
     <row r="6" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
     </row>
     <row r="7" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="151" t="e">
+      <c r="B7" s="160" t="e">
         <f>"Kỳ tính thuế: Quý "&amp;N14&amp;" Năm "&amp;YEAR(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
     </row>
     <row r="8" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
@@ -13248,62 +13254,62 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="154" t="s">
+      <c r="B11" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
     </row>
     <row r="12" spans="1:14" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155" t="s">
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="155" t="s">
+      <c r="H12" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="155" t="s">
+      <c r="I12" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="155" t="s">
+      <c r="J12" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="155" t="s">
+      <c r="K12" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="155" t="s">
+      <c r="L12" s="164" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="15" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="155"/>
-      <c r="L13" s="155"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
     </row>
     <row r="14" spans="1:14" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="155"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="115" t="s">
         <v>43</v>
       </c>
@@ -13316,14 +13322,14 @@
       <c r="F14" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
       <c r="N14" s="117">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -13362,16 +13368,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="162"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="21"/>
@@ -13405,16 +13411,16 @@
       <c r="L18" s="23"/>
     </row>
     <row r="19" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="152" t="s">
+      <c r="B19" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="25"/>
@@ -13448,16 +13454,16 @@
       <c r="L21" s="23"/>
     </row>
     <row r="22" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="152" t="s">
+      <c r="B22" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="25"/>
@@ -14074,13 +14080,13 @@
       <c r="E41" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="F41" s="184"/>
-      <c r="G41" s="185"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="188"/>
-      <c r="K41" s="188"/>
-      <c r="L41" s="189">
+      <c r="F41" s="138"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="142"/>
+      <c r="K41" s="142"/>
+      <c r="L41" s="143">
         <v>1</v>
       </c>
     </row>
@@ -14431,16 +14437,16 @@
       <c r="E51" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="F51" s="184"/>
-      <c r="G51" s="185"/>
-      <c r="H51" s="186" t="str">
+      <c r="F51" s="138"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="140" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I51" s="187"/>
-      <c r="J51" s="188"/>
-      <c r="K51" s="188"/>
-      <c r="L51" s="189">
+      <c r="I51" s="141"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="142"/>
+      <c r="L51" s="143">
         <v>1</v>
       </c>
     </row>
@@ -14455,19 +14461,19 @@
       <c r="D52" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E52" s="192" t="s">
+      <c r="E52" s="146" t="s">
         <v>325</v>
       </c>
-      <c r="F52" s="184"/>
-      <c r="G52" s="185"/>
-      <c r="H52" s="186" t="str">
+      <c r="F52" s="138"/>
+      <c r="G52" s="139"/>
+      <c r="H52" s="140" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I52" s="187"/>
-      <c r="J52" s="188"/>
-      <c r="K52" s="188"/>
-      <c r="L52" s="189">
+      <c r="I52" s="141"/>
+      <c r="J52" s="142"/>
+      <c r="K52" s="142"/>
+      <c r="L52" s="143">
         <v>1</v>
       </c>
     </row>
@@ -14482,19 +14488,19 @@
       <c r="D53" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="192" t="s">
+      <c r="E53" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="F53" s="184"/>
-      <c r="G53" s="185"/>
-      <c r="H53" s="186" t="str">
+      <c r="F53" s="138"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="140" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I53" s="187"/>
-      <c r="J53" s="188"/>
-      <c r="K53" s="188"/>
-      <c r="L53" s="189">
+      <c r="I53" s="141"/>
+      <c r="J53" s="142"/>
+      <c r="K53" s="142"/>
+      <c r="L53" s="143">
         <v>1</v>
       </c>
     </row>
@@ -14583,19 +14589,19 @@
       <c r="D56" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E56" s="192" t="s">
+      <c r="E56" s="146" t="s">
         <v>329</v>
       </c>
-      <c r="F56" s="184"/>
-      <c r="G56" s="185"/>
-      <c r="H56" s="186" t="str">
+      <c r="F56" s="138"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="140" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I56" s="187"/>
-      <c r="J56" s="188"/>
-      <c r="K56" s="188"/>
-      <c r="L56" s="189">
+      <c r="I56" s="141"/>
+      <c r="J56" s="142"/>
+      <c r="K56" s="142"/>
+      <c r="L56" s="143">
         <v>1</v>
       </c>
     </row>
@@ -14758,19 +14764,19 @@
       <c r="D61" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E61" s="192" t="s">
+      <c r="E61" s="146" t="s">
         <v>334</v>
       </c>
-      <c r="F61" s="184"/>
-      <c r="G61" s="185"/>
-      <c r="H61" s="186" t="str">
+      <c r="F61" s="138"/>
+      <c r="G61" s="139"/>
+      <c r="H61" s="140" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I61" s="187"/>
-      <c r="J61" s="188"/>
-      <c r="K61" s="188"/>
-      <c r="L61" s="189">
+      <c r="I61" s="141"/>
+      <c r="J61" s="142"/>
+      <c r="K61" s="142"/>
+      <c r="L61" s="143">
         <v>1</v>
       </c>
     </row>
@@ -15155,19 +15161,19 @@
       <c r="D72" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E72" s="192" t="s">
+      <c r="E72" s="146" t="s">
         <v>345</v>
       </c>
-      <c r="F72" s="184"/>
-      <c r="G72" s="185"/>
-      <c r="H72" s="186" t="str">
+      <c r="F72" s="138"/>
+      <c r="G72" s="139"/>
+      <c r="H72" s="140" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I72" s="187"/>
-      <c r="J72" s="188"/>
-      <c r="K72" s="188"/>
-      <c r="L72" s="189">
+      <c r="I72" s="141"/>
+      <c r="J72" s="142"/>
+      <c r="K72" s="142"/>
+      <c r="L72" s="143">
         <v>1</v>
       </c>
     </row>
@@ -15515,19 +15521,19 @@
       <c r="D82" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E82" s="192" t="s">
+      <c r="E82" s="146" t="s">
         <v>355</v>
       </c>
-      <c r="F82" s="184"/>
-      <c r="G82" s="185"/>
-      <c r="H82" s="186" t="str">
+      <c r="F82" s="138"/>
+      <c r="G82" s="139"/>
+      <c r="H82" s="140" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I82" s="187"/>
-      <c r="J82" s="188"/>
-      <c r="K82" s="188"/>
-      <c r="L82" s="189">
+      <c r="I82" s="141"/>
+      <c r="J82" s="142"/>
+      <c r="K82" s="142"/>
+      <c r="L82" s="143">
         <v>1</v>
       </c>
     </row>
@@ -15764,19 +15770,19 @@
       <c r="D89" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E89" s="192" t="s">
+      <c r="E89" s="146" t="s">
         <v>362</v>
       </c>
-      <c r="F89" s="184"/>
-      <c r="G89" s="185"/>
-      <c r="H89" s="186" t="str">
+      <c r="F89" s="138"/>
+      <c r="G89" s="139"/>
+      <c r="H89" s="140" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I89" s="187"/>
-      <c r="J89" s="188"/>
-      <c r="K89" s="188"/>
-      <c r="L89" s="189">
+      <c r="I89" s="141"/>
+      <c r="J89" s="142"/>
+      <c r="K89" s="142"/>
+      <c r="L89" s="143">
         <v>1</v>
       </c>
     </row>
@@ -15791,19 +15797,19 @@
       <c r="D90" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E90" s="192" t="s">
+      <c r="E90" s="146" t="s">
         <v>363</v>
       </c>
-      <c r="F90" s="184"/>
-      <c r="G90" s="185"/>
-      <c r="H90" s="186" t="str">
+      <c r="F90" s="138"/>
+      <c r="G90" s="139"/>
+      <c r="H90" s="140" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I90" s="187"/>
-      <c r="J90" s="188"/>
-      <c r="K90" s="188"/>
-      <c r="L90" s="189">
+      <c r="I90" s="141"/>
+      <c r="J90" s="142"/>
+      <c r="K90" s="142"/>
+      <c r="L90" s="143">
         <v>1</v>
       </c>
     </row>
@@ -16029,7 +16035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="9">
         <f t="shared" ref="B97:B160" si="4">IF(G97&lt;&gt;"",ROW()-25,"")</f>
         <v>72</v>
@@ -16078,26 +16084,26 @@
       <c r="D98" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E98" s="192" t="s">
+      <c r="E98" s="146" t="s">
         <v>457</v>
       </c>
-      <c r="F98" s="184"/>
-      <c r="G98" s="185"/>
-      <c r="H98" s="186" t="str">
+      <c r="F98" s="138"/>
+      <c r="G98" s="139"/>
+      <c r="H98" s="140" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I98" s="187"/>
-      <c r="J98" s="188"/>
-      <c r="K98" s="188">
+      <c r="I98" s="141"/>
+      <c r="J98" s="142"/>
+      <c r="K98" s="142">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L98" s="189">
+      <c r="L98" s="143">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="9">
         <f t="shared" si="4"/>
         <v>74</v>
@@ -16135,7 +16141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="9">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -16184,26 +16190,26 @@
       <c r="D101" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E101" s="192" t="s">
+      <c r="E101" s="146" t="s">
         <v>460</v>
       </c>
-      <c r="F101" s="184"/>
-      <c r="G101" s="185"/>
-      <c r="H101" s="186" t="str">
+      <c r="F101" s="138"/>
+      <c r="G101" s="139"/>
+      <c r="H101" s="140" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I101" s="187"/>
-      <c r="J101" s="188"/>
-      <c r="K101" s="188">
+      <c r="I101" s="141"/>
+      <c r="J101" s="142"/>
+      <c r="K101" s="142">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L101" s="189">
+      <c r="L101" s="143">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="9">
         <f t="shared" si="4"/>
         <v>77</v>
@@ -16241,7 +16247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="9">
         <f t="shared" si="4"/>
         <v>78</v>
@@ -16290,22 +16296,22 @@
       <c r="D104" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E104" s="192" t="s">
+      <c r="E104" s="146" t="s">
         <v>463</v>
       </c>
-      <c r="F104" s="184"/>
-      <c r="G104" s="185"/>
-      <c r="H104" s="186" t="str">
+      <c r="F104" s="138"/>
+      <c r="G104" s="139"/>
+      <c r="H104" s="140" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I104" s="187"/>
-      <c r="J104" s="188"/>
-      <c r="K104" s="188">
+      <c r="I104" s="141"/>
+      <c r="J104" s="142"/>
+      <c r="K104" s="142">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L104" s="189">
+      <c r="L104" s="143">
         <v>2</v>
       </c>
     </row>
@@ -16320,26 +16326,26 @@
       <c r="D105" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E105" s="192" t="s">
+      <c r="E105" s="146" t="s">
         <v>464</v>
       </c>
-      <c r="F105" s="184"/>
-      <c r="G105" s="185"/>
-      <c r="H105" s="186" t="str">
+      <c r="F105" s="138"/>
+      <c r="G105" s="139"/>
+      <c r="H105" s="140" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I105" s="187"/>
-      <c r="J105" s="188"/>
-      <c r="K105" s="188">
+      <c r="I105" s="141"/>
+      <c r="J105" s="142"/>
+      <c r="K105" s="142">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L105" s="189">
+      <c r="L105" s="143">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="9">
         <f t="shared" si="4"/>
         <v>81</v>
@@ -16388,26 +16394,26 @@
       <c r="D107" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E107" s="192" t="s">
+      <c r="E107" s="146" t="s">
         <v>466</v>
       </c>
-      <c r="F107" s="184"/>
-      <c r="G107" s="185"/>
-      <c r="H107" s="186" t="str">
+      <c r="F107" s="138"/>
+      <c r="G107" s="139"/>
+      <c r="H107" s="140" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I107" s="187"/>
-      <c r="J107" s="188"/>
-      <c r="K107" s="188">
+      <c r="I107" s="141"/>
+      <c r="J107" s="142"/>
+      <c r="K107" s="142">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L107" s="189">
+      <c r="L107" s="143">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="9">
         <f t="shared" si="4"/>
         <v>83</v>
@@ -16445,7 +16451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="9">
         <f t="shared" si="4"/>
         <v>84</v>
@@ -16494,22 +16500,22 @@
       <c r="D110" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E110" s="192" t="s">
+      <c r="E110" s="146" t="s">
         <v>469</v>
       </c>
-      <c r="F110" s="184"/>
-      <c r="G110" s="185"/>
-      <c r="H110" s="186" t="str">
+      <c r="F110" s="138"/>
+      <c r="G110" s="139"/>
+      <c r="H110" s="140" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I110" s="187"/>
-      <c r="J110" s="188"/>
-      <c r="K110" s="188">
+      <c r="I110" s="141"/>
+      <c r="J110" s="142"/>
+      <c r="K110" s="142">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L110" s="189">
+      <c r="L110" s="143">
         <v>2</v>
       </c>
     </row>
@@ -16524,26 +16530,26 @@
       <c r="D111" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E111" s="192" t="s">
+      <c r="E111" s="146" t="s">
         <v>470</v>
       </c>
-      <c r="F111" s="184"/>
-      <c r="G111" s="185"/>
-      <c r="H111" s="186" t="str">
+      <c r="F111" s="138"/>
+      <c r="G111" s="139"/>
+      <c r="H111" s="140" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I111" s="187"/>
-      <c r="J111" s="188"/>
-      <c r="K111" s="188">
+      <c r="I111" s="141"/>
+      <c r="J111" s="142"/>
+      <c r="K111" s="142">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L111" s="189">
+      <c r="L111" s="143">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="9">
         <f t="shared" si="4"/>
         <v>87</v>
@@ -16581,7 +16587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="9">
         <f t="shared" si="4"/>
         <v>88</v>
@@ -16619,7 +16625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="9">
         <f t="shared" si="4"/>
         <v>89</v>
@@ -16668,23 +16674,23 @@
       <c r="D115" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E115" s="192" t="s">
+      <c r="E115" s="146" t="s">
         <v>474</v>
       </c>
-      <c r="F115" s="184"/>
-      <c r="G115" s="190"/>
-      <c r="H115" s="186"/>
-      <c r="I115" s="187"/>
-      <c r="J115" s="188"/>
-      <c r="K115" s="188">
+      <c r="F115" s="138"/>
+      <c r="G115" s="144"/>
+      <c r="H115" s="140"/>
+      <c r="I115" s="141"/>
+      <c r="J115" s="142"/>
+      <c r="K115" s="142">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L115" s="189">
+      <c r="L115" s="143">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="9">
         <f t="shared" si="4"/>
         <v>91</v>
@@ -16722,7 +16728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="9">
         <f t="shared" si="4"/>
         <v>92</v>
@@ -16771,23 +16777,23 @@
       <c r="D118" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E118" s="192" t="s">
+      <c r="E118" s="146" t="s">
         <v>477</v>
       </c>
-      <c r="F118" s="184"/>
-      <c r="G118" s="190"/>
-      <c r="H118" s="186"/>
-      <c r="I118" s="187"/>
-      <c r="J118" s="188"/>
-      <c r="K118" s="188">
+      <c r="F118" s="138"/>
+      <c r="G118" s="144"/>
+      <c r="H118" s="140"/>
+      <c r="I118" s="141"/>
+      <c r="J118" s="142"/>
+      <c r="K118" s="142">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L118" s="189">
+      <c r="L118" s="143">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="9">
         <f t="shared" si="4"/>
         <v>94</v>
@@ -16825,7 +16831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="9">
         <f t="shared" si="4"/>
         <v>95</v>
@@ -16874,23 +16880,23 @@
       <c r="D121" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E121" s="192" t="s">
+      <c r="E121" s="146" t="s">
         <v>480</v>
       </c>
-      <c r="F121" s="184"/>
-      <c r="G121" s="191"/>
-      <c r="H121" s="186"/>
-      <c r="I121" s="187"/>
-      <c r="J121" s="188"/>
-      <c r="K121" s="188">
+      <c r="F121" s="138"/>
+      <c r="G121" s="145"/>
+      <c r="H121" s="140"/>
+      <c r="I121" s="141"/>
+      <c r="J121" s="142"/>
+      <c r="K121" s="142">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L121" s="189">
+      <c r="L121" s="143">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="9">
         <f t="shared" si="4"/>
         <v>97</v>
@@ -16928,7 +16934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="9">
         <f t="shared" si="4"/>
         <v>98</v>
@@ -16977,26 +16983,26 @@
       <c r="D124" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E124" s="192" t="s">
+      <c r="E124" s="146" t="s">
         <v>483</v>
       </c>
-      <c r="F124" s="184"/>
-      <c r="G124" s="185"/>
-      <c r="H124" s="186" t="str">
+      <c r="F124" s="138"/>
+      <c r="G124" s="139"/>
+      <c r="H124" s="140" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I124" s="187"/>
-      <c r="J124" s="188"/>
-      <c r="K124" s="188">
+      <c r="I124" s="141"/>
+      <c r="J124" s="142"/>
+      <c r="K124" s="142">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L124" s="189">
+      <c r="L124" s="143">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="9">
         <f t="shared" si="4"/>
         <v>100</v>
@@ -17034,7 +17040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="9">
         <f t="shared" si="4"/>
         <v>101</v>
@@ -17072,7 +17078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="9">
         <f t="shared" si="4"/>
         <v>102</v>
@@ -17110,7 +17116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="9">
         <f t="shared" si="4"/>
         <v>103</v>
@@ -17148,7 +17154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="9">
         <f t="shared" si="4"/>
         <v>104</v>
@@ -17186,7 +17192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="9">
         <f t="shared" si="4"/>
         <v>105</v>
@@ -17224,7 +17230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="2:12" s="135" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:12" s="135" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="126">
         <f t="shared" si="4"/>
         <v>106</v>
@@ -17262,7 +17268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="9">
         <f t="shared" si="4"/>
         <v>107</v>
@@ -17300,7 +17306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="9">
         <f t="shared" si="4"/>
         <v>108</v>
@@ -17338,7 +17344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="9">
         <f t="shared" si="4"/>
         <v>109</v>
@@ -17387,22 +17393,22 @@
       <c r="D135" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E135" s="192" t="s">
+      <c r="E135" s="146" t="s">
         <v>494</v>
       </c>
-      <c r="F135" s="184"/>
-      <c r="G135" s="185"/>
-      <c r="H135" s="186" t="str">
+      <c r="F135" s="138"/>
+      <c r="G135" s="139"/>
+      <c r="H135" s="140" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I135" s="187"/>
-      <c r="J135" s="188"/>
-      <c r="K135" s="188">
+      <c r="I135" s="141"/>
+      <c r="J135" s="142"/>
+      <c r="K135" s="142">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L135" s="189">
+      <c r="L135" s="143">
         <v>2</v>
       </c>
     </row>
@@ -17417,22 +17423,22 @@
       <c r="D136" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E136" s="192" t="s">
+      <c r="E136" s="146" t="s">
         <v>495</v>
       </c>
-      <c r="F136" s="184"/>
-      <c r="G136" s="185"/>
-      <c r="H136" s="186" t="str">
+      <c r="F136" s="138"/>
+      <c r="G136" s="139"/>
+      <c r="H136" s="140" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I136" s="187"/>
-      <c r="J136" s="188"/>
-      <c r="K136" s="188">
+      <c r="I136" s="141"/>
+      <c r="J136" s="142"/>
+      <c r="K136" s="142">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L136" s="189">
+      <c r="L136" s="143">
         <v>2</v>
       </c>
     </row>
@@ -17447,26 +17453,26 @@
       <c r="D137" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E137" s="192" t="s">
+      <c r="E137" s="146" t="s">
         <v>496</v>
       </c>
-      <c r="F137" s="184"/>
-      <c r="G137" s="185"/>
-      <c r="H137" s="186" t="str">
+      <c r="F137" s="138"/>
+      <c r="G137" s="139"/>
+      <c r="H137" s="140" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I137" s="187"/>
-      <c r="J137" s="188"/>
-      <c r="K137" s="188">
+      <c r="I137" s="141"/>
+      <c r="J137" s="142"/>
+      <c r="K137" s="142">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L137" s="189">
+      <c r="L137" s="143">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="9">
         <f t="shared" si="4"/>
         <v>113</v>
@@ -17504,7 +17510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="9">
         <f t="shared" si="4"/>
         <v>114</v>
@@ -17542,7 +17548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="9">
         <f t="shared" si="4"/>
         <v>115</v>
@@ -17580,7 +17586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="9">
         <f t="shared" si="4"/>
         <v>116</v>
@@ -17618,7 +17624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="9">
         <f t="shared" si="4"/>
         <v>117</v>
@@ -17656,7 +17662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="9">
         <f t="shared" si="4"/>
         <v>118</v>
@@ -17705,26 +17711,26 @@
       <c r="D144" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E144" s="192" t="s">
+      <c r="E144" s="146" t="s">
         <v>503</v>
       </c>
-      <c r="F144" s="184"/>
-      <c r="G144" s="185"/>
-      <c r="H144" s="186" t="str">
+      <c r="F144" s="138"/>
+      <c r="G144" s="139"/>
+      <c r="H144" s="140" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I144" s="187"/>
-      <c r="J144" s="188"/>
-      <c r="K144" s="188">
+      <c r="I144" s="141"/>
+      <c r="J144" s="142"/>
+      <c r="K144" s="142">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L144" s="189">
+      <c r="L144" s="143">
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="9">
         <f t="shared" si="4"/>
         <v>120</v>
@@ -17762,7 +17768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="9">
         <f t="shared" si="4"/>
         <v>121</v>
@@ -17800,7 +17806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="9">
         <f t="shared" si="4"/>
         <v>122</v>
@@ -17838,7 +17844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="9">
         <f t="shared" si="4"/>
         <v>123</v>
@@ -17876,7 +17882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="9">
         <f t="shared" si="4"/>
         <v>124</v>
@@ -17914,7 +17920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="9">
         <f t="shared" si="4"/>
         <v>125</v>
@@ -17952,7 +17958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="9">
         <f t="shared" si="4"/>
         <v>126</v>
@@ -17990,7 +17996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="9">
         <f t="shared" si="4"/>
         <v>127</v>
@@ -18028,7 +18034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="9">
         <f t="shared" si="4"/>
         <v>128</v>
@@ -18066,7 +18072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="9">
         <f t="shared" si="4"/>
         <v>129</v>
@@ -18104,7 +18110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="9">
         <f t="shared" si="4"/>
         <v>130</v>
@@ -18142,7 +18148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="9">
         <f t="shared" si="4"/>
         <v>131</v>
@@ -18180,7 +18186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="9">
         <f t="shared" si="4"/>
         <v>132</v>
@@ -18218,7 +18224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="9">
         <f t="shared" si="4"/>
         <v>133</v>
@@ -18256,7 +18262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="9">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -18294,7 +18300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="9">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -18332,7 +18338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="9">
         <f t="shared" ref="B161:B175" si="12">IF(G161&lt;&gt;"",ROW()-25,"")</f>
         <v>136</v>
@@ -18370,7 +18376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="9">
         <f t="shared" si="12"/>
         <v>137</v>
@@ -18408,7 +18414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="9">
         <f t="shared" si="12"/>
         <v>138</v>
@@ -18446,7 +18452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="9">
         <f t="shared" si="12"/>
         <v>139</v>
@@ -18484,7 +18490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -18514,7 +18520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="9">
         <f t="shared" si="12"/>
         <v>141</v>
@@ -18552,7 +18558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -18582,7 +18588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -18612,7 +18618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="9">
         <f t="shared" si="12"/>
         <v>144</v>
@@ -18647,7 +18653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -18677,7 +18683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -18707,7 +18713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -18737,7 +18743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="9">
         <f t="shared" si="12"/>
         <v>148</v>
@@ -18775,7 +18781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="9">
         <f t="shared" si="12"/>
         <v>149</v>
@@ -18813,7 +18819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -18843,7 +18849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="9"/>
       <c r="C176" s="32" t="s">
         <v>85</v>
@@ -18878,7 +18884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="9"/>
       <c r="C177" s="32" t="s">
         <v>85</v>
@@ -18905,7 +18911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="9"/>
       <c r="C178" s="32" t="s">
         <v>85</v>
@@ -18940,7 +18946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="9"/>
       <c r="C179" s="32" t="s">
         <v>85</v>
@@ -18975,7 +18981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="9"/>
       <c r="C180" s="32" t="s">
         <v>85</v>
@@ -19010,7 +19016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="9"/>
       <c r="C181" s="32" t="s">
         <v>85</v>
@@ -19045,7 +19051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="9"/>
       <c r="C182" s="32" t="s">
         <v>85</v>
@@ -19072,7 +19078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="9"/>
       <c r="C183" s="32" t="s">
         <v>85</v>
@@ -19099,7 +19105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="9"/>
       <c r="C184" s="32" t="s">
         <v>85</v>
@@ -19126,7 +19132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="9"/>
       <c r="C185" s="32" t="s">
         <v>85</v>
@@ -19161,7 +19167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="9"/>
       <c r="C186" s="32" t="s">
         <v>85</v>
@@ -19188,7 +19194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="9"/>
       <c r="C187" s="32" t="s">
         <v>85</v>
@@ -19215,7 +19221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="9"/>
       <c r="C188" s="32" t="s">
         <v>85</v>
@@ -19242,7 +19248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="9"/>
       <c r="C189" s="32" t="s">
         <v>85</v>
@@ -19277,7 +19283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="9"/>
       <c r="C190" s="32" t="s">
         <v>85</v>
@@ -19312,7 +19318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="9"/>
       <c r="C191" s="32" t="s">
         <v>85</v>
@@ -19347,7 +19353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="9"/>
       <c r="C192" s="32" t="s">
         <v>85</v>
@@ -19382,7 +19388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="9"/>
       <c r="C193" s="32" t="s">
         <v>85</v>
@@ -19417,7 +19423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="9"/>
       <c r="C194" s="32" t="s">
         <v>85</v>
@@ -19452,7 +19458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="9"/>
       <c r="C195" s="32" t="s">
         <v>85</v>
@@ -19463,23 +19469,31 @@
       <c r="E195" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="F195" s="33"/>
-      <c r="G195" s="11"/>
+      <c r="F195" s="33">
+        <v>42947</v>
+      </c>
+      <c r="G195" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="H195" s="34" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I195" s="12"/>
-      <c r="J195" s="13"/>
+        <v>3701773902</v>
+      </c>
+      <c r="I195" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="J195" s="13">
+        <v>58505396</v>
+      </c>
       <c r="K195" s="13">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5850540</v>
       </c>
       <c r="L195" s="113">
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="9"/>
       <c r="C196" s="32" t="s">
         <v>85</v>
@@ -19506,7 +19520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="9"/>
       <c r="C197" s="32" t="s">
         <v>85</v>
@@ -19533,7 +19547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="9"/>
       <c r="C198" s="32" t="s">
         <v>85</v>
@@ -19560,7 +19574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="9"/>
       <c r="C199" s="32" t="s">
         <v>85</v>
@@ -19587,7 +19601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="9"/>
       <c r="C200" s="32" t="s">
         <v>85</v>
@@ -19614,7 +19628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="9"/>
       <c r="C201" s="32" t="s">
         <v>85</v>
@@ -19641,7 +19655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="9"/>
       <c r="C202" s="32" t="s">
         <v>85</v>
@@ -19668,7 +19682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="9"/>
       <c r="C203" s="32" t="s">
         <v>85</v>
@@ -19695,7 +19709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="9"/>
       <c r="C204" s="32" t="s">
         <v>85</v>
@@ -19722,7 +19736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="9"/>
       <c r="C205" s="32" t="s">
         <v>85</v>
@@ -19749,7 +19763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="9"/>
       <c r="C206" s="32" t="s">
         <v>85</v>
@@ -19776,7 +19790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="9"/>
       <c r="C207" s="32" t="s">
         <v>85</v>
@@ -19803,7 +19817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="9"/>
       <c r="C208" s="32" t="s">
         <v>85</v>
@@ -19830,7 +19844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="9"/>
       <c r="C209" s="32" t="s">
         <v>85</v>
@@ -19857,7 +19871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="9"/>
       <c r="C210" s="32" t="s">
         <v>85</v>
@@ -19884,7 +19898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="9"/>
       <c r="C211" s="32" t="s">
         <v>85</v>
@@ -19911,7 +19925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="9"/>
       <c r="C212" s="32" t="s">
         <v>85</v>
@@ -19938,7 +19952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="9"/>
       <c r="C213" s="32" t="s">
         <v>85</v>
@@ -19965,7 +19979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="9"/>
       <c r="C214" s="32" t="s">
         <v>85</v>
@@ -19992,7 +20006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="9"/>
       <c r="C215" s="32" t="s">
         <v>85</v>
@@ -20019,7 +20033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="9"/>
       <c r="C216" s="32" t="s">
         <v>85</v>
@@ -20046,7 +20060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="9"/>
       <c r="C217" s="32" t="s">
         <v>85</v>
@@ -20073,7 +20087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="9"/>
       <c r="C218" s="32" t="s">
         <v>85</v>
@@ -20100,7 +20114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="9"/>
       <c r="C219" s="32" t="s">
         <v>85</v>
@@ -20127,7 +20141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="9"/>
       <c r="C220" s="32" t="s">
         <v>85</v>
@@ -20154,7 +20168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="9"/>
       <c r="C221" s="32" t="s">
         <v>85</v>
@@ -20181,7 +20195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="9"/>
       <c r="C222" s="32" t="s">
         <v>85</v>
@@ -20208,7 +20222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="9"/>
       <c r="C223" s="32" t="s">
         <v>85</v>
@@ -20264,26 +20278,26 @@
       <c r="I225" s="28"/>
       <c r="J225" s="29">
         <f>SUBTOTAL(9,J26:J224)</f>
-        <v>611597698</v>
+        <v>1362186303</v>
       </c>
       <c r="K225" s="29">
         <f>SUBTOTAL(9,K26:K224)</f>
-        <v>59590270</v>
+        <v>136218631</v>
       </c>
       <c r="L225" s="30"/>
     </row>
     <row r="226" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="227" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B227" s="152" t="s">
+      <c r="B227" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="C227" s="153"/>
-      <c r="D227" s="153"/>
-      <c r="E227" s="153"/>
-      <c r="F227" s="153"/>
-      <c r="G227" s="153"/>
-      <c r="H227" s="153"/>
-      <c r="I227" s="153"/>
+      <c r="C227" s="162"/>
+      <c r="D227" s="162"/>
+      <c r="E227" s="162"/>
+      <c r="F227" s="162"/>
+      <c r="G227" s="162"/>
+      <c r="H227" s="162"/>
+      <c r="I227" s="162"/>
       <c r="J227" s="20"/>
       <c r="K227" s="20"/>
       <c r="L227" s="25"/>
@@ -20326,7 +20340,7 @@
       <c r="G230" s="16"/>
       <c r="H230" s="88">
         <f>J225</f>
-        <v>611597698</v>
+        <v>1362186303</v>
       </c>
       <c r="I230" s="16"/>
       <c r="L230" s="16"/>
@@ -20341,7 +20355,7 @@
       <c r="G231" s="16"/>
       <c r="H231" s="88">
         <f>K225</f>
-        <v>59590270</v>
+        <v>136218631</v>
       </c>
       <c r="I231" s="16"/>
       <c r="L231" s="16"/>
@@ -20367,7 +20381,7 @@
       <c r="H233" s="16"/>
       <c r="I233" s="36" t="str">
         <f>"Bình Dương, "&amp;IF($N$14=1,"Ngày 31 Tháng 03  ",IF($N$14=2,"Ngày 30 Tháng 06  ",IF($N$14=3,"Ngày 30 Tháng 09  ",IF($N$14=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR($F$27)</f>
-        <v>Bình Dương, Ngày 31 Tháng 12  Năm  2017</v>
+        <v>Bình Dương, Ngày 30 Tháng 06  Năm  2017</v>
       </c>
     </row>
     <row r="234" spans="2:12" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -20408,9 +20422,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A25:N223">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <filterColumn colId="11">
       <filters>
-        <filter val="3"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -20469,23 +20488,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
       <c r="R2" s="11" t="s">
         <v>311</v>
       </c>
@@ -20494,23 +20513,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="178"/>
       <c r="R3" s="11" t="s">
         <v>116</v>
       </c>
@@ -20520,22 +20539,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="95"/>
-      <c r="C4" s="160" t="s">
+      <c r="C4" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="161"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="170"/>
       <c r="R4" s="11" t="s">
         <v>108</v>
       </c>
@@ -20545,22 +20564,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="95"/>
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="161"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="170"/>
       <c r="R5" s="11" t="s">
         <v>95</v>
       </c>
@@ -20571,21 +20590,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="95"/>
       <c r="C6" s="96"/>
-      <c r="D6" s="160" t="s">
+      <c r="D6" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="166"/>
       <c r="R6" s="11" t="s">
         <v>114</v>
       </c>
@@ -20596,21 +20615,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="95"/>
       <c r="C7" s="96"/>
-      <c r="D7" s="160" t="s">
+      <c r="D7" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="157"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="166"/>
       <c r="R7" s="11" t="s">
         <v>121</v>
       </c>
@@ -20621,21 +20640,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="95"/>
       <c r="C8" s="96"/>
-      <c r="D8" s="160" t="s">
+      <c r="D8" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="157"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="166"/>
       <c r="R8" s="11" t="s">
         <v>314</v>
       </c>
@@ -20646,21 +20665,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="95"/>
       <c r="C9" s="96"/>
-      <c r="D9" s="160" t="s">
+      <c r="D9" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="157"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="166"/>
       <c r="R9" s="11" t="s">
         <v>126</v>
       </c>
@@ -20671,21 +20690,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
-      <c r="D10" s="160" t="s">
+      <c r="D10" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="157"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="166"/>
       <c r="R10" s="11" t="s">
         <v>94</v>
       </c>
@@ -20695,22 +20714,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="95"/>
-      <c r="C11" s="160" t="s">
+      <c r="C11" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="160"/>
-      <c r="M11" s="160"/>
-      <c r="N11" s="160"/>
-      <c r="O11" s="160"/>
-      <c r="P11" s="161"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="169"/>
+      <c r="P11" s="170"/>
       <c r="R11" s="11" t="s">
         <v>90</v>
       </c>
@@ -20720,22 +20739,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="95"/>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="160"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="160"/>
-      <c r="P12" s="161"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="170"/>
       <c r="R12" s="11" t="s">
         <v>119</v>
       </c>
@@ -20767,23 +20786,23 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="168"/>
-      <c r="M14" s="168"/>
-      <c r="N14" s="168"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="169"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="178"/>
       <c r="R14" s="11" t="s">
         <v>103</v>
       </c>
@@ -20793,22 +20812,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="95"/>
-      <c r="C15" s="160" t="s">
+      <c r="C15" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="160"/>
-      <c r="M15" s="160"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="161"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="169"/>
+      <c r="M15" s="169"/>
+      <c r="N15" s="169"/>
+      <c r="O15" s="169"/>
+      <c r="P15" s="170"/>
       <c r="R15" s="11" t="s">
         <v>122</v>
       </c>
@@ -20819,21 +20838,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="95"/>
       <c r="C16" s="98"/>
-      <c r="D16" s="156" t="s">
+      <c r="D16" s="165" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="157"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
+      <c r="P16" s="166"/>
       <c r="R16" s="11" t="s">
         <v>120</v>
       </c>
@@ -20869,21 +20888,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
-      <c r="D18" s="156" t="s">
+      <c r="D18" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="157"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="166"/>
       <c r="R18" s="11" t="s">
         <v>313</v>
       </c>
@@ -20894,21 +20913,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
-      <c r="D19" s="156" t="s">
+      <c r="D19" s="165" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="157"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="166"/>
       <c r="R19" s="11" t="s">
         <v>93</v>
       </c>
@@ -20919,21 +20938,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="95"/>
       <c r="C20" s="96"/>
-      <c r="D20" s="156" t="s">
+      <c r="D20" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="157"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="166"/>
       <c r="R20" s="11" t="s">
         <v>123</v>
       </c>
@@ -20944,21 +20963,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="95"/>
       <c r="C21" s="96"/>
-      <c r="D21" s="156" t="s">
+      <c r="D21" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="157"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="166"/>
       <c r="R21" s="11" t="s">
         <v>125</v>
       </c>
@@ -20969,21 +20988,21 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="95"/>
       <c r="C22" s="96"/>
-      <c r="D22" s="156" t="s">
+      <c r="D22" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="157"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="165"/>
+      <c r="O22" s="165"/>
+      <c r="P22" s="166"/>
       <c r="R22" s="11" t="s">
         <v>315</v>
       </c>
@@ -20994,21 +21013,21 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="95"/>
       <c r="C23" s="96"/>
-      <c r="D23" s="156" t="s">
+      <c r="D23" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="157"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="165"/>
+      <c r="P23" s="166"/>
       <c r="R23" s="11" t="s">
         <v>118</v>
       </c>
@@ -21019,21 +21038,21 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="95"/>
       <c r="C24" s="96"/>
-      <c r="D24" s="156" t="s">
+      <c r="D24" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="157"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="165"/>
+      <c r="O24" s="165"/>
+      <c r="P24" s="166"/>
       <c r="R24" s="11" t="s">
         <v>117</v>
       </c>
@@ -21044,21 +21063,21 @@
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="95"/>
       <c r="C25" s="96"/>
-      <c r="D25" s="156" t="s">
+      <c r="D25" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="157"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="165"/>
+      <c r="P25" s="166"/>
       <c r="R25" s="11" t="s">
         <v>127</v>
       </c>
@@ -21069,21 +21088,21 @@
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
-      <c r="D26" s="156" t="s">
+      <c r="D26" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="157"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="166"/>
       <c r="R26" s="11" t="s">
         <v>128</v>
       </c>
@@ -21116,22 +21135,22 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="95"/>
-      <c r="C28" s="160" t="s">
+      <c r="C28" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="160"/>
-      <c r="M28" s="160"/>
-      <c r="N28" s="160"/>
-      <c r="O28" s="160"/>
-      <c r="P28" s="161"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="169"/>
+      <c r="L28" s="169"/>
+      <c r="M28" s="169"/>
+      <c r="N28" s="169"/>
+      <c r="O28" s="169"/>
+      <c r="P28" s="170"/>
       <c r="R28" s="11" t="s">
         <v>130</v>
       </c>
@@ -21142,21 +21161,21 @@
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="95"/>
       <c r="C29" s="96"/>
-      <c r="D29" s="156" t="s">
+      <c r="D29" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="157"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="166"/>
       <c r="R29" s="11" t="s">
         <v>135</v>
       </c>
@@ -21167,21 +21186,21 @@
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="95"/>
       <c r="C30" s="96"/>
-      <c r="D30" s="156" t="s">
+      <c r="D30" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="157"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="165"/>
+      <c r="P30" s="166"/>
       <c r="R30" s="11" t="s">
         <v>136</v>
       </c>
@@ -21192,21 +21211,21 @@
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="95"/>
       <c r="C31" s="96"/>
-      <c r="D31" s="156" t="s">
+      <c r="D31" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="157"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="165"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="165"/>
+      <c r="P31" s="166"/>
       <c r="R31" s="11" t="s">
         <v>137</v>
       </c>
@@ -21217,21 +21236,21 @@
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="95"/>
       <c r="C32" s="96"/>
-      <c r="D32" s="156" t="s">
+      <c r="D32" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="156"/>
-      <c r="P32" s="157"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="165"/>
+      <c r="N32" s="165"/>
+      <c r="O32" s="165"/>
+      <c r="P32" s="166"/>
       <c r="R32" s="11" t="s">
         <v>112</v>
       </c>
@@ -21242,21 +21261,21 @@
     <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="95"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="162" t="s">
+      <c r="D33" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="162"/>
-      <c r="I33" s="162"/>
-      <c r="J33" s="162"/>
-      <c r="K33" s="162"/>
-      <c r="L33" s="162"/>
-      <c r="M33" s="162"/>
-      <c r="N33" s="162"/>
-      <c r="O33" s="162"/>
-      <c r="P33" s="163"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="171"/>
+      <c r="L33" s="171"/>
+      <c r="M33" s="171"/>
+      <c r="N33" s="171"/>
+      <c r="O33" s="171"/>
+      <c r="P33" s="172"/>
       <c r="R33" s="11" t="s">
         <v>111</v>
       </c>
@@ -21267,21 +21286,21 @@
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="101"/>
       <c r="C34" s="102"/>
-      <c r="D34" s="158" t="s">
+      <c r="D34" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="158"/>
-      <c r="N34" s="158"/>
-      <c r="O34" s="158"/>
-      <c r="P34" s="159"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="167"/>
+      <c r="K34" s="167"/>
+      <c r="L34" s="167"/>
+      <c r="M34" s="167"/>
+      <c r="N34" s="167"/>
+      <c r="O34" s="167"/>
+      <c r="P34" s="168"/>
       <c r="R34" s="11" t="s">
         <v>102</v>
       </c>
@@ -22755,23 +22774,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
       <c r="R2" s="11" t="s">
         <v>98</v>
       </c>
@@ -22783,23 +22802,23 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="172"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="181"/>
       <c r="R3" s="11" t="s">
         <v>100</v>
       </c>
@@ -22812,22 +22831,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="105"/>
-      <c r="C4" s="176" t="s">
+      <c r="C4" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="177"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="186"/>
       <c r="R4" s="11" t="s">
         <v>153</v>
       </c>
@@ -22840,22 +22859,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="105"/>
-      <c r="C5" s="176" t="s">
+      <c r="C5" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="176"/>
-      <c r="H5" s="176"/>
-      <c r="I5" s="176"/>
-      <c r="J5" s="176"/>
-      <c r="K5" s="176"/>
-      <c r="L5" s="176"/>
-      <c r="M5" s="176"/>
-      <c r="N5" s="176"/>
-      <c r="O5" s="176"/>
-      <c r="P5" s="177"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="185"/>
+      <c r="M5" s="185"/>
+      <c r="N5" s="185"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="186"/>
       <c r="R5" s="11" t="s">
         <v>146</v>
       </c>
@@ -22869,21 +22888,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="105"/>
       <c r="C6" s="106"/>
-      <c r="D6" s="178" t="s">
+      <c r="D6" s="187" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="178"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
-      <c r="P6" s="179"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="187"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="187"/>
+      <c r="P6" s="188"/>
       <c r="R6" s="11" t="s">
         <v>162</v>
       </c>
@@ -22897,21 +22916,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="105"/>
       <c r="C7" s="106"/>
-      <c r="D7" s="176" t="s">
+      <c r="D7" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="178"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="179"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="187"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="188"/>
       <c r="R7" s="11" t="s">
         <v>151</v>
       </c>
@@ -22925,21 +22944,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="105"/>
       <c r="C8" s="106"/>
-      <c r="D8" s="176" t="s">
+      <c r="D8" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="178"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="178"/>
-      <c r="O8" s="178"/>
-      <c r="P8" s="179"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="187"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="187"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="187"/>
+      <c r="P8" s="188"/>
       <c r="R8" s="11" t="s">
         <v>148</v>
       </c>
@@ -22953,21 +22972,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="105"/>
       <c r="C9" s="106"/>
-      <c r="D9" s="176" t="s">
+      <c r="D9" s="185" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
-      <c r="P9" s="179"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="187"/>
+      <c r="P9" s="188"/>
       <c r="R9" s="62" t="s">
         <v>289</v>
       </c>
@@ -22981,21 +23000,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="105"/>
       <c r="C10" s="106"/>
-      <c r="D10" s="176" t="s">
+      <c r="D10" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="178"/>
-      <c r="P10" s="179"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="187"/>
+      <c r="P10" s="188"/>
       <c r="R10" s="11" t="s">
         <v>155</v>
       </c>
@@ -23008,22 +23027,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="105"/>
-      <c r="C11" s="176" t="s">
+      <c r="C11" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="176"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="176"/>
-      <c r="M11" s="176"/>
-      <c r="N11" s="176"/>
-      <c r="O11" s="176"/>
-      <c r="P11" s="177"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="185"/>
+      <c r="N11" s="185"/>
+      <c r="O11" s="185"/>
+      <c r="P11" s="186"/>
       <c r="R11" s="11" t="s">
         <v>97</v>
       </c>
@@ -23036,22 +23055,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="105"/>
-      <c r="C12" s="176" t="s">
+      <c r="C12" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="176"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="176"/>
-      <c r="M12" s="176"/>
-      <c r="N12" s="176"/>
-      <c r="O12" s="176"/>
-      <c r="P12" s="177"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="185"/>
+      <c r="N12" s="185"/>
+      <c r="O12" s="185"/>
+      <c r="P12" s="186"/>
       <c r="R12" s="62" t="s">
         <v>99</v>
       </c>
@@ -23089,23 +23108,23 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="170" t="s">
+      <c r="B14" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="171"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="171"/>
-      <c r="P14" s="172"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="181"/>
       <c r="R14" s="11" t="s">
         <v>89</v>
       </c>
@@ -23118,22 +23137,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="105"/>
-      <c r="C15" s="176" t="s">
+      <c r="C15" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="176"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="176"/>
-      <c r="N15" s="176"/>
-      <c r="O15" s="176"/>
-      <c r="P15" s="177"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="185"/>
+      <c r="L15" s="185"/>
+      <c r="M15" s="185"/>
+      <c r="N15" s="185"/>
+      <c r="O15" s="185"/>
+      <c r="P15" s="186"/>
       <c r="R15" s="11" t="s">
         <v>163</v>
       </c>
@@ -23147,21 +23166,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="105"/>
       <c r="C16" s="108"/>
-      <c r="D16" s="178" t="s">
+      <c r="D16" s="187" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="178"/>
-      <c r="M16" s="178"/>
-      <c r="N16" s="178"/>
-      <c r="O16" s="178"/>
-      <c r="P16" s="179"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="187"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="187"/>
+      <c r="N16" s="187"/>
+      <c r="O16" s="187"/>
+      <c r="P16" s="188"/>
       <c r="R16" s="11" t="s">
         <v>149</v>
       </c>
@@ -23203,21 +23222,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="105"/>
       <c r="C18" s="106"/>
-      <c r="D18" s="178" t="s">
+      <c r="D18" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="178"/>
-      <c r="N18" s="178"/>
-      <c r="O18" s="178"/>
-      <c r="P18" s="179"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="188"/>
       <c r="R18" s="62" t="s">
         <v>156</v>
       </c>
@@ -23231,21 +23250,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="105"/>
       <c r="C19" s="106"/>
-      <c r="D19" s="178" t="s">
+      <c r="D19" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="178"/>
-      <c r="M19" s="178"/>
-      <c r="N19" s="178"/>
-      <c r="O19" s="178"/>
-      <c r="P19" s="179"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="187"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="187"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="187"/>
+      <c r="P19" s="188"/>
       <c r="R19" s="62" t="s">
         <v>87</v>
       </c>
@@ -23259,21 +23278,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="105"/>
       <c r="C20" s="106"/>
-      <c r="D20" s="178" t="s">
+      <c r="D20" s="187" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="178"/>
-      <c r="N20" s="178"/>
-      <c r="O20" s="178"/>
-      <c r="P20" s="179"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="187"/>
+      <c r="K20" s="187"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="187"/>
+      <c r="N20" s="187"/>
+      <c r="O20" s="187"/>
+      <c r="P20" s="188"/>
       <c r="R20" s="62" t="s">
         <v>154</v>
       </c>
@@ -23287,21 +23306,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="105"/>
       <c r="C21" s="106"/>
-      <c r="D21" s="178" t="s">
+      <c r="D21" s="187" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="178"/>
-      <c r="M21" s="178"/>
-      <c r="N21" s="178"/>
-      <c r="O21" s="178"/>
-      <c r="P21" s="179"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="187"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="187"/>
+      <c r="O21" s="187"/>
+      <c r="P21" s="188"/>
       <c r="R21" s="62" t="s">
         <v>158</v>
       </c>
@@ -23315,21 +23334,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="105"/>
       <c r="C22" s="106"/>
-      <c r="D22" s="178" t="s">
+      <c r="D22" s="187" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="178"/>
-      <c r="M22" s="178"/>
-      <c r="N22" s="178"/>
-      <c r="O22" s="178"/>
-      <c r="P22" s="179"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="187"/>
+      <c r="M22" s="187"/>
+      <c r="N22" s="187"/>
+      <c r="O22" s="187"/>
+      <c r="P22" s="188"/>
       <c r="R22" s="62" t="s">
         <v>101</v>
       </c>
@@ -23343,21 +23362,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="105"/>
       <c r="C23" s="106"/>
-      <c r="D23" s="178" t="s">
+      <c r="D23" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="178"/>
-      <c r="O23" s="178"/>
-      <c r="P23" s="179"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="187"/>
+      <c r="O23" s="187"/>
+      <c r="P23" s="188"/>
       <c r="R23" s="62" t="s">
         <v>157</v>
       </c>
@@ -23371,21 +23390,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="105"/>
       <c r="C24" s="106"/>
-      <c r="D24" s="178" t="s">
+      <c r="D24" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="178"/>
-      <c r="N24" s="178"/>
-      <c r="O24" s="178"/>
-      <c r="P24" s="179"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="187"/>
+      <c r="K24" s="187"/>
+      <c r="L24" s="187"/>
+      <c r="M24" s="187"/>
+      <c r="N24" s="187"/>
+      <c r="O24" s="187"/>
+      <c r="P24" s="188"/>
       <c r="R24" s="62" t="s">
         <v>291</v>
       </c>
@@ -23399,21 +23418,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="105"/>
       <c r="C25" s="106"/>
-      <c r="D25" s="178" t="s">
+      <c r="D25" s="187" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="178"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="178"/>
-      <c r="O25" s="178"/>
-      <c r="P25" s="179"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="187"/>
+      <c r="L25" s="187"/>
+      <c r="M25" s="187"/>
+      <c r="N25" s="187"/>
+      <c r="O25" s="187"/>
+      <c r="P25" s="188"/>
       <c r="R25" s="62" t="s">
         <v>147</v>
       </c>
@@ -23427,21 +23446,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="105"/>
       <c r="C26" s="106"/>
-      <c r="D26" s="178" t="s">
+      <c r="D26" s="187" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="178"/>
-      <c r="M26" s="178"/>
-      <c r="N26" s="178"/>
-      <c r="O26" s="178"/>
-      <c r="P26" s="179"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="187"/>
+      <c r="K26" s="187"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="187"/>
+      <c r="P26" s="188"/>
       <c r="R26" s="62" t="s">
         <v>159</v>
       </c>
@@ -23455,21 +23474,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="105"/>
       <c r="C27" s="106"/>
-      <c r="D27" s="178" t="s">
+      <c r="D27" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="178"/>
-      <c r="M27" s="178"/>
-      <c r="N27" s="178"/>
-      <c r="O27" s="178"/>
-      <c r="P27" s="179"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="187"/>
+      <c r="P27" s="188"/>
       <c r="R27" s="62" t="s">
         <v>290</v>
       </c>
@@ -23508,22 +23527,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="105"/>
-      <c r="C29" s="176" t="s">
+      <c r="C29" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="176"/>
-      <c r="M29" s="176"/>
-      <c r="N29" s="176"/>
-      <c r="O29" s="176"/>
-      <c r="P29" s="177"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="185"/>
+      <c r="L29" s="185"/>
+      <c r="M29" s="185"/>
+      <c r="N29" s="185"/>
+      <c r="O29" s="185"/>
+      <c r="P29" s="186"/>
       <c r="R29" s="62" t="s">
         <v>150</v>
       </c>
@@ -23537,21 +23556,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="105"/>
       <c r="C30" s="106"/>
-      <c r="D30" s="178" t="s">
+      <c r="D30" s="187" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="178"/>
-      <c r="N30" s="178"/>
-      <c r="O30" s="178"/>
-      <c r="P30" s="179"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="187"/>
+      <c r="K30" s="187"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="187"/>
+      <c r="O30" s="187"/>
+      <c r="P30" s="188"/>
       <c r="R30" s="62" t="s">
         <v>88</v>
       </c>
@@ -23565,21 +23584,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="105"/>
       <c r="C31" s="106"/>
-      <c r="D31" s="178" t="s">
+      <c r="D31" s="187" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="178"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="178"/>
-      <c r="L31" s="178"/>
-      <c r="M31" s="178"/>
-      <c r="N31" s="178"/>
-      <c r="O31" s="178"/>
-      <c r="P31" s="179"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="187"/>
+      <c r="O31" s="187"/>
+      <c r="P31" s="188"/>
       <c r="R31" s="62" t="s">
         <v>243</v>
       </c>
@@ -23593,21 +23612,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="105"/>
       <c r="C32" s="106"/>
-      <c r="D32" s="178" t="s">
+      <c r="D32" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="178"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="178"/>
-      <c r="L32" s="178"/>
-      <c r="M32" s="178"/>
-      <c r="N32" s="178"/>
-      <c r="O32" s="178"/>
-      <c r="P32" s="179"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="187"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="187"/>
+      <c r="N32" s="187"/>
+      <c r="O32" s="187"/>
+      <c r="P32" s="188"/>
       <c r="R32" s="62" t="s">
         <v>312</v>
       </c>
@@ -23621,21 +23640,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="105"/>
       <c r="C33" s="106"/>
-      <c r="D33" s="178" t="s">
+      <c r="D33" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="178"/>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="178"/>
-      <c r="K33" s="178"/>
-      <c r="L33" s="178"/>
-      <c r="M33" s="178"/>
-      <c r="N33" s="178"/>
-      <c r="O33" s="178"/>
-      <c r="P33" s="179"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="187"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="187"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="187"/>
+      <c r="P33" s="188"/>
       <c r="R33" s="122" t="s">
         <v>448</v>
       </c>
@@ -23649,21 +23668,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="105"/>
       <c r="C34" s="106"/>
-      <c r="D34" s="180" t="s">
+      <c r="D34" s="189" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="180"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="180"/>
-      <c r="K34" s="180"/>
-      <c r="L34" s="180"/>
-      <c r="M34" s="180"/>
-      <c r="N34" s="180"/>
-      <c r="O34" s="180"/>
-      <c r="P34" s="181"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="189"/>
+      <c r="K34" s="189"/>
+      <c r="L34" s="189"/>
+      <c r="M34" s="189"/>
+      <c r="N34" s="189"/>
+      <c r="O34" s="189"/>
+      <c r="P34" s="190"/>
       <c r="R34" s="62" t="s">
         <v>603</v>
       </c>
@@ -23677,21 +23696,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="105"/>
       <c r="C35" s="106"/>
-      <c r="D35" s="180" t="s">
+      <c r="D35" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
-      <c r="K35" s="180"/>
-      <c r="L35" s="180"/>
-      <c r="M35" s="180"/>
-      <c r="N35" s="180"/>
-      <c r="O35" s="180"/>
-      <c r="P35" s="181"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="189"/>
+      <c r="K35" s="189"/>
+      <c r="L35" s="189"/>
+      <c r="M35" s="189"/>
+      <c r="N35" s="189"/>
+      <c r="O35" s="189"/>
+      <c r="P35" s="190"/>
       <c r="R35" s="62" t="s">
         <v>630</v>
       </c>
@@ -23701,21 +23720,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="111"/>
       <c r="C36" s="112"/>
-      <c r="D36" s="182" t="s">
+      <c r="D36" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="182"/>
-      <c r="F36" s="182"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="182"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="182"/>
-      <c r="K36" s="182"/>
-      <c r="L36" s="182"/>
-      <c r="M36" s="182"/>
-      <c r="N36" s="182"/>
-      <c r="O36" s="182"/>
-      <c r="P36" s="183"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="191"/>
+      <c r="G36" s="191"/>
+      <c r="H36" s="191"/>
+      <c r="I36" s="191"/>
+      <c r="J36" s="191"/>
+      <c r="K36" s="191"/>
+      <c r="L36" s="191"/>
+      <c r="M36" s="191"/>
+      <c r="N36" s="191"/>
+      <c r="O36" s="191"/>
+      <c r="P36" s="192"/>
       <c r="R36" s="62" t="s">
         <v>631</v>
       </c>

--- a/2017/BANGKE - 17.xlsx
+++ b/2017/BANGKE - 17.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vuphu\OneDrive\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="112" documentId="9FDB0D1DDAFB6BEC3ACFA7BE557F33F3C571F501" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{FFF329B6-5AA8-418F-80E5-A0458EE94CB4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="20400" windowHeight="8580" tabRatio="756" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH-MV" sheetId="15" r:id="rId1"/>
@@ -16,30 +22,30 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TH - BR'!$A$25:$N$369</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TH-MV'!$A$15:$O$348</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TH - BR'!$A$25:$N$370</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TH-MV'!$A$15:$O$352</definedName>
     <definedName name="Dong">IF(Loai=#REF!,ROW(Loai)-1,"")</definedName>
     <definedName name="Dong1">IF(Loai1=#REF!,ROW(Loai1)-1,"")</definedName>
     <definedName name="DSBR">'Huong dan BR'!$R$2:$S$104</definedName>
     <definedName name="DSMV">'Huong dan MV'!$R$2:$T$54</definedName>
-    <definedName name="Loai">OFFSET('TH-MV'!$M$17,,,COUNTA('TH-MV'!$M$17:$M$38992))</definedName>
+    <definedName name="Loai">OFFSET('TH-MV'!$M$17,,,COUNTA('TH-MV'!$M$17:$M$38945))</definedName>
     <definedName name="Loai1">OFFSET('TH - BR'!#REF!,,,COUNTA('[1]TH-BR'!$L$18:$M$38745))</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'TH - BR'!$B$1:$L$381</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'TH-MV'!$B$1:$M$367</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'TH - BR'!$B$1:$L$382</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TH-MV'!$B$1:$M$371</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'TH - BR'!$12:$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'TH-MV'!$12:$15</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="171027" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>FIS-CMCSOFT</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0">
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="0">
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -135,12 +141,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>FIS-CMCSOFT</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -166,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -197,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="996">
   <si>
     <t>(Kèm theo tờ khai thuế GTGT theo mẫu số 01/GTGT)</t>
   </si>
@@ -3110,12 +3116,87 @@
   </si>
   <si>
     <t>0304789298</t>
+  </si>
+  <si>
+    <t>0001085</t>
+  </si>
+  <si>
+    <t>0000463</t>
+  </si>
+  <si>
+    <t>0000059</t>
+  </si>
+  <si>
+    <t>0000100</t>
+  </si>
+  <si>
+    <t>0002323</t>
+  </si>
+  <si>
+    <t>Cty TNHH TM DV SX Mẫn Gia</t>
+  </si>
+  <si>
+    <t>0314582750</t>
+  </si>
+  <si>
+    <t>MG/17P</t>
+  </si>
+  <si>
+    <t>0000328</t>
+  </si>
+  <si>
+    <t>0000347</t>
+  </si>
+  <si>
+    <t>0000364</t>
+  </si>
+  <si>
+    <t>0000379</t>
+  </si>
+  <si>
+    <t>0000384</t>
+  </si>
+  <si>
+    <t>0000405</t>
+  </si>
+  <si>
+    <t>0000412</t>
+  </si>
+  <si>
+    <t>0000420</t>
+  </si>
+  <si>
+    <t>0000427</t>
+  </si>
+  <si>
+    <t>0000438</t>
+  </si>
+  <si>
+    <t>0000447</t>
+  </si>
+  <si>
+    <t>0000458</t>
+  </si>
+  <si>
+    <t>0000466</t>
+  </si>
+  <si>
+    <t>0000475</t>
+  </si>
+  <si>
+    <t>0000486</t>
+  </si>
+  <si>
+    <t>0000496</t>
+  </si>
+  <si>
+    <t>0000505</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -3500,7 +3581,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3963,6 +4044,9 @@
     <xf numFmtId="165" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4101,24 +4185,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="k1" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="k1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
-    <cellStyle name="Normal_ketoanthucte_NhatKySoCai 2 2" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal_ketoanthucte_NhatKySoCai 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4144,7 +4231,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4349,7 +4436,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4562,7 +4649,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4595,9 +4682,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4630,6 +4734,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4805,16 +4926,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1">
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:Q378"/>
+  <dimension ref="A1:Q374"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="F410" sqref="F410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4870,70 +4991,70 @@
       <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:15" s="37" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
     </row>
     <row r="5" spans="1:15" s="37" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
     </row>
     <row r="6" spans="1:15" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
     </row>
     <row r="7" spans="1:15" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="164" t="str">
+      <c r="B7" s="165" t="str">
         <f>"Kỳ tính thuế: Quý "&amp;O14&amp;" Năm "&amp;YEAR(F17)</f>
         <v>Kỳ tính thuế: Quý 2 Năm 2017</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
-      <c r="L7" s="164"/>
-      <c r="M7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
     </row>
     <row r="8" spans="1:15" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="39"/>
@@ -4958,67 +5079,67 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="165" t="s">
+      <c r="B11" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="165"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
     </row>
     <row r="12" spans="1:15" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="168" t="s">
+      <c r="B12" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="169"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="166" t="s">
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="167" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="166" t="s">
+      <c r="H12" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="166" t="s">
+      <c r="I12" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="166" t="s">
+      <c r="J12" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="167" t="s">
+      <c r="K12" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="166" t="s">
+      <c r="L12" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="166" t="s">
+      <c r="M12" s="167" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="37" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="168"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="166"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="167"/>
+      <c r="M13" s="167"/>
     </row>
     <row r="14" spans="1:15" s="37" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="168"/>
+      <c r="B14" s="169"/>
       <c r="C14" s="42" t="s">
         <v>43</v>
       </c>
@@ -5031,13 +5152,13 @@
       <c r="F14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="166"/>
-      <c r="M14" s="166"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="167"/>
+      <c r="M14" s="167"/>
       <c r="O14" s="119">
         <v>2</v>
       </c>
@@ -5080,7 +5201,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="47" t="s">
         <v>69</v>
       </c>
@@ -5096,7 +5217,7 @@
       <c r="L16" s="47"/>
       <c r="M16" s="47"/>
     </row>
-    <row r="17" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="48">
         <f t="shared" ref="B17:B32" si="0">IF(G17&lt;&gt;"",ROW()-16,"")</f>
         <v>1</v>
@@ -5139,7 +5260,7 @@
       <c r="P17" s="56"/>
       <c r="Q17" s="58"/>
     </row>
-    <row r="18" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5182,7 +5303,7 @@
       <c r="P18" s="56"/>
       <c r="Q18" s="58"/>
     </row>
-    <row r="19" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5220,7 +5341,7 @@
       <c r="O19" s="57"/>
       <c r="P19" s="56"/>
     </row>
-    <row r="20" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="48">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5262,7 +5383,7 @@
       <c r="O20" s="57"/>
       <c r="P20" s="56"/>
     </row>
-    <row r="21" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5304,7 +5425,7 @@
       <c r="O21" s="57"/>
       <c r="P21" s="56"/>
     </row>
-    <row r="22" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="48">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5346,7 +5467,7 @@
       <c r="O22" s="57"/>
       <c r="P22" s="56"/>
     </row>
-    <row r="23" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="48">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5388,7 +5509,7 @@
       <c r="O23" s="57"/>
       <c r="P23" s="56"/>
     </row>
-    <row r="24" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="48">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5430,7 +5551,7 @@
       <c r="O24" s="57"/>
       <c r="P24" s="56"/>
     </row>
-    <row r="25" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="48">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5472,7 +5593,7 @@
       <c r="O25" s="57"/>
       <c r="P25" s="56"/>
     </row>
-    <row r="26" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5510,7 +5631,7 @@
       <c r="O26" s="57"/>
       <c r="P26" s="56"/>
     </row>
-    <row r="27" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="48">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5552,7 +5673,7 @@
       <c r="O27" s="57"/>
       <c r="P27" s="56"/>
     </row>
-    <row r="28" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="48">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5594,7 +5715,7 @@
       <c r="O28" s="57"/>
       <c r="P28" s="56"/>
     </row>
-    <row r="29" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="48">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5636,7 +5757,7 @@
       <c r="O29" s="57"/>
       <c r="P29" s="56"/>
     </row>
-    <row r="30" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="48">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5678,7 +5799,7 @@
       <c r="O30" s="57"/>
       <c r="P30" s="56"/>
     </row>
-    <row r="31" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="48">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5720,7 +5841,7 @@
       <c r="O31" s="57"/>
       <c r="P31" s="56"/>
     </row>
-    <row r="32" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5758,7 +5879,7 @@
       <c r="O32" s="57"/>
       <c r="P32" s="56"/>
     </row>
-    <row r="33" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="48">
         <f t="shared" ref="B33:B54" si="3">IF(G33&lt;&gt;"",ROW()-16,"")</f>
         <v>17</v>
@@ -5800,7 +5921,7 @@
       <c r="O33" s="57"/>
       <c r="P33" s="56"/>
     </row>
-    <row r="34" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="48">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -5842,7 +5963,7 @@
       <c r="O34" s="57"/>
       <c r="P34" s="56"/>
     </row>
-    <row r="35" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="48">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -5884,7 +6005,7 @@
       <c r="O35" s="57"/>
       <c r="P35" s="56"/>
     </row>
-    <row r="36" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="48">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -5926,7 +6047,7 @@
       <c r="O36" s="57"/>
       <c r="P36" s="56"/>
     </row>
-    <row r="37" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="48">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -5968,7 +6089,7 @@
       <c r="O37" s="57"/>
       <c r="P37" s="56"/>
     </row>
-    <row r="38" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="48">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -6010,7 +6131,7 @@
       <c r="O38" s="57"/>
       <c r="P38" s="56"/>
     </row>
-    <row r="39" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="48">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -6052,7 +6173,7 @@
       <c r="O39" s="57"/>
       <c r="P39" s="56"/>
     </row>
-    <row r="40" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="48">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -6094,7 +6215,7 @@
       <c r="O40" s="57"/>
       <c r="P40" s="56"/>
     </row>
-    <row r="41" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="48">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -6136,7 +6257,7 @@
       <c r="O41" s="57"/>
       <c r="P41" s="56"/>
     </row>
-    <row r="42" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="48">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -6178,7 +6299,7 @@
       <c r="O42" s="57"/>
       <c r="P42" s="56"/>
     </row>
-    <row r="43" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="48">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -6220,7 +6341,7 @@
       <c r="O43" s="57"/>
       <c r="P43" s="56"/>
     </row>
-    <row r="44" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="48">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -6262,7 +6383,7 @@
       <c r="O44" s="57"/>
       <c r="P44" s="56"/>
     </row>
-    <row r="45" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="48">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -6304,7 +6425,7 @@
       <c r="O45" s="57"/>
       <c r="P45" s="56"/>
     </row>
-    <row r="46" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="48">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -6346,7 +6467,7 @@
       <c r="O46" s="57"/>
       <c r="P46" s="56"/>
     </row>
-    <row r="47" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="48">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -6388,7 +6509,7 @@
       <c r="O47" s="57"/>
       <c r="P47" s="56"/>
     </row>
-    <row r="48" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="48">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -6430,7 +6551,7 @@
       <c r="O48" s="57"/>
       <c r="P48" s="56"/>
     </row>
-    <row r="49" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="48">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -6472,7 +6593,7 @@
       <c r="O49" s="57"/>
       <c r="P49" s="56"/>
     </row>
-    <row r="50" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="48">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -6514,7 +6635,7 @@
       <c r="O50" s="57"/>
       <c r="P50" s="56"/>
     </row>
-    <row r="51" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="48">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -6556,7 +6677,7 @@
       <c r="O51" s="57"/>
       <c r="P51" s="56"/>
     </row>
-    <row r="52" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="48">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -6598,7 +6719,7 @@
       <c r="O52" s="57"/>
       <c r="P52" s="56"/>
     </row>
-    <row r="53" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="48">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -6640,7 +6761,7 @@
       <c r="O53" s="57"/>
       <c r="P53" s="56"/>
     </row>
-    <row r="54" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="48">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -6682,14 +6803,14 @@
       <c r="O54" s="57"/>
       <c r="P54" s="56"/>
     </row>
-    <row r="55" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="48" t="str">
-        <f t="shared" ref="B55:B343" si="6">IF(G55&lt;&gt;"",ROW()-16,"")</f>
+        <f t="shared" ref="B55:B347" si="6">IF(G55&lt;&gt;"",ROW()-16,"")</f>
         <v/>
       </c>
       <c r="C55" s="64"/>
       <c r="D55" s="60" t="str">
-        <f t="shared" ref="D55:D342" si="7">IF(ISNA(VLOOKUP(G55,DSMV,3,0)),"",VLOOKUP(G55,DSMV,3,0))</f>
+        <f t="shared" ref="D55:D346" si="7">IF(ISNA(VLOOKUP(G55,DSMV,3,0)),"",VLOOKUP(G55,DSMV,3,0))</f>
         <v/>
       </c>
       <c r="E55" s="59" t="s">
@@ -6700,7 +6821,7 @@
       </c>
       <c r="G55" s="62"/>
       <c r="H55" s="92" t="str">
-        <f t="shared" ref="H55:H342" si="8">IF(ISNA(VLOOKUP(G55,DSMV,2,0)),"",VLOOKUP(G55,DSMV,2,0))</f>
+        <f t="shared" ref="H55:H346" si="8">IF(ISNA(VLOOKUP(G55,DSMV,2,0)),"",VLOOKUP(G55,DSMV,2,0))</f>
         <v/>
       </c>
       <c r="I55" s="62" t="s">
@@ -6722,7 +6843,7 @@
       <c r="O55" s="57"/>
       <c r="P55" s="56"/>
     </row>
-    <row r="56" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6762,7 +6883,7 @@
       <c r="O56" s="57"/>
       <c r="P56" s="56"/>
     </row>
-    <row r="57" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6802,7 +6923,7 @@
       <c r="O57" s="57"/>
       <c r="P57" s="56"/>
     </row>
-    <row r="58" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6842,7 +6963,7 @@
       <c r="O58" s="57"/>
       <c r="P58" s="56"/>
     </row>
-    <row r="59" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6882,7 +7003,7 @@
       <c r="O59" s="57"/>
       <c r="P59" s="56"/>
     </row>
-    <row r="60" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6922,7 +7043,7 @@
       <c r="O60" s="57"/>
       <c r="P60" s="56"/>
     </row>
-    <row r="61" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6962,7 +7083,7 @@
       <c r="O61" s="57"/>
       <c r="P61" s="56"/>
     </row>
-    <row r="62" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7002,7 +7123,7 @@
       <c r="O62" s="57"/>
       <c r="P62" s="56"/>
     </row>
-    <row r="63" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7042,7 +7163,7 @@
       <c r="O63" s="57"/>
       <c r="P63" s="56"/>
     </row>
-    <row r="64" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7082,7 +7203,7 @@
       <c r="O64" s="57"/>
       <c r="P64" s="56"/>
     </row>
-    <row r="65" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7122,7 +7243,7 @@
       <c r="O65" s="57"/>
       <c r="P65" s="56"/>
     </row>
-    <row r="66" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7162,7 +7283,7 @@
       <c r="O66" s="57"/>
       <c r="P66" s="56"/>
     </row>
-    <row r="67" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7202,7 +7323,7 @@
       <c r="O67" s="57"/>
       <c r="P67" s="56"/>
     </row>
-    <row r="68" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7242,7 +7363,7 @@
       <c r="O68" s="57"/>
       <c r="P68" s="56"/>
     </row>
-    <row r="69" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7282,7 +7403,7 @@
       <c r="O69" s="57"/>
       <c r="P69" s="56"/>
     </row>
-    <row r="70" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7322,7 +7443,7 @@
       <c r="O70" s="57"/>
       <c r="P70" s="56"/>
     </row>
-    <row r="71" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7362,7 +7483,7 @@
       <c r="O71" s="57"/>
       <c r="P71" s="56"/>
     </row>
-    <row r="72" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7402,7 +7523,7 @@
       <c r="O72" s="57"/>
       <c r="P72" s="56"/>
     </row>
-    <row r="73" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7442,7 +7563,7 @@
       <c r="O73" s="57"/>
       <c r="P73" s="56"/>
     </row>
-    <row r="74" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7482,7 +7603,7 @@
       <c r="O74" s="57"/>
       <c r="P74" s="56"/>
     </row>
-    <row r="75" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7522,7 +7643,7 @@
       <c r="O75" s="57"/>
       <c r="P75" s="56"/>
     </row>
-    <row r="76" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7562,7 +7683,7 @@
       <c r="O76" s="57"/>
       <c r="P76" s="56"/>
     </row>
-    <row r="77" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7602,7 +7723,7 @@
       <c r="O77" s="57"/>
       <c r="P77" s="56"/>
     </row>
-    <row r="78" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7642,7 +7763,7 @@
       <c r="O78" s="57"/>
       <c r="P78" s="56"/>
     </row>
-    <row r="79" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7682,7 +7803,7 @@
       <c r="O79" s="57"/>
       <c r="P79" s="56"/>
     </row>
-    <row r="80" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7722,7 +7843,7 @@
       <c r="O80" s="57"/>
       <c r="P80" s="56"/>
     </row>
-    <row r="81" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7762,7 +7883,7 @@
       <c r="O81" s="57"/>
       <c r="P81" s="56"/>
     </row>
-    <row r="82" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7802,7 +7923,7 @@
       <c r="O82" s="57"/>
       <c r="P82" s="56"/>
     </row>
-    <row r="83" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7842,7 +7963,7 @@
       <c r="O83" s="57"/>
       <c r="P83" s="56"/>
     </row>
-    <row r="84" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="48">
         <f t="shared" ref="B84:B100" si="9">IF(G84&lt;&gt;"",ROW()-16,"")</f>
         <v>68</v>
@@ -7883,7 +8004,7 @@
       <c r="N84" s="56"/>
       <c r="O84" s="57"/>
     </row>
-    <row r="85" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="48">
         <f t="shared" si="9"/>
         <v>69</v>
@@ -7924,7 +8045,7 @@
       <c r="N85" s="56"/>
       <c r="O85" s="57"/>
     </row>
-    <row r="86" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="48">
         <f t="shared" si="9"/>
         <v>70</v>
@@ -7965,7 +8086,7 @@
       <c r="N86" s="56"/>
       <c r="O86" s="57"/>
     </row>
-    <row r="87" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="48">
         <f t="shared" si="9"/>
         <v>71</v>
@@ -8006,7 +8127,7 @@
       <c r="N87" s="56"/>
       <c r="O87" s="57"/>
     </row>
-    <row r="88" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="48">
         <f t="shared" si="9"/>
         <v>72</v>
@@ -8047,7 +8168,7 @@
       <c r="N88" s="56"/>
       <c r="O88" s="57"/>
     </row>
-    <row r="89" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="48">
         <f t="shared" si="9"/>
         <v>73</v>
@@ -8088,7 +8209,7 @@
       <c r="N89" s="56"/>
       <c r="O89" s="57"/>
     </row>
-    <row r="90" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="48" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -8125,7 +8246,7 @@
       <c r="N90" s="56"/>
       <c r="O90" s="57"/>
     </row>
-    <row r="91" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="48">
         <f t="shared" si="9"/>
         <v>75</v>
@@ -8166,7 +8287,7 @@
       <c r="N91" s="56"/>
       <c r="O91" s="57"/>
     </row>
-    <row r="92" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="48">
         <f t="shared" si="9"/>
         <v>76</v>
@@ -8207,7 +8328,7 @@
       <c r="N92" s="56"/>
       <c r="O92" s="57"/>
     </row>
-    <row r="93" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="48">
         <f t="shared" si="9"/>
         <v>77</v>
@@ -8248,7 +8369,7 @@
       <c r="N93" s="56"/>
       <c r="O93" s="57"/>
     </row>
-    <row r="94" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="48">
         <f t="shared" si="9"/>
         <v>78</v>
@@ -8289,7 +8410,7 @@
       <c r="N94" s="56"/>
       <c r="O94" s="57"/>
     </row>
-    <row r="95" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="48" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -8326,7 +8447,7 @@
       <c r="N95" s="56"/>
       <c r="O95" s="57"/>
     </row>
-    <row r="96" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="48">
         <f t="shared" si="9"/>
         <v>80</v>
@@ -8367,7 +8488,7 @@
       <c r="N96" s="56"/>
       <c r="O96" s="57"/>
     </row>
-    <row r="97" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="48">
         <f t="shared" si="9"/>
         <v>81</v>
@@ -8408,7 +8529,7 @@
       <c r="N97" s="56"/>
       <c r="O97" s="57"/>
     </row>
-    <row r="98" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="48">
         <f t="shared" si="9"/>
         <v>82</v>
@@ -8449,7 +8570,7 @@
       <c r="N98" s="56"/>
       <c r="O98" s="57"/>
     </row>
-    <row r="99" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="48">
         <f t="shared" si="9"/>
         <v>83</v>
@@ -8490,7 +8611,7 @@
       <c r="N99" s="56"/>
       <c r="O99" s="57"/>
     </row>
-    <row r="100" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="48" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -8527,7 +8648,7 @@
       <c r="N100" s="56"/>
       <c r="O100" s="57"/>
     </row>
-    <row r="101" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="48">
         <f t="shared" si="6"/>
         <v>85</v>
@@ -8575,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="48">
         <f t="shared" si="6"/>
         <v>86</v>
@@ -8623,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="48">
         <f t="shared" si="6"/>
         <v>87</v>
@@ -8671,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="48">
         <f t="shared" si="6"/>
         <v>88</v>
@@ -8719,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="48">
         <f t="shared" si="6"/>
         <v>89</v>
@@ -8767,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="48">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -8815,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="48">
         <f t="shared" si="6"/>
         <v>91</v>
@@ -8863,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="48">
         <f t="shared" si="6"/>
         <v>92</v>
@@ -8911,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="48">
         <f t="shared" si="6"/>
         <v>93</v>
@@ -8959,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="48">
         <f t="shared" si="6"/>
         <v>94</v>
@@ -9007,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="48">
         <f t="shared" si="6"/>
         <v>95</v>
@@ -9055,7 +9176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="48">
         <f t="shared" si="6"/>
         <v>96</v>
@@ -9103,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="48">
         <f t="shared" si="6"/>
         <v>97</v>
@@ -9151,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="48">
         <f t="shared" si="6"/>
         <v>98</v>
@@ -9199,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="48">
         <f t="shared" si="6"/>
         <v>99</v>
@@ -9247,7 +9368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="48">
         <f t="shared" si="6"/>
         <v>100</v>
@@ -9295,7 +9416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="48">
         <f t="shared" si="6"/>
         <v>101</v>
@@ -9343,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="48">
         <f t="shared" si="6"/>
         <v>102</v>
@@ -9391,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="48">
         <f t="shared" si="6"/>
         <v>103</v>
@@ -9439,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="48">
         <f t="shared" si="6"/>
         <v>104</v>
@@ -9487,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="48">
         <f t="shared" ref="B121:B123" si="14">IF(G121&lt;&gt;"",ROW()-16,"")</f>
         <v>105</v>
@@ -9535,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="48">
         <f t="shared" si="14"/>
         <v>106</v>
@@ -9583,7 +9704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="48">
         <f t="shared" si="14"/>
         <v>107</v>
@@ -9631,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="48">
         <f t="shared" ref="B124:B163" si="15">IF(G124&lt;&gt;"",ROW()-16,"")</f>
         <v>108</v>
@@ -9679,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="48">
         <f t="shared" si="15"/>
         <v>109</v>
@@ -9727,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="48">
         <f t="shared" si="15"/>
         <v>110</v>
@@ -9775,7 +9896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="48">
         <f t="shared" si="15"/>
         <v>111</v>
@@ -9823,7 +9944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="48">
         <f t="shared" si="15"/>
         <v>112</v>
@@ -9871,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="48">
         <f t="shared" si="15"/>
         <v>113</v>
@@ -9919,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="48">
         <f t="shared" si="15"/>
         <v>114</v>
@@ -9967,7 +10088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="48">
         <f t="shared" si="15"/>
         <v>115</v>
@@ -10015,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="48">
         <f t="shared" si="15"/>
         <v>116</v>
@@ -10063,7 +10184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="48">
         <f>IF(G133&lt;&gt;"",ROW()-16,"")</f>
         <v>117</v>
@@ -10111,7 +10232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="48">
         <f t="shared" si="15"/>
         <v>118</v>
@@ -10159,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="48">
         <f t="shared" si="15"/>
         <v>119</v>
@@ -10207,7 +10328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="48">
         <f t="shared" si="15"/>
         <v>120</v>
@@ -10255,7 +10376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="48">
         <f t="shared" si="15"/>
         <v>121</v>
@@ -10303,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="48">
         <f t="shared" si="15"/>
         <v>122</v>
@@ -10351,7 +10472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10391,7 +10512,7 @@
       <c r="N139" s="56"/>
       <c r="O139" s="57"/>
     </row>
-    <row r="140" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10431,7 +10552,7 @@
       <c r="N140" s="56"/>
       <c r="O140" s="57"/>
     </row>
-    <row r="141" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10471,7 +10592,7 @@
       <c r="N141" s="56"/>
       <c r="O141" s="57"/>
     </row>
-    <row r="142" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10511,7 +10632,7 @@
       <c r="N142" s="56"/>
       <c r="O142" s="57"/>
     </row>
-    <row r="143" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10551,7 +10672,7 @@
       <c r="N143" s="56"/>
       <c r="O143" s="57"/>
     </row>
-    <row r="144" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10591,7 +10712,7 @@
       <c r="N144" s="56"/>
       <c r="O144" s="57"/>
     </row>
-    <row r="145" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10631,7 +10752,7 @@
       <c r="N145" s="56"/>
       <c r="O145" s="57"/>
     </row>
-    <row r="146" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10671,7 +10792,7 @@
       <c r="N146" s="56"/>
       <c r="O146" s="57"/>
     </row>
-    <row r="147" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10711,7 +10832,7 @@
       <c r="N147" s="56"/>
       <c r="O147" s="57"/>
     </row>
-    <row r="148" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10751,7 +10872,7 @@
       <c r="N148" s="56"/>
       <c r="O148" s="57"/>
     </row>
-    <row r="149" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10791,7 +10912,7 @@
       <c r="N149" s="56"/>
       <c r="O149" s="57"/>
     </row>
-    <row r="150" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10831,7 +10952,7 @@
       <c r="N150" s="56"/>
       <c r="O150" s="57"/>
     </row>
-    <row r="151" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10871,7 +10992,7 @@
       <c r="N151" s="56"/>
       <c r="O151" s="57"/>
     </row>
-    <row r="152" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10911,7 +11032,7 @@
       <c r="N152" s="56"/>
       <c r="O152" s="57"/>
     </row>
-    <row r="153" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10951,7 +11072,7 @@
       <c r="N153" s="56"/>
       <c r="O153" s="57"/>
     </row>
-    <row r="154" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10991,7 +11112,7 @@
       <c r="N154" s="56"/>
       <c r="O154" s="57"/>
     </row>
-    <row r="155" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -11031,7 +11152,7 @@
       <c r="N155" s="56"/>
       <c r="O155" s="57"/>
     </row>
-    <row r="156" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -11071,7 +11192,7 @@
       <c r="N156" s="56"/>
       <c r="O156" s="57"/>
     </row>
-    <row r="157" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -11111,7 +11232,7 @@
       <c r="N157" s="56"/>
       <c r="O157" s="57"/>
     </row>
-    <row r="158" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -11151,7 +11272,7 @@
       <c r="N158" s="56"/>
       <c r="O158" s="57"/>
     </row>
-    <row r="159" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -11191,7 +11312,7 @@
       <c r="N159" s="56"/>
       <c r="O159" s="57"/>
     </row>
-    <row r="160" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -11231,7 +11352,7 @@
       <c r="N160" s="56"/>
       <c r="O160" s="57"/>
     </row>
-    <row r="161" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -11271,7 +11392,7 @@
       <c r="N161" s="56"/>
       <c r="O161" s="57"/>
     </row>
-    <row r="162" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -11311,7 +11432,7 @@
       <c r="N162" s="56"/>
       <c r="O162" s="57"/>
     </row>
-    <row r="163" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="48" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -11351,7 +11472,7 @@
       <c r="N163" s="56"/>
       <c r="O163" s="57"/>
     </row>
-    <row r="164" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="48" t="str">
         <f t="shared" ref="B164:B231" si="17">IF(G164&lt;&gt;"",ROW()-16,"")</f>
         <v/>
@@ -11391,7 +11512,7 @@
       <c r="N164" s="56"/>
       <c r="O164" s="57"/>
     </row>
-    <row r="165" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11431,7 +11552,7 @@
       <c r="N165" s="56"/>
       <c r="O165" s="57"/>
     </row>
-    <row r="166" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11471,7 +11592,7 @@
       <c r="N166" s="56"/>
       <c r="O166" s="57"/>
     </row>
-    <row r="167" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11511,7 +11632,7 @@
       <c r="N167" s="56"/>
       <c r="O167" s="57"/>
     </row>
-    <row r="168" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11551,7 +11672,7 @@
       <c r="N168" s="56"/>
       <c r="O168" s="57"/>
     </row>
-    <row r="169" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11591,7 +11712,7 @@
       <c r="N169" s="56"/>
       <c r="O169" s="57"/>
     </row>
-    <row r="170" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11631,7 +11752,7 @@
       <c r="N170" s="56"/>
       <c r="O170" s="57"/>
     </row>
-    <row r="171" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11671,7 +11792,7 @@
       <c r="N171" s="56"/>
       <c r="O171" s="57"/>
     </row>
-    <row r="172" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11711,7 +11832,7 @@
       <c r="N172" s="56"/>
       <c r="O172" s="57"/>
     </row>
-    <row r="173" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11751,7 +11872,7 @@
       <c r="N173" s="56"/>
       <c r="O173" s="57"/>
     </row>
-    <row r="174" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11791,7 +11912,7 @@
       <c r="N174" s="56"/>
       <c r="O174" s="57"/>
     </row>
-    <row r="175" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11831,7 +11952,7 @@
       <c r="N175" s="56"/>
       <c r="O175" s="57"/>
     </row>
-    <row r="176" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11871,7 +11992,7 @@
       <c r="N176" s="56"/>
       <c r="O176" s="57"/>
     </row>
-    <row r="177" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11911,7 +12032,7 @@
       <c r="N177" s="56"/>
       <c r="O177" s="57"/>
     </row>
-    <row r="178" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11951,7 +12072,7 @@
       <c r="N178" s="56"/>
       <c r="O178" s="57"/>
     </row>
-    <row r="179" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -11991,7 +12112,7 @@
       <c r="N179" s="56"/>
       <c r="O179" s="57"/>
     </row>
-    <row r="180" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="48" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -12031,7 +12152,7 @@
       <c r="N180" s="56"/>
       <c r="O180" s="57"/>
     </row>
-    <row r="181" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="48">
         <f t="shared" ref="B181:B197" si="19">IF(G181&lt;&gt;"",ROW()-16,"")</f>
         <v>165</v>
@@ -12074,7 +12195,7 @@
       <c r="O181" s="57"/>
       <c r="P181" s="58"/>
     </row>
-    <row r="182" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="48">
         <f t="shared" si="19"/>
         <v>166</v>
@@ -12117,7 +12238,7 @@
       <c r="O182" s="57"/>
       <c r="P182" s="58"/>
     </row>
-    <row r="183" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="48">
         <f t="shared" si="19"/>
         <v>167</v>
@@ -12160,7 +12281,7 @@
       <c r="O183" s="57"/>
       <c r="P183" s="58"/>
     </row>
-    <row r="184" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="48">
         <f t="shared" si="19"/>
         <v>168</v>
@@ -12203,7 +12324,7 @@
       <c r="O184" s="57"/>
       <c r="P184" s="58"/>
     </row>
-    <row r="185" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="48">
         <f t="shared" si="19"/>
         <v>169</v>
@@ -12246,7 +12367,7 @@
       <c r="O185" s="57"/>
       <c r="P185" s="58"/>
     </row>
-    <row r="186" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="48">
         <f t="shared" si="19"/>
         <v>170</v>
@@ -12289,7 +12410,7 @@
       <c r="O186" s="57"/>
       <c r="P186" s="58"/>
     </row>
-    <row r="187" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="48">
         <f t="shared" si="19"/>
         <v>171</v>
@@ -12332,7 +12453,7 @@
       <c r="O187" s="57"/>
       <c r="P187" s="58"/>
     </row>
-    <row r="188" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="48">
         <f t="shared" si="19"/>
         <v>172</v>
@@ -12375,7 +12496,7 @@
       <c r="O188" s="57"/>
       <c r="P188" s="58"/>
     </row>
-    <row r="189" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="48">
         <f t="shared" si="19"/>
         <v>173</v>
@@ -12418,7 +12539,7 @@
       <c r="O189" s="57"/>
       <c r="P189" s="58"/>
     </row>
-    <row r="190" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="48">
         <f t="shared" si="19"/>
         <v>174</v>
@@ -12461,7 +12582,7 @@
       <c r="O190" s="57"/>
       <c r="P190" s="58"/>
     </row>
-    <row r="191" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="48">
         <f t="shared" si="19"/>
         <v>175</v>
@@ -12504,7 +12625,7 @@
       <c r="O191" s="57"/>
       <c r="P191" s="58"/>
     </row>
-    <row r="192" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="48" t="str">
         <f t="shared" si="19"/>
         <v/>
@@ -12543,7 +12664,7 @@
       <c r="O192" s="57"/>
       <c r="P192" s="58"/>
     </row>
-    <row r="193" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="48">
         <f t="shared" si="19"/>
         <v>177</v>
@@ -12586,7 +12707,7 @@
       <c r="O193" s="57"/>
       <c r="P193" s="58"/>
     </row>
-    <row r="194" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="48">
         <f t="shared" si="19"/>
         <v>178</v>
@@ -12629,7 +12750,7 @@
       <c r="O194" s="57"/>
       <c r="P194" s="58"/>
     </row>
-    <row r="195" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="48">
         <f t="shared" si="19"/>
         <v>179</v>
@@ -12672,7 +12793,7 @@
       <c r="O195" s="57"/>
       <c r="P195" s="58"/>
     </row>
-    <row r="196" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="48">
         <f t="shared" si="19"/>
         <v>180</v>
@@ -12715,7 +12836,7 @@
       <c r="O196" s="57"/>
       <c r="P196" s="58"/>
     </row>
-    <row r="197" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="48" t="str">
         <f t="shared" si="19"/>
         <v/>
@@ -12754,7 +12875,7 @@
       <c r="O197" s="57"/>
       <c r="P197" s="58"/>
     </row>
-    <row r="198" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="48">
         <f t="shared" ref="B198:B203" si="23">IF(G198&lt;&gt;"",ROW()-16,"")</f>
         <v>182</v>
@@ -12796,7 +12917,7 @@
       <c r="N198" s="56"/>
       <c r="O198" s="57"/>
     </row>
-    <row r="199" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="48">
         <f t="shared" si="23"/>
         <v>183</v>
@@ -12838,7 +12959,7 @@
       <c r="N199" s="56"/>
       <c r="O199" s="57"/>
     </row>
-    <row r="200" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="48">
         <f t="shared" si="23"/>
         <v>184</v>
@@ -12880,7 +13001,7 @@
       <c r="N200" s="56"/>
       <c r="O200" s="57"/>
     </row>
-    <row r="201" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="48">
         <f t="shared" si="23"/>
         <v>185</v>
@@ -12922,7 +13043,7 @@
       <c r="N201" s="56"/>
       <c r="O201" s="57"/>
     </row>
-    <row r="202" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="48">
         <f t="shared" si="23"/>
         <v>186</v>
@@ -12964,7 +13085,7 @@
       <c r="N202" s="56"/>
       <c r="O202" s="57"/>
     </row>
-    <row r="203" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="48">
         <f t="shared" si="23"/>
         <v>187</v>
@@ -13006,7 +13127,7 @@
       <c r="N203" s="56"/>
       <c r="O203" s="57"/>
     </row>
-    <row r="204" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="48">
         <f t="shared" ref="B204" si="27">IF(G204&lt;&gt;"",ROW()-16,"")</f>
         <v>188</v>
@@ -13049,7 +13170,7 @@
       <c r="O204" s="57"/>
       <c r="P204" s="56"/>
     </row>
-    <row r="205" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="48">
         <f t="shared" ref="B205" si="31">IF(G205&lt;&gt;"",ROW()-16,"")</f>
         <v>189</v>
@@ -13092,7 +13213,7 @@
       <c r="O205" s="57"/>
       <c r="P205" s="56"/>
     </row>
-    <row r="206" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="48">
         <f t="shared" ref="B206:B219" si="34">IF(G206&lt;&gt;"",ROW()-16,"")</f>
         <v>190</v>
@@ -13134,7 +13255,7 @@
       <c r="N206" s="56"/>
       <c r="O206" s="57"/>
     </row>
-    <row r="207" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="48">
         <f t="shared" si="34"/>
         <v>191</v>
@@ -13176,7 +13297,7 @@
       <c r="N207" s="56"/>
       <c r="O207" s="57"/>
     </row>
-    <row r="208" spans="2:16" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="48">
         <f t="shared" si="34"/>
         <v>192</v>
@@ -13218,7 +13339,7 @@
       <c r="N208" s="56"/>
       <c r="O208" s="57"/>
     </row>
-    <row r="209" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="48">
         <f t="shared" si="34"/>
         <v>193</v>
@@ -13260,7 +13381,7 @@
       <c r="N209" s="56"/>
       <c r="O209" s="57"/>
     </row>
-    <row r="210" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="48">
         <f t="shared" si="34"/>
         <v>194</v>
@@ -13302,7 +13423,7 @@
       <c r="N210" s="56"/>
       <c r="O210" s="57"/>
     </row>
-    <row r="211" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="48">
         <f t="shared" ref="B211:B212" si="38">IF(G211&lt;&gt;"",ROW()-16,"")</f>
         <v>195</v>
@@ -13344,7 +13465,7 @@
       <c r="N211" s="56"/>
       <c r="O211" s="57"/>
     </row>
-    <row r="212" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="48">
         <f t="shared" si="38"/>
         <v>196</v>
@@ -13386,7 +13507,7 @@
       <c r="N212" s="56"/>
       <c r="O212" s="57"/>
     </row>
-    <row r="213" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="48">
         <f t="shared" si="34"/>
         <v>197</v>
@@ -13428,7 +13549,7 @@
       <c r="N213" s="56"/>
       <c r="O213" s="57"/>
     </row>
-    <row r="214" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="48">
         <f t="shared" si="34"/>
         <v>198</v>
@@ -13470,7 +13591,7 @@
       <c r="N214" s="56"/>
       <c r="O214" s="57"/>
     </row>
-    <row r="215" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="48">
         <f t="shared" si="34"/>
         <v>199</v>
@@ -13512,7 +13633,7 @@
       <c r="N215" s="56"/>
       <c r="O215" s="57"/>
     </row>
-    <row r="216" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="48">
         <f t="shared" si="34"/>
         <v>200</v>
@@ -13554,7 +13675,7 @@
       <c r="N216" s="56"/>
       <c r="O216" s="57"/>
     </row>
-    <row r="217" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="48">
         <f t="shared" si="34"/>
         <v>201</v>
@@ -13596,7 +13717,7 @@
       <c r="N217" s="56"/>
       <c r="O217" s="57"/>
     </row>
-    <row r="218" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="48">
         <f t="shared" si="34"/>
         <v>202</v>
@@ -13638,7 +13759,7 @@
       <c r="N218" s="56"/>
       <c r="O218" s="57"/>
     </row>
-    <row r="219" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="48">
         <f t="shared" si="34"/>
         <v>203</v>
@@ -13680,7 +13801,7 @@
       <c r="N219" s="56"/>
       <c r="O219" s="57"/>
     </row>
-    <row r="220" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="48">
         <f t="shared" si="17"/>
         <v>204</v>
@@ -13713,7 +13834,7 @@
         <v>0.1</v>
       </c>
       <c r="L220" s="63">
-        <f t="shared" ref="L220:L339" si="43">ROUND(J220*10%,0)</f>
+        <f t="shared" ref="L220:L343" si="43">ROUND(J220*10%,0)</f>
         <v>10147792</v>
       </c>
       <c r="M220" s="112">
@@ -13722,7 +13843,7 @@
       <c r="N220" s="56"/>
       <c r="O220" s="57"/>
     </row>
-    <row r="221" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="48">
         <f t="shared" si="17"/>
         <v>205</v>
@@ -13764,7 +13885,7 @@
       <c r="N221" s="56"/>
       <c r="O221" s="57"/>
     </row>
-    <row r="222" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="48">
         <f t="shared" si="17"/>
         <v>206</v>
@@ -13806,7 +13927,7 @@
       <c r="N222" s="56"/>
       <c r="O222" s="57"/>
     </row>
-    <row r="223" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="48">
         <f t="shared" si="17"/>
         <v>207</v>
@@ -13848,7 +13969,7 @@
       <c r="N223" s="56"/>
       <c r="O223" s="57"/>
     </row>
-    <row r="224" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="48">
         <f t="shared" si="17"/>
         <v>208</v>
@@ -13890,7 +14011,7 @@
       <c r="N224" s="56"/>
       <c r="O224" s="57"/>
     </row>
-    <row r="225" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="48">
         <f t="shared" si="17"/>
         <v>209</v>
@@ -13932,7 +14053,7 @@
       <c r="N225" s="56"/>
       <c r="O225" s="57"/>
     </row>
-    <row r="226" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="48">
         <f t="shared" si="17"/>
         <v>210</v>
@@ -13974,7 +14095,7 @@
       <c r="N226" s="56"/>
       <c r="O226" s="57"/>
     </row>
-    <row r="227" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="48">
         <f t="shared" si="17"/>
         <v>211</v>
@@ -14016,7 +14137,7 @@
       <c r="N227" s="56"/>
       <c r="O227" s="57"/>
     </row>
-    <row r="228" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="48">
         <f t="shared" si="17"/>
         <v>212</v>
@@ -14058,7 +14179,7 @@
       <c r="N228" s="56"/>
       <c r="O228" s="57"/>
     </row>
-    <row r="229" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="48">
         <f t="shared" si="17"/>
         <v>213</v>
@@ -14100,7 +14221,7 @@
       <c r="N229" s="56"/>
       <c r="O229" s="57"/>
     </row>
-    <row r="230" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="48">
         <f t="shared" si="17"/>
         <v>214</v>
@@ -14142,7 +14263,7 @@
       <c r="N230" s="56"/>
       <c r="O230" s="57"/>
     </row>
-    <row r="231" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="48">
         <f t="shared" si="17"/>
         <v>215</v>
@@ -14184,14 +14305,14 @@
       <c r="N231" s="56"/>
       <c r="O231" s="57"/>
     </row>
-    <row r="232" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="48" t="str">
-        <f t="shared" ref="B232:B332" si="44">IF(G232&lt;&gt;"",ROW()-16,"")</f>
+        <f t="shared" ref="B232:B336" si="44">IF(G232&lt;&gt;"",ROW()-16,"")</f>
         <v/>
       </c>
       <c r="C232" s="64"/>
       <c r="D232" s="60" t="str">
-        <f t="shared" ref="D232:D332" si="45">IF(ISNA(VLOOKUP(G232,DSMV,3,0)),"",VLOOKUP(G232,DSMV,3,0))</f>
+        <f t="shared" ref="D232:D336" si="45">IF(ISNA(VLOOKUP(G232,DSMV,3,0)),"",VLOOKUP(G232,DSMV,3,0))</f>
         <v/>
       </c>
       <c r="E232" s="59"/>
@@ -14212,7 +14333,7 @@
         <v>0.1</v>
       </c>
       <c r="L232" s="63">
-        <f t="shared" ref="L232:L332" si="46">ROUND(J232*10%,0)</f>
+        <f t="shared" ref="L232:L336" si="46">ROUND(J232*10%,0)</f>
         <v>1000</v>
       </c>
       <c r="M232" s="112">
@@ -14221,7 +14342,7 @@
       <c r="N232" s="56"/>
       <c r="O232" s="57"/>
     </row>
-    <row r="233" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="48" t="str">
         <f t="shared" si="44"/>
         <v/>
@@ -14258,7 +14379,7 @@
       <c r="N233" s="56"/>
       <c r="O233" s="57"/>
     </row>
-    <row r="234" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="48" t="str">
         <f t="shared" ref="B234:B261" si="47">IF(G234&lt;&gt;"",ROW()-16,"")</f>
         <v/>
@@ -14295,7 +14416,7 @@
       <c r="N234" s="56"/>
       <c r="O234" s="57"/>
     </row>
-    <row r="235" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14332,7 +14453,7 @@
       <c r="N235" s="56"/>
       <c r="O235" s="57"/>
     </row>
-    <row r="236" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14369,7 +14490,7 @@
       <c r="N236" s="56"/>
       <c r="O236" s="57"/>
     </row>
-    <row r="237" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14406,7 +14527,7 @@
       <c r="N237" s="56"/>
       <c r="O237" s="57"/>
     </row>
-    <row r="238" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14443,7 +14564,7 @@
       <c r="N238" s="56"/>
       <c r="O238" s="57"/>
     </row>
-    <row r="239" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14480,7 +14601,7 @@
       <c r="N239" s="56"/>
       <c r="O239" s="57"/>
     </row>
-    <row r="240" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14517,7 +14638,7 @@
       <c r="N240" s="56"/>
       <c r="O240" s="57"/>
     </row>
-    <row r="241" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14554,7 +14675,7 @@
       <c r="N241" s="56"/>
       <c r="O241" s="57"/>
     </row>
-    <row r="242" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14591,7 +14712,7 @@
       <c r="N242" s="56"/>
       <c r="O242" s="57"/>
     </row>
-    <row r="243" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14628,7 +14749,7 @@
       <c r="N243" s="56"/>
       <c r="O243" s="57"/>
     </row>
-    <row r="244" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14665,7 +14786,7 @@
       <c r="N244" s="56"/>
       <c r="O244" s="57"/>
     </row>
-    <row r="245" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14702,7 +14823,7 @@
       <c r="N245" s="56"/>
       <c r="O245" s="57"/>
     </row>
-    <row r="246" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14739,7 +14860,7 @@
       <c r="N246" s="56"/>
       <c r="O246" s="57"/>
     </row>
-    <row r="247" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14776,7 +14897,7 @@
       <c r="N247" s="56"/>
       <c r="O247" s="57"/>
     </row>
-    <row r="248" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14813,7 +14934,7 @@
       <c r="N248" s="56"/>
       <c r="O248" s="57"/>
     </row>
-    <row r="249" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14850,7 +14971,7 @@
       <c r="N249" s="56"/>
       <c r="O249" s="57"/>
     </row>
-    <row r="250" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14887,7 +15008,7 @@
       <c r="N250" s="56"/>
       <c r="O250" s="57"/>
     </row>
-    <row r="251" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14924,7 +15045,7 @@
       <c r="N251" s="56"/>
       <c r="O251" s="57"/>
     </row>
-    <row r="252" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14961,7 +15082,7 @@
       <c r="N252" s="56"/>
       <c r="O252" s="57"/>
     </row>
-    <row r="253" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14998,7 +15119,7 @@
       <c r="N253" s="56"/>
       <c r="O253" s="57"/>
     </row>
-    <row r="254" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -15035,7 +15156,7 @@
       <c r="N254" s="56"/>
       <c r="O254" s="57"/>
     </row>
-    <row r="255" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -15072,7 +15193,7 @@
       <c r="N255" s="56"/>
       <c r="O255" s="57"/>
     </row>
-    <row r="256" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -15109,7 +15230,7 @@
       <c r="N256" s="56"/>
       <c r="O256" s="57"/>
     </row>
-    <row r="257" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -15146,7 +15267,7 @@
       <c r="N257" s="56"/>
       <c r="O257" s="57"/>
     </row>
-    <row r="258" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -15183,7 +15304,7 @@
       <c r="N258" s="56"/>
       <c r="O258" s="57"/>
     </row>
-    <row r="259" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -15220,7 +15341,7 @@
       <c r="N259" s="56"/>
       <c r="O259" s="57"/>
     </row>
-    <row r="260" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -15257,7 +15378,7 @@
       <c r="N260" s="56"/>
       <c r="O260" s="57"/>
     </row>
-    <row r="261" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="48" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -15294,7 +15415,7 @@
       <c r="N261" s="56"/>
       <c r="O261" s="57"/>
     </row>
-    <row r="262" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="48" t="str">
         <f t="shared" si="44"/>
         <v/>
@@ -15331,7 +15452,7 @@
       <c r="N262" s="56"/>
       <c r="O262" s="57"/>
     </row>
-    <row r="263" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="48" t="str">
         <f t="shared" si="44"/>
         <v/>
@@ -15368,7 +15489,7 @@
       <c r="N263" s="56"/>
       <c r="O263" s="57"/>
     </row>
-    <row r="264" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="48" t="str">
         <f t="shared" si="44"/>
         <v/>
@@ -15405,7 +15526,7 @@
       <c r="N264" s="56"/>
       <c r="O264" s="57"/>
     </row>
-    <row r="265" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="48" t="str">
         <f t="shared" si="44"/>
         <v/>
@@ -15442,7 +15563,7 @@
       <c r="N265" s="56"/>
       <c r="O265" s="57"/>
     </row>
-    <row r="266" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="48">
         <f t="shared" si="44"/>
         <v>250</v>
@@ -15462,7 +15583,7 @@
         <v>765</v>
       </c>
       <c r="H266" s="92" t="str">
-        <f t="shared" ref="H266:H267" si="50">IF(ISNA(VLOOKUP(G266,DSMV,2,0)),"",VLOOKUP(G266,DSMV,2,0))</f>
+        <f t="shared" ref="H266:H268" si="50">IF(ISNA(VLOOKUP(G266,DSMV,2,0)),"",VLOOKUP(G266,DSMV,2,0))</f>
         <v>0313768671</v>
       </c>
       <c r="I266" s="158" t="s">
@@ -15484,7 +15605,7 @@
       <c r="N266" s="56"/>
       <c r="O266" s="57"/>
     </row>
-    <row r="267" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="48">
         <f t="shared" si="44"/>
         <v>251</v>
@@ -15528,16 +15649,16 @@
     </row>
     <row r="268" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="48">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="B268" si="51">IF(G268&lt;&gt;"",ROW()-16,"")</f>
         <v>252</v>
       </c>
       <c r="C268" s="64"/>
       <c r="D268" s="60" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="D268" si="52">IF(ISNA(VLOOKUP(G268,DSMV,3,0)),"",VLOOKUP(G268,DSMV,3,0))</f>
         <v>HH/17P</v>
       </c>
       <c r="E268" s="59" t="s">
-        <v>940</v>
+        <v>972</v>
       </c>
       <c r="F268" s="90">
         <v>43010</v>
@@ -15546,21 +15667,21 @@
         <v>728</v>
       </c>
       <c r="H268" s="92" t="str">
-        <f t="shared" ref="H268:H332" si="51">IF(ISNA(VLOOKUP(G268,DSMV,2,0)),"",VLOOKUP(G268,DSMV,2,0))</f>
+        <f t="shared" si="50"/>
         <v>0314097377</v>
       </c>
       <c r="I268" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J268" s="63">
-        <v>46119780</v>
+        <v>113574013</v>
       </c>
       <c r="K268" s="55">
         <v>0.1</v>
       </c>
       <c r="L268" s="63">
-        <f t="shared" si="46"/>
-        <v>4611978</v>
+        <f t="shared" ref="L268" si="53">ROUND(J268*10%,0)</f>
+        <v>11357401</v>
       </c>
       <c r="M268" s="112">
         <v>4</v>
@@ -15579,30 +15700,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E269" s="59" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F269" s="90">
-        <v>43011</v>
+        <v>43010</v>
       </c>
       <c r="G269" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H269" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="H269:H336" si="54">IF(ISNA(VLOOKUP(G269,DSMV,2,0)),"",VLOOKUP(G269,DSMV,2,0))</f>
         <v>0314097377</v>
       </c>
       <c r="I269" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J269" s="63">
-        <v>78369130</v>
+        <v>46119780</v>
       </c>
       <c r="K269" s="55">
         <v>0.1</v>
       </c>
       <c r="L269" s="63">
         <f t="shared" si="46"/>
-        <v>7836913</v>
+        <v>4611978</v>
       </c>
       <c r="M269" s="112">
         <v>4</v>
@@ -15621,30 +15742,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E270" s="59" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F270" s="90">
-        <v>43012</v>
+        <v>43011</v>
       </c>
       <c r="G270" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H270" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I270" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J270" s="63">
-        <v>22172365</v>
+        <v>78369130</v>
       </c>
       <c r="K270" s="55">
         <v>0.1</v>
       </c>
       <c r="L270" s="63">
-        <f>ROUND(J270*10%,0)-1</f>
-        <v>2217236</v>
+        <f t="shared" si="46"/>
+        <v>7836913</v>
       </c>
       <c r="M270" s="112">
         <v>4</v>
@@ -15663,30 +15784,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E271" s="59" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F271" s="90">
-        <v>43013</v>
+        <v>43012</v>
       </c>
       <c r="G271" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H271" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I271" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J271" s="63">
-        <v>65866290</v>
+        <v>22172365</v>
       </c>
       <c r="K271" s="55">
         <v>0.1</v>
       </c>
       <c r="L271" s="63">
-        <f t="shared" si="46"/>
-        <v>6586629</v>
+        <f>ROUND(J271*10%,0)-1</f>
+        <v>2217236</v>
       </c>
       <c r="M271" s="112">
         <v>4</v>
@@ -15705,30 +15826,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E272" s="59" t="s">
-        <v>656</v>
+        <v>943</v>
       </c>
       <c r="F272" s="90">
-        <v>43014</v>
+        <v>43013</v>
       </c>
       <c r="G272" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H272" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I272" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J272" s="63">
-        <v>52444350</v>
+        <v>65866290</v>
       </c>
       <c r="K272" s="55">
         <v>0.1</v>
       </c>
       <c r="L272" s="63">
         <f t="shared" si="46"/>
-        <v>5244435</v>
+        <v>6586629</v>
       </c>
       <c r="M272" s="112">
         <v>4</v>
@@ -15747,30 +15868,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E273" s="59" t="s">
-        <v>944</v>
+        <v>656</v>
       </c>
       <c r="F273" s="90">
-        <v>43017</v>
+        <v>43014</v>
       </c>
       <c r="G273" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H273" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I273" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J273" s="63">
-        <v>50930200</v>
+        <v>52444350</v>
       </c>
       <c r="K273" s="55">
         <v>0.1</v>
       </c>
       <c r="L273" s="63">
         <f t="shared" si="46"/>
-        <v>5093020</v>
+        <v>5244435</v>
       </c>
       <c r="M273" s="112">
         <v>4</v>
@@ -15789,30 +15910,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E274" s="59" t="s">
-        <v>426</v>
+        <v>944</v>
       </c>
       <c r="F274" s="90">
-        <v>43020</v>
+        <v>43017</v>
       </c>
       <c r="G274" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H274" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I274" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J274" s="63">
-        <v>65421860</v>
+        <v>50930200</v>
       </c>
       <c r="K274" s="55">
         <v>0.1</v>
       </c>
       <c r="L274" s="63">
         <f t="shared" si="46"/>
-        <v>6542186</v>
+        <v>5093020</v>
       </c>
       <c r="M274" s="112">
         <v>4</v>
@@ -15831,30 +15952,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E275" s="59" t="s">
-        <v>945</v>
+        <v>426</v>
       </c>
       <c r="F275" s="90">
-        <v>43021</v>
+        <v>43020</v>
       </c>
       <c r="G275" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H275" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I275" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J275" s="63">
-        <v>32105120</v>
+        <v>65421860</v>
       </c>
       <c r="K275" s="55">
         <v>0.1</v>
       </c>
       <c r="L275" s="63">
         <f t="shared" si="46"/>
-        <v>3210512</v>
+        <v>6542186</v>
       </c>
       <c r="M275" s="112">
         <v>4</v>
@@ -15873,30 +15994,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E276" s="59" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F276" s="90">
-        <v>43022</v>
+        <v>43021</v>
       </c>
       <c r="G276" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H276" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I276" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J276" s="63">
-        <v>39458302</v>
+        <v>32105120</v>
       </c>
       <c r="K276" s="55">
         <v>0.1</v>
       </c>
       <c r="L276" s="63">
         <f t="shared" si="46"/>
-        <v>3945830</v>
+        <v>3210512</v>
       </c>
       <c r="M276" s="112">
         <v>4</v>
@@ -15915,30 +16036,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E277" s="59" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F277" s="90">
-        <v>43024</v>
+        <v>43022</v>
       </c>
       <c r="G277" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H277" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I277" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J277" s="63">
-        <v>26852980</v>
+        <v>39458302</v>
       </c>
       <c r="K277" s="55">
         <v>0.1</v>
       </c>
       <c r="L277" s="63">
         <f t="shared" si="46"/>
-        <v>2685298</v>
+        <v>3945830</v>
       </c>
       <c r="M277" s="112">
         <v>4</v>
@@ -15957,30 +16078,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E278" s="59" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F278" s="90">
-        <v>43025</v>
+        <v>43024</v>
       </c>
       <c r="G278" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H278" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I278" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J278" s="63">
-        <v>36009345</v>
+        <v>26852980</v>
       </c>
       <c r="K278" s="55">
         <v>0.1</v>
       </c>
       <c r="L278" s="63">
-        <f>ROUND(J278*10%,0)-1</f>
-        <v>3600934</v>
+        <f t="shared" si="46"/>
+        <v>2685298</v>
       </c>
       <c r="M278" s="112">
         <v>4</v>
@@ -15999,30 +16120,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E279" s="59" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F279" s="90">
-        <v>43029</v>
+        <v>43025</v>
       </c>
       <c r="G279" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H279" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I279" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J279" s="63">
-        <v>32632240</v>
+        <v>36009345</v>
       </c>
       <c r="K279" s="55">
         <v>0.1</v>
       </c>
       <c r="L279" s="63">
-        <f t="shared" si="46"/>
-        <v>3263224</v>
+        <f>ROUND(J279*10%,0)-1</f>
+        <v>3600934</v>
       </c>
       <c r="M279" s="112">
         <v>4</v>
@@ -16032,39 +16153,39 @@
     </row>
     <row r="280" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="48">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="B280" si="55">IF(G280&lt;&gt;"",ROW()-16,"")</f>
         <v>264</v>
       </c>
       <c r="C280" s="64"/>
       <c r="D280" s="60" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="D280" si="56">IF(ISNA(VLOOKUP(G280,DSMV,3,0)),"",VLOOKUP(G280,DSMV,3,0))</f>
         <v>HH/17P</v>
       </c>
       <c r="E280" s="59" t="s">
-        <v>950</v>
+        <v>973</v>
       </c>
       <c r="F280" s="90">
-        <v>43032</v>
+        <v>43029</v>
       </c>
       <c r="G280" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H280" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="H280" si="57">IF(ISNA(VLOOKUP(G280,DSMV,2,0)),"",VLOOKUP(G280,DSMV,2,0))</f>
         <v>0314097377</v>
       </c>
       <c r="I280" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J280" s="63">
-        <v>43978780</v>
+        <v>70424760</v>
       </c>
       <c r="K280" s="55">
         <v>0.1</v>
       </c>
       <c r="L280" s="63">
-        <f t="shared" si="46"/>
-        <v>4397878</v>
+        <f t="shared" ref="L280" si="58">ROUND(J280*10%,0)</f>
+        <v>7042476</v>
       </c>
       <c r="M280" s="112">
         <v>4</v>
@@ -16083,30 +16204,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E281" s="59" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F281" s="90">
-        <v>43035</v>
+        <v>43029</v>
       </c>
       <c r="G281" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H281" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I281" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J281" s="63">
-        <v>42603715</v>
+        <v>32632240</v>
       </c>
       <c r="K281" s="55">
         <v>0.1</v>
       </c>
       <c r="L281" s="63">
         <f t="shared" si="46"/>
-        <v>4260372</v>
+        <v>3263224</v>
       </c>
       <c r="M281" s="112">
         <v>4</v>
@@ -16125,30 +16246,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E282" s="59" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F282" s="90">
-        <v>43039</v>
+        <v>43032</v>
       </c>
       <c r="G282" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H282" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I282" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J282" s="63">
-        <v>62799180</v>
+        <v>43978780</v>
       </c>
       <c r="K282" s="55">
         <v>0.1</v>
       </c>
       <c r="L282" s="63">
         <f t="shared" si="46"/>
-        <v>6279918</v>
+        <v>4397878</v>
       </c>
       <c r="M282" s="112">
         <v>4</v>
@@ -16167,30 +16288,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E283" s="59" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F283" s="90">
-        <v>43040</v>
+        <v>43035</v>
       </c>
       <c r="G283" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H283" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I283" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J283" s="63">
-        <v>189529550</v>
+        <v>42603715</v>
       </c>
       <c r="K283" s="55">
         <v>0.1</v>
       </c>
       <c r="L283" s="63">
         <f t="shared" si="46"/>
-        <v>18952955</v>
+        <v>4260372</v>
       </c>
       <c r="M283" s="112">
         <v>4</v>
@@ -16200,39 +16321,39 @@
     </row>
     <row r="284" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="48">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="B284" si="59">IF(G284&lt;&gt;"",ROW()-16,"")</f>
         <v>268</v>
       </c>
       <c r="C284" s="64"/>
       <c r="D284" s="60" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="D284" si="60">IF(ISNA(VLOOKUP(G284,DSMV,3,0)),"",VLOOKUP(G284,DSMV,3,0))</f>
         <v>HH/17P</v>
       </c>
       <c r="E284" s="59" t="s">
-        <v>954</v>
+        <v>974</v>
       </c>
       <c r="F284" s="90">
-        <v>43042</v>
+        <v>43036</v>
       </c>
       <c r="G284" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H284" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="H284" si="61">IF(ISNA(VLOOKUP(G284,DSMV,2,0)),"",VLOOKUP(G284,DSMV,2,0))</f>
         <v>0314097377</v>
       </c>
       <c r="I284" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J284" s="63">
-        <v>33624100</v>
+        <v>79870700</v>
       </c>
       <c r="K284" s="55">
         <v>0.1</v>
       </c>
       <c r="L284" s="63">
-        <f t="shared" si="46"/>
-        <v>3362410</v>
+        <f t="shared" ref="L284" si="62">ROUND(J284*10%,0)</f>
+        <v>7987070</v>
       </c>
       <c r="M284" s="112">
         <v>4</v>
@@ -16251,30 +16372,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E285" s="59" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F285" s="90">
-        <v>43045</v>
+        <v>43039</v>
       </c>
       <c r="G285" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H285" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I285" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J285" s="63">
-        <v>23783457</v>
+        <v>62799180</v>
       </c>
       <c r="K285" s="55">
         <v>0.1</v>
       </c>
       <c r="L285" s="63">
         <f t="shared" si="46"/>
-        <v>2378346</v>
+        <v>6279918</v>
       </c>
       <c r="M285" s="112">
         <v>4</v>
@@ -16293,30 +16414,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E286" s="59" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F286" s="90">
-        <v>43047</v>
+        <v>43040</v>
       </c>
       <c r="G286" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H286" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I286" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J286" s="63">
-        <v>19727080</v>
+        <v>189529550</v>
       </c>
       <c r="K286" s="55">
         <v>0.1</v>
       </c>
       <c r="L286" s="63">
         <f t="shared" si="46"/>
-        <v>1972708</v>
+        <v>18952955</v>
       </c>
       <c r="M286" s="112">
         <v>4</v>
@@ -16335,30 +16456,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E287" s="59" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F287" s="90">
-        <v>43050</v>
+        <v>43042</v>
       </c>
       <c r="G287" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H287" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I287" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J287" s="63">
-        <v>14681682</v>
+        <v>33624100</v>
       </c>
       <c r="K287" s="55">
         <v>0.1</v>
       </c>
       <c r="L287" s="63">
         <f t="shared" si="46"/>
-        <v>1468168</v>
+        <v>3362410</v>
       </c>
       <c r="M287" s="112">
         <v>4</v>
@@ -16377,30 +16498,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E288" s="59" t="s">
-        <v>624</v>
+        <v>955</v>
       </c>
       <c r="F288" s="90">
-        <v>43052</v>
+        <v>43045</v>
       </c>
       <c r="G288" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H288" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I288" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J288" s="63">
-        <v>22260350</v>
+        <v>23783457</v>
       </c>
       <c r="K288" s="55">
         <v>0.1</v>
       </c>
       <c r="L288" s="63">
         <f t="shared" si="46"/>
-        <v>2226035</v>
+        <v>2378346</v>
       </c>
       <c r="M288" s="112">
         <v>4</v>
@@ -16419,30 +16540,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E289" s="59" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F289" s="90">
-        <v>43057</v>
+        <v>43047</v>
       </c>
       <c r="G289" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H289" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I289" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J289" s="63">
-        <v>19882450</v>
+        <v>19727080</v>
       </c>
       <c r="K289" s="55">
         <v>0.1</v>
       </c>
       <c r="L289" s="63">
         <f t="shared" si="46"/>
-        <v>1988245</v>
+        <v>1972708</v>
       </c>
       <c r="M289" s="112">
         <v>4</v>
@@ -16461,30 +16582,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E290" s="59" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F290" s="90">
-        <v>43059</v>
+        <v>43050</v>
       </c>
       <c r="G290" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H290" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I290" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J290" s="63">
-        <v>21828040</v>
+        <v>14681682</v>
       </c>
       <c r="K290" s="55">
         <v>0.1</v>
       </c>
       <c r="L290" s="63">
         <f t="shared" si="46"/>
-        <v>2182804</v>
+        <v>1468168</v>
       </c>
       <c r="M290" s="112">
         <v>4</v>
@@ -16503,30 +16624,30 @@
         <v>HH/17P</v>
       </c>
       <c r="E291" s="59" t="s">
-        <v>960</v>
+        <v>624</v>
       </c>
       <c r="F291" s="90">
-        <v>43061</v>
+        <v>43052</v>
       </c>
       <c r="G291" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H291" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0314097377</v>
       </c>
       <c r="I291" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J291" s="63">
-        <v>23498386</v>
+        <v>22260350</v>
       </c>
       <c r="K291" s="55">
         <v>0.1</v>
       </c>
       <c r="L291" s="63">
         <f t="shared" si="46"/>
-        <v>2349839</v>
+        <v>2226035</v>
       </c>
       <c r="M291" s="112">
         <v>4</v>
@@ -16536,39 +16657,39 @@
     </row>
     <row r="292" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="48">
-        <f t="shared" ref="B292:B319" si="52">IF(G292&lt;&gt;"",ROW()-16,"")</f>
+        <f t="shared" ref="B292" si="63">IF(G292&lt;&gt;"",ROW()-16,"")</f>
         <v>276</v>
       </c>
       <c r="C292" s="64"/>
       <c r="D292" s="60" t="str">
-        <f t="shared" ref="D292:D319" si="53">IF(ISNA(VLOOKUP(G292,DSMV,3,0)),"",VLOOKUP(G292,DSMV,3,0))</f>
+        <f t="shared" ref="D292" si="64">IF(ISNA(VLOOKUP(G292,DSMV,3,0)),"",VLOOKUP(G292,DSMV,3,0))</f>
         <v>HH/17P</v>
       </c>
       <c r="E292" s="59" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F292" s="90">
-        <v>43062</v>
+        <v>43055</v>
       </c>
       <c r="G292" s="11" t="s">
         <v>728</v>
       </c>
       <c r="H292" s="92" t="str">
-        <f t="shared" ref="H292:H319" si="54">IF(ISNA(VLOOKUP(G292,DSMV,2,0)),"",VLOOKUP(G292,DSMV,2,0))</f>
+        <f t="shared" ref="H292" si="65">IF(ISNA(VLOOKUP(G292,DSMV,2,0)),"",VLOOKUP(G292,DSMV,2,0))</f>
         <v>0314097377</v>
       </c>
       <c r="I292" s="62" t="s">
         <v>369</v>
       </c>
       <c r="J292" s="63">
-        <v>18183232</v>
+        <v>17419500</v>
       </c>
       <c r="K292" s="55">
         <v>0.1</v>
       </c>
       <c r="L292" s="63">
-        <f t="shared" ref="L292:L319" si="55">ROUND(J292*10%,0)</f>
-        <v>1818323</v>
+        <f t="shared" ref="L292" si="66">ROUND(J292*10%,0)</f>
+        <v>1741950</v>
       </c>
       <c r="M292" s="112">
         <v>4</v>
@@ -16578,19 +16699,19 @@
     </row>
     <row r="293" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="48">
-        <f t="shared" si="52"/>
+        <f t="shared" si="44"/>
         <v>277</v>
       </c>
       <c r="C293" s="64"/>
       <c r="D293" s="60" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>HH/17P</v>
       </c>
       <c r="E293" s="59" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F293" s="90">
-        <v>43066</v>
+        <v>43057</v>
       </c>
       <c r="G293" s="11" t="s">
         <v>728</v>
@@ -16603,14 +16724,14 @@
         <v>369</v>
       </c>
       <c r="J293" s="63">
-        <v>61343232</v>
+        <v>19882450</v>
       </c>
       <c r="K293" s="55">
         <v>0.1</v>
       </c>
       <c r="L293" s="63">
-        <f t="shared" si="55"/>
-        <v>6134323</v>
+        <f t="shared" si="46"/>
+        <v>1988245</v>
       </c>
       <c r="M293" s="112">
         <v>4</v>
@@ -16620,19 +16741,19 @@
     </row>
     <row r="294" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="48">
-        <f t="shared" si="52"/>
+        <f t="shared" si="44"/>
         <v>278</v>
       </c>
       <c r="C294" s="64"/>
       <c r="D294" s="60" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="45"/>
         <v>HH/17P</v>
       </c>
       <c r="E294" s="59" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="F294" s="90">
-        <v>43067</v>
+        <v>43059</v>
       </c>
       <c r="G294" s="11" t="s">
         <v>728</v>
@@ -16645,14 +16766,14 @@
         <v>369</v>
       </c>
       <c r="J294" s="63">
-        <v>38571509</v>
+        <v>21828040</v>
       </c>
       <c r="K294" s="55">
         <v>0.1</v>
       </c>
       <c r="L294" s="63">
-        <f t="shared" si="55"/>
-        <v>3857151</v>
+        <f t="shared" si="46"/>
+        <v>2182804</v>
       </c>
       <c r="M294" s="112">
         <v>4</v>
@@ -16661,30 +16782,40 @@
       <c r="O294" s="57"/>
     </row>
     <row r="295" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B295" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B295" s="48">
+        <f t="shared" si="44"/>
+        <v>279</v>
       </c>
       <c r="C295" s="64"/>
       <c r="D295" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E295" s="59"/>
-      <c r="F295" s="90"/>
-      <c r="G295" s="62"/>
+        <f t="shared" si="45"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E295" s="59" t="s">
+        <v>960</v>
+      </c>
+      <c r="F295" s="90">
+        <v>43061</v>
+      </c>
+      <c r="G295" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H295" s="92" t="str">
         <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I295" s="62"/>
-      <c r="J295" s="63"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I295" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J295" s="63">
+        <v>23498386</v>
+      </c>
       <c r="K295" s="55">
         <v>0.1</v>
       </c>
       <c r="L295" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>2349839</v>
       </c>
       <c r="M295" s="112">
         <v>4</v>
@@ -16693,30 +16824,40 @@
       <c r="O295" s="57"/>
     </row>
     <row r="296" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B296" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B296" s="48">
+        <f t="shared" ref="B296:B323" si="67">IF(G296&lt;&gt;"",ROW()-16,"")</f>
+        <v>280</v>
       </c>
       <c r="C296" s="64"/>
       <c r="D296" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E296" s="59"/>
-      <c r="F296" s="90"/>
-      <c r="G296" s="62"/>
+        <f t="shared" ref="D296:D323" si="68">IF(ISNA(VLOOKUP(G296,DSMV,3,0)),"",VLOOKUP(G296,DSMV,3,0))</f>
+        <v>HH/17P</v>
+      </c>
+      <c r="E296" s="59" t="s">
+        <v>735</v>
+      </c>
+      <c r="F296" s="90">
+        <v>43062</v>
+      </c>
+      <c r="G296" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H296" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I296" s="62"/>
-      <c r="J296" s="63"/>
+        <f t="shared" ref="H296:H323" si="69">IF(ISNA(VLOOKUP(G296,DSMV,2,0)),"",VLOOKUP(G296,DSMV,2,0))</f>
+        <v>0314097377</v>
+      </c>
+      <c r="I296" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J296" s="63">
+        <v>18183232</v>
+      </c>
       <c r="K296" s="55">
         <v>0.1</v>
       </c>
       <c r="L296" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" ref="L296:L323" si="70">ROUND(J296*10%,0)</f>
+        <v>1818323</v>
       </c>
       <c r="M296" s="112">
         <v>4</v>
@@ -16725,30 +16866,40 @@
       <c r="O296" s="57"/>
     </row>
     <row r="297" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B297" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B297" s="48">
+        <f t="shared" si="67"/>
+        <v>281</v>
       </c>
       <c r="C297" s="64"/>
       <c r="D297" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E297" s="59"/>
-      <c r="F297" s="90"/>
-      <c r="G297" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E297" s="59" t="s">
+        <v>961</v>
+      </c>
+      <c r="F297" s="90">
+        <v>43066</v>
+      </c>
+      <c r="G297" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H297" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I297" s="62"/>
-      <c r="J297" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I297" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J297" s="63">
+        <v>61343232</v>
+      </c>
       <c r="K297" s="55">
         <v>0.1</v>
       </c>
       <c r="L297" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>6134323</v>
       </c>
       <c r="M297" s="112">
         <v>4</v>
@@ -16757,30 +16908,40 @@
       <c r="O297" s="57"/>
     </row>
     <row r="298" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B298" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B298" s="48">
+        <f t="shared" si="67"/>
+        <v>282</v>
       </c>
       <c r="C298" s="64"/>
       <c r="D298" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E298" s="59"/>
-      <c r="F298" s="90"/>
-      <c r="G298" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E298" s="59" t="s">
+        <v>962</v>
+      </c>
+      <c r="F298" s="90">
+        <v>43067</v>
+      </c>
+      <c r="G298" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H298" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I298" s="62"/>
-      <c r="J298" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I298" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J298" s="63">
+        <v>38571509</v>
+      </c>
       <c r="K298" s="55">
         <v>0.1</v>
       </c>
       <c r="L298" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>3857151</v>
       </c>
       <c r="M298" s="112">
         <v>4</v>
@@ -16789,30 +16950,40 @@
       <c r="O298" s="57"/>
     </row>
     <row r="299" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B299" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B299" s="48">
+        <f t="shared" si="67"/>
+        <v>283</v>
       </c>
       <c r="C299" s="64"/>
       <c r="D299" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E299" s="59"/>
-      <c r="F299" s="90"/>
-      <c r="G299" s="62"/>
+        <f t="shared" si="68"/>
+        <v>TD/16P</v>
+      </c>
+      <c r="E299" s="61" t="s">
+        <v>975</v>
+      </c>
+      <c r="F299" s="90">
+        <v>43070</v>
+      </c>
+      <c r="G299" s="11" t="s">
+        <v>765</v>
+      </c>
       <c r="H299" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I299" s="62"/>
-      <c r="J299" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0313768671</v>
+      </c>
+      <c r="I299" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J299" s="63">
+        <v>27214195</v>
+      </c>
       <c r="K299" s="55">
         <v>0.1</v>
       </c>
       <c r="L299" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f>ROUND(J299*10%,0)-1</f>
+        <v>2721419</v>
       </c>
       <c r="M299" s="112">
         <v>4</v>
@@ -16821,30 +16992,40 @@
       <c r="O299" s="57"/>
     </row>
     <row r="300" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B300" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B300" s="48">
+        <f t="shared" si="67"/>
+        <v>284</v>
       </c>
       <c r="C300" s="64"/>
       <c r="D300" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E300" s="59"/>
-      <c r="F300" s="90"/>
-      <c r="G300" s="62"/>
+        <f t="shared" si="68"/>
+        <v>MG/17P</v>
+      </c>
+      <c r="E300" s="61" t="s">
+        <v>727</v>
+      </c>
+      <c r="F300" s="90">
+        <v>43071</v>
+      </c>
+      <c r="G300" s="11" t="s">
+        <v>976</v>
+      </c>
       <c r="H300" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I300" s="62"/>
-      <c r="J300" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314582750</v>
+      </c>
+      <c r="I300" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J300" s="63">
+        <v>61231870</v>
+      </c>
       <c r="K300" s="55">
         <v>0.1</v>
       </c>
       <c r="L300" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>6123187</v>
       </c>
       <c r="M300" s="112">
         <v>4</v>
@@ -16853,30 +17034,40 @@
       <c r="O300" s="57"/>
     </row>
     <row r="301" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B301" s="48">
+        <f t="shared" si="67"/>
+        <v>285</v>
       </c>
       <c r="C301" s="64"/>
       <c r="D301" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E301" s="59"/>
-      <c r="F301" s="90"/>
-      <c r="G301" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E301" s="61" t="s">
+        <v>979</v>
+      </c>
+      <c r="F301" s="90">
+        <v>43073</v>
+      </c>
+      <c r="G301" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H301" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I301" s="62"/>
-      <c r="J301" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I301" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J301" s="63">
+        <v>35257950</v>
+      </c>
       <c r="K301" s="55">
         <v>0.1</v>
       </c>
       <c r="L301" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f>ROUND(J301*10%,0)</f>
+        <v>3525795</v>
       </c>
       <c r="M301" s="112">
         <v>4</v>
@@ -16885,30 +17076,40 @@
       <c r="O301" s="57"/>
     </row>
     <row r="302" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B302" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B302" s="48">
+        <f t="shared" si="67"/>
+        <v>286</v>
       </c>
       <c r="C302" s="64"/>
       <c r="D302" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E302" s="59"/>
-      <c r="F302" s="90"/>
-      <c r="G302" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E302" s="61" t="s">
+        <v>980</v>
+      </c>
+      <c r="F302" s="90">
+        <v>43076</v>
+      </c>
+      <c r="G302" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H302" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I302" s="62"/>
-      <c r="J302" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I302" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J302" s="63">
+        <v>121009790</v>
+      </c>
       <c r="K302" s="55">
         <v>0.1</v>
       </c>
       <c r="L302" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>12100979</v>
       </c>
       <c r="M302" s="112">
         <v>4</v>
@@ -16917,30 +17118,40 @@
       <c r="O302" s="57"/>
     </row>
     <row r="303" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B303" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B303" s="48">
+        <f t="shared" si="67"/>
+        <v>287</v>
       </c>
       <c r="C303" s="64"/>
       <c r="D303" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E303" s="59"/>
-      <c r="F303" s="90"/>
-      <c r="G303" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E303" s="61" t="s">
+        <v>981</v>
+      </c>
+      <c r="F303" s="90">
+        <v>43078</v>
+      </c>
+      <c r="G303" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H303" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I303" s="62"/>
-      <c r="J303" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I303" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J303" s="63">
+        <v>19097424</v>
+      </c>
       <c r="K303" s="55">
         <v>0.1</v>
       </c>
       <c r="L303" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>1909742</v>
       </c>
       <c r="M303" s="112">
         <v>4</v>
@@ -16949,30 +17160,40 @@
       <c r="O303" s="57"/>
     </row>
     <row r="304" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B304" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B304" s="48">
+        <f t="shared" si="67"/>
+        <v>288</v>
       </c>
       <c r="C304" s="64"/>
       <c r="D304" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E304" s="59"/>
-      <c r="F304" s="90"/>
-      <c r="G304" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E304" s="59" t="s">
+        <v>982</v>
+      </c>
+      <c r="F304" s="90">
+        <v>43081</v>
+      </c>
+      <c r="G304" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H304" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I304" s="62"/>
-      <c r="J304" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I304" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J304" s="63">
+        <v>142641842</v>
+      </c>
       <c r="K304" s="55">
         <v>0.1</v>
       </c>
       <c r="L304" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>14264184</v>
       </c>
       <c r="M304" s="112">
         <v>4</v>
@@ -16981,30 +17202,40 @@
       <c r="O304" s="57"/>
     </row>
     <row r="305" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B305" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B305" s="48">
+        <f t="shared" si="67"/>
+        <v>289</v>
       </c>
       <c r="C305" s="64"/>
       <c r="D305" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E305" s="59"/>
-      <c r="F305" s="90"/>
-      <c r="G305" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E305" s="61" t="s">
+        <v>983</v>
+      </c>
+      <c r="F305" s="90">
+        <v>43082</v>
+      </c>
+      <c r="G305" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H305" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I305" s="62"/>
-      <c r="J305" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I305" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J305" s="63">
+        <v>54001104</v>
+      </c>
       <c r="K305" s="55">
         <v>0.1</v>
       </c>
       <c r="L305" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>5400110</v>
       </c>
       <c r="M305" s="112">
         <v>4</v>
@@ -17013,30 +17244,40 @@
       <c r="O305" s="57"/>
     </row>
     <row r="306" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B306" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B306" s="48">
+        <f t="shared" si="67"/>
+        <v>290</v>
       </c>
       <c r="C306" s="64"/>
       <c r="D306" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E306" s="59"/>
-      <c r="F306" s="90"/>
-      <c r="G306" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E306" s="61" t="s">
+        <v>984</v>
+      </c>
+      <c r="F306" s="90">
+        <v>43084</v>
+      </c>
+      <c r="G306" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H306" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I306" s="62"/>
-      <c r="J306" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I306" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J306" s="63">
+        <v>104083220</v>
+      </c>
       <c r="K306" s="55">
         <v>0.1</v>
       </c>
       <c r="L306" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>10408322</v>
       </c>
       <c r="M306" s="112">
         <v>4</v>
@@ -17045,30 +17286,40 @@
       <c r="O306" s="57"/>
     </row>
     <row r="307" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B307" s="48">
+        <f t="shared" si="67"/>
+        <v>291</v>
       </c>
       <c r="C307" s="64"/>
       <c r="D307" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E307" s="59"/>
-      <c r="F307" s="90"/>
-      <c r="G307" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E307" s="61" t="s">
+        <v>985</v>
+      </c>
+      <c r="F307" s="90">
+        <v>43085</v>
+      </c>
+      <c r="G307" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H307" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I307" s="62"/>
-      <c r="J307" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I307" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J307" s="63">
+        <v>55415370</v>
+      </c>
       <c r="K307" s="55">
         <v>0.1</v>
       </c>
       <c r="L307" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>5541537</v>
       </c>
       <c r="M307" s="112">
         <v>4</v>
@@ -17077,30 +17328,40 @@
       <c r="O307" s="57"/>
     </row>
     <row r="308" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B308" s="48">
+        <f t="shared" si="67"/>
+        <v>292</v>
       </c>
       <c r="C308" s="64"/>
       <c r="D308" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E308" s="59"/>
-      <c r="F308" s="90"/>
-      <c r="G308" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E308" s="61" t="s">
+        <v>986</v>
+      </c>
+      <c r="F308" s="90">
+        <v>43087</v>
+      </c>
+      <c r="G308" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H308" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I308" s="62"/>
-      <c r="J308" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I308" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J308" s="63">
+        <v>30672084</v>
+      </c>
       <c r="K308" s="55">
         <v>0.1</v>
       </c>
       <c r="L308" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>3067208</v>
       </c>
       <c r="M308" s="112">
         <v>4</v>
@@ -17109,30 +17370,40 @@
       <c r="O308" s="57"/>
     </row>
     <row r="309" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B309" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B309" s="48">
+        <f t="shared" si="67"/>
+        <v>293</v>
       </c>
       <c r="C309" s="64"/>
       <c r="D309" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E309" s="59"/>
-      <c r="F309" s="90"/>
-      <c r="G309" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E309" s="61" t="s">
+        <v>987</v>
+      </c>
+      <c r="F309" s="90">
+        <v>43088</v>
+      </c>
+      <c r="G309" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H309" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I309" s="62"/>
-      <c r="J309" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I309" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J309" s="63">
+        <v>126747700</v>
+      </c>
       <c r="K309" s="55">
         <v>0.1</v>
       </c>
       <c r="L309" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>12674770</v>
       </c>
       <c r="M309" s="112">
         <v>4</v>
@@ -17141,30 +17412,40 @@
       <c r="O309" s="57"/>
     </row>
     <row r="310" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B310" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B310" s="48">
+        <f t="shared" si="67"/>
+        <v>294</v>
       </c>
       <c r="C310" s="64"/>
       <c r="D310" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E310" s="59"/>
-      <c r="F310" s="90"/>
-      <c r="G310" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E310" s="61" t="s">
+        <v>988</v>
+      </c>
+      <c r="F310" s="90">
+        <v>43090</v>
+      </c>
+      <c r="G310" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H310" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I310" s="62"/>
-      <c r="J310" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I310" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J310" s="63">
+        <v>27749332</v>
+      </c>
       <c r="K310" s="55">
         <v>0.1</v>
       </c>
       <c r="L310" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>2774933</v>
       </c>
       <c r="M310" s="112">
         <v>4</v>
@@ -17173,30 +17454,40 @@
       <c r="O310" s="57"/>
     </row>
     <row r="311" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B311" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B311" s="48">
+        <f t="shared" si="67"/>
+        <v>295</v>
       </c>
       <c r="C311" s="64"/>
       <c r="D311" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E311" s="59"/>
-      <c r="F311" s="90"/>
-      <c r="G311" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E311" s="61" t="s">
+        <v>989</v>
+      </c>
+      <c r="F311" s="90">
+        <v>43091</v>
+      </c>
+      <c r="G311" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H311" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I311" s="62"/>
-      <c r="J311" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I311" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J311" s="63">
+        <v>81621624</v>
+      </c>
       <c r="K311" s="55">
         <v>0.1</v>
       </c>
       <c r="L311" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>8162162</v>
       </c>
       <c r="M311" s="112">
         <v>4</v>
@@ -17205,30 +17496,40 @@
       <c r="O311" s="57"/>
     </row>
     <row r="312" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B312" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B312" s="48">
+        <f t="shared" si="67"/>
+        <v>296</v>
       </c>
       <c r="C312" s="64"/>
       <c r="D312" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E312" s="59"/>
-      <c r="F312" s="90"/>
-      <c r="G312" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E312" s="61" t="s">
+        <v>990</v>
+      </c>
+      <c r="F312" s="90">
+        <v>43092</v>
+      </c>
+      <c r="G312" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H312" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I312" s="62"/>
-      <c r="J312" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I312" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J312" s="63">
+        <v>150479000</v>
+      </c>
       <c r="K312" s="55">
         <v>0.1</v>
       </c>
       <c r="L312" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>15047900</v>
       </c>
       <c r="M312" s="112">
         <v>4</v>
@@ -17237,30 +17538,40 @@
       <c r="O312" s="57"/>
     </row>
     <row r="313" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B313" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B313" s="48">
+        <f t="shared" si="67"/>
+        <v>297</v>
       </c>
       <c r="C313" s="64"/>
       <c r="D313" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E313" s="59"/>
-      <c r="F313" s="90"/>
-      <c r="G313" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E313" s="61" t="s">
+        <v>991</v>
+      </c>
+      <c r="F313" s="90">
+        <v>43094</v>
+      </c>
+      <c r="G313" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H313" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I313" s="62"/>
-      <c r="J313" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I313" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J313" s="63">
+        <v>87225897</v>
+      </c>
       <c r="K313" s="55">
         <v>0.1</v>
       </c>
       <c r="L313" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f>ROUND(J313*10%,0)-1</f>
+        <v>8722589</v>
       </c>
       <c r="M313" s="112">
         <v>4</v>
@@ -17269,30 +17580,40 @@
       <c r="O313" s="57"/>
     </row>
     <row r="314" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B314" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B314" s="48">
+        <f t="shared" si="67"/>
+        <v>298</v>
       </c>
       <c r="C314" s="64"/>
       <c r="D314" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E314" s="59"/>
-      <c r="F314" s="90"/>
-      <c r="G314" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E314" s="61" t="s">
+        <v>992</v>
+      </c>
+      <c r="F314" s="90">
+        <v>43095</v>
+      </c>
+      <c r="G314" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H314" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I314" s="62"/>
-      <c r="J314" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I314" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J314" s="63">
+        <v>124278780</v>
+      </c>
       <c r="K314" s="55">
         <v>0.1</v>
       </c>
       <c r="L314" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>12427878</v>
       </c>
       <c r="M314" s="112">
         <v>4</v>
@@ -17301,30 +17622,40 @@
       <c r="O314" s="57"/>
     </row>
     <row r="315" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B315" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B315" s="48">
+        <f t="shared" si="67"/>
+        <v>299</v>
       </c>
       <c r="C315" s="64"/>
       <c r="D315" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E315" s="59"/>
-      <c r="F315" s="90"/>
-      <c r="G315" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E315" s="61" t="s">
+        <v>993</v>
+      </c>
+      <c r="F315" s="90">
+        <v>43096</v>
+      </c>
+      <c r="G315" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H315" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I315" s="62"/>
-      <c r="J315" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I315" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J315" s="63">
+        <v>249343745</v>
+      </c>
       <c r="K315" s="55">
         <v>0.1</v>
       </c>
       <c r="L315" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>24934375</v>
       </c>
       <c r="M315" s="112">
         <v>4</v>
@@ -17333,30 +17664,40 @@
       <c r="O315" s="57"/>
     </row>
     <row r="316" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B316" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B316" s="48">
+        <f t="shared" si="67"/>
+        <v>300</v>
       </c>
       <c r="C316" s="64"/>
       <c r="D316" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E316" s="59"/>
-      <c r="F316" s="90"/>
-      <c r="G316" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E316" s="61" t="s">
+        <v>994</v>
+      </c>
+      <c r="F316" s="90">
+        <v>43097</v>
+      </c>
+      <c r="G316" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H316" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I316" s="62"/>
-      <c r="J316" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I316" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J316" s="63">
+        <v>152054100</v>
+      </c>
       <c r="K316" s="55">
         <v>0.1</v>
       </c>
       <c r="L316" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>15205410</v>
       </c>
       <c r="M316" s="112">
         <v>4</v>
@@ -17365,30 +17706,40 @@
       <c r="O316" s="57"/>
     </row>
     <row r="317" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B317" s="48" t="str">
-        <f t="shared" si="52"/>
-        <v/>
+      <c r="B317" s="48">
+        <f t="shared" si="67"/>
+        <v>301</v>
       </c>
       <c r="C317" s="64"/>
       <c r="D317" s="60" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="E317" s="59"/>
-      <c r="F317" s="90"/>
-      <c r="G317" s="62"/>
+        <f t="shared" si="68"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E317" s="61" t="s">
+        <v>995</v>
+      </c>
+      <c r="F317" s="90">
+        <v>43098</v>
+      </c>
+      <c r="G317" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H317" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I317" s="62"/>
-      <c r="J317" s="63"/>
+        <f t="shared" si="69"/>
+        <v>0314097377</v>
+      </c>
+      <c r="I317" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J317" s="63">
+        <v>68944016</v>
+      </c>
       <c r="K317" s="55">
         <v>0.1</v>
       </c>
       <c r="L317" s="63">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>6894402</v>
       </c>
       <c r="M317" s="112">
         <v>4</v>
@@ -17398,19 +17749,19 @@
     </row>
     <row r="318" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="48" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="C318" s="64"/>
       <c r="D318" s="60" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="E318" s="59"/>
       <c r="F318" s="90"/>
       <c r="G318" s="62"/>
       <c r="H318" s="92" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I318" s="62"/>
@@ -17419,7 +17770,7 @@
         <v>0.1</v>
       </c>
       <c r="L318" s="63">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="M318" s="112">
@@ -17430,19 +17781,19 @@
     </row>
     <row r="319" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="48" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="C319" s="64"/>
       <c r="D319" s="60" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="E319" s="59"/>
       <c r="F319" s="90"/>
       <c r="G319" s="62"/>
       <c r="H319" s="92" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I319" s="62"/>
@@ -17451,7 +17802,7 @@
         <v>0.1</v>
       </c>
       <c r="L319" s="63">
-        <f t="shared" si="55"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="M319" s="112">
@@ -17462,19 +17813,19 @@
     </row>
     <row r="320" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="48" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="C320" s="64"/>
       <c r="D320" s="60" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="E320" s="59"/>
       <c r="F320" s="90"/>
       <c r="G320" s="62"/>
       <c r="H320" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I320" s="62"/>
@@ -17483,7 +17834,7 @@
         <v>0.1</v>
       </c>
       <c r="L320" s="63">
-        <f t="shared" si="46"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="M320" s="112">
@@ -17494,19 +17845,19 @@
     </row>
     <row r="321" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="48" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="C321" s="64"/>
       <c r="D321" s="60" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="E321" s="59"/>
       <c r="F321" s="90"/>
       <c r="G321" s="62"/>
       <c r="H321" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I321" s="62"/>
@@ -17515,7 +17866,7 @@
         <v>0.1</v>
       </c>
       <c r="L321" s="63">
-        <f t="shared" si="46"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="M321" s="112">
@@ -17526,19 +17877,19 @@
     </row>
     <row r="322" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="48" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="C322" s="64"/>
       <c r="D322" s="60" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="E322" s="59"/>
       <c r="F322" s="90"/>
       <c r="G322" s="62"/>
       <c r="H322" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I322" s="62"/>
@@ -17547,7 +17898,7 @@
         <v>0.1</v>
       </c>
       <c r="L322" s="63">
-        <f t="shared" si="46"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="M322" s="112">
@@ -17558,19 +17909,19 @@
     </row>
     <row r="323" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="48" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="C323" s="64"/>
       <c r="D323" s="60" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="E323" s="59"/>
       <c r="F323" s="90"/>
       <c r="G323" s="62"/>
       <c r="H323" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I323" s="62"/>
@@ -17579,7 +17930,7 @@
         <v>0.1</v>
       </c>
       <c r="L323" s="63">
-        <f t="shared" si="46"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="M323" s="112">
@@ -17602,7 +17953,7 @@
       <c r="F324" s="90"/>
       <c r="G324" s="62"/>
       <c r="H324" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I324" s="62"/>
@@ -17634,7 +17985,7 @@
       <c r="F325" s="90"/>
       <c r="G325" s="62"/>
       <c r="H325" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I325" s="62"/>
@@ -17666,7 +18017,7 @@
       <c r="F326" s="90"/>
       <c r="G326" s="62"/>
       <c r="H326" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I326" s="62"/>
@@ -17698,7 +18049,7 @@
       <c r="F327" s="90"/>
       <c r="G327" s="62"/>
       <c r="H327" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I327" s="62"/>
@@ -17730,7 +18081,7 @@
       <c r="F328" s="90"/>
       <c r="G328" s="62"/>
       <c r="H328" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I328" s="62"/>
@@ -17762,7 +18113,7 @@
       <c r="F329" s="90"/>
       <c r="G329" s="62"/>
       <c r="H329" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I329" s="62"/>
@@ -17794,7 +18145,7 @@
       <c r="F330" s="90"/>
       <c r="G330" s="62"/>
       <c r="H330" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I330" s="62"/>
@@ -17826,7 +18177,7 @@
       <c r="F331" s="90"/>
       <c r="G331" s="62"/>
       <c r="H331" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I331" s="62"/>
@@ -17858,7 +18209,7 @@
       <c r="F332" s="90"/>
       <c r="G332" s="62"/>
       <c r="H332" s="92" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I332" s="62"/>
@@ -17878,19 +18229,19 @@
     </row>
     <row r="333" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="48" t="str">
-        <f t="shared" ref="B333:B337" si="56">IF(G333&lt;&gt;"",ROW()-16,"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="C333" s="64"/>
       <c r="D333" s="60" t="str">
-        <f t="shared" ref="D333:D337" si="57">IF(ISNA(VLOOKUP(G333,DSMV,3,0)),"",VLOOKUP(G333,DSMV,3,0))</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="E333" s="59"/>
       <c r="F333" s="90"/>
       <c r="G333" s="62"/>
       <c r="H333" s="92" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I333" s="62"/>
@@ -17899,7 +18250,7 @@
         <v>0.1</v>
       </c>
       <c r="L333" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="M333" s="112">
@@ -17910,19 +18261,19 @@
     </row>
     <row r="334" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="48" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="C334" s="64"/>
       <c r="D334" s="60" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="E334" s="59"/>
       <c r="F334" s="90"/>
       <c r="G334" s="62"/>
       <c r="H334" s="92" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I334" s="62"/>
@@ -17931,7 +18282,7 @@
         <v>0.1</v>
       </c>
       <c r="L334" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="M334" s="112">
@@ -17942,19 +18293,19 @@
     </row>
     <row r="335" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="48" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="C335" s="64"/>
       <c r="D335" s="60" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="E335" s="59"/>
       <c r="F335" s="90"/>
       <c r="G335" s="62"/>
       <c r="H335" s="92" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I335" s="62"/>
@@ -17963,7 +18314,7 @@
         <v>0.1</v>
       </c>
       <c r="L335" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="M335" s="112">
@@ -17974,19 +18325,19 @@
     </row>
     <row r="336" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="48" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="C336" s="64"/>
       <c r="D336" s="60" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="E336" s="59"/>
       <c r="F336" s="90"/>
       <c r="G336" s="62"/>
       <c r="H336" s="92" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I336" s="62"/>
@@ -17995,7 +18346,7 @@
         <v>0.1</v>
       </c>
       <c r="L336" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="M336" s="112">
@@ -18006,12 +18357,12 @@
     </row>
     <row r="337" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="48" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="B337:B341" si="71">IF(G337&lt;&gt;"",ROW()-16,"")</f>
         <v/>
       </c>
       <c r="C337" s="64"/>
       <c r="D337" s="60" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="D337:D341" si="72">IF(ISNA(VLOOKUP(G337,DSMV,3,0)),"",VLOOKUP(G337,DSMV,3,0))</f>
         <v/>
       </c>
       <c r="E337" s="59"/>
@@ -18038,12 +18389,12 @@
     </row>
     <row r="338" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="48" t="str">
-        <f t="shared" ref="B338:B342" si="58">IF(G338&lt;&gt;"",ROW()-16,"")</f>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="C338" s="64"/>
       <c r="D338" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="E338" s="59"/>
@@ -18070,12 +18421,12 @@
     </row>
     <row r="339" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="48" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="C339" s="64"/>
       <c r="D339" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="E339" s="59"/>
@@ -18102,12 +18453,12 @@
     </row>
     <row r="340" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="48" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="C340" s="64"/>
       <c r="D340" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="E340" s="59"/>
@@ -18123,7 +18474,7 @@
         <v>0.1</v>
       </c>
       <c r="L340" s="63">
-        <f t="shared" ref="L340:L347" si="59">ROUND(J340*10%,0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M340" s="112">
@@ -18134,12 +18485,12 @@
     </row>
     <row r="341" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="48" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="C341" s="64"/>
       <c r="D341" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="E341" s="59"/>
@@ -18155,7 +18506,7 @@
         <v>0.1</v>
       </c>
       <c r="L341" s="63">
-        <f t="shared" si="59"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M341" s="112">
@@ -18166,7 +18517,7 @@
     </row>
     <row r="342" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="48" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="B342:B346" si="73">IF(G342&lt;&gt;"",ROW()-16,"")</f>
         <v/>
       </c>
       <c r="C342" s="64"/>
@@ -18187,7 +18538,7 @@
         <v>0.1</v>
       </c>
       <c r="L342" s="63">
-        <f t="shared" si="59"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M342" s="112">
@@ -18198,19 +18549,19 @@
     </row>
     <row r="343" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="C343" s="64"/>
       <c r="D343" s="60" t="str">
-        <f t="shared" ref="D343:D347" si="60">IF(ISNA(VLOOKUP(G343,DSMV,3,0)),"",VLOOKUP(G343,DSMV,3,0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E343" s="59"/>
       <c r="F343" s="90"/>
       <c r="G343" s="62"/>
       <c r="H343" s="92" t="str">
-        <f t="shared" ref="H343:H347" si="61">IF(ISNA(VLOOKUP(G343,DSMV,2,0)),"",VLOOKUP(G343,DSMV,2,0))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I343" s="62"/>
@@ -18219,7 +18570,7 @@
         <v>0.1</v>
       </c>
       <c r="L343" s="63">
-        <f t="shared" si="59"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M343" s="112">
@@ -18230,19 +18581,19 @@
     </row>
     <row r="344" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="48" t="str">
-        <f t="shared" ref="B344:B347" si="62">IF(G344&lt;&gt;"",ROW()-16,"")</f>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="C344" s="64"/>
       <c r="D344" s="60" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E344" s="59"/>
       <c r="F344" s="90"/>
       <c r="G344" s="62"/>
       <c r="H344" s="92" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I344" s="62"/>
@@ -18251,7 +18602,7 @@
         <v>0.1</v>
       </c>
       <c r="L344" s="63">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="L344:L351" si="74">ROUND(J344*10%,0)</f>
         <v>0</v>
       </c>
       <c r="M344" s="112">
@@ -18262,19 +18613,19 @@
     </row>
     <row r="345" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="48" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="C345" s="64"/>
       <c r="D345" s="60" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E345" s="59"/>
       <c r="F345" s="90"/>
       <c r="G345" s="62"/>
       <c r="H345" s="92" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I345" s="62"/>
@@ -18283,7 +18634,7 @@
         <v>0.1</v>
       </c>
       <c r="L345" s="63">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="M345" s="112">
@@ -18294,19 +18645,19 @@
     </row>
     <row r="346" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="48" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="C346" s="64"/>
       <c r="D346" s="60" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E346" s="59"/>
       <c r="F346" s="90"/>
       <c r="G346" s="62"/>
       <c r="H346" s="92" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I346" s="62"/>
@@ -18315,7 +18666,7 @@
         <v>0.1</v>
       </c>
       <c r="L346" s="63">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="M346" s="112">
@@ -18326,19 +18677,19 @@
     </row>
     <row r="347" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="48" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C347" s="64"/>
       <c r="D347" s="60" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="D347:D351" si="75">IF(ISNA(VLOOKUP(G347,DSMV,3,0)),"",VLOOKUP(G347,DSMV,3,0))</f>
         <v/>
       </c>
       <c r="E347" s="59"/>
       <c r="F347" s="90"/>
       <c r="G347" s="62"/>
       <c r="H347" s="92" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="H347:H351" si="76">IF(ISNA(VLOOKUP(G347,DSMV,2,0)),"",VLOOKUP(G347,DSMV,2,0))</f>
         <v/>
       </c>
       <c r="I347" s="62"/>
@@ -18347,7 +18698,7 @@
         <v>0.1</v>
       </c>
       <c r="L347" s="63">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="M347" s="112">
@@ -18358,354 +18709,480 @@
     </row>
     <row r="348" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="48" t="str">
-        <f>IF(G348&lt;&gt;"",ROW()-16,"")</f>
+        <f t="shared" ref="B348:B351" si="77">IF(G348&lt;&gt;"",ROW()-16,"")</f>
         <v/>
       </c>
       <c r="C348" s="64"/>
-      <c r="D348" s="60"/>
+      <c r="D348" s="60" t="str">
+        <f t="shared" si="75"/>
+        <v/>
+      </c>
       <c r="E348" s="59"/>
       <c r="F348" s="90"/>
       <c r="G348" s="62"/>
-      <c r="H348" s="92"/>
+      <c r="H348" s="92" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
       <c r="I348" s="62"/>
       <c r="J348" s="63"/>
-      <c r="K348" s="55"/>
-      <c r="L348" s="63"/>
-      <c r="M348" s="65"/>
+      <c r="K348" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="L348" s="63">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="M348" s="112">
+        <v>4</v>
+      </c>
       <c r="N348" s="56"/>
       <c r="O348" s="57"/>
     </row>
-    <row r="349" spans="2:15" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B349" s="67" t="s">
+    <row r="349" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B349" s="48" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="C349" s="64"/>
+      <c r="D349" s="60" t="str">
+        <f t="shared" si="75"/>
+        <v/>
+      </c>
+      <c r="E349" s="59"/>
+      <c r="F349" s="90"/>
+      <c r="G349" s="62"/>
+      <c r="H349" s="92" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="I349" s="62"/>
+      <c r="J349" s="63"/>
+      <c r="K349" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="L349" s="63">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="M349" s="112">
+        <v>4</v>
+      </c>
+      <c r="N349" s="56"/>
+      <c r="O349" s="57"/>
+    </row>
+    <row r="350" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B350" s="48" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="C350" s="64"/>
+      <c r="D350" s="60" t="str">
+        <f t="shared" si="75"/>
+        <v/>
+      </c>
+      <c r="E350" s="59"/>
+      <c r="F350" s="90"/>
+      <c r="G350" s="62"/>
+      <c r="H350" s="92" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="I350" s="62"/>
+      <c r="J350" s="63"/>
+      <c r="K350" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="L350" s="63">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="M350" s="112">
+        <v>4</v>
+      </c>
+      <c r="N350" s="56"/>
+      <c r="O350" s="57"/>
+    </row>
+    <row r="351" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B351" s="48" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="C351" s="64"/>
+      <c r="D351" s="60" t="str">
+        <f t="shared" si="75"/>
+        <v/>
+      </c>
+      <c r="E351" s="59"/>
+      <c r="F351" s="90"/>
+      <c r="G351" s="62"/>
+      <c r="H351" s="92" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
+      <c r="I351" s="62"/>
+      <c r="J351" s="63"/>
+      <c r="K351" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="L351" s="63">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="M351" s="112">
+        <v>4</v>
+      </c>
+      <c r="N351" s="56"/>
+      <c r="O351" s="57"/>
+    </row>
+    <row r="352" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B352" s="48" t="str">
+        <f>IF(G352&lt;&gt;"",ROW()-16,"")</f>
+        <v/>
+      </c>
+      <c r="C352" s="64"/>
+      <c r="D352" s="60"/>
+      <c r="E352" s="59"/>
+      <c r="F352" s="90"/>
+      <c r="G352" s="62"/>
+      <c r="H352" s="92"/>
+      <c r="I352" s="62"/>
+      <c r="J352" s="63"/>
+      <c r="K352" s="55"/>
+      <c r="L352" s="63"/>
+      <c r="M352" s="65"/>
+      <c r="N352" s="56"/>
+      <c r="O352" s="57"/>
+    </row>
+    <row r="353" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B353" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C349" s="68"/>
-      <c r="D349" s="69"/>
-      <c r="E349" s="70"/>
-      <c r="F349" s="69"/>
-      <c r="G349" s="69"/>
-      <c r="H349" s="69"/>
-      <c r="I349" s="69"/>
-      <c r="J349" s="71">
-        <f>SUBTOTAL(9,J17:J348)</f>
-        <v>8309876627.454546</v>
-      </c>
-      <c r="K349" s="71"/>
-      <c r="L349" s="71">
-        <f>SUBTOTAL(9,L17:L348)</f>
-        <v>830987665</v>
-      </c>
-      <c r="M349" s="69"/>
-      <c r="N349" s="57"/>
-    </row>
-    <row r="350" spans="2:15" s="66" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B350" s="72"/>
-      <c r="C350" s="73"/>
-      <c r="D350" s="74"/>
-      <c r="E350" s="75"/>
-      <c r="F350" s="74"/>
-      <c r="G350" s="74"/>
-      <c r="H350" s="74"/>
-      <c r="I350" s="74"/>
-      <c r="J350" s="76"/>
-      <c r="K350" s="76"/>
-      <c r="L350" s="76"/>
-      <c r="M350" s="77"/>
-      <c r="N350" s="57"/>
-    </row>
-    <row r="351" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B351" s="78" t="s">
+      <c r="C353" s="68"/>
+      <c r="D353" s="69"/>
+      <c r="E353" s="70"/>
+      <c r="F353" s="69"/>
+      <c r="G353" s="69"/>
+      <c r="H353" s="69"/>
+      <c r="I353" s="69"/>
+      <c r="J353" s="71">
+        <f>SUBTOTAL(9,J17:J352)</f>
+        <v>3185034721</v>
+      </c>
+      <c r="K353" s="71"/>
+      <c r="L353" s="71">
+        <f>SUBTOTAL(9,L17:L352)</f>
+        <v>318503469</v>
+      </c>
+      <c r="M353" s="69"/>
+      <c r="N353" s="57"/>
+    </row>
+    <row r="354" spans="2:14" s="66" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B354" s="72"/>
+      <c r="C354" s="73"/>
+      <c r="D354" s="74"/>
+      <c r="E354" s="75"/>
+      <c r="F354" s="74"/>
+      <c r="G354" s="74"/>
+      <c r="H354" s="74"/>
+      <c r="I354" s="74"/>
+      <c r="J354" s="76"/>
+      <c r="K354" s="76"/>
+      <c r="L354" s="76"/>
+      <c r="M354" s="77"/>
+      <c r="N354" s="57"/>
+    </row>
+    <row r="355" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B355" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="C351" s="79"/>
-      <c r="D351" s="79"/>
-      <c r="E351" s="79"/>
-      <c r="F351" s="79"/>
-      <c r="G351" s="79"/>
-      <c r="H351" s="79"/>
-      <c r="I351" s="79"/>
-      <c r="J351" s="80"/>
-      <c r="K351" s="81"/>
-      <c r="L351" s="80"/>
-      <c r="M351" s="82"/>
-      <c r="N351" s="57"/>
-    </row>
-    <row r="352" spans="2:15" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B352" s="67" t="s">
+      <c r="C355" s="79"/>
+      <c r="D355" s="79"/>
+      <c r="E355" s="79"/>
+      <c r="F355" s="79"/>
+      <c r="G355" s="79"/>
+      <c r="H355" s="79"/>
+      <c r="I355" s="79"/>
+      <c r="J355" s="80"/>
+      <c r="K355" s="81"/>
+      <c r="L355" s="80"/>
+      <c r="M355" s="82"/>
+      <c r="N355" s="57"/>
+    </row>
+    <row r="356" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B356" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C352" s="68"/>
-      <c r="D352" s="69"/>
-      <c r="E352" s="70"/>
-      <c r="F352" s="69"/>
-      <c r="G352" s="69"/>
-      <c r="H352" s="69"/>
-      <c r="I352" s="69"/>
-      <c r="J352" s="83"/>
-      <c r="K352" s="83"/>
-      <c r="L352" s="83"/>
-      <c r="M352" s="69"/>
-      <c r="N352" s="57"/>
-    </row>
-    <row r="353" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B353" s="78" t="s">
+      <c r="C356" s="68"/>
+      <c r="D356" s="69"/>
+      <c r="E356" s="70"/>
+      <c r="F356" s="69"/>
+      <c r="G356" s="69"/>
+      <c r="H356" s="69"/>
+      <c r="I356" s="69"/>
+      <c r="J356" s="83"/>
+      <c r="K356" s="83"/>
+      <c r="L356" s="83"/>
+      <c r="M356" s="69"/>
+      <c r="N356" s="57"/>
+    </row>
+    <row r="357" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B357" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C353" s="79"/>
-      <c r="D353" s="79"/>
-      <c r="E353" s="79"/>
-      <c r="F353" s="79"/>
-      <c r="G353" s="79"/>
-      <c r="H353" s="79"/>
-      <c r="I353" s="79"/>
-      <c r="J353" s="80"/>
-      <c r="K353" s="81"/>
-      <c r="L353" s="80"/>
-      <c r="M353" s="82"/>
-      <c r="N353" s="57"/>
-    </row>
-    <row r="354" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B354" s="47"/>
-      <c r="C354" s="84"/>
-      <c r="D354" s="84"/>
-      <c r="E354" s="44"/>
-      <c r="F354" s="85"/>
-      <c r="G354" s="84"/>
-      <c r="H354" s="44"/>
-      <c r="I354" s="84"/>
-      <c r="J354" s="86"/>
-      <c r="K354" s="84"/>
-      <c r="L354" s="86"/>
-      <c r="M354" s="84"/>
-      <c r="N354" s="57"/>
-    </row>
-    <row r="355" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B355" s="67" t="s">
+      <c r="C357" s="79"/>
+      <c r="D357" s="79"/>
+      <c r="E357" s="79"/>
+      <c r="F357" s="79"/>
+      <c r="G357" s="79"/>
+      <c r="H357" s="79"/>
+      <c r="I357" s="79"/>
+      <c r="J357" s="80"/>
+      <c r="K357" s="81"/>
+      <c r="L357" s="80"/>
+      <c r="M357" s="82"/>
+      <c r="N357" s="57"/>
+    </row>
+    <row r="358" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B358" s="47"/>
+      <c r="C358" s="84"/>
+      <c r="D358" s="84"/>
+      <c r="E358" s="44"/>
+      <c r="F358" s="85"/>
+      <c r="G358" s="84"/>
+      <c r="H358" s="44"/>
+      <c r="I358" s="84"/>
+      <c r="J358" s="86"/>
+      <c r="K358" s="84"/>
+      <c r="L358" s="86"/>
+      <c r="M358" s="84"/>
+      <c r="N358" s="57"/>
+    </row>
+    <row r="359" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B359" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C355" s="68"/>
-      <c r="D355" s="69"/>
-      <c r="E355" s="70"/>
-      <c r="F355" s="69"/>
-      <c r="G355" s="69"/>
-      <c r="H355" s="69"/>
-      <c r="I355" s="69"/>
-      <c r="J355" s="83"/>
-      <c r="K355" s="69"/>
-      <c r="L355" s="83"/>
-      <c r="M355" s="69"/>
-      <c r="N355" s="57"/>
-    </row>
-    <row r="356" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B356" s="78" t="s">
+      <c r="C359" s="68"/>
+      <c r="D359" s="69"/>
+      <c r="E359" s="70"/>
+      <c r="F359" s="69"/>
+      <c r="G359" s="69"/>
+      <c r="H359" s="69"/>
+      <c r="I359" s="69"/>
+      <c r="J359" s="83"/>
+      <c r="K359" s="69"/>
+      <c r="L359" s="83"/>
+      <c r="M359" s="69"/>
+      <c r="N359" s="57"/>
+    </row>
+    <row r="360" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B360" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="C356" s="79"/>
-      <c r="D356" s="79"/>
-      <c r="E356" s="79"/>
-      <c r="F356" s="79"/>
-      <c r="G356" s="79"/>
-      <c r="H356" s="79"/>
-      <c r="I356" s="79"/>
-      <c r="J356" s="80"/>
-      <c r="K356" s="81"/>
-      <c r="L356" s="80"/>
-      <c r="M356" s="82"/>
-      <c r="N356" s="57"/>
-    </row>
-    <row r="357" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B357" s="47"/>
-      <c r="C357" s="84"/>
-      <c r="D357" s="84"/>
-      <c r="E357" s="44"/>
-      <c r="F357" s="85"/>
-      <c r="G357" s="84"/>
-      <c r="H357" s="44"/>
-      <c r="I357" s="84"/>
-      <c r="J357" s="86"/>
-      <c r="K357" s="84"/>
-      <c r="L357" s="86"/>
-      <c r="M357" s="84"/>
-      <c r="N357" s="57"/>
-    </row>
-    <row r="358" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B358" s="67" t="s">
+      <c r="C360" s="79"/>
+      <c r="D360" s="79"/>
+      <c r="E360" s="79"/>
+      <c r="F360" s="79"/>
+      <c r="G360" s="79"/>
+      <c r="H360" s="79"/>
+      <c r="I360" s="79"/>
+      <c r="J360" s="80"/>
+      <c r="K360" s="81"/>
+      <c r="L360" s="80"/>
+      <c r="M360" s="82"/>
+      <c r="N360" s="57"/>
+    </row>
+    <row r="361" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B361" s="47"/>
+      <c r="C361" s="84"/>
+      <c r="D361" s="84"/>
+      <c r="E361" s="44"/>
+      <c r="F361" s="85"/>
+      <c r="G361" s="84"/>
+      <c r="H361" s="44"/>
+      <c r="I361" s="84"/>
+      <c r="J361" s="86"/>
+      <c r="K361" s="84"/>
+      <c r="L361" s="86"/>
+      <c r="M361" s="84"/>
+      <c r="N361" s="57"/>
+    </row>
+    <row r="362" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B362" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C358" s="68"/>
-      <c r="D358" s="69"/>
-      <c r="E358" s="70"/>
-      <c r="F358" s="69"/>
-      <c r="G358" s="69"/>
-      <c r="H358" s="69"/>
-      <c r="I358" s="69"/>
-      <c r="J358" s="83"/>
-      <c r="K358" s="69"/>
-      <c r="L358" s="83"/>
-      <c r="M358" s="69"/>
-      <c r="N358" s="57"/>
-    </row>
-    <row r="359" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B359" s="78" t="s">
+      <c r="C362" s="68"/>
+      <c r="D362" s="69"/>
+      <c r="E362" s="70"/>
+      <c r="F362" s="69"/>
+      <c r="G362" s="69"/>
+      <c r="H362" s="69"/>
+      <c r="I362" s="69"/>
+      <c r="J362" s="83"/>
+      <c r="K362" s="69"/>
+      <c r="L362" s="83"/>
+      <c r="M362" s="69"/>
+      <c r="N362" s="57"/>
+    </row>
+    <row r="363" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B363" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C359" s="79"/>
-      <c r="D359" s="79"/>
-      <c r="E359" s="79"/>
-      <c r="F359" s="79"/>
-      <c r="G359" s="79"/>
-      <c r="H359" s="79"/>
-      <c r="I359" s="79"/>
-      <c r="J359" s="80"/>
-      <c r="K359" s="81"/>
-      <c r="L359" s="80"/>
-      <c r="M359" s="82"/>
-      <c r="N359" s="57"/>
-    </row>
-    <row r="360" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B360" s="47"/>
-      <c r="C360" s="84"/>
-      <c r="D360" s="84"/>
-      <c r="E360" s="44"/>
-      <c r="F360" s="85"/>
-      <c r="G360" s="84"/>
-      <c r="H360" s="44"/>
-      <c r="I360" s="84"/>
-      <c r="J360" s="86"/>
-      <c r="K360" s="84"/>
-      <c r="L360" s="86"/>
-      <c r="M360" s="84"/>
-      <c r="N360" s="57"/>
-    </row>
-    <row r="361" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B361" s="67" t="s">
+      <c r="C363" s="79"/>
+      <c r="D363" s="79"/>
+      <c r="E363" s="79"/>
+      <c r="F363" s="79"/>
+      <c r="G363" s="79"/>
+      <c r="H363" s="79"/>
+      <c r="I363" s="79"/>
+      <c r="J363" s="80"/>
+      <c r="K363" s="81"/>
+      <c r="L363" s="80"/>
+      <c r="M363" s="82"/>
+      <c r="N363" s="57"/>
+    </row>
+    <row r="364" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B364" s="47"/>
+      <c r="C364" s="84"/>
+      <c r="D364" s="84"/>
+      <c r="E364" s="44"/>
+      <c r="F364" s="85"/>
+      <c r="G364" s="84"/>
+      <c r="H364" s="44"/>
+      <c r="I364" s="84"/>
+      <c r="J364" s="86"/>
+      <c r="K364" s="84"/>
+      <c r="L364" s="86"/>
+      <c r="M364" s="84"/>
+      <c r="N364" s="57"/>
+    </row>
+    <row r="365" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B365" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C361" s="68"/>
-      <c r="D361" s="69"/>
-      <c r="E361" s="70"/>
-      <c r="F361" s="69"/>
-      <c r="G361" s="69"/>
-      <c r="H361" s="69"/>
-      <c r="I361" s="69"/>
-      <c r="J361" s="83"/>
-      <c r="K361" s="69"/>
-      <c r="L361" s="83"/>
-      <c r="M361" s="69"/>
-      <c r="N361" s="87"/>
-    </row>
-    <row r="362" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D362" s="38"/>
-      <c r="E362" s="39"/>
-      <c r="F362" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="G362" s="38"/>
-      <c r="H362" s="87">
-        <f>J349</f>
-        <v>8309876627.454546</v>
-      </c>
-      <c r="I362" s="38"/>
-      <c r="K362" s="40"/>
-      <c r="M362" s="38"/>
-      <c r="N362" s="57"/>
-    </row>
-    <row r="363" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D363" s="38"/>
-      <c r="E363" s="39"/>
-      <c r="F363" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="G363" s="38"/>
-      <c r="H363" s="87">
-        <f>L349</f>
-        <v>830987665</v>
-      </c>
-      <c r="I363" s="38"/>
-      <c r="K363" s="40"/>
-      <c r="M363" s="38"/>
-      <c r="N363" s="57"/>
-    </row>
-    <row r="364" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B364" s="88"/>
-      <c r="C364" s="88"/>
-      <c r="D364" s="38"/>
-      <c r="E364" s="39"/>
-      <c r="F364" s="38"/>
-      <c r="G364" s="38"/>
-      <c r="H364" s="38"/>
-      <c r="I364" s="38"/>
-      <c r="J364" s="115" t="str">
-        <f>"Bình Dương, "&amp;IF($O$14=1,"Ngày 31 Tháng 03  ",IF($O$14=2,"Ngày 30 Tháng 06  ",IF($O$14=3,"Ngày 30 Tháng 09  ",IF($O$14=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR(F17)</f>
-        <v>Bình Dương, Ngày 30 Tháng 06  Năm  2017</v>
-      </c>
-      <c r="K364" s="115"/>
-      <c r="N364" s="57"/>
-    </row>
-    <row r="365" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D365" s="38"/>
-      <c r="E365" s="39"/>
-      <c r="F365" s="38"/>
-      <c r="G365" s="38"/>
-      <c r="H365" s="38"/>
-      <c r="I365" s="38"/>
-      <c r="J365" s="113" t="s">
-        <v>15</v>
-      </c>
-      <c r="K365" s="113"/>
-      <c r="L365" s="113"/>
-      <c r="M365" s="113"/>
+      <c r="C365" s="68"/>
+      <c r="D365" s="69"/>
+      <c r="E365" s="70"/>
+      <c r="F365" s="69"/>
+      <c r="G365" s="69"/>
+      <c r="H365" s="69"/>
+      <c r="I365" s="69"/>
+      <c r="J365" s="83"/>
+      <c r="K365" s="69"/>
+      <c r="L365" s="83"/>
+      <c r="M365" s="69"/>
+      <c r="N365" s="87"/>
     </row>
     <row r="366" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="D366" s="38"/>
       <c r="E366" s="39"/>
-      <c r="F366" s="38"/>
+      <c r="F366" s="37" t="s">
+        <v>283</v>
+      </c>
       <c r="G366" s="38"/>
-      <c r="H366" s="38"/>
+      <c r="H366" s="87">
+        <f>J353</f>
+        <v>3185034721</v>
+      </c>
       <c r="I366" s="38"/>
-      <c r="J366" s="113" t="s">
-        <v>16</v>
-      </c>
-      <c r="K366" s="113"/>
-      <c r="L366" s="113"/>
-      <c r="M366" s="113"/>
+      <c r="K366" s="40"/>
+      <c r="M366" s="38"/>
+      <c r="N366" s="57"/>
     </row>
     <row r="367" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="D367" s="38"/>
       <c r="E367" s="39"/>
-      <c r="F367" s="38"/>
+      <c r="F367" s="37" t="s">
+        <v>284</v>
+      </c>
       <c r="G367" s="38"/>
-      <c r="H367" s="38"/>
+      <c r="H367" s="87">
+        <f>L353</f>
+        <v>318503469</v>
+      </c>
       <c r="I367" s="38"/>
-      <c r="J367" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="K367" s="113"/>
-      <c r="L367" s="113"/>
-      <c r="M367" s="113"/>
+      <c r="K367" s="40"/>
+      <c r="M367" s="38"/>
+      <c r="N367" s="57"/>
     </row>
     <row r="368" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B368" s="88"/>
+      <c r="C368" s="88"/>
       <c r="D368" s="38"/>
       <c r="E368" s="39"/>
       <c r="F368" s="38"/>
       <c r="G368" s="38"/>
       <c r="H368" s="38"/>
       <c r="I368" s="38"/>
-      <c r="K368" s="40"/>
-      <c r="M368" s="38"/>
-    </row>
-    <row r="369" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="370" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="371" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="372" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="373" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="374" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="375" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="376" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="377" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="378" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="J368" s="115" t="str">
+        <f>"Bình Dương, "&amp;IF($O$14=1,"Ngày 31 Tháng 03  ",IF($O$14=2,"Ngày 30 Tháng 06  ",IF($O$14=3,"Ngày 30 Tháng 09  ",IF($O$14=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR(F17)</f>
+        <v>Bình Dương, Ngày 30 Tháng 06  Năm  2017</v>
+      </c>
+      <c r="K368" s="115"/>
+      <c r="N368" s="57"/>
+    </row>
+    <row r="369" spans="4:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="D369" s="38"/>
+      <c r="E369" s="39"/>
+      <c r="F369" s="38"/>
+      <c r="G369" s="38"/>
+      <c r="H369" s="38"/>
+      <c r="I369" s="38"/>
+      <c r="J369" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="K369" s="113"/>
+      <c r="L369" s="113"/>
+      <c r="M369" s="113"/>
+    </row>
+    <row r="370" spans="4:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="D370" s="38"/>
+      <c r="E370" s="39"/>
+      <c r="F370" s="38"/>
+      <c r="G370" s="38"/>
+      <c r="H370" s="38"/>
+      <c r="I370" s="38"/>
+      <c r="J370" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="K370" s="113"/>
+      <c r="L370" s="113"/>
+      <c r="M370" s="113"/>
+    </row>
+    <row r="371" spans="4:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="D371" s="38"/>
+      <c r="E371" s="39"/>
+      <c r="F371" s="38"/>
+      <c r="G371" s="38"/>
+      <c r="H371" s="38"/>
+      <c r="I371" s="38"/>
+      <c r="J371" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="K371" s="113"/>
+      <c r="L371" s="113"/>
+      <c r="M371" s="113"/>
+    </row>
+    <row r="372" spans="4:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="D372" s="38"/>
+      <c r="E372" s="39"/>
+      <c r="F372" s="38"/>
+      <c r="G372" s="38"/>
+      <c r="H372" s="38"/>
+      <c r="I372" s="38"/>
+      <c r="K372" s="40"/>
+      <c r="M372" s="38"/>
+    </row>
+    <row r="373" spans="4:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="374" spans="4:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A15:O348"/>
+  <autoFilter ref="A15:O352" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A181:Q191">
     <sortCondition ref="F181:F191"/>
   </sortState>
@@ -18735,16 +19212,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:P381"/>
+  <dimension ref="A1:P382"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="14" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="G368" sqref="G368"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18760,6 +19237,7 @@
     <col min="9" max="9" width="20.5703125" customWidth="1"/>
     <col min="10" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18797,66 +19275,66 @@
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:14" s="15" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
     </row>
     <row r="5" spans="1:14" s="15" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="174"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
     </row>
     <row r="6" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="175"/>
-      <c r="L6" s="175"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="176"/>
     </row>
     <row r="7" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="175" t="e">
+      <c r="B7" s="176" t="e">
         <f>"Kỳ tính thuế: Quý "&amp;N14&amp;" Năm "&amp;YEAR(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="176"/>
     </row>
     <row r="8" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
@@ -18880,62 +19358,62 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="178" t="s">
+      <c r="B11" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="178"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="178"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="179"/>
     </row>
     <row r="12" spans="1:14" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="179" t="s">
+      <c r="B12" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179" t="s">
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="179" t="s">
+      <c r="H12" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="179" t="s">
+      <c r="I12" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="179" t="s">
+      <c r="J12" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="179" t="s">
+      <c r="K12" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="179" t="s">
+      <c r="L12" s="180" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="15" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="179"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="179"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="180"/>
     </row>
     <row r="14" spans="1:14" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="179"/>
+      <c r="B14" s="180"/>
       <c r="C14" s="114" t="s">
         <v>43</v>
       </c>
@@ -18948,12 +19426,12 @@
       <c r="F14" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="179"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
       <c r="N14" s="116">
         <v>2</v>
       </c>
@@ -18994,16 +19472,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="176" t="s">
+      <c r="B16" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="21"/>
@@ -19037,16 +19515,16 @@
       <c r="L18" s="23"/>
     </row>
     <row r="19" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="176" t="s">
+      <c r="B19" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="177"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="25"/>
@@ -19080,16 +19558,16 @@
       <c r="L21" s="23"/>
     </row>
     <row r="22" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="176" t="s">
+      <c r="B22" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="177"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="25"/>
@@ -26068,7 +26546,7 @@
         <v>315</v>
       </c>
       <c r="H218" s="34" t="str">
-        <f t="shared" ref="H218:H369" si="22">IF(ISNA(VLOOKUP(G218,DSBR,2,0)),"",VLOOKUP(G218,DSBR,2,0))</f>
+        <f t="shared" ref="H218:H370" si="22">IF(ISNA(VLOOKUP(G218,DSBR,2,0)),"",VLOOKUP(G218,DSBR,2,0))</f>
         <v>3700339107</v>
       </c>
       <c r="I218" s="12" t="s">
@@ -29109,7 +29587,7 @@
     </row>
     <row r="300" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="148">
-        <f t="shared" ref="B300:B369" si="34">IF(G300&lt;&gt;"",ROW()-25,"")</f>
+        <f t="shared" ref="B300:B370" si="34">IF(G300&lt;&gt;"",ROW()-25,"")</f>
         <v>275</v>
       </c>
       <c r="C300" s="32" t="s">
@@ -30792,7 +31270,7 @@
       </c>
     </row>
     <row r="346" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B346" s="208" t="str">
+      <c r="B346" s="162" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -31050,7 +31528,7 @@
       </c>
     </row>
     <row r="353" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B353" s="208" t="str">
+      <c r="B353" s="162" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -31156,7 +31634,7 @@
       </c>
     </row>
     <row r="356" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B356" s="208" t="str">
+      <c r="B356" s="162" t="str">
         <f t="shared" ref="B356:B368" si="43">IF(G356&lt;&gt;"",ROW()-25,"")</f>
         <v/>
       </c>
@@ -31634,132 +32112,160 @@
       </c>
     </row>
     <row r="369" spans="2:16" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B369" s="148" t="str">
+      <c r="B369" s="148">
+        <f t="shared" ref="B369" si="44">IF(G369&lt;&gt;"",ROW()-25,"")</f>
+        <v>344</v>
+      </c>
+      <c r="C369" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D369" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E369" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="F369" s="33">
+        <v>43099</v>
+      </c>
+      <c r="G369" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H369" s="34" t="str">
+        <f t="shared" ref="H369" si="45">IF(ISNA(VLOOKUP(G369,DSBR,2,0)),"",VLOOKUP(G369,DSBR,2,0))</f>
+        <v>3701770098</v>
+      </c>
+      <c r="I369" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="J369" s="13">
+        <v>100825000</v>
+      </c>
+      <c r="K369" s="13">
+        <f t="shared" ref="K369" si="46">ROUND(J369*10%,0)</f>
+        <v>10082500</v>
+      </c>
+      <c r="L369" s="112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="2:16" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B370" s="148" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="C369" s="32"/>
-      <c r="D369" s="32"/>
-      <c r="E369" s="10"/>
-      <c r="F369" s="33"/>
-      <c r="G369" s="11"/>
-      <c r="H369" s="34" t="str">
+      <c r="C370" s="32"/>
+      <c r="D370" s="32"/>
+      <c r="E370" s="10"/>
+      <c r="F370" s="33"/>
+      <c r="G370" s="11"/>
+      <c r="H370" s="34" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="I369" s="12"/>
-      <c r="J369" s="13"/>
-      <c r="K369" s="13"/>
-      <c r="L369" s="14"/>
-    </row>
-    <row r="370" spans="2:16" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B370" s="28" t="s">
+      <c r="I370" s="12"/>
+      <c r="J370" s="13"/>
+      <c r="K370" s="13"/>
+      <c r="L370" s="14"/>
+    </row>
+    <row r="371" spans="2:16" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B371" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C370" s="30"/>
-      <c r="D370" s="30"/>
-      <c r="E370" s="30"/>
-      <c r="F370" s="30"/>
-      <c r="G370" s="28"/>
-      <c r="H370" s="35"/>
-      <c r="I370" s="28"/>
-      <c r="J370" s="29">
-        <f>SUBTOTAL(9,J26:J369)</f>
-        <v>10084740719</v>
-      </c>
-      <c r="K370" s="29">
-        <f>SUBTOTAL(9,K26:K369)</f>
-        <v>1006904579</v>
-      </c>
-      <c r="L370" s="30"/>
-    </row>
-    <row r="371" spans="2:16" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" spans="2:16" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B372" s="176" t="s">
+      <c r="C371" s="30"/>
+      <c r="D371" s="30"/>
+      <c r="E371" s="30"/>
+      <c r="F371" s="30"/>
+      <c r="G371" s="28"/>
+      <c r="H371" s="35"/>
+      <c r="I371" s="28"/>
+      <c r="J371" s="29">
+        <f>SUBTOTAL(9,J26:J370)</f>
+        <v>10185565719</v>
+      </c>
+      <c r="K371" s="29">
+        <f>SUBTOTAL(9,K26:K370)</f>
+        <v>1016987079</v>
+      </c>
+      <c r="L371" s="30"/>
+    </row>
+    <row r="372" spans="2:16" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" spans="2:16" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B373" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="C372" s="177"/>
-      <c r="D372" s="177"/>
-      <c r="E372" s="177"/>
-      <c r="F372" s="177"/>
-      <c r="G372" s="177"/>
-      <c r="H372" s="177"/>
-      <c r="I372" s="177"/>
-      <c r="J372" s="20"/>
-      <c r="K372" s="20"/>
-      <c r="L372" s="25"/>
-    </row>
-    <row r="373" spans="2:16" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B373" s="8"/>
-      <c r="C373" s="8"/>
-      <c r="D373" s="8"/>
-      <c r="E373" s="8"/>
-      <c r="F373" s="5"/>
-      <c r="G373" s="8"/>
-      <c r="H373" s="2"/>
-      <c r="I373" s="8"/>
-      <c r="J373" s="7"/>
-      <c r="K373" s="7"/>
-      <c r="L373" s="8"/>
-    </row>
-    <row r="374" spans="2:16" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B374" s="23" t="s">
+      <c r="C373" s="178"/>
+      <c r="D373" s="178"/>
+      <c r="E373" s="178"/>
+      <c r="F373" s="178"/>
+      <c r="G373" s="178"/>
+      <c r="H373" s="178"/>
+      <c r="I373" s="178"/>
+      <c r="J373" s="20"/>
+      <c r="K373" s="20"/>
+      <c r="L373" s="25"/>
+      <c r="M373" s="209"/>
+    </row>
+    <row r="374" spans="2:16" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B374" s="8"/>
+      <c r="C374" s="8"/>
+      <c r="D374" s="8"/>
+      <c r="E374" s="8"/>
+      <c r="F374" s="5"/>
+      <c r="G374" s="8"/>
+      <c r="H374" s="2"/>
+      <c r="I374" s="8"/>
+      <c r="J374" s="7"/>
+      <c r="K374" s="7"/>
+      <c r="L374" s="8"/>
+    </row>
+    <row r="375" spans="2:16" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B375" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C374" s="23"/>
-      <c r="D374" s="23"/>
-      <c r="E374" s="23"/>
-      <c r="F374" s="23"/>
-      <c r="G374" s="23"/>
-      <c r="H374" s="23"/>
-      <c r="I374" s="23"/>
-      <c r="J374" s="24"/>
-      <c r="K374" s="24"/>
-      <c r="L374" s="23"/>
-      <c r="P374" s="147"/>
-    </row>
-    <row r="375" spans="2:16" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="C375" s="16"/>
-      <c r="D375" s="16"/>
-      <c r="E375" s="16"/>
-      <c r="F375" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="G375" s="16"/>
-      <c r="H375" s="87">
-        <f>J370</f>
-        <v>10084740719</v>
-      </c>
-      <c r="I375" s="16"/>
-      <c r="L375" s="16"/>
+      <c r="C375" s="23"/>
+      <c r="D375" s="23"/>
+      <c r="E375" s="23"/>
+      <c r="F375" s="23"/>
+      <c r="G375" s="23"/>
+      <c r="H375" s="23"/>
+      <c r="I375" s="23"/>
+      <c r="J375" s="24"/>
+      <c r="K375" s="24"/>
+      <c r="L375" s="23"/>
+      <c r="P375" s="147"/>
     </row>
     <row r="376" spans="2:16" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="C376" s="16"/>
       <c r="D376" s="16"/>
       <c r="E376" s="16"/>
       <c r="F376" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G376" s="16"/>
       <c r="H376" s="87">
-        <f>K370</f>
-        <v>1006904579</v>
+        <f>J371</f>
+        <v>10185565719</v>
       </c>
       <c r="I376" s="16"/>
       <c r="L376" s="16"/>
     </row>
-    <row r="377" spans="2:16" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B377" s="31"/>
-      <c r="C377" s="31"/>
+    <row r="377" spans="2:16" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C377" s="16"/>
       <c r="D377" s="16"/>
       <c r="E377" s="16"/>
-      <c r="F377" s="16"/>
+      <c r="F377" s="16" t="s">
+        <v>288</v>
+      </c>
       <c r="G377" s="16"/>
-      <c r="H377" s="16"/>
+      <c r="H377" s="87">
+        <f>K371</f>
+        <v>1016987079</v>
+      </c>
       <c r="I377" s="16"/>
       <c r="L377" s="16"/>
     </row>
-    <row r="378" spans="2:16" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:16" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="31"/>
       <c r="C378" s="31"/>
       <c r="D378" s="16"/>
@@ -31767,21 +32273,20 @@
       <c r="F378" s="16"/>
       <c r="G378" s="16"/>
       <c r="H378" s="16"/>
-      <c r="I378" s="36" t="str">
-        <f>"Bình Dương, "&amp;IF($N$14=1,"Ngày 31 Tháng 03  ",IF($N$14=2,"Ngày 30 Tháng 06  ",IF($N$14=3,"Ngày 30 Tháng 09  ",IF($N$14=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR($F$27)</f>
-        <v>Bình Dương, Ngày 30 Tháng 06  Năm  2017</v>
-      </c>
+      <c r="I378" s="16"/>
+      <c r="L378" s="16"/>
     </row>
     <row r="379" spans="2:16" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B379" s="16"/>
-      <c r="C379" s="16"/>
+      <c r="B379" s="31"/>
+      <c r="C379" s="31"/>
       <c r="D379" s="16"/>
       <c r="E379" s="16"/>
       <c r="F379" s="16"/>
       <c r="G379" s="16"/>
       <c r="H379" s="16"/>
-      <c r="I379" s="36" t="s">
-        <v>15</v>
+      <c r="I379" s="36" t="str">
+        <f>"Bình Dương, "&amp;IF($N$14=1,"Ngày 31 Tháng 03  ",IF($N$14=2,"Ngày 30 Tháng 06  ",IF($N$14=3,"Ngày 30 Tháng 09  ",IF($N$14=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR($F$27)</f>
+        <v>Bình Dương, Ngày 30 Tháng 06  Năm  2017</v>
       </c>
     </row>
     <row r="380" spans="2:16" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -31793,7 +32298,7 @@
       <c r="G380" s="16"/>
       <c r="H380" s="16"/>
       <c r="I380" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="381" spans="2:16" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -31805,14 +32310,26 @@
       <c r="G381" s="16"/>
       <c r="H381" s="16"/>
       <c r="I381" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="382" spans="2:16" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B382" s="16"/>
+      <c r="C382" s="16"/>
+      <c r="D382" s="16"/>
+      <c r="E382" s="16"/>
+      <c r="F382" s="16"/>
+      <c r="G382" s="16"/>
+      <c r="H382" s="16"/>
+      <c r="I382" s="36" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A25:N369"/>
+  <autoFilter ref="A25:N370" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="17">
     <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B372:I372"/>
+    <mergeCell ref="B373:I373"/>
     <mergeCell ref="B11:L11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C12:F13"/>
@@ -31839,7 +32356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -31865,23 +32382,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="189" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="191"/>
       <c r="R2" s="11" t="s">
         <v>311</v>
       </c>
@@ -31890,23 +32407,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="194"/>
       <c r="R3" s="11" t="s">
         <v>116</v>
       </c>
@@ -31916,22 +32433,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="94"/>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="184"/>
-      <c r="O4" s="184"/>
-      <c r="P4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="186"/>
       <c r="R4" s="11" t="s">
         <v>108</v>
       </c>
@@ -31941,22 +32458,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="94"/>
-      <c r="C5" s="184" t="s">
+      <c r="C5" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="185"/>
+      <c r="M5" s="185"/>
+      <c r="N5" s="185"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="186"/>
       <c r="R5" s="11" t="s">
         <v>95</v>
       </c>
@@ -31967,21 +32484,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="94"/>
       <c r="C6" s="95"/>
-      <c r="D6" s="184" t="s">
+      <c r="D6" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
-      <c r="P6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="181"/>
+      <c r="P6" s="182"/>
       <c r="R6" s="11" t="s">
         <v>114</v>
       </c>
@@ -31992,21 +32509,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="94"/>
       <c r="C7" s="95"/>
-      <c r="D7" s="184" t="s">
+      <c r="D7" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="182"/>
       <c r="R7" s="11" t="s">
         <v>121</v>
       </c>
@@ -32017,21 +32534,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="94"/>
       <c r="C8" s="95"/>
-      <c r="D8" s="184" t="s">
+      <c r="D8" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="180"/>
-      <c r="N8" s="180"/>
-      <c r="O8" s="180"/>
-      <c r="P8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="182"/>
       <c r="R8" s="11" t="s">
         <v>314</v>
       </c>
@@ -32042,21 +32559,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="94"/>
       <c r="C9" s="95"/>
-      <c r="D9" s="184" t="s">
+      <c r="D9" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="182"/>
       <c r="R9" s="11" t="s">
         <v>126</v>
       </c>
@@ -32067,21 +32584,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="94"/>
       <c r="C10" s="95"/>
-      <c r="D10" s="184" t="s">
+      <c r="D10" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="182"/>
       <c r="R10" s="11" t="s">
         <v>94</v>
       </c>
@@ -32091,22 +32608,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="94"/>
-      <c r="C11" s="184" t="s">
+      <c r="C11" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="184"/>
-      <c r="M11" s="184"/>
-      <c r="N11" s="184"/>
-      <c r="O11" s="184"/>
-      <c r="P11" s="185"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="185"/>
+      <c r="N11" s="185"/>
+      <c r="O11" s="185"/>
+      <c r="P11" s="186"/>
       <c r="R11" s="11" t="s">
         <v>90</v>
       </c>
@@ -32116,22 +32633,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="94"/>
-      <c r="C12" s="184" t="s">
+      <c r="C12" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="184"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="184"/>
-      <c r="P12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="185"/>
+      <c r="N12" s="185"/>
+      <c r="O12" s="185"/>
+      <c r="P12" s="186"/>
       <c r="R12" s="11" t="s">
         <v>119</v>
       </c>
@@ -32163,23 +32680,23 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="192"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="192"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="192"/>
-      <c r="N14" s="192"/>
-      <c r="O14" s="192"/>
-      <c r="P14" s="193"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="193"/>
+      <c r="M14" s="193"/>
+      <c r="N14" s="193"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="194"/>
       <c r="R14" s="11" t="s">
         <v>103</v>
       </c>
@@ -32189,22 +32706,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="94"/>
-      <c r="C15" s="184" t="s">
+      <c r="C15" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="184"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="184"/>
-      <c r="O15" s="184"/>
-      <c r="P15" s="185"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="185"/>
+      <c r="L15" s="185"/>
+      <c r="M15" s="185"/>
+      <c r="N15" s="185"/>
+      <c r="O15" s="185"/>
+      <c r="P15" s="186"/>
       <c r="R15" s="11" t="s">
         <v>122</v>
       </c>
@@ -32215,21 +32732,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="94"/>
       <c r="C16" s="97"/>
-      <c r="D16" s="180" t="s">
+      <c r="D16" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="180"/>
-      <c r="O16" s="180"/>
-      <c r="P16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="181"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="181"/>
+      <c r="P16" s="182"/>
       <c r="R16" s="11" t="s">
         <v>120</v>
       </c>
@@ -32265,21 +32782,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
-      <c r="D18" s="180" t="s">
+      <c r="D18" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
-      <c r="P18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="182"/>
       <c r="R18" s="11" t="s">
         <v>313</v>
       </c>
@@ -32290,21 +32807,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
-      <c r="D19" s="180" t="s">
+      <c r="D19" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="180"/>
-      <c r="P19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="181"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="182"/>
       <c r="R19" s="11" t="s">
         <v>93</v>
       </c>
@@ -32315,21 +32832,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
-      <c r="D20" s="180" t="s">
+      <c r="D20" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="180"/>
-      <c r="P20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="181"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="182"/>
       <c r="R20" s="11" t="s">
         <v>123</v>
       </c>
@@ -32340,21 +32857,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
-      <c r="D21" s="180" t="s">
+      <c r="D21" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="180"/>
-      <c r="P21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="181"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="182"/>
       <c r="R21" s="11" t="s">
         <v>125</v>
       </c>
@@ -32365,21 +32882,21 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="94"/>
       <c r="C22" s="95"/>
-      <c r="D22" s="180" t="s">
+      <c r="D22" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="180"/>
-      <c r="P22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="182"/>
       <c r="R22" s="11" t="s">
         <v>315</v>
       </c>
@@ -32390,21 +32907,21 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="94"/>
       <c r="C23" s="95"/>
-      <c r="D23" s="180" t="s">
+      <c r="D23" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="180"/>
-      <c r="P23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="182"/>
       <c r="R23" s="11" t="s">
         <v>118</v>
       </c>
@@ -32415,21 +32932,21 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
-      <c r="D24" s="180" t="s">
+      <c r="D24" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="182"/>
       <c r="R24" s="11" t="s">
         <v>117</v>
       </c>
@@ -32440,21 +32957,21 @@
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
-      <c r="D25" s="180" t="s">
+      <c r="D25" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="180"/>
-      <c r="O25" s="180"/>
-      <c r="P25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="182"/>
       <c r="R25" s="11" t="s">
         <v>127</v>
       </c>
@@ -32465,21 +32982,21 @@
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
-      <c r="D26" s="180" t="s">
+      <c r="D26" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="180"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="180"/>
-      <c r="J26" s="180"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="180"/>
-      <c r="N26" s="180"/>
-      <c r="O26" s="180"/>
-      <c r="P26" s="181"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="181"/>
+      <c r="L26" s="181"/>
+      <c r="M26" s="181"/>
+      <c r="N26" s="181"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="182"/>
       <c r="R26" s="11" t="s">
         <v>128</v>
       </c>
@@ -32512,22 +33029,22 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="94"/>
-      <c r="C28" s="184" t="s">
+      <c r="C28" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="184"/>
-      <c r="P28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="185"/>
+      <c r="M28" s="185"/>
+      <c r="N28" s="185"/>
+      <c r="O28" s="185"/>
+      <c r="P28" s="186"/>
       <c r="R28" s="11" t="s">
         <v>130</v>
       </c>
@@ -32538,21 +33055,21 @@
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
-      <c r="D29" s="180" t="s">
+      <c r="D29" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="180"/>
-      <c r="P29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="182"/>
       <c r="R29" s="11" t="s">
         <v>135</v>
       </c>
@@ -32563,21 +33080,21 @@
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="94"/>
       <c r="C30" s="95"/>
-      <c r="D30" s="180" t="s">
+      <c r="D30" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="180"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
-      <c r="O30" s="180"/>
-      <c r="P30" s="181"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="181"/>
+      <c r="M30" s="181"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="182"/>
       <c r="R30" s="11" t="s">
         <v>136</v>
       </c>
@@ -32588,21 +33105,21 @@
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="94"/>
       <c r="C31" s="95"/>
-      <c r="D31" s="180" t="s">
+      <c r="D31" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="180"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="180"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="181"/>
+      <c r="M31" s="181"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="182"/>
       <c r="R31" s="11" t="s">
         <v>137</v>
       </c>
@@ -32613,21 +33130,21 @@
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="94"/>
       <c r="C32" s="95"/>
-      <c r="D32" s="180" t="s">
+      <c r="D32" s="181" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="180"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="180"/>
-      <c r="O32" s="180"/>
-      <c r="P32" s="181"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="181"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="181"/>
+      <c r="P32" s="182"/>
       <c r="R32" s="11" t="s">
         <v>112</v>
       </c>
@@ -32638,21 +33155,21 @@
     <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="94"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="186" t="s">
+      <c r="D33" s="187" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="186"/>
-      <c r="L33" s="186"/>
-      <c r="M33" s="186"/>
-      <c r="N33" s="186"/>
-      <c r="O33" s="186"/>
-      <c r="P33" s="187"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="187"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="187"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="187"/>
+      <c r="P33" s="188"/>
       <c r="R33" s="11" t="s">
         <v>111</v>
       </c>
@@ -32663,21 +33180,21 @@
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="100"/>
       <c r="C34" s="101"/>
-      <c r="D34" s="182" t="s">
+      <c r="D34" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="182"/>
-      <c r="F34" s="182"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="182"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="182"/>
-      <c r="K34" s="182"/>
-      <c r="L34" s="182"/>
-      <c r="M34" s="182"/>
-      <c r="N34" s="182"/>
-      <c r="O34" s="182"/>
-      <c r="P34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="183"/>
+      <c r="L34" s="183"/>
+      <c r="M34" s="183"/>
+      <c r="N34" s="183"/>
+      <c r="O34" s="183"/>
+      <c r="P34" s="184"/>
       <c r="R34" s="11" t="s">
         <v>102</v>
       </c>
@@ -34209,14 +34726,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="B1:T54"/>
   <sheetViews>
-    <sheetView topLeftCell="M4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView topLeftCell="M31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34235,23 +34752,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="200"/>
       <c r="R2" s="11" t="s">
         <v>98</v>
       </c>
@@ -34263,23 +34780,23 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="195"/>
-      <c r="N3" s="195"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
       <c r="R3" s="11" t="s">
         <v>100</v>
       </c>
@@ -34292,22 +34809,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="104"/>
-      <c r="C4" s="200" t="s">
+      <c r="C4" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="200"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="200"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="200"/>
-      <c r="P4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="201"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="201"/>
+      <c r="P4" s="202"/>
       <c r="R4" s="11" t="s">
         <v>153</v>
       </c>
@@ -34320,22 +34837,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="104"/>
-      <c r="C5" s="200" t="s">
+      <c r="C5" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="200"/>
-      <c r="J5" s="200"/>
-      <c r="K5" s="200"/>
-      <c r="L5" s="200"/>
-      <c r="M5" s="200"/>
-      <c r="N5" s="200"/>
-      <c r="O5" s="200"/>
-      <c r="P5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="201"/>
+      <c r="K5" s="201"/>
+      <c r="L5" s="201"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="201"/>
+      <c r="O5" s="201"/>
+      <c r="P5" s="202"/>
       <c r="R5" s="11" t="s">
         <v>146</v>
       </c>
@@ -34349,21 +34866,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="104"/>
       <c r="C6" s="105"/>
-      <c r="D6" s="202" t="s">
+      <c r="D6" s="203" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="202"/>
-      <c r="L6" s="202"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="202"/>
-      <c r="O6" s="202"/>
-      <c r="P6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="203"/>
+      <c r="L6" s="203"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="204"/>
       <c r="R6" s="11" t="s">
         <v>162</v>
       </c>
@@ -34377,21 +34894,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="104"/>
       <c r="C7" s="105"/>
-      <c r="D7" s="200" t="s">
+      <c r="D7" s="201" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="203"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
+      <c r="H7" s="203"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="203"/>
+      <c r="K7" s="203"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="204"/>
       <c r="R7" s="11" t="s">
         <v>151</v>
       </c>
@@ -34405,21 +34922,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="104"/>
       <c r="C8" s="105"/>
-      <c r="D8" s="200" t="s">
+      <c r="D8" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
+      <c r="L8" s="203"/>
+      <c r="M8" s="203"/>
+      <c r="N8" s="203"/>
+      <c r="O8" s="203"/>
+      <c r="P8" s="204"/>
       <c r="R8" s="11" t="s">
         <v>148</v>
       </c>
@@ -34433,21 +34950,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="104"/>
       <c r="C9" s="105"/>
-      <c r="D9" s="200" t="s">
+      <c r="D9" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="202"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="202"/>
-      <c r="P9" s="203"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="203"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
+      <c r="L9" s="203"/>
+      <c r="M9" s="203"/>
+      <c r="N9" s="203"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="204"/>
       <c r="R9" s="62" t="s">
         <v>289</v>
       </c>
@@ -34461,21 +34978,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="104"/>
       <c r="C10" s="105"/>
-      <c r="D10" s="200" t="s">
+      <c r="D10" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="202"/>
-      <c r="O10" s="202"/>
-      <c r="P10" s="203"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="203"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
+      <c r="L10" s="203"/>
+      <c r="M10" s="203"/>
+      <c r="N10" s="203"/>
+      <c r="O10" s="203"/>
+      <c r="P10" s="204"/>
       <c r="R10" s="11" t="s">
         <v>155</v>
       </c>
@@ -34488,22 +35005,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="104"/>
-      <c r="C11" s="200" t="s">
+      <c r="C11" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="200"/>
-      <c r="L11" s="200"/>
-      <c r="M11" s="200"/>
-      <c r="N11" s="200"/>
-      <c r="O11" s="200"/>
-      <c r="P11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="201"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="201"/>
+      <c r="O11" s="201"/>
+      <c r="P11" s="202"/>
       <c r="R11" s="11" t="s">
         <v>97</v>
       </c>
@@ -34516,22 +35033,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104"/>
-      <c r="C12" s="200" t="s">
+      <c r="C12" s="201" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="200"/>
-      <c r="E12" s="200"/>
-      <c r="F12" s="200"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="200"/>
-      <c r="I12" s="200"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="200"/>
-      <c r="L12" s="200"/>
-      <c r="M12" s="200"/>
-      <c r="N12" s="200"/>
-      <c r="O12" s="200"/>
-      <c r="P12" s="201"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="201"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="201"/>
+      <c r="M12" s="201"/>
+      <c r="N12" s="201"/>
+      <c r="O12" s="201"/>
+      <c r="P12" s="202"/>
       <c r="R12" s="62" t="s">
         <v>99</v>
       </c>
@@ -34569,23 +35086,23 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="194" t="s">
+      <c r="B14" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="195"/>
-      <c r="D14" s="195"/>
-      <c r="E14" s="195"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="195"/>
-      <c r="J14" s="195"/>
-      <c r="K14" s="195"/>
-      <c r="L14" s="195"/>
-      <c r="M14" s="195"/>
-      <c r="N14" s="195"/>
-      <c r="O14" s="195"/>
-      <c r="P14" s="196"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="196"/>
+      <c r="L14" s="196"/>
+      <c r="M14" s="196"/>
+      <c r="N14" s="196"/>
+      <c r="O14" s="196"/>
+      <c r="P14" s="197"/>
       <c r="R14" s="11" t="s">
         <v>89</v>
       </c>
@@ -34598,22 +35115,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="104"/>
-      <c r="C15" s="200" t="s">
+      <c r="C15" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="200"/>
-      <c r="L15" s="200"/>
-      <c r="M15" s="200"/>
-      <c r="N15" s="200"/>
-      <c r="O15" s="200"/>
-      <c r="P15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="201"/>
+      <c r="N15" s="201"/>
+      <c r="O15" s="201"/>
+      <c r="P15" s="202"/>
       <c r="R15" s="11" t="s">
         <v>163</v>
       </c>
@@ -34627,21 +35144,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="104"/>
       <c r="C16" s="107"/>
-      <c r="D16" s="202" t="s">
+      <c r="D16" s="203" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="202"/>
-      <c r="L16" s="202"/>
-      <c r="M16" s="202"/>
-      <c r="N16" s="202"/>
-      <c r="O16" s="202"/>
-      <c r="P16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="203"/>
+      <c r="K16" s="203"/>
+      <c r="L16" s="203"/>
+      <c r="M16" s="203"/>
+      <c r="N16" s="203"/>
+      <c r="O16" s="203"/>
+      <c r="P16" s="204"/>
       <c r="R16" s="11" t="s">
         <v>149</v>
       </c>
@@ -34683,21 +35200,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104"/>
       <c r="C18" s="105"/>
-      <c r="D18" s="202" t="s">
+      <c r="D18" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="202"/>
-      <c r="L18" s="202"/>
-      <c r="M18" s="202"/>
-      <c r="N18" s="202"/>
-      <c r="O18" s="202"/>
-      <c r="P18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="203"/>
+      <c r="H18" s="203"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="203"/>
+      <c r="K18" s="203"/>
+      <c r="L18" s="203"/>
+      <c r="M18" s="203"/>
+      <c r="N18" s="203"/>
+      <c r="O18" s="203"/>
+      <c r="P18" s="204"/>
       <c r="R18" s="62" t="s">
         <v>156</v>
       </c>
@@ -34711,21 +35228,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="104"/>
       <c r="C19" s="105"/>
-      <c r="D19" s="202" t="s">
+      <c r="D19" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="202"/>
-      <c r="O19" s="202"/>
-      <c r="P19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="203"/>
+      <c r="M19" s="203"/>
+      <c r="N19" s="203"/>
+      <c r="O19" s="203"/>
+      <c r="P19" s="204"/>
       <c r="R19" s="62" t="s">
         <v>87</v>
       </c>
@@ -34739,21 +35256,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="104"/>
       <c r="C20" s="105"/>
-      <c r="D20" s="202" t="s">
+      <c r="D20" s="203" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="202"/>
-      <c r="L20" s="202"/>
-      <c r="M20" s="202"/>
-      <c r="N20" s="202"/>
-      <c r="O20" s="202"/>
-      <c r="P20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="203"/>
+      <c r="M20" s="203"/>
+      <c r="N20" s="203"/>
+      <c r="O20" s="203"/>
+      <c r="P20" s="204"/>
       <c r="R20" s="62" t="s">
         <v>154</v>
       </c>
@@ -34767,21 +35284,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="104"/>
       <c r="C21" s="105"/>
-      <c r="D21" s="202" t="s">
+      <c r="D21" s="203" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="202"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="202"/>
-      <c r="J21" s="202"/>
-      <c r="K21" s="202"/>
-      <c r="L21" s="202"/>
-      <c r="M21" s="202"/>
-      <c r="N21" s="202"/>
-      <c r="O21" s="202"/>
-      <c r="P21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="203"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="203"/>
+      <c r="M21" s="203"/>
+      <c r="N21" s="203"/>
+      <c r="O21" s="203"/>
+      <c r="P21" s="204"/>
       <c r="R21" s="62" t="s">
         <v>158</v>
       </c>
@@ -34795,21 +35312,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="104"/>
       <c r="C22" s="105"/>
-      <c r="D22" s="202" t="s">
+      <c r="D22" s="203" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="202"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="202"/>
-      <c r="K22" s="202"/>
-      <c r="L22" s="202"/>
-      <c r="M22" s="202"/>
-      <c r="N22" s="202"/>
-      <c r="O22" s="202"/>
-      <c r="P22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="203"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="203"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="203"/>
+      <c r="M22" s="203"/>
+      <c r="N22" s="203"/>
+      <c r="O22" s="203"/>
+      <c r="P22" s="204"/>
       <c r="R22" s="62" t="s">
         <v>101</v>
       </c>
@@ -34823,21 +35340,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="104"/>
       <c r="C23" s="105"/>
-      <c r="D23" s="202" t="s">
+      <c r="D23" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="202"/>
-      <c r="F23" s="202"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="202"/>
-      <c r="J23" s="202"/>
-      <c r="K23" s="202"/>
-      <c r="L23" s="202"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="202"/>
-      <c r="O23" s="202"/>
-      <c r="P23" s="203"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="203"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="203"/>
+      <c r="K23" s="203"/>
+      <c r="L23" s="203"/>
+      <c r="M23" s="203"/>
+      <c r="N23" s="203"/>
+      <c r="O23" s="203"/>
+      <c r="P23" s="204"/>
       <c r="R23" s="62" t="s">
         <v>157</v>
       </c>
@@ -34851,21 +35368,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="104"/>
       <c r="C24" s="105"/>
-      <c r="D24" s="202" t="s">
+      <c r="D24" s="203" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="202"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="202"/>
-      <c r="H24" s="202"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="202"/>
-      <c r="K24" s="202"/>
-      <c r="L24" s="202"/>
-      <c r="M24" s="202"/>
-      <c r="N24" s="202"/>
-      <c r="O24" s="202"/>
-      <c r="P24" s="203"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="203"/>
+      <c r="G24" s="203"/>
+      <c r="H24" s="203"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="203"/>
+      <c r="K24" s="203"/>
+      <c r="L24" s="203"/>
+      <c r="M24" s="203"/>
+      <c r="N24" s="203"/>
+      <c r="O24" s="203"/>
+      <c r="P24" s="204"/>
       <c r="R24" s="62" t="s">
         <v>291</v>
       </c>
@@ -34879,21 +35396,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="104"/>
       <c r="C25" s="105"/>
-      <c r="D25" s="202" t="s">
+      <c r="D25" s="203" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="202"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="202"/>
-      <c r="H25" s="202"/>
-      <c r="I25" s="202"/>
-      <c r="J25" s="202"/>
-      <c r="K25" s="202"/>
-      <c r="L25" s="202"/>
-      <c r="M25" s="202"/>
-      <c r="N25" s="202"/>
-      <c r="O25" s="202"/>
-      <c r="P25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="203"/>
+      <c r="H25" s="203"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="203"/>
+      <c r="K25" s="203"/>
+      <c r="L25" s="203"/>
+      <c r="M25" s="203"/>
+      <c r="N25" s="203"/>
+      <c r="O25" s="203"/>
+      <c r="P25" s="204"/>
       <c r="R25" s="62" t="s">
         <v>147</v>
       </c>
@@ -34907,21 +35424,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="104"/>
       <c r="C26" s="105"/>
-      <c r="D26" s="202" t="s">
+      <c r="D26" s="203" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="202"/>
-      <c r="J26" s="202"/>
-      <c r="K26" s="202"/>
-      <c r="L26" s="202"/>
-      <c r="M26" s="202"/>
-      <c r="N26" s="202"/>
-      <c r="O26" s="202"/>
-      <c r="P26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="203"/>
+      <c r="K26" s="203"/>
+      <c r="L26" s="203"/>
+      <c r="M26" s="203"/>
+      <c r="N26" s="203"/>
+      <c r="O26" s="203"/>
+      <c r="P26" s="204"/>
       <c r="R26" s="62" t="s">
         <v>159</v>
       </c>
@@ -34935,21 +35452,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="104"/>
       <c r="C27" s="105"/>
-      <c r="D27" s="202" t="s">
+      <c r="D27" s="203" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="202"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="202"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="202"/>
-      <c r="K27" s="202"/>
-      <c r="L27" s="202"/>
-      <c r="M27" s="202"/>
-      <c r="N27" s="202"/>
-      <c r="O27" s="202"/>
-      <c r="P27" s="203"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="203"/>
+      <c r="H27" s="203"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="203"/>
+      <c r="K27" s="203"/>
+      <c r="L27" s="203"/>
+      <c r="M27" s="203"/>
+      <c r="N27" s="203"/>
+      <c r="O27" s="203"/>
+      <c r="P27" s="204"/>
       <c r="R27" s="62" t="s">
         <v>290</v>
       </c>
@@ -34988,22 +35505,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="104"/>
-      <c r="C29" s="200" t="s">
+      <c r="C29" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="200"/>
-      <c r="E29" s="200"/>
-      <c r="F29" s="200"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="200"/>
-      <c r="K29" s="200"/>
-      <c r="L29" s="200"/>
-      <c r="M29" s="200"/>
-      <c r="N29" s="200"/>
-      <c r="O29" s="200"/>
-      <c r="P29" s="201"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="201"/>
+      <c r="M29" s="201"/>
+      <c r="N29" s="201"/>
+      <c r="O29" s="201"/>
+      <c r="P29" s="202"/>
       <c r="R29" s="62" t="s">
         <v>150</v>
       </c>
@@ -35017,21 +35534,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="104"/>
       <c r="C30" s="105"/>
-      <c r="D30" s="202" t="s">
+      <c r="D30" s="203" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="202"/>
-      <c r="K30" s="202"/>
-      <c r="L30" s="202"/>
-      <c r="M30" s="202"/>
-      <c r="N30" s="202"/>
-      <c r="O30" s="202"/>
-      <c r="P30" s="203"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="203"/>
+      <c r="G30" s="203"/>
+      <c r="H30" s="203"/>
+      <c r="I30" s="203"/>
+      <c r="J30" s="203"/>
+      <c r="K30" s="203"/>
+      <c r="L30" s="203"/>
+      <c r="M30" s="203"/>
+      <c r="N30" s="203"/>
+      <c r="O30" s="203"/>
+      <c r="P30" s="204"/>
       <c r="R30" s="62" t="s">
         <v>88</v>
       </c>
@@ -35045,21 +35562,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="104"/>
       <c r="C31" s="105"/>
-      <c r="D31" s="202" t="s">
+      <c r="D31" s="203" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="202"/>
-      <c r="F31" s="202"/>
-      <c r="G31" s="202"/>
-      <c r="H31" s="202"/>
-      <c r="I31" s="202"/>
-      <c r="J31" s="202"/>
-      <c r="K31" s="202"/>
-      <c r="L31" s="202"/>
-      <c r="M31" s="202"/>
-      <c r="N31" s="202"/>
-      <c r="O31" s="202"/>
-      <c r="P31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="203"/>
+      <c r="H31" s="203"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="203"/>
+      <c r="K31" s="203"/>
+      <c r="L31" s="203"/>
+      <c r="M31" s="203"/>
+      <c r="N31" s="203"/>
+      <c r="O31" s="203"/>
+      <c r="P31" s="204"/>
       <c r="R31" s="62" t="s">
         <v>243</v>
       </c>
@@ -35073,21 +35590,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="104"/>
       <c r="C32" s="105"/>
-      <c r="D32" s="202" t="s">
+      <c r="D32" s="203" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="202"/>
-      <c r="F32" s="202"/>
-      <c r="G32" s="202"/>
-      <c r="H32" s="202"/>
-      <c r="I32" s="202"/>
-      <c r="J32" s="202"/>
-      <c r="K32" s="202"/>
-      <c r="L32" s="202"/>
-      <c r="M32" s="202"/>
-      <c r="N32" s="202"/>
-      <c r="O32" s="202"/>
-      <c r="P32" s="203"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="203"/>
+      <c r="G32" s="203"/>
+      <c r="H32" s="203"/>
+      <c r="I32" s="203"/>
+      <c r="J32" s="203"/>
+      <c r="K32" s="203"/>
+      <c r="L32" s="203"/>
+      <c r="M32" s="203"/>
+      <c r="N32" s="203"/>
+      <c r="O32" s="203"/>
+      <c r="P32" s="204"/>
       <c r="R32" s="62" t="s">
         <v>312</v>
       </c>
@@ -35101,21 +35618,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="104"/>
       <c r="C33" s="105"/>
-      <c r="D33" s="202" t="s">
+      <c r="D33" s="203" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="202"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="202"/>
-      <c r="K33" s="202"/>
-      <c r="L33" s="202"/>
-      <c r="M33" s="202"/>
-      <c r="N33" s="202"/>
-      <c r="O33" s="202"/>
-      <c r="P33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="203"/>
+      <c r="H33" s="203"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="203"/>
+      <c r="K33" s="203"/>
+      <c r="L33" s="203"/>
+      <c r="M33" s="203"/>
+      <c r="N33" s="203"/>
+      <c r="O33" s="203"/>
+      <c r="P33" s="204"/>
       <c r="R33" s="121" t="s">
         <v>448</v>
       </c>
@@ -35129,21 +35646,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="104"/>
       <c r="C34" s="105"/>
-      <c r="D34" s="204" t="s">
+      <c r="D34" s="205" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="204"/>
-      <c r="F34" s="204"/>
-      <c r="G34" s="204"/>
-      <c r="H34" s="204"/>
-      <c r="I34" s="204"/>
-      <c r="J34" s="204"/>
-      <c r="K34" s="204"/>
-      <c r="L34" s="204"/>
-      <c r="M34" s="204"/>
-      <c r="N34" s="204"/>
-      <c r="O34" s="204"/>
-      <c r="P34" s="205"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="205"/>
+      <c r="I34" s="205"/>
+      <c r="J34" s="205"/>
+      <c r="K34" s="205"/>
+      <c r="L34" s="205"/>
+      <c r="M34" s="205"/>
+      <c r="N34" s="205"/>
+      <c r="O34" s="205"/>
+      <c r="P34" s="206"/>
       <c r="R34" s="62" t="s">
         <v>603</v>
       </c>
@@ -35157,21 +35674,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="104"/>
       <c r="C35" s="105"/>
-      <c r="D35" s="204" t="s">
+      <c r="D35" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
-      <c r="G35" s="204"/>
-      <c r="H35" s="204"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="204"/>
-      <c r="K35" s="204"/>
-      <c r="L35" s="204"/>
-      <c r="M35" s="204"/>
-      <c r="N35" s="204"/>
-      <c r="O35" s="204"/>
-      <c r="P35" s="205"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="205"/>
+      <c r="I35" s="205"/>
+      <c r="J35" s="205"/>
+      <c r="K35" s="205"/>
+      <c r="L35" s="205"/>
+      <c r="M35" s="205"/>
+      <c r="N35" s="205"/>
+      <c r="O35" s="205"/>
+      <c r="P35" s="206"/>
       <c r="R35" s="62" t="s">
         <v>630</v>
       </c>
@@ -35185,21 +35702,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="110"/>
       <c r="C36" s="111"/>
-      <c r="D36" s="206" t="s">
+      <c r="D36" s="207" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="206"/>
-      <c r="J36" s="206"/>
-      <c r="K36" s="206"/>
-      <c r="L36" s="206"/>
-      <c r="M36" s="206"/>
-      <c r="N36" s="206"/>
-      <c r="O36" s="206"/>
-      <c r="P36" s="207"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="207"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="207"/>
+      <c r="J36" s="207"/>
+      <c r="K36" s="207"/>
+      <c r="L36" s="207"/>
+      <c r="M36" s="207"/>
+      <c r="N36" s="207"/>
+      <c r="O36" s="207"/>
+      <c r="P36" s="208"/>
       <c r="R36" s="62" t="s">
         <v>631</v>
       </c>
@@ -35353,9 +35870,15 @@
       </c>
     </row>
     <row r="51" spans="18:20" x14ac:dyDescent="0.25">
-      <c r="R51" s="156"/>
-      <c r="S51" s="93"/>
-      <c r="T51" s="11"/>
+      <c r="R51" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="S51" s="93" t="s">
+        <v>977</v>
+      </c>
+      <c r="T51" s="11" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="52" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R52" s="156"/>

--- a/2017/BANGKE - 17.xlsx
+++ b/2017/BANGKE - 17.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vuphu\OneDrive\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="9FDB0D1DDAFB6BEC3ACFA7BE557F33F3C571F501" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{FFF329B6-5AA8-418F-80E5-A0458EE94CB4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="756" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TH-MV" sheetId="15" r:id="rId1"/>
@@ -23,29 +17,29 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TH - BR'!$A$25:$N$370</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TH-MV'!$A$15:$O$352</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TH-MV'!$A$15:$O$361</definedName>
     <definedName name="Dong">IF(Loai=#REF!,ROW(Loai)-1,"")</definedName>
     <definedName name="Dong1">IF(Loai1=#REF!,ROW(Loai1)-1,"")</definedName>
     <definedName name="DSBR">'Huong dan BR'!$R$2:$S$104</definedName>
     <definedName name="DSMV">'Huong dan MV'!$R$2:$T$54</definedName>
-    <definedName name="Loai">OFFSET('TH-MV'!$M$17,,,COUNTA('TH-MV'!$M$17:$M$38945))</definedName>
+    <definedName name="Loai">OFFSET('TH-MV'!$M$17,,,COUNTA('TH-MV'!$M$17:$M$38954))</definedName>
     <definedName name="Loai1">OFFSET('TH - BR'!#REF!,,,COUNTA('[1]TH-BR'!$L$18:$M$38745))</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'TH - BR'!$B$1:$L$382</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'TH-MV'!$B$1:$M$371</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TH-MV'!$B$1:$M$380</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'TH - BR'!$12:$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'TH-MV'!$12:$15</definedName>
   </definedNames>
-  <calcPr calcId="171027" iterate="1"/>
+  <calcPr calcId="144525" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>FIS-CMCSOFT</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="I12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="K12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="D14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="E14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="F14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,12 +135,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>FIS-CMCSOFT</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="D14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="E14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="F14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="1014">
   <si>
     <t>(Kèm theo tờ khai thuế GTGT theo mẫu số 01/GTGT)</t>
   </si>
@@ -3191,12 +3185,66 @@
   </si>
   <si>
     <t>0000505</t>
+  </si>
+  <si>
+    <t>Phí mua 2 cuốn sec</t>
+  </si>
+  <si>
+    <t>Phí sử dụng tiền sau 2 ngày</t>
+  </si>
+  <si>
+    <t>Quảng cáo</t>
+  </si>
+  <si>
+    <t>Phí vận chuyển</t>
+  </si>
+  <si>
+    <t>0002294</t>
+  </si>
+  <si>
+    <t>0014507</t>
+  </si>
+  <si>
+    <t>0294381</t>
+  </si>
+  <si>
+    <t>0213287</t>
+  </si>
+  <si>
+    <t>0079460</t>
+  </si>
+  <si>
+    <t>0213528</t>
+  </si>
+  <si>
+    <t>0004082</t>
+  </si>
+  <si>
+    <t>0017170</t>
+  </si>
+  <si>
+    <t>0014405</t>
+  </si>
+  <si>
+    <t>Cty Xăng Dầu Quảng Bình</t>
+  </si>
+  <si>
+    <t>Cty CP Đầu Tư DV TM Tân Thịnh</t>
+  </si>
+  <si>
+    <t>DNTN Xăng Dầu Ngọc Thuận</t>
+  </si>
+  <si>
+    <t>Cty TNHH MTV Thạnh Thới</t>
+  </si>
+  <si>
+    <t>0000468</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -4047,17 +4095,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4080,14 +4119,17 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4101,29 +4143,23 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4143,6 +4179,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4161,42 +4236,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="k1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="k1" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal_ketoanthucte_NhatKySoCai 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 2 2" xfId="6"/>
+    <cellStyle name="Normal_ketoanthucte_NhatKySoCai 2 2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4231,7 +4279,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4436,7 +4484,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4649,7 +4697,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4682,26 +4730,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4734,23 +4765,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4926,16 +4940,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1">
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:Q374"/>
+  <dimension ref="A1:Q383"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="F410" sqref="F410"/>
+      <selection pane="bottomLeft" activeCell="M274" sqref="M266:M274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4991,70 +5005,70 @@
       <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:15" s="37" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
     </row>
     <row r="5" spans="1:15" s="37" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="172"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
     </row>
     <row r="6" spans="1:15" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="173"/>
+      <c r="M6" s="173"/>
     </row>
     <row r="7" spans="1:15" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="165" t="str">
+      <c r="B7" s="173" t="str">
         <f>"Kỳ tính thuế: Quý "&amp;O14&amp;" Năm "&amp;YEAR(F17)</f>
         <v>Kỳ tính thuế: Quý 2 Năm 2017</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
     </row>
     <row r="8" spans="1:15" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="39"/>
@@ -5079,67 +5093,67 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="166"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="174"/>
     </row>
     <row r="12" spans="1:15" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="167" t="s">
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="167" t="s">
+      <c r="H12" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="167" t="s">
+      <c r="I12" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="167" t="s">
+      <c r="J12" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="168" t="s">
+      <c r="K12" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="167" t="s">
+      <c r="L12" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="167" t="s">
+      <c r="M12" s="164" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="37" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="169"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="168"/>
-      <c r="L13" s="167"/>
-      <c r="M13" s="167"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
     </row>
     <row r="14" spans="1:15" s="37" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="169"/>
+      <c r="B14" s="166"/>
       <c r="C14" s="42" t="s">
         <v>43</v>
       </c>
@@ -5152,13 +5166,13 @@
       <c r="F14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="167"/>
-      <c r="M14" s="167"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
       <c r="O14" s="119">
         <v>2</v>
       </c>
@@ -6805,12 +6819,12 @@
     </row>
     <row r="55" spans="2:16" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="48" t="str">
-        <f t="shared" ref="B55:B347" si="6">IF(G55&lt;&gt;"",ROW()-16,"")</f>
+        <f t="shared" ref="B55:B356" si="6">IF(G55&lt;&gt;"",ROW()-16,"")</f>
         <v/>
       </c>
       <c r="C55" s="64"/>
       <c r="D55" s="60" t="str">
-        <f t="shared" ref="D55:D346" si="7">IF(ISNA(VLOOKUP(G55,DSMV,3,0)),"",VLOOKUP(G55,DSMV,3,0))</f>
+        <f t="shared" ref="D55:D355" si="7">IF(ISNA(VLOOKUP(G55,DSMV,3,0)),"",VLOOKUP(G55,DSMV,3,0))</f>
         <v/>
       </c>
       <c r="E55" s="59" t="s">
@@ -6821,7 +6835,7 @@
       </c>
       <c r="G55" s="62"/>
       <c r="H55" s="92" t="str">
-        <f t="shared" ref="H55:H346" si="8">IF(ISNA(VLOOKUP(G55,DSMV,2,0)),"",VLOOKUP(G55,DSMV,2,0))</f>
+        <f t="shared" ref="H55:H355" si="8">IF(ISNA(VLOOKUP(G55,DSMV,2,0)),"",VLOOKUP(G55,DSMV,2,0))</f>
         <v/>
       </c>
       <c r="I55" s="62" t="s">
@@ -13834,7 +13848,7 @@
         <v>0.1</v>
       </c>
       <c r="L220" s="63">
-        <f t="shared" ref="L220:L343" si="43">ROUND(J220*10%,0)</f>
+        <f t="shared" ref="L220:L352" si="43">ROUND(J220*10%,0)</f>
         <v>10147792</v>
       </c>
       <c r="M220" s="112">
@@ -14307,12 +14321,12 @@
     </row>
     <row r="232" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="48" t="str">
-        <f t="shared" ref="B232:B336" si="44">IF(G232&lt;&gt;"",ROW()-16,"")</f>
+        <f t="shared" ref="B232:B345" si="44">IF(G232&lt;&gt;"",ROW()-16,"")</f>
         <v/>
       </c>
       <c r="C232" s="64"/>
       <c r="D232" s="60" t="str">
-        <f t="shared" ref="D232:D336" si="45">IF(ISNA(VLOOKUP(G232,DSMV,3,0)),"",VLOOKUP(G232,DSMV,3,0))</f>
+        <f t="shared" ref="D232:D345" si="45">IF(ISNA(VLOOKUP(G232,DSMV,3,0)),"",VLOOKUP(G232,DSMV,3,0))</f>
         <v/>
       </c>
       <c r="E232" s="59"/>
@@ -14333,7 +14347,7 @@
         <v>0.1</v>
       </c>
       <c r="L232" s="63">
-        <f t="shared" ref="L232:L336" si="46">ROUND(J232*10%,0)</f>
+        <f t="shared" ref="L232:L345" si="46">ROUND(J232*10%,0)</f>
         <v>1000</v>
       </c>
       <c r="M232" s="112">
@@ -15563,7 +15577,7 @@
       <c r="N265" s="56"/>
       <c r="O265" s="57"/>
     </row>
-    <row r="266" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="48">
         <f t="shared" si="44"/>
         <v>250</v>
@@ -15600,12 +15614,12 @@
         <v>18500000</v>
       </c>
       <c r="M266" s="112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N266" s="56"/>
       <c r="O266" s="57"/>
     </row>
-    <row r="267" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="48">
         <f t="shared" si="44"/>
         <v>251</v>
@@ -15642,7 +15656,7 @@
         <v>20500000</v>
       </c>
       <c r="M267" s="112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N267" s="56"/>
       <c r="O267" s="57"/>
@@ -15709,7 +15723,7 @@
         <v>728</v>
       </c>
       <c r="H269" s="92" t="str">
-        <f t="shared" ref="H269:H336" si="54">IF(ISNA(VLOOKUP(G269,DSMV,2,0)),"",VLOOKUP(G269,DSMV,2,0))</f>
+        <f t="shared" ref="H269:H345" si="54">IF(ISNA(VLOOKUP(G269,DSMV,2,0)),"",VLOOKUP(G269,DSMV,2,0))</f>
         <v>0314097377</v>
       </c>
       <c r="I269" s="62" t="s">
@@ -16825,12 +16839,12 @@
     </row>
     <row r="296" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="48">
-        <f t="shared" ref="B296:B323" si="67">IF(G296&lt;&gt;"",ROW()-16,"")</f>
+        <f t="shared" ref="B296:B332" si="67">IF(G296&lt;&gt;"",ROW()-16,"")</f>
         <v>280</v>
       </c>
       <c r="C296" s="64"/>
       <c r="D296" s="60" t="str">
-        <f t="shared" ref="D296:D323" si="68">IF(ISNA(VLOOKUP(G296,DSMV,3,0)),"",VLOOKUP(G296,DSMV,3,0))</f>
+        <f t="shared" ref="D296:D332" si="68">IF(ISNA(VLOOKUP(G296,DSMV,3,0)),"",VLOOKUP(G296,DSMV,3,0))</f>
         <v>HH/17P</v>
       </c>
       <c r="E296" s="59" t="s">
@@ -16843,7 +16857,7 @@
         <v>728</v>
       </c>
       <c r="H296" s="92" t="str">
-        <f t="shared" ref="H296:H323" si="69">IF(ISNA(VLOOKUP(G296,DSMV,2,0)),"",VLOOKUP(G296,DSMV,2,0))</f>
+        <f t="shared" ref="H296:H332" si="69">IF(ISNA(VLOOKUP(G296,DSMV,2,0)),"",VLOOKUP(G296,DSMV,2,0))</f>
         <v>0314097377</v>
       </c>
       <c r="I296" s="62" t="s">
@@ -16856,7 +16870,7 @@
         <v>0.1</v>
       </c>
       <c r="L296" s="63">
-        <f t="shared" ref="L296:L323" si="70">ROUND(J296*10%,0)</f>
+        <f t="shared" ref="L296:L332" si="70">ROUND(J296*10%,0)</f>
         <v>1818323</v>
       </c>
       <c r="M296" s="112">
@@ -17748,30 +17762,40 @@
       <c r="O317" s="57"/>
     </row>
     <row r="318" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B318" s="48" t="str">
-        <f t="shared" si="67"/>
-        <v/>
+      <c r="B318" s="48">
+        <f t="shared" ref="B318" si="71">IF(G318&lt;&gt;"",ROW()-16,"")</f>
+        <v>302</v>
       </c>
       <c r="C318" s="64"/>
       <c r="D318" s="60" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-      <c r="E318" s="59"/>
-      <c r="F318" s="90"/>
-      <c r="G318" s="62"/>
+        <f t="shared" ref="D318" si="72">IF(ISNA(VLOOKUP(G318,DSMV,3,0)),"",VLOOKUP(G318,DSMV,3,0))</f>
+        <v>HH/17P</v>
+      </c>
+      <c r="E318" s="61" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F318" s="90">
+        <v>43094</v>
+      </c>
+      <c r="G318" s="11" t="s">
+        <v>728</v>
+      </c>
       <c r="H318" s="92" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-      <c r="I318" s="62"/>
-      <c r="J318" s="63"/>
+        <f t="shared" ref="H318" si="73">IF(ISNA(VLOOKUP(G318,DSMV,2,0)),"",VLOOKUP(G318,DSMV,2,0))</f>
+        <v>0314097377</v>
+      </c>
+      <c r="I318" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="J318" s="63">
+        <v>98808500</v>
+      </c>
       <c r="K318" s="55">
         <v>0.1</v>
       </c>
       <c r="L318" s="63">
-        <f t="shared" si="70"/>
-        <v>0</v>
+        <f t="shared" ref="L318" si="74">ROUND(J318*10%,0)</f>
+        <v>9880850</v>
       </c>
       <c r="M318" s="112">
         <v>4</v>
@@ -17789,21 +17813,29 @@
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="E319" s="59"/>
-      <c r="F319" s="90"/>
+      <c r="E319" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F319" s="90">
+        <v>43016</v>
+      </c>
       <c r="G319" s="62"/>
       <c r="H319" s="92" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="I319" s="62"/>
-      <c r="J319" s="63"/>
+      <c r="I319" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="J319" s="63">
+        <v>50000</v>
+      </c>
       <c r="K319" s="55">
         <v>0.1</v>
       </c>
       <c r="L319" s="63">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="M319" s="112">
         <v>4</v>
@@ -17821,21 +17853,29 @@
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="E320" s="59"/>
-      <c r="F320" s="90"/>
+      <c r="E320" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F320" s="90">
+        <v>43027</v>
+      </c>
       <c r="G320" s="62"/>
       <c r="H320" s="92" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="I320" s="62"/>
-      <c r="J320" s="63"/>
+      <c r="I320" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J320" s="63">
+        <v>20000</v>
+      </c>
       <c r="K320" s="55">
         <v>0.1</v>
       </c>
       <c r="L320" s="63">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="M320" s="112">
         <v>4</v>
@@ -17853,21 +17893,29 @@
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="E321" s="59"/>
-      <c r="F321" s="90"/>
+      <c r="E321" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F321" s="90">
+        <v>43033</v>
+      </c>
       <c r="G321" s="62"/>
       <c r="H321" s="92" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="I321" s="62"/>
-      <c r="J321" s="63"/>
+      <c r="I321" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="J321" s="63">
+        <v>10000</v>
+      </c>
       <c r="K321" s="55">
         <v>0.1</v>
       </c>
       <c r="L321" s="63">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M321" s="112">
         <v>4</v>
@@ -17885,21 +17933,29 @@
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="E322" s="59"/>
-      <c r="F322" s="90"/>
+      <c r="E322" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F322" s="90">
+        <v>43035</v>
+      </c>
       <c r="G322" s="62"/>
       <c r="H322" s="92" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="I322" s="62"/>
-      <c r="J322" s="63"/>
+      <c r="I322" s="62" t="s">
+        <v>841</v>
+      </c>
+      <c r="J322" s="63">
+        <v>10000</v>
+      </c>
       <c r="K322" s="55">
         <v>0.1</v>
       </c>
       <c r="L322" s="63">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M322" s="112">
         <v>4</v>
@@ -17917,14 +17973,20 @@
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="E323" s="59"/>
-      <c r="F323" s="90"/>
+      <c r="E323" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F323" s="90">
+        <v>43035</v>
+      </c>
       <c r="G323" s="62"/>
       <c r="H323" s="92" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="I323" s="62"/>
+      <c r="I323" s="62" t="s">
+        <v>434</v>
+      </c>
       <c r="J323" s="63"/>
       <c r="K323" s="55">
         <v>0.1</v>
@@ -17941,29 +18003,37 @@
     </row>
     <row r="324" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="48" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="C324" s="64"/>
       <c r="D324" s="60" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E324" s="59"/>
-      <c r="F324" s="90"/>
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="E324" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F324" s="90">
+        <v>43052</v>
+      </c>
       <c r="G324" s="62"/>
       <c r="H324" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I324" s="62"/>
-      <c r="J324" s="63"/>
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="I324" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J324" s="63">
+        <v>60000</v>
+      </c>
       <c r="K324" s="55">
         <v>0.1</v>
       </c>
       <c r="L324" s="63">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>6000</v>
       </c>
       <c r="M324" s="112">
         <v>4</v>
@@ -17973,29 +18043,37 @@
     </row>
     <row r="325" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="48" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="C325" s="64"/>
       <c r="D325" s="60" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E325" s="59"/>
-      <c r="F325" s="90"/>
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="E325" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F325" s="90">
+        <v>43053</v>
+      </c>
       <c r="G325" s="62"/>
       <c r="H325" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I325" s="62"/>
-      <c r="J325" s="63"/>
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="I325" s="62" t="s">
+        <v>996</v>
+      </c>
+      <c r="J325" s="63">
+        <v>20000</v>
+      </c>
       <c r="K325" s="55">
         <v>0.1</v>
       </c>
       <c r="L325" s="63">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>2000</v>
       </c>
       <c r="M325" s="112">
         <v>4</v>
@@ -18005,29 +18083,37 @@
     </row>
     <row r="326" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="48" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="C326" s="64"/>
       <c r="D326" s="60" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E326" s="59"/>
-      <c r="F326" s="90"/>
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="E326" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F326" s="90">
+        <v>43058</v>
+      </c>
       <c r="G326" s="62"/>
       <c r="H326" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I326" s="62"/>
-      <c r="J326" s="63"/>
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="I326" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="J326" s="63">
+        <v>50000</v>
+      </c>
       <c r="K326" s="55">
         <v>0.1</v>
       </c>
       <c r="L326" s="63">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>5000</v>
       </c>
       <c r="M326" s="112">
         <v>4</v>
@@ -18037,29 +18123,37 @@
     </row>
     <row r="327" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="48" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="C327" s="64"/>
       <c r="D327" s="60" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E327" s="59"/>
-      <c r="F327" s="90"/>
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="E327" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F327" s="90">
+        <v>43061</v>
+      </c>
       <c r="G327" s="62"/>
       <c r="H327" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I327" s="62"/>
-      <c r="J327" s="63"/>
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="I327" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J327" s="63">
+        <v>659604</v>
+      </c>
       <c r="K327" s="55">
         <v>0.1</v>
       </c>
       <c r="L327" s="63">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>65960</v>
       </c>
       <c r="M327" s="112">
         <v>4</v>
@@ -18069,29 +18163,37 @@
     </row>
     <row r="328" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="48" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="C328" s="64"/>
       <c r="D328" s="60" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E328" s="59"/>
-      <c r="F328" s="90"/>
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="E328" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F328" s="90">
+        <v>43064</v>
+      </c>
       <c r="G328" s="62"/>
       <c r="H328" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I328" s="62"/>
-      <c r="J328" s="63"/>
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="I328" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="J328" s="63">
+        <v>20000</v>
+      </c>
       <c r="K328" s="55">
         <v>0.1</v>
       </c>
       <c r="L328" s="63">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>2000</v>
       </c>
       <c r="M328" s="112">
         <v>4</v>
@@ -18101,29 +18203,37 @@
     </row>
     <row r="329" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="48" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="C329" s="64"/>
       <c r="D329" s="60" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E329" s="59"/>
-      <c r="F329" s="90"/>
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="E329" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F329" s="90">
+        <v>43084</v>
+      </c>
       <c r="G329" s="62"/>
       <c r="H329" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I329" s="62"/>
-      <c r="J329" s="63"/>
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="I329" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J329" s="63">
+        <v>20000</v>
+      </c>
       <c r="K329" s="55">
         <v>0.1</v>
       </c>
       <c r="L329" s="63">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>2000</v>
       </c>
       <c r="M329" s="112">
         <v>4</v>
@@ -18133,29 +18243,37 @@
     </row>
     <row r="330" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="48" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="C330" s="64"/>
       <c r="D330" s="60" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E330" s="59"/>
-      <c r="F330" s="90"/>
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="E330" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F330" s="90">
+        <v>43084</v>
+      </c>
       <c r="G330" s="62"/>
       <c r="H330" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I330" s="62"/>
-      <c r="J330" s="63"/>
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="I330" s="62" t="s">
+        <v>997</v>
+      </c>
+      <c r="J330" s="63">
+        <v>20000</v>
+      </c>
       <c r="K330" s="55">
         <v>0.1</v>
       </c>
       <c r="L330" s="63">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>2000</v>
       </c>
       <c r="M330" s="112">
         <v>4</v>
@@ -18165,29 +18283,37 @@
     </row>
     <row r="331" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="48" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="C331" s="64"/>
       <c r="D331" s="60" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E331" s="59"/>
-      <c r="F331" s="90"/>
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="E331" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F331" s="90">
+        <v>43092</v>
+      </c>
       <c r="G331" s="62"/>
       <c r="H331" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I331" s="62"/>
-      <c r="J331" s="63"/>
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="I331" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="J331" s="63">
+        <v>50000</v>
+      </c>
       <c r="K331" s="55">
         <v>0.1</v>
       </c>
       <c r="L331" s="63">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>5000</v>
       </c>
       <c r="M331" s="112">
         <v>4</v>
@@ -18197,29 +18323,37 @@
     </row>
     <row r="332" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="48" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="C332" s="64"/>
       <c r="D332" s="60" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E332" s="59"/>
-      <c r="F332" s="90"/>
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="E332" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F332" s="90">
+        <v>43095</v>
+      </c>
       <c r="G332" s="62"/>
       <c r="H332" s="92" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="I332" s="62"/>
-      <c r="J332" s="63"/>
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="I332" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J332" s="63">
+        <v>251374</v>
+      </c>
       <c r="K332" s="55">
         <v>0.1</v>
       </c>
       <c r="L332" s="63">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>25137</v>
       </c>
       <c r="M332" s="112">
         <v>4</v>
@@ -18237,21 +18371,29 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E333" s="59"/>
-      <c r="F333" s="90"/>
+      <c r="E333" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F333" s="90">
+        <v>43096</v>
+      </c>
       <c r="G333" s="62"/>
       <c r="H333" s="92" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="I333" s="62"/>
-      <c r="J333" s="63"/>
+      <c r="I333" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J333" s="63">
+        <v>570357</v>
+      </c>
       <c r="K333" s="55">
         <v>0.1</v>
       </c>
       <c r="L333" s="63">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>57036</v>
       </c>
       <c r="M333" s="112">
         <v>4</v>
@@ -18269,21 +18411,29 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E334" s="59"/>
-      <c r="F334" s="90"/>
+      <c r="E334" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F334" s="90">
+        <v>43098</v>
+      </c>
       <c r="G334" s="62"/>
       <c r="H334" s="92" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="I334" s="62"/>
-      <c r="J334" s="63"/>
+      <c r="I334" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J334" s="63">
+        <v>546164</v>
+      </c>
       <c r="K334" s="55">
         <v>0.1</v>
       </c>
       <c r="L334" s="63">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>54616</v>
       </c>
       <c r="M334" s="112">
         <v>4</v>
@@ -18301,21 +18451,29 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E335" s="59"/>
-      <c r="F335" s="90"/>
+      <c r="E335" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F335" s="90">
+        <v>43100</v>
+      </c>
       <c r="G335" s="62"/>
       <c r="H335" s="92" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="I335" s="62"/>
-      <c r="J335" s="63"/>
+      <c r="I335" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="J335" s="63">
+        <v>20000</v>
+      </c>
       <c r="K335" s="55">
         <v>0.1</v>
       </c>
       <c r="L335" s="63">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="M335" s="112">
         <v>4</v>
@@ -18333,21 +18491,29 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E336" s="59"/>
-      <c r="F336" s="90"/>
+      <c r="E336" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="F336" s="90">
+        <v>43029</v>
+      </c>
       <c r="G336" s="62"/>
       <c r="H336" s="92" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="I336" s="62"/>
-      <c r="J336" s="63"/>
+      <c r="I336" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="J336" s="63">
+        <v>15400</v>
+      </c>
       <c r="K336" s="55">
         <v>0.1</v>
       </c>
       <c r="L336" s="63">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="M336" s="112">
         <v>4</v>
@@ -18357,29 +18523,37 @@
     </row>
     <row r="337" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="48" t="str">
-        <f t="shared" ref="B337:B341" si="71">IF(G337&lt;&gt;"",ROW()-16,"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="C337" s="64"/>
       <c r="D337" s="60" t="str">
-        <f t="shared" ref="D337:D341" si="72">IF(ISNA(VLOOKUP(G337,DSMV,3,0)),"",VLOOKUP(G337,DSMV,3,0))</f>
-        <v/>
-      </c>
-      <c r="E337" s="59"/>
-      <c r="F337" s="90"/>
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E337" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="F337" s="90">
+        <v>43029</v>
+      </c>
       <c r="G337" s="62"/>
       <c r="H337" s="92" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I337" s="62"/>
-      <c r="J337" s="63"/>
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="I337" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J337" s="63">
+        <v>58300</v>
+      </c>
       <c r="K337" s="55">
         <v>0.1</v>
       </c>
       <c r="L337" s="63">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>5830</v>
       </c>
       <c r="M337" s="112">
         <v>4</v>
@@ -18389,29 +18563,37 @@
     </row>
     <row r="338" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="48" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="C338" s="64"/>
       <c r="D338" s="60" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E338" s="59"/>
-      <c r="F338" s="90"/>
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E338" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="F338" s="90">
+        <v>43061</v>
+      </c>
       <c r="G338" s="62"/>
       <c r="H338" s="92" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I338" s="62"/>
-      <c r="J338" s="63"/>
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="I338" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="J338" s="63">
+        <v>21600</v>
+      </c>
       <c r="K338" s="55">
         <v>0.1</v>
       </c>
       <c r="L338" s="63">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>2160</v>
       </c>
       <c r="M338" s="112">
         <v>4</v>
@@ -18421,29 +18603,37 @@
     </row>
     <row r="339" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="48" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="C339" s="64"/>
       <c r="D339" s="60" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E339" s="59"/>
-      <c r="F339" s="90"/>
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E339" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="F339" s="90">
+        <v>43062</v>
+      </c>
       <c r="G339" s="62"/>
       <c r="H339" s="92" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I339" s="62"/>
-      <c r="J339" s="63"/>
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="I339" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="J339" s="63">
+        <v>40000</v>
+      </c>
       <c r="K339" s="55">
         <v>0.1</v>
       </c>
       <c r="L339" s="63">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>4000</v>
       </c>
       <c r="M339" s="112">
         <v>4</v>
@@ -18453,29 +18643,37 @@
     </row>
     <row r="340" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="48" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="C340" s="64"/>
       <c r="D340" s="60" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E340" s="59"/>
-      <c r="F340" s="90"/>
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E340" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="F340" s="90">
+        <v>43062</v>
+      </c>
       <c r="G340" s="62"/>
       <c r="H340" s="92" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I340" s="62"/>
-      <c r="J340" s="63"/>
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="I340" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="J340" s="63">
+        <v>16000</v>
+      </c>
       <c r="K340" s="55">
         <v>0.1</v>
       </c>
       <c r="L340" s="63">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>1600</v>
       </c>
       <c r="M340" s="112">
         <v>4</v>
@@ -18485,29 +18683,37 @@
     </row>
     <row r="341" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="48" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="C341" s="64"/>
       <c r="D341" s="60" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E341" s="59"/>
-      <c r="F341" s="90"/>
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E341" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="F341" s="90">
+        <v>43063</v>
+      </c>
       <c r="G341" s="62"/>
       <c r="H341" s="92" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I341" s="62"/>
-      <c r="J341" s="63"/>
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="I341" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="J341" s="63">
+        <v>10000</v>
+      </c>
       <c r="K341" s="55">
         <v>0.1</v>
       </c>
       <c r="L341" s="63">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>1000</v>
       </c>
       <c r="M341" s="112">
         <v>4</v>
@@ -18517,29 +18723,37 @@
     </row>
     <row r="342" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="48" t="str">
-        <f t="shared" ref="B342:B346" si="73">IF(G342&lt;&gt;"",ROW()-16,"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="C342" s="64"/>
       <c r="D342" s="60" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E342" s="59"/>
-      <c r="F342" s="90"/>
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E342" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="F342" s="90">
+        <v>43063</v>
+      </c>
       <c r="G342" s="62"/>
       <c r="H342" s="92" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I342" s="62"/>
-      <c r="J342" s="63"/>
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="I342" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J342" s="63">
+        <v>63200</v>
+      </c>
       <c r="K342" s="55">
         <v>0.1</v>
       </c>
       <c r="L342" s="63">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>6320</v>
       </c>
       <c r="M342" s="112">
         <v>4</v>
@@ -18549,29 +18763,37 @@
     </row>
     <row r="343" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="48" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="C343" s="64"/>
       <c r="D343" s="60" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E343" s="59"/>
-      <c r="F343" s="90"/>
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E343" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="F343" s="90">
+        <v>43070</v>
+      </c>
       <c r="G343" s="62"/>
       <c r="H343" s="92" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I343" s="62"/>
-      <c r="J343" s="63"/>
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="I343" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="J343" s="63">
+        <v>10000</v>
+      </c>
       <c r="K343" s="55">
         <v>0.1</v>
       </c>
       <c r="L343" s="63">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>1000</v>
       </c>
       <c r="M343" s="112">
         <v>4</v>
@@ -18581,29 +18803,37 @@
     </row>
     <row r="344" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="48" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="C344" s="64"/>
       <c r="D344" s="60" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E344" s="59"/>
-      <c r="F344" s="90"/>
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E344" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="F344" s="90">
+        <v>43078</v>
+      </c>
       <c r="G344" s="62"/>
       <c r="H344" s="92" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I344" s="62"/>
-      <c r="J344" s="63"/>
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="I344" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="J344" s="63">
+        <v>40000</v>
+      </c>
       <c r="K344" s="55">
         <v>0.1</v>
       </c>
       <c r="L344" s="63">
-        <f t="shared" ref="L344:L351" si="74">ROUND(J344*10%,0)</f>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>4000</v>
       </c>
       <c r="M344" s="112">
         <v>4</v>
@@ -18613,29 +18843,37 @@
     </row>
     <row r="345" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="48" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="C345" s="64"/>
       <c r="D345" s="60" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E345" s="59"/>
-      <c r="F345" s="90"/>
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E345" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="F345" s="90">
+        <v>43092</v>
+      </c>
       <c r="G345" s="62"/>
       <c r="H345" s="92" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I345" s="62"/>
-      <c r="J345" s="63"/>
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="I345" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J345" s="63">
+        <v>68500</v>
+      </c>
       <c r="K345" s="55">
         <v>0.1</v>
       </c>
       <c r="L345" s="63">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>6850</v>
       </c>
       <c r="M345" s="112">
         <v>4</v>
@@ -18645,29 +18883,37 @@
     </row>
     <row r="346" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="48" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="B346:B350" si="75">IF(G346&lt;&gt;"",ROW()-16,"")</f>
         <v/>
       </c>
       <c r="C346" s="64"/>
       <c r="D346" s="60" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E346" s="59"/>
-      <c r="F346" s="90"/>
+        <f t="shared" ref="D346:D350" si="76">IF(ISNA(VLOOKUP(G346,DSMV,3,0)),"",VLOOKUP(G346,DSMV,3,0))</f>
+        <v/>
+      </c>
+      <c r="E346" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="F346" s="90">
+        <v>43092</v>
+      </c>
       <c r="G346" s="62"/>
       <c r="H346" s="92" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I346" s="62"/>
-      <c r="J346" s="63"/>
+      <c r="I346" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="J346" s="63">
+        <v>10000</v>
+      </c>
       <c r="K346" s="55">
         <v>0.1</v>
       </c>
       <c r="L346" s="63">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1000</v>
       </c>
       <c r="M346" s="112">
         <v>4</v>
@@ -18676,30 +18922,40 @@
       <c r="O346" s="57"/>
     </row>
     <row r="347" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B347" s="48" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="B347" s="48">
+        <f t="shared" si="75"/>
+        <v>331</v>
       </c>
       <c r="C347" s="64"/>
       <c r="D347" s="60" t="str">
-        <f t="shared" ref="D347:D351" si="75">IF(ISNA(VLOOKUP(G347,DSMV,3,0)),"",VLOOKUP(G347,DSMV,3,0))</f>
-        <v/>
-      </c>
-      <c r="E347" s="59"/>
-      <c r="F347" s="90"/>
-      <c r="G347" s="62"/>
+        <f t="shared" si="76"/>
+        <v>HH/17P</v>
+      </c>
+      <c r="E347" s="59" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F347" s="90">
+        <v>43035</v>
+      </c>
+      <c r="G347" s="62" t="s">
+        <v>889</v>
+      </c>
       <c r="H347" s="92" t="str">
-        <f t="shared" ref="H347:H351" si="76">IF(ISNA(VLOOKUP(G347,DSMV,2,0)),"",VLOOKUP(G347,DSMV,2,0))</f>
-        <v/>
-      </c>
-      <c r="I347" s="62"/>
-      <c r="J347" s="63"/>
+        <f t="shared" si="8"/>
+        <v>3700339682</v>
+      </c>
+      <c r="I347" s="62" t="s">
+        <v>998</v>
+      </c>
+      <c r="J347" s="63">
+        <v>4500000</v>
+      </c>
       <c r="K347" s="55">
         <v>0.1</v>
       </c>
       <c r="L347" s="63">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>450000</v>
       </c>
       <c r="M347" s="112">
         <v>4</v>
@@ -18708,30 +18964,40 @@
       <c r="O347" s="57"/>
     </row>
     <row r="348" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B348" s="48" t="str">
-        <f t="shared" ref="B348:B351" si="77">IF(G348&lt;&gt;"",ROW()-16,"")</f>
-        <v/>
+      <c r="B348" s="48">
+        <f t="shared" si="75"/>
+        <v>332</v>
       </c>
       <c r="C348" s="64"/>
       <c r="D348" s="60" t="str">
-        <f t="shared" si="75"/>
-        <v/>
-      </c>
-      <c r="E348" s="59"/>
-      <c r="F348" s="90"/>
-      <c r="G348" s="62"/>
+        <f t="shared" si="76"/>
+        <v>TV/17P</v>
+      </c>
+      <c r="E348" s="59" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F348" s="90">
+        <v>43039</v>
+      </c>
+      <c r="G348" s="62" t="s">
+        <v>890</v>
+      </c>
       <c r="H348" s="92" t="str">
-        <f t="shared" si="76"/>
-        <v/>
-      </c>
-      <c r="I348" s="62"/>
-      <c r="J348" s="63"/>
+        <f t="shared" si="8"/>
+        <v>0104478506</v>
+      </c>
+      <c r="I348" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="J348" s="63">
+        <v>1729200</v>
+      </c>
       <c r="K348" s="55">
         <v>0.1</v>
       </c>
       <c r="L348" s="63">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>172920</v>
       </c>
       <c r="M348" s="112">
         <v>4</v>
@@ -18741,29 +19007,35 @@
     </row>
     <row r="349" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="48" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="C349" s="64"/>
       <c r="D349" s="60" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="E349" s="59"/>
-      <c r="F349" s="90"/>
+      <c r="F349" s="90">
+        <v>43039</v>
+      </c>
       <c r="G349" s="62"/>
       <c r="H349" s="92" t="str">
-        <f t="shared" si="76"/>
-        <v/>
-      </c>
-      <c r="I349" s="62"/>
-      <c r="J349" s="63"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I349" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="J349" s="63">
+        <v>313636</v>
+      </c>
       <c r="K349" s="55">
         <v>0.1</v>
       </c>
       <c r="L349" s="63">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>31364</v>
       </c>
       <c r="M349" s="112">
         <v>4</v>
@@ -18773,29 +19045,35 @@
     </row>
     <row r="350" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="48" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="C350" s="64"/>
       <c r="D350" s="60" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="E350" s="59"/>
-      <c r="F350" s="90"/>
+      <c r="F350" s="90">
+        <v>43069</v>
+      </c>
       <c r="G350" s="62"/>
       <c r="H350" s="92" t="str">
-        <f t="shared" si="76"/>
-        <v/>
-      </c>
-      <c r="I350" s="62"/>
-      <c r="J350" s="63"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I350" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="J350" s="63">
+        <v>322727</v>
+      </c>
       <c r="K350" s="55">
         <v>0.1</v>
       </c>
       <c r="L350" s="63">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>32273</v>
       </c>
       <c r="M350" s="112">
         <v>4</v>
@@ -18805,29 +19083,35 @@
     </row>
     <row r="351" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="48" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="B351:B355" si="77">IF(G351&lt;&gt;"",ROW()-16,"")</f>
         <v/>
       </c>
       <c r="C351" s="64"/>
       <c r="D351" s="60" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E351" s="59"/>
-      <c r="F351" s="90"/>
+      <c r="F351" s="90">
+        <v>43100</v>
+      </c>
       <c r="G351" s="62"/>
       <c r="H351" s="92" t="str">
-        <f t="shared" si="76"/>
-        <v/>
-      </c>
-      <c r="I351" s="62"/>
-      <c r="J351" s="63"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I351" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="J351" s="63">
+        <v>377273</v>
+      </c>
       <c r="K351" s="55">
         <v>0.1</v>
       </c>
       <c r="L351" s="63">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>37727</v>
       </c>
       <c r="M351" s="112">
         <v>4</v>
@@ -18835,179 +19119,384 @@
       <c r="N351" s="56"/>
       <c r="O351" s="57"/>
     </row>
-    <row r="352" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B352" s="48" t="str">
-        <f>IF(G352&lt;&gt;"",ROW()-16,"")</f>
-        <v/>
+    <row r="352" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B352" s="48">
+        <f t="shared" si="77"/>
+        <v>336</v>
       </c>
       <c r="C352" s="64"/>
-      <c r="D352" s="60"/>
-      <c r="E352" s="59"/>
-      <c r="F352" s="90"/>
-      <c r="G352" s="62"/>
-      <c r="H352" s="92"/>
-      <c r="I352" s="62"/>
-      <c r="J352" s="63"/>
-      <c r="K352" s="55"/>
-      <c r="L352" s="63"/>
-      <c r="M352" s="65"/>
+      <c r="D352" s="60" t="str">
+        <f t="shared" si="7"/>
+        <v>PK/17P</v>
+      </c>
+      <c r="E352" s="59" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F352" s="90">
+        <v>43041</v>
+      </c>
+      <c r="G352" s="62" t="s">
+        <v>808</v>
+      </c>
+      <c r="H352" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v>4200240380</v>
+      </c>
+      <c r="I352" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="J352" s="63">
+        <v>996136</v>
+      </c>
+      <c r="K352" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="L352" s="63">
+        <f t="shared" si="43"/>
+        <v>99614</v>
+      </c>
+      <c r="M352" s="112">
+        <v>4</v>
+      </c>
       <c r="N352" s="56"/>
       <c r="O352" s="57"/>
     </row>
-    <row r="353" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B353" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C353" s="68"/>
-      <c r="D353" s="69"/>
-      <c r="E353" s="70"/>
-      <c r="F353" s="69"/>
-      <c r="G353" s="69"/>
-      <c r="H353" s="69"/>
-      <c r="I353" s="69"/>
-      <c r="J353" s="71">
-        <f>SUBTOTAL(9,J17:J352)</f>
-        <v>3185034721</v>
-      </c>
-      <c r="K353" s="71"/>
-      <c r="L353" s="71">
-        <f>SUBTOTAL(9,L17:L352)</f>
-        <v>318503469</v>
-      </c>
-      <c r="M353" s="69"/>
-      <c r="N353" s="57"/>
-    </row>
-    <row r="354" spans="2:14" s="66" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B354" s="72"/>
-      <c r="C354" s="73"/>
-      <c r="D354" s="74"/>
-      <c r="E354" s="75"/>
-      <c r="F354" s="74"/>
-      <c r="G354" s="74"/>
-      <c r="H354" s="74"/>
-      <c r="I354" s="74"/>
-      <c r="J354" s="76"/>
-      <c r="K354" s="76"/>
-      <c r="L354" s="76"/>
-      <c r="M354" s="77"/>
-      <c r="N354" s="57"/>
-    </row>
-    <row r="355" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B355" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="C355" s="79"/>
-      <c r="D355" s="79"/>
-      <c r="E355" s="79"/>
-      <c r="F355" s="79"/>
-      <c r="G355" s="79"/>
-      <c r="H355" s="79"/>
-      <c r="I355" s="79"/>
-      <c r="J355" s="80"/>
-      <c r="K355" s="81"/>
-      <c r="L355" s="80"/>
-      <c r="M355" s="82"/>
-      <c r="N355" s="57"/>
-    </row>
-    <row r="356" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B356" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C356" s="68"/>
-      <c r="D356" s="69"/>
-      <c r="E356" s="70"/>
-      <c r="F356" s="69"/>
-      <c r="G356" s="69"/>
-      <c r="H356" s="69"/>
-      <c r="I356" s="69"/>
-      <c r="J356" s="83"/>
-      <c r="K356" s="83"/>
-      <c r="L356" s="83"/>
-      <c r="M356" s="69"/>
-      <c r="N356" s="57"/>
-    </row>
-    <row r="357" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B357" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C357" s="79"/>
-      <c r="D357" s="79"/>
-      <c r="E357" s="79"/>
-      <c r="F357" s="79"/>
-      <c r="G357" s="79"/>
-      <c r="H357" s="79"/>
-      <c r="I357" s="79"/>
-      <c r="J357" s="80"/>
-      <c r="K357" s="81"/>
-      <c r="L357" s="80"/>
-      <c r="M357" s="82"/>
-      <c r="N357" s="57"/>
-    </row>
-    <row r="358" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B358" s="47"/>
-      <c r="C358" s="84"/>
-      <c r="D358" s="84"/>
-      <c r="E358" s="44"/>
-      <c r="F358" s="85"/>
-      <c r="G358" s="84"/>
-      <c r="H358" s="44"/>
-      <c r="I358" s="84"/>
-      <c r="J358" s="86"/>
-      <c r="K358" s="84"/>
-      <c r="L358" s="86"/>
-      <c r="M358" s="84"/>
-      <c r="N358" s="57"/>
-    </row>
-    <row r="359" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B359" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C359" s="68"/>
-      <c r="D359" s="69"/>
-      <c r="E359" s="70"/>
-      <c r="F359" s="69"/>
-      <c r="G359" s="69"/>
-      <c r="H359" s="69"/>
-      <c r="I359" s="69"/>
-      <c r="J359" s="83"/>
-      <c r="K359" s="69"/>
-      <c r="L359" s="83"/>
-      <c r="M359" s="69"/>
-      <c r="N359" s="57"/>
-    </row>
-    <row r="360" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B360" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="C360" s="79"/>
-      <c r="D360" s="79"/>
-      <c r="E360" s="79"/>
-      <c r="F360" s="79"/>
-      <c r="G360" s="79"/>
-      <c r="H360" s="79"/>
-      <c r="I360" s="79"/>
-      <c r="J360" s="80"/>
-      <c r="K360" s="81"/>
-      <c r="L360" s="80"/>
-      <c r="M360" s="82"/>
-      <c r="N360" s="57"/>
-    </row>
-    <row r="361" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B361" s="47"/>
-      <c r="C361" s="84"/>
-      <c r="D361" s="84"/>
-      <c r="E361" s="44"/>
-      <c r="F361" s="85"/>
-      <c r="G361" s="84"/>
-      <c r="H361" s="44"/>
-      <c r="I361" s="84"/>
-      <c r="J361" s="86"/>
-      <c r="K361" s="84"/>
-      <c r="L361" s="86"/>
-      <c r="M361" s="84"/>
-      <c r="N361" s="57"/>
-    </row>
-    <row r="362" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B353" s="48">
+        <f t="shared" si="77"/>
+        <v>337</v>
+      </c>
+      <c r="C353" s="64"/>
+      <c r="D353" s="60" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E353" s="59" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F353" s="90">
+        <v>43042</v>
+      </c>
+      <c r="G353" s="62" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H353" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I353" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="J353" s="63">
+        <v>1363636</v>
+      </c>
+      <c r="K353" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="L353" s="63">
+        <f t="shared" ref="L353:L360" si="78">ROUND(J353*10%,0)</f>
+        <v>136364</v>
+      </c>
+      <c r="M353" s="112">
+        <v>4</v>
+      </c>
+      <c r="N353" s="56"/>
+      <c r="O353" s="57"/>
+    </row>
+    <row r="354" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B354" s="48">
+        <f t="shared" si="77"/>
+        <v>338</v>
+      </c>
+      <c r="C354" s="64"/>
+      <c r="D354" s="60" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E354" s="59" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F354" s="90">
+        <v>43054</v>
+      </c>
+      <c r="G354" s="62" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H354" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I354" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="J354" s="63">
+        <v>1819609</v>
+      </c>
+      <c r="K354" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="L354" s="63">
+        <f t="shared" si="78"/>
+        <v>181961</v>
+      </c>
+      <c r="M354" s="112">
+        <v>4</v>
+      </c>
+      <c r="N354" s="56"/>
+      <c r="O354" s="57"/>
+    </row>
+    <row r="355" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B355" s="48">
+        <f t="shared" si="77"/>
+        <v>339</v>
+      </c>
+      <c r="C355" s="64"/>
+      <c r="D355" s="60" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E355" s="59" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F355" s="90">
+        <v>43054</v>
+      </c>
+      <c r="G355" s="62" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H355" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I355" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="J355" s="63">
+        <v>909091</v>
+      </c>
+      <c r="K355" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="L355" s="63">
+        <f t="shared" si="78"/>
+        <v>90909</v>
+      </c>
+      <c r="M355" s="112">
+        <v>4</v>
+      </c>
+      <c r="N355" s="56"/>
+      <c r="O355" s="57"/>
+    </row>
+    <row r="356" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B356" s="48">
+        <f t="shared" si="6"/>
+        <v>340</v>
+      </c>
+      <c r="C356" s="64"/>
+      <c r="D356" s="60" t="str">
+        <f t="shared" ref="D356:D360" si="79">IF(ISNA(VLOOKUP(G356,DSMV,3,0)),"",VLOOKUP(G356,DSMV,3,0))</f>
+        <v/>
+      </c>
+      <c r="E356" s="59" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F356" s="90">
+        <v>43055</v>
+      </c>
+      <c r="G356" s="62" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H356" s="92" t="str">
+        <f t="shared" ref="H356:H360" si="80">IF(ISNA(VLOOKUP(G356,DSMV,2,0)),"",VLOOKUP(G356,DSMV,2,0))</f>
+        <v/>
+      </c>
+      <c r="I356" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="J356" s="63">
+        <v>1818817</v>
+      </c>
+      <c r="K356" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="L356" s="63">
+        <f t="shared" si="78"/>
+        <v>181882</v>
+      </c>
+      <c r="M356" s="112">
+        <v>4</v>
+      </c>
+      <c r="N356" s="56"/>
+      <c r="O356" s="57"/>
+    </row>
+    <row r="357" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B357" s="48">
+        <f t="shared" ref="B357:B360" si="81">IF(G357&lt;&gt;"",ROW()-16,"")</f>
+        <v>341</v>
+      </c>
+      <c r="C357" s="64"/>
+      <c r="D357" s="60" t="str">
+        <f t="shared" si="79"/>
+        <v>TV/17P</v>
+      </c>
+      <c r="E357" s="59" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F357" s="90">
+        <v>43069</v>
+      </c>
+      <c r="G357" s="62" t="s">
+        <v>890</v>
+      </c>
+      <c r="H357" s="92" t="str">
+        <f t="shared" si="80"/>
+        <v>0104478506</v>
+      </c>
+      <c r="I357" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="J357" s="63">
+        <v>4093637</v>
+      </c>
+      <c r="K357" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="L357" s="63">
+        <f t="shared" si="78"/>
+        <v>409364</v>
+      </c>
+      <c r="M357" s="112">
+        <v>4</v>
+      </c>
+      <c r="N357" s="56"/>
+      <c r="O357" s="57"/>
+    </row>
+    <row r="358" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B358" s="48">
+        <f t="shared" si="81"/>
+        <v>342</v>
+      </c>
+      <c r="C358" s="64"/>
+      <c r="D358" s="60" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="E358" s="59" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F358" s="90">
+        <v>43071</v>
+      </c>
+      <c r="G358" s="62" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H358" s="92" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="I358" s="62" t="s">
+        <v>999</v>
+      </c>
+      <c r="J358" s="63">
+        <v>1745455</v>
+      </c>
+      <c r="K358" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="L358" s="63">
+        <f t="shared" si="78"/>
+        <v>174546</v>
+      </c>
+      <c r="M358" s="112">
+        <v>4</v>
+      </c>
+      <c r="N358" s="56"/>
+      <c r="O358" s="57"/>
+    </row>
+    <row r="359" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B359" s="48" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="C359" s="64"/>
+      <c r="D359" s="60" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="E359" s="59"/>
+      <c r="F359" s="90"/>
+      <c r="G359" s="62"/>
+      <c r="H359" s="92" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="I359" s="62"/>
+      <c r="J359" s="63"/>
+      <c r="K359" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="L359" s="63">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="M359" s="112">
+        <v>4</v>
+      </c>
+      <c r="N359" s="56"/>
+      <c r="O359" s="57"/>
+    </row>
+    <row r="360" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B360" s="48" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="C360" s="64"/>
+      <c r="D360" s="60" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="E360" s="59"/>
+      <c r="F360" s="90"/>
+      <c r="G360" s="62"/>
+      <c r="H360" s="92" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="I360" s="62"/>
+      <c r="J360" s="63"/>
+      <c r="K360" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="L360" s="63">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="M360" s="112">
+        <v>4</v>
+      </c>
+      <c r="N360" s="56"/>
+      <c r="O360" s="57"/>
+    </row>
+    <row r="361" spans="2:15" s="37" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B361" s="48" t="str">
+        <f>IF(G361&lt;&gt;"",ROW()-16,"")</f>
+        <v/>
+      </c>
+      <c r="C361" s="64"/>
+      <c r="D361" s="60"/>
+      <c r="E361" s="59"/>
+      <c r="F361" s="90"/>
+      <c r="G361" s="62"/>
+      <c r="H361" s="92"/>
+      <c r="I361" s="62"/>
+      <c r="J361" s="63"/>
+      <c r="K361" s="55"/>
+      <c r="L361" s="63"/>
+      <c r="M361" s="65"/>
+      <c r="N361" s="56"/>
+      <c r="O361" s="57"/>
+    </row>
+    <row r="362" spans="2:15" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="67" t="s">
         <v>11</v>
       </c>
@@ -19018,45 +19507,51 @@
       <c r="G362" s="69"/>
       <c r="H362" s="69"/>
       <c r="I362" s="69"/>
-      <c r="J362" s="83"/>
-      <c r="K362" s="69"/>
-      <c r="L362" s="83"/>
+      <c r="J362" s="71">
+        <f>SUBTOTAL(9,J17:J361)</f>
+        <v>3696562937</v>
+      </c>
+      <c r="K362" s="71"/>
+      <c r="L362" s="71">
+        <f>SUBTOTAL(9,L17:L361)</f>
+        <v>369656292</v>
+      </c>
       <c r="M362" s="69"/>
       <c r="N362" s="57"/>
     </row>
-    <row r="363" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B363" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="C363" s="79"/>
-      <c r="D363" s="79"/>
-      <c r="E363" s="79"/>
-      <c r="F363" s="79"/>
-      <c r="G363" s="79"/>
-      <c r="H363" s="79"/>
-      <c r="I363" s="79"/>
-      <c r="J363" s="80"/>
-      <c r="K363" s="81"/>
-      <c r="L363" s="80"/>
-      <c r="M363" s="82"/>
+    <row r="363" spans="2:15" s="66" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B363" s="72"/>
+      <c r="C363" s="73"/>
+      <c r="D363" s="74"/>
+      <c r="E363" s="75"/>
+      <c r="F363" s="74"/>
+      <c r="G363" s="74"/>
+      <c r="H363" s="74"/>
+      <c r="I363" s="74"/>
+      <c r="J363" s="76"/>
+      <c r="K363" s="76"/>
+      <c r="L363" s="76"/>
+      <c r="M363" s="77"/>
       <c r="N363" s="57"/>
     </row>
-    <row r="364" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B364" s="47"/>
-      <c r="C364" s="84"/>
-      <c r="D364" s="84"/>
-      <c r="E364" s="44"/>
-      <c r="F364" s="85"/>
-      <c r="G364" s="84"/>
-      <c r="H364" s="44"/>
-      <c r="I364" s="84"/>
-      <c r="J364" s="86"/>
-      <c r="K364" s="84"/>
-      <c r="L364" s="86"/>
-      <c r="M364" s="84"/>
+    <row r="364" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B364" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C364" s="79"/>
+      <c r="D364" s="79"/>
+      <c r="E364" s="79"/>
+      <c r="F364" s="79"/>
+      <c r="G364" s="79"/>
+      <c r="H364" s="79"/>
+      <c r="I364" s="79"/>
+      <c r="J364" s="80"/>
+      <c r="K364" s="81"/>
+      <c r="L364" s="80"/>
+      <c r="M364" s="82"/>
       <c r="N364" s="57"/>
     </row>
-    <row r="365" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:15" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="67" t="s">
         <v>11</v>
       </c>
@@ -19068,115 +19563,262 @@
       <c r="H365" s="69"/>
       <c r="I365" s="69"/>
       <c r="J365" s="83"/>
-      <c r="K365" s="69"/>
+      <c r="K365" s="83"/>
       <c r="L365" s="83"/>
       <c r="M365" s="69"/>
-      <c r="N365" s="87"/>
-    </row>
-    <row r="366" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D366" s="38"/>
-      <c r="E366" s="39"/>
-      <c r="F366" s="37" t="s">
+      <c r="N365" s="57"/>
+    </row>
+    <row r="366" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B366" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C366" s="79"/>
+      <c r="D366" s="79"/>
+      <c r="E366" s="79"/>
+      <c r="F366" s="79"/>
+      <c r="G366" s="79"/>
+      <c r="H366" s="79"/>
+      <c r="I366" s="79"/>
+      <c r="J366" s="80"/>
+      <c r="K366" s="81"/>
+      <c r="L366" s="80"/>
+      <c r="M366" s="82"/>
+      <c r="N366" s="57"/>
+    </row>
+    <row r="367" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B367" s="47"/>
+      <c r="C367" s="84"/>
+      <c r="D367" s="84"/>
+      <c r="E367" s="44"/>
+      <c r="F367" s="85"/>
+      <c r="G367" s="84"/>
+      <c r="H367" s="44"/>
+      <c r="I367" s="84"/>
+      <c r="J367" s="86"/>
+      <c r="K367" s="84"/>
+      <c r="L367" s="86"/>
+      <c r="M367" s="84"/>
+      <c r="N367" s="57"/>
+    </row>
+    <row r="368" spans="2:15" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B368" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C368" s="68"/>
+      <c r="D368" s="69"/>
+      <c r="E368" s="70"/>
+      <c r="F368" s="69"/>
+      <c r="G368" s="69"/>
+      <c r="H368" s="69"/>
+      <c r="I368" s="69"/>
+      <c r="J368" s="83"/>
+      <c r="K368" s="69"/>
+      <c r="L368" s="83"/>
+      <c r="M368" s="69"/>
+      <c r="N368" s="57"/>
+    </row>
+    <row r="369" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B369" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C369" s="79"/>
+      <c r="D369" s="79"/>
+      <c r="E369" s="79"/>
+      <c r="F369" s="79"/>
+      <c r="G369" s="79"/>
+      <c r="H369" s="79"/>
+      <c r="I369" s="79"/>
+      <c r="J369" s="80"/>
+      <c r="K369" s="81"/>
+      <c r="L369" s="80"/>
+      <c r="M369" s="82"/>
+      <c r="N369" s="57"/>
+    </row>
+    <row r="370" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B370" s="47"/>
+      <c r="C370" s="84"/>
+      <c r="D370" s="84"/>
+      <c r="E370" s="44"/>
+      <c r="F370" s="85"/>
+      <c r="G370" s="84"/>
+      <c r="H370" s="44"/>
+      <c r="I370" s="84"/>
+      <c r="J370" s="86"/>
+      <c r="K370" s="84"/>
+      <c r="L370" s="86"/>
+      <c r="M370" s="84"/>
+      <c r="N370" s="57"/>
+    </row>
+    <row r="371" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B371" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C371" s="68"/>
+      <c r="D371" s="69"/>
+      <c r="E371" s="70"/>
+      <c r="F371" s="69"/>
+      <c r="G371" s="69"/>
+      <c r="H371" s="69"/>
+      <c r="I371" s="69"/>
+      <c r="J371" s="83"/>
+      <c r="K371" s="69"/>
+      <c r="L371" s="83"/>
+      <c r="M371" s="69"/>
+      <c r="N371" s="57"/>
+    </row>
+    <row r="372" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B372" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C372" s="79"/>
+      <c r="D372" s="79"/>
+      <c r="E372" s="79"/>
+      <c r="F372" s="79"/>
+      <c r="G372" s="79"/>
+      <c r="H372" s="79"/>
+      <c r="I372" s="79"/>
+      <c r="J372" s="80"/>
+      <c r="K372" s="81"/>
+      <c r="L372" s="80"/>
+      <c r="M372" s="82"/>
+      <c r="N372" s="57"/>
+    </row>
+    <row r="373" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B373" s="47"/>
+      <c r="C373" s="84"/>
+      <c r="D373" s="84"/>
+      <c r="E373" s="44"/>
+      <c r="F373" s="85"/>
+      <c r="G373" s="84"/>
+      <c r="H373" s="44"/>
+      <c r="I373" s="84"/>
+      <c r="J373" s="86"/>
+      <c r="K373" s="84"/>
+      <c r="L373" s="86"/>
+      <c r="M373" s="84"/>
+      <c r="N373" s="57"/>
+    </row>
+    <row r="374" spans="2:14" s="66" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B374" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C374" s="68"/>
+      <c r="D374" s="69"/>
+      <c r="E374" s="70"/>
+      <c r="F374" s="69"/>
+      <c r="G374" s="69"/>
+      <c r="H374" s="69"/>
+      <c r="I374" s="69"/>
+      <c r="J374" s="83"/>
+      <c r="K374" s="69"/>
+      <c r="L374" s="83"/>
+      <c r="M374" s="69"/>
+      <c r="N374" s="87"/>
+    </row>
+    <row r="375" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="D375" s="38"/>
+      <c r="E375" s="39"/>
+      <c r="F375" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="G366" s="38"/>
-      <c r="H366" s="87">
-        <f>J353</f>
-        <v>3185034721</v>
-      </c>
-      <c r="I366" s="38"/>
-      <c r="K366" s="40"/>
-      <c r="M366" s="38"/>
-      <c r="N366" s="57"/>
-    </row>
-    <row r="367" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D367" s="38"/>
-      <c r="E367" s="39"/>
-      <c r="F367" s="37" t="s">
+      <c r="G375" s="38"/>
+      <c r="H375" s="87">
+        <f>J362</f>
+        <v>3696562937</v>
+      </c>
+      <c r="I375" s="38"/>
+      <c r="K375" s="40"/>
+      <c r="M375" s="38"/>
+      <c r="N375" s="57"/>
+    </row>
+    <row r="376" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="D376" s="38"/>
+      <c r="E376" s="39"/>
+      <c r="F376" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="G367" s="38"/>
-      <c r="H367" s="87">
-        <f>L353</f>
-        <v>318503469</v>
-      </c>
-      <c r="I367" s="38"/>
-      <c r="K367" s="40"/>
-      <c r="M367" s="38"/>
-      <c r="N367" s="57"/>
-    </row>
-    <row r="368" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B368" s="88"/>
-      <c r="C368" s="88"/>
-      <c r="D368" s="38"/>
-      <c r="E368" s="39"/>
-      <c r="F368" s="38"/>
-      <c r="G368" s="38"/>
-      <c r="H368" s="38"/>
-      <c r="I368" s="38"/>
-      <c r="J368" s="115" t="str">
+      <c r="G376" s="38"/>
+      <c r="H376" s="87">
+        <f>L362</f>
+        <v>369656292</v>
+      </c>
+      <c r="I376" s="38"/>
+      <c r="K376" s="40"/>
+      <c r="M376" s="38"/>
+      <c r="N376" s="57"/>
+    </row>
+    <row r="377" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B377" s="88"/>
+      <c r="C377" s="88"/>
+      <c r="D377" s="38"/>
+      <c r="E377" s="39"/>
+      <c r="F377" s="38"/>
+      <c r="G377" s="38"/>
+      <c r="H377" s="38"/>
+      <c r="I377" s="38"/>
+      <c r="J377" s="115" t="str">
         <f>"Bình Dương, "&amp;IF($O$14=1,"Ngày 31 Tháng 03  ",IF($O$14=2,"Ngày 30 Tháng 06  ",IF($O$14=3,"Ngày 30 Tháng 09  ",IF($O$14=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR(F17)</f>
         <v>Bình Dương, Ngày 30 Tháng 06  Năm  2017</v>
       </c>
-      <c r="K368" s="115"/>
-      <c r="N368" s="57"/>
-    </row>
-    <row r="369" spans="4:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D369" s="38"/>
-      <c r="E369" s="39"/>
-      <c r="F369" s="38"/>
-      <c r="G369" s="38"/>
-      <c r="H369" s="38"/>
-      <c r="I369" s="38"/>
-      <c r="J369" s="113" t="s">
+      <c r="K377" s="115"/>
+      <c r="N377" s="57"/>
+    </row>
+    <row r="378" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="D378" s="38"/>
+      <c r="E378" s="39"/>
+      <c r="F378" s="38"/>
+      <c r="G378" s="38"/>
+      <c r="H378" s="38"/>
+      <c r="I378" s="38"/>
+      <c r="J378" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="K369" s="113"/>
-      <c r="L369" s="113"/>
-      <c r="M369" s="113"/>
-    </row>
-    <row r="370" spans="4:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D370" s="38"/>
-      <c r="E370" s="39"/>
-      <c r="F370" s="38"/>
-      <c r="G370" s="38"/>
-      <c r="H370" s="38"/>
-      <c r="I370" s="38"/>
-      <c r="J370" s="113" t="s">
+      <c r="K378" s="113"/>
+      <c r="L378" s="113"/>
+      <c r="M378" s="113"/>
+    </row>
+    <row r="379" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="D379" s="38"/>
+      <c r="E379" s="39"/>
+      <c r="F379" s="38"/>
+      <c r="G379" s="38"/>
+      <c r="H379" s="38"/>
+      <c r="I379" s="38"/>
+      <c r="J379" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="K370" s="113"/>
-      <c r="L370" s="113"/>
-      <c r="M370" s="113"/>
-    </row>
-    <row r="371" spans="4:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D371" s="38"/>
-      <c r="E371" s="39"/>
-      <c r="F371" s="38"/>
-      <c r="G371" s="38"/>
-      <c r="H371" s="38"/>
-      <c r="I371" s="38"/>
-      <c r="J371" s="113" t="s">
+      <c r="K379" s="113"/>
+      <c r="L379" s="113"/>
+      <c r="M379" s="113"/>
+    </row>
+    <row r="380" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="D380" s="38"/>
+      <c r="E380" s="39"/>
+      <c r="F380" s="38"/>
+      <c r="G380" s="38"/>
+      <c r="H380" s="38"/>
+      <c r="I380" s="38"/>
+      <c r="J380" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="K371" s="113"/>
-      <c r="L371" s="113"/>
-      <c r="M371" s="113"/>
-    </row>
-    <row r="372" spans="4:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D372" s="38"/>
-      <c r="E372" s="39"/>
-      <c r="F372" s="38"/>
-      <c r="G372" s="38"/>
-      <c r="H372" s="38"/>
-      <c r="I372" s="38"/>
-      <c r="K372" s="40"/>
-      <c r="M372" s="38"/>
-    </row>
-    <row r="373" spans="4:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="374" spans="4:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="K380" s="113"/>
+      <c r="L380" s="113"/>
+      <c r="M380" s="113"/>
+    </row>
+    <row r="381" spans="2:14" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="D381" s="38"/>
+      <c r="E381" s="39"/>
+      <c r="F381" s="38"/>
+      <c r="G381" s="38"/>
+      <c r="H381" s="38"/>
+      <c r="I381" s="38"/>
+      <c r="K381" s="40"/>
+      <c r="M381" s="38"/>
+    </row>
+    <row r="382" spans="2:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="383" spans="2:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A15:O352" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A15:O361">
     <filterColumn colId="12">
       <filters>
         <filter val="4"/>
@@ -19187,6 +19829,11 @@
     <sortCondition ref="F181:F191"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B11:M11"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
@@ -19196,11 +19843,6 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.14000000000000001" bottom="0" header="0.5" footer="0"/>
@@ -19212,16 +19854,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1">
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:P382"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="14" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="E265" sqref="E265:E359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19275,66 +19917,66 @@
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:14" s="15" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="174"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="179"/>
     </row>
     <row r="5" spans="1:14" s="15" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="175"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="180"/>
     </row>
     <row r="6" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="176"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
     </row>
     <row r="7" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="176" t="e">
+      <c r="B7" s="181" t="e">
         <f>"Kỳ tính thuế: Quý "&amp;N14&amp;" Năm "&amp;YEAR(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
     </row>
     <row r="8" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
@@ -19358,62 +20000,62 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
     </row>
     <row r="12" spans="1:14" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="180"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180" t="s">
+      <c r="C12" s="178"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="180" t="s">
+      <c r="H12" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="180" t="s">
+      <c r="I12" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="180" t="s">
+      <c r="J12" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="180" t="s">
+      <c r="K12" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="180" t="s">
+      <c r="L12" s="178" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="15" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="180"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="178"/>
     </row>
     <row r="14" spans="1:14" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="180"/>
+      <c r="B14" s="178"/>
       <c r="C14" s="114" t="s">
         <v>43</v>
       </c>
@@ -19426,12 +20068,12 @@
       <c r="F14" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="180"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="180"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="178"/>
       <c r="N14" s="116">
         <v>2</v>
       </c>
@@ -19472,16 +20114,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="177" t="s">
+      <c r="B16" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="21"/>
@@ -19515,16 +20157,16 @@
       <c r="L18" s="23"/>
     </row>
     <row r="19" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="177" t="s">
+      <c r="B19" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="25"/>
@@ -19558,16 +20200,16 @@
       <c r="L21" s="23"/>
     </row>
     <row r="22" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="177" t="s">
+      <c r="B22" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="178"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="176"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="25"/>
@@ -19615,7 +20257,7 @@
       <c r="K25" s="26"/>
       <c r="L25" s="27"/>
     </row>
-    <row r="26" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <f>IF(G26&lt;&gt;"",ROW()-25,"")</f>
         <v>1</v>
@@ -19652,7 +20294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <f t="shared" ref="B27:B91" si="1">IF(G27&lt;&gt;"",ROW()-25,"")</f>
         <v>2</v>
@@ -19689,7 +20331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -19726,7 +20368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -19763,7 +20405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -19800,7 +20442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -19837,7 +20479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -19874,7 +20516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -19911,7 +20553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -19948,7 +20590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -19985,7 +20627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="9">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -20022,7 +20664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -20059,7 +20701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="9">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -20096,7 +20738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -20133,7 +20775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -20170,7 +20812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -20194,7 +20836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="9">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -20231,7 +20873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -20268,7 +20910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="9">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -20305,7 +20947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -20342,7 +20984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="9">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -20379,7 +21021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -20416,7 +21058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="9">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -20453,7 +21095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="9">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -20490,7 +21132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -20527,7 +21169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -20554,7 +21196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -20581,7 +21223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -20608,7 +21250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -20645,7 +21287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -20682,7 +21324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -20709,7 +21351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -20746,7 +21388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="9">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -20783,7 +21425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -20820,7 +21462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="9">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -20857,7 +21499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -20884,7 +21526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="9">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -20921,7 +21563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="9">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -20958,7 +21600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="9">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -20995,7 +21637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -21032,7 +21674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="9">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -21069,7 +21711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="9">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -21106,7 +21748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="9">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -21143,7 +21785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="9">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -21180,7 +21822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="9">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -21217,7 +21859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="9">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -21254,7 +21896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -21281,7 +21923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="9">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -21318,7 +21960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="9">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -21355,7 +21997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="9">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -21392,7 +22034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="9">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -21429,7 +22071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="9">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -21466,7 +22108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="9">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -21503,7 +22145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -21540,7 +22182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="9">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -21577,7 +22219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="9">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -21614,7 +22256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -21641,7 +22283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -21678,7 +22320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="9">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -21715,7 +22357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="9">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -21752,7 +22394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="9">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -21789,7 +22431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="9">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -21826,7 +22468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="9">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -21863,7 +22505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -21890,7 +22532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -21917,7 +22559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="9">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -21954,7 +22596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="9">
         <f t="shared" ref="B92:B155" si="3">IF(G92&lt;&gt;"",ROW()-25,"")</f>
         <v>67</v>
@@ -21991,7 +22633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="9">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -22028,7 +22670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="9">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -22065,7 +22707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="9">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -22102,7 +22744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="9">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -22139,7 +22781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="9">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -22177,7 +22819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -22207,7 +22849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="9">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -22245,7 +22887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="9">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -22283,7 +22925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -22313,7 +22955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="9">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -22351,7 +22993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="9">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -22389,7 +23031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -22419,7 +23061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -22449,7 +23091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="9">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -22487,7 +23129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -22517,7 +23159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="9">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -22555,7 +23197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="9">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -22593,7 +23235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -22623,7 +23265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -22653,7 +23295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="9">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -22691,7 +23333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="9">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -22729,7 +23371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="9">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -22767,7 +23409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -22794,7 +23436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="9">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -22832,7 +23474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="9">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -22870,7 +23512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -22897,7 +23539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="9">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -22935,7 +23577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="9">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -22973,7 +23615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -23000,7 +23642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="9">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -23038,7 +23680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="9">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -23076,7 +23718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -23106,7 +23748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="9">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -23144,7 +23786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="9">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -23182,7 +23824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="9">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -23220,7 +23862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="9">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -23258,7 +23900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="9">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -23296,7 +23938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="9">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -23334,7 +23976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="2:12" s="133" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:12" s="133" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="9">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -23372,7 +24014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="9">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -23410,7 +24052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="9">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -23448,7 +24090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="9">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -23486,7 +24128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -23516,7 +24158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -23546,7 +24188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -23576,7 +24218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="9">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -23614,7 +24256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="9">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -23652,7 +24294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="9">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -23690,7 +24332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="9">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -23728,7 +24370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="9">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -23766,7 +24408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="9">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -23804,7 +24446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -23834,7 +24476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="9">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -23872,7 +24514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="9">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -23910,7 +24552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="9">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -23948,7 +24590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="9">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -23986,7 +24628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="9">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -24024,7 +24666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="9">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -24062,7 +24704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="9">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -24100,7 +24742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="9">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -24138,7 +24780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="9">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -24176,7 +24818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="9">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -24214,7 +24856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="9">
         <f t="shared" si="3"/>
         <v>130</v>
@@ -24252,7 +24894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="9">
         <f t="shared" ref="B156:B219" si="9">IF(G156&lt;&gt;"",ROW()-25,"")</f>
         <v>131</v>
@@ -24290,7 +24932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="9">
         <f t="shared" si="9"/>
         <v>132</v>
@@ -24328,7 +24970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="9">
         <f t="shared" si="9"/>
         <v>133</v>
@@ -24366,7 +25008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="9">
         <f t="shared" si="9"/>
         <v>134</v>
@@ -24404,7 +25046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="9">
         <f t="shared" si="9"/>
         <v>135</v>
@@ -24442,7 +25084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="9">
         <f t="shared" si="9"/>
         <v>136</v>
@@ -24480,7 +25122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="9">
         <f t="shared" si="9"/>
         <v>137</v>
@@ -24518,7 +25160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="9">
         <f t="shared" si="9"/>
         <v>138</v>
@@ -24556,7 +25198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="9">
         <f t="shared" si="9"/>
         <v>139</v>
@@ -24594,7 +25236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="9">
         <f t="shared" si="9"/>
         <v>140</v>
@@ -24632,7 +25274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="9">
         <f t="shared" si="9"/>
         <v>141</v>
@@ -24670,7 +25312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -24700,7 +25342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -24730,7 +25372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="9">
         <f t="shared" si="9"/>
         <v>144</v>
@@ -24765,7 +25407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -24795,7 +25437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -24825,7 +25467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -24855,7 +25497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="9">
         <f t="shared" si="9"/>
         <v>148</v>
@@ -24893,7 +25535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="9">
         <f t="shared" si="9"/>
         <v>149</v>
@@ -24931,7 +25573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -24961,7 +25603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="9">
         <f t="shared" si="9"/>
         <v>151</v>
@@ -24999,7 +25641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -25029,7 +25671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="9">
         <f t="shared" si="9"/>
         <v>153</v>
@@ -25067,7 +25709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="9">
         <f t="shared" si="9"/>
         <v>154</v>
@@ -25105,7 +25747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="9">
         <f t="shared" si="9"/>
         <v>155</v>
@@ -25143,7 +25785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="9">
         <f t="shared" si="9"/>
         <v>156</v>
@@ -25181,7 +25823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -25211,7 +25853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="9">
         <f t="shared" si="9"/>
         <v>158</v>
@@ -25249,7 +25891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="9">
         <f t="shared" si="9"/>
         <v>159</v>
@@ -25287,7 +25929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="9">
         <f t="shared" si="9"/>
         <v>160</v>
@@ -25325,7 +25967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -25355,7 +25997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="9">
         <f t="shared" si="9"/>
         <v>162</v>
@@ -25393,7 +26035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="9">
         <f t="shared" si="9"/>
         <v>163</v>
@@ -25431,7 +26073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="9">
         <f t="shared" si="9"/>
         <v>164</v>
@@ -25469,7 +26111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="9">
         <f t="shared" si="9"/>
         <v>165</v>
@@ -25507,7 +26149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="9">
         <f t="shared" si="9"/>
         <v>166</v>
@@ -25545,7 +26187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="9">
         <f t="shared" si="9"/>
         <v>167</v>
@@ -25583,7 +26225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="9">
         <f t="shared" si="9"/>
         <v>168</v>
@@ -25621,7 +26263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="9">
         <f t="shared" si="9"/>
         <v>169</v>
@@ -25659,7 +26301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="9">
         <f t="shared" si="9"/>
         <v>170</v>
@@ -25697,7 +26339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="9">
         <f t="shared" si="9"/>
         <v>171</v>
@@ -25735,7 +26377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="9">
         <f t="shared" si="9"/>
         <v>172</v>
@@ -25773,7 +26415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="9">
         <f t="shared" si="9"/>
         <v>173</v>
@@ -25811,7 +26453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="9">
         <f t="shared" si="9"/>
         <v>174</v>
@@ -25849,7 +26491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="9">
         <f t="shared" si="9"/>
         <v>175</v>
@@ -25887,7 +26529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="9">
         <f t="shared" si="9"/>
         <v>176</v>
@@ -25925,7 +26567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="9">
         <f t="shared" si="9"/>
         <v>177</v>
@@ -25963,7 +26605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="9">
         <f t="shared" si="9"/>
         <v>178</v>
@@ -26001,7 +26643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="9">
         <f t="shared" si="9"/>
         <v>179</v>
@@ -26039,7 +26681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="9">
         <f t="shared" si="9"/>
         <v>180</v>
@@ -26077,7 +26719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="9">
         <f t="shared" si="9"/>
         <v>181</v>
@@ -26115,7 +26757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="9">
         <f t="shared" si="9"/>
         <v>182</v>
@@ -26153,7 +26795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="9">
         <f t="shared" si="9"/>
         <v>183</v>
@@ -26191,7 +26833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="9">
         <f t="shared" si="9"/>
         <v>184</v>
@@ -26229,7 +26871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="9">
         <f t="shared" si="9"/>
         <v>185</v>
@@ -26267,7 +26909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="9">
         <f t="shared" si="9"/>
         <v>186</v>
@@ -26305,7 +26947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="9">
         <f t="shared" si="9"/>
         <v>187</v>
@@ -26343,7 +26985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="9">
         <f t="shared" si="9"/>
         <v>188</v>
@@ -26381,7 +27023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="9">
         <f t="shared" si="9"/>
         <v>189</v>
@@ -26419,7 +27061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="9">
         <f t="shared" si="9"/>
         <v>190</v>
@@ -26457,7 +27099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -26487,7 +27129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="9">
         <f t="shared" si="9"/>
         <v>192</v>
@@ -26525,7 +27167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="9">
         <f t="shared" si="9"/>
         <v>193</v>
@@ -26563,7 +27205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="9">
         <f t="shared" si="9"/>
         <v>194</v>
@@ -26601,7 +27243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="9">
         <f t="shared" ref="B220:B299" si="24">IF(G220&lt;&gt;"",ROW()-25,"")</f>
         <v>195</v>
@@ -26639,7 +27281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="9">
         <f t="shared" si="24"/>
         <v>196</v>
@@ -26677,7 +27319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="9">
         <f t="shared" si="24"/>
         <v>197</v>
@@ -26715,7 +27357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="9">
         <f t="shared" si="24"/>
         <v>198</v>
@@ -26753,7 +27395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="9">
         <f t="shared" si="24"/>
         <v>199</v>
@@ -26791,7 +27433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="9" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -26821,7 +27463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="9" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -26851,7 +27493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="9">
         <f t="shared" si="24"/>
         <v>202</v>
@@ -26889,7 +27531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="9">
         <f t="shared" si="24"/>
         <v>203</v>
@@ -26927,7 +27569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="9">
         <f t="shared" si="24"/>
         <v>204</v>
@@ -26965,7 +27607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="9">
         <f t="shared" si="24"/>
         <v>205</v>
@@ -27003,7 +27645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="9">
         <f t="shared" si="24"/>
         <v>206</v>
@@ -27041,7 +27683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="9">
         <f t="shared" si="24"/>
         <v>207</v>
@@ -27079,7 +27721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="9">
         <f t="shared" si="24"/>
         <v>208</v>
@@ -27117,7 +27759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="9">
         <f t="shared" si="24"/>
         <v>209</v>
@@ -27155,7 +27797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="9">
         <f t="shared" si="24"/>
         <v>210</v>
@@ -27193,7 +27835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="9">
         <f t="shared" si="24"/>
         <v>211</v>
@@ -27231,7 +27873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="9" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -27261,7 +27903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="9">
         <f t="shared" si="24"/>
         <v>213</v>
@@ -27299,7 +27941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="9">
         <f t="shared" si="24"/>
         <v>214</v>
@@ -27337,7 +27979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="9">
         <f t="shared" si="24"/>
         <v>215</v>
@@ -27375,7 +28017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="9">
         <f t="shared" si="24"/>
         <v>216</v>
@@ -27413,7 +28055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="9">
         <f t="shared" si="24"/>
         <v>217</v>
@@ -27451,7 +28093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="9">
         <f t="shared" si="24"/>
         <v>218</v>
@@ -27489,7 +28131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="9">
         <f t="shared" si="24"/>
         <v>219</v>
@@ -27527,7 +28169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="9">
         <f t="shared" si="24"/>
         <v>220</v>
@@ -27565,7 +28207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="9">
         <f t="shared" si="24"/>
         <v>221</v>
@@ -27603,7 +28245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="9">
         <f t="shared" si="24"/>
         <v>222</v>
@@ -27641,7 +28283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="9">
         <f t="shared" si="24"/>
         <v>223</v>
@@ -27679,7 +28321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="9">
         <f t="shared" si="24"/>
         <v>224</v>
@@ -27717,7 +28359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="9" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -27747,7 +28389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="9">
         <f t="shared" si="24"/>
         <v>226</v>
@@ -27785,7 +28427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="9">
         <f t="shared" si="24"/>
         <v>227</v>
@@ -27823,7 +28465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="9">
         <f t="shared" si="24"/>
         <v>228</v>
@@ -27861,7 +28503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="9">
         <f t="shared" si="24"/>
         <v>229</v>
@@ -32149,7 +32791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="2:16" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:16" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="148" t="str">
         <f t="shared" si="34"/>
         <v/>
@@ -32181,30 +32823,30 @@
       <c r="I371" s="28"/>
       <c r="J371" s="29">
         <f>SUBTOTAL(9,J26:J370)</f>
-        <v>10185565719</v>
+        <v>3528570668</v>
       </c>
       <c r="K371" s="29">
         <f>SUBTOTAL(9,K26:K370)</f>
-        <v>1016987079</v>
+        <v>352857071</v>
       </c>
       <c r="L371" s="30"/>
     </row>
     <row r="372" spans="2:16" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="373" spans="2:16" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B373" s="177" t="s">
+      <c r="B373" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="C373" s="178"/>
-      <c r="D373" s="178"/>
-      <c r="E373" s="178"/>
-      <c r="F373" s="178"/>
-      <c r="G373" s="178"/>
-      <c r="H373" s="178"/>
-      <c r="I373" s="178"/>
+      <c r="C373" s="176"/>
+      <c r="D373" s="176"/>
+      <c r="E373" s="176"/>
+      <c r="F373" s="176"/>
+      <c r="G373" s="176"/>
+      <c r="H373" s="176"/>
+      <c r="I373" s="176"/>
       <c r="J373" s="20"/>
       <c r="K373" s="20"/>
       <c r="L373" s="25"/>
-      <c r="M373" s="209"/>
+      <c r="M373" s="163"/>
     </row>
     <row r="374" spans="2:16" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="8"/>
@@ -32245,7 +32887,7 @@
       <c r="G376" s="16"/>
       <c r="H376" s="87">
         <f>J371</f>
-        <v>10185565719</v>
+        <v>3528570668</v>
       </c>
       <c r="I376" s="16"/>
       <c r="L376" s="16"/>
@@ -32260,7 +32902,7 @@
       <c r="G377" s="16"/>
       <c r="H377" s="87">
         <f>K371</f>
-        <v>1016987079</v>
+        <v>352857071</v>
       </c>
       <c r="I377" s="16"/>
       <c r="L377" s="16"/>
@@ -32326,8 +32968,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A25:N370" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A25:N370">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B19:I19"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B373:I373"/>
     <mergeCell ref="B11:L11"/>
@@ -32340,11 +32993,6 @@
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B19:I19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -32356,7 +33004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -32382,23 +33030,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="191"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="187"/>
       <c r="R2" s="11" t="s">
         <v>311</v>
       </c>
@@ -32407,23 +33055,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="193"/>
-      <c r="P3" s="194"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="190"/>
       <c r="R3" s="11" t="s">
         <v>116</v>
       </c>
@@ -32433,22 +33081,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="94"/>
-      <c r="C4" s="185" t="s">
+      <c r="C4" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="185"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="186"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="182"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="191"/>
       <c r="R4" s="11" t="s">
         <v>108</v>
       </c>
@@ -32458,22 +33106,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="94"/>
-      <c r="C5" s="185" t="s">
+      <c r="C5" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="185"/>
-      <c r="L5" s="185"/>
-      <c r="M5" s="185"/>
-      <c r="N5" s="185"/>
-      <c r="O5" s="185"/>
-      <c r="P5" s="186"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="191"/>
       <c r="R5" s="11" t="s">
         <v>95</v>
       </c>
@@ -32484,21 +33132,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="94"/>
       <c r="C6" s="95"/>
-      <c r="D6" s="185" t="s">
+      <c r="D6" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="181"/>
-      <c r="O6" s="181"/>
-      <c r="P6" s="182"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="184"/>
       <c r="R6" s="11" t="s">
         <v>114</v>
       </c>
@@ -32509,21 +33157,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="94"/>
       <c r="C7" s="95"/>
-      <c r="D7" s="185" t="s">
+      <c r="D7" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="181"/>
-      <c r="O7" s="181"/>
-      <c r="P7" s="182"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="184"/>
       <c r="R7" s="11" t="s">
         <v>121</v>
       </c>
@@ -32534,21 +33182,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="94"/>
       <c r="C8" s="95"/>
-      <c r="D8" s="185" t="s">
+      <c r="D8" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="181"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="181"/>
-      <c r="O8" s="181"/>
-      <c r="P8" s="182"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="183"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="184"/>
       <c r="R8" s="11" t="s">
         <v>314</v>
       </c>
@@ -32559,21 +33207,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="94"/>
       <c r="C9" s="95"/>
-      <c r="D9" s="185" t="s">
+      <c r="D9" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="181"/>
-      <c r="P9" s="182"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="183"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="183"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="184"/>
       <c r="R9" s="11" t="s">
         <v>126</v>
       </c>
@@ -32584,21 +33232,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="94"/>
       <c r="C10" s="95"/>
-      <c r="D10" s="185" t="s">
+      <c r="D10" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="182"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="184"/>
       <c r="R10" s="11" t="s">
         <v>94</v>
       </c>
@@ -32608,22 +33256,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="94"/>
-      <c r="C11" s="185" t="s">
+      <c r="C11" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="185"/>
-      <c r="L11" s="185"/>
-      <c r="M11" s="185"/>
-      <c r="N11" s="185"/>
-      <c r="O11" s="185"/>
-      <c r="P11" s="186"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="182"/>
+      <c r="M11" s="182"/>
+      <c r="N11" s="182"/>
+      <c r="O11" s="182"/>
+      <c r="P11" s="191"/>
       <c r="R11" s="11" t="s">
         <v>90</v>
       </c>
@@ -32633,22 +33281,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="94"/>
-      <c r="C12" s="185" t="s">
+      <c r="C12" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="185"/>
-      <c r="J12" s="185"/>
-      <c r="K12" s="185"/>
-      <c r="L12" s="185"/>
-      <c r="M12" s="185"/>
-      <c r="N12" s="185"/>
-      <c r="O12" s="185"/>
-      <c r="P12" s="186"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="182"/>
+      <c r="M12" s="182"/>
+      <c r="N12" s="182"/>
+      <c r="O12" s="182"/>
+      <c r="P12" s="191"/>
       <c r="R12" s="11" t="s">
         <v>119</v>
       </c>
@@ -32680,23 +33328,23 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="193"/>
-      <c r="L14" s="193"/>
-      <c r="M14" s="193"/>
-      <c r="N14" s="193"/>
-      <c r="O14" s="193"/>
-      <c r="P14" s="194"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="190"/>
       <c r="R14" s="11" t="s">
         <v>103</v>
       </c>
@@ -32706,22 +33354,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="94"/>
-      <c r="C15" s="185" t="s">
+      <c r="C15" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="185"/>
-      <c r="L15" s="185"/>
-      <c r="M15" s="185"/>
-      <c r="N15" s="185"/>
-      <c r="O15" s="185"/>
-      <c r="P15" s="186"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="182"/>
+      <c r="M15" s="182"/>
+      <c r="N15" s="182"/>
+      <c r="O15" s="182"/>
+      <c r="P15" s="191"/>
       <c r="R15" s="11" t="s">
         <v>122</v>
       </c>
@@ -32732,21 +33380,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="94"/>
       <c r="C16" s="97"/>
-      <c r="D16" s="181" t="s">
+      <c r="D16" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="181"/>
-      <c r="L16" s="181"/>
-      <c r="M16" s="181"/>
-      <c r="N16" s="181"/>
-      <c r="O16" s="181"/>
-      <c r="P16" s="182"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="183"/>
+      <c r="L16" s="183"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="183"/>
+      <c r="O16" s="183"/>
+      <c r="P16" s="184"/>
       <c r="R16" s="11" t="s">
         <v>120</v>
       </c>
@@ -32782,21 +33430,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
-      <c r="D18" s="181" t="s">
+      <c r="D18" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="181"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="181"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="181"/>
-      <c r="P18" s="182"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="184"/>
       <c r="R18" s="11" t="s">
         <v>313</v>
       </c>
@@ -32807,21 +33455,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
-      <c r="D19" s="181" t="s">
+      <c r="D19" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="181"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="181"/>
-      <c r="O19" s="181"/>
-      <c r="P19" s="182"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="183"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="183"/>
+      <c r="O19" s="183"/>
+      <c r="P19" s="184"/>
       <c r="R19" s="11" t="s">
         <v>93</v>
       </c>
@@ -32832,21 +33480,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
-      <c r="D20" s="181" t="s">
+      <c r="D20" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="181"/>
-      <c r="L20" s="181"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="181"/>
-      <c r="P20" s="182"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="183"/>
+      <c r="O20" s="183"/>
+      <c r="P20" s="184"/>
       <c r="R20" s="11" t="s">
         <v>123</v>
       </c>
@@ -32857,21 +33505,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
-      <c r="D21" s="181" t="s">
+      <c r="D21" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="181"/>
-      <c r="K21" s="181"/>
-      <c r="L21" s="181"/>
-      <c r="M21" s="181"/>
-      <c r="N21" s="181"/>
-      <c r="O21" s="181"/>
-      <c r="P21" s="182"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="183"/>
+      <c r="P21" s="184"/>
       <c r="R21" s="11" t="s">
         <v>125</v>
       </c>
@@ -32882,21 +33530,21 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="94"/>
       <c r="C22" s="95"/>
-      <c r="D22" s="181" t="s">
+      <c r="D22" s="183" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="181"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="181"/>
-      <c r="P22" s="182"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="183"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="184"/>
       <c r="R22" s="11" t="s">
         <v>315</v>
       </c>
@@ -32907,21 +33555,21 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="94"/>
       <c r="C23" s="95"/>
-      <c r="D23" s="181" t="s">
+      <c r="D23" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="181"/>
-      <c r="P23" s="182"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="183"/>
+      <c r="O23" s="183"/>
+      <c r="P23" s="184"/>
       <c r="R23" s="11" t="s">
         <v>118</v>
       </c>
@@ -32932,21 +33580,21 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
-      <c r="D24" s="181" t="s">
+      <c r="D24" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="181"/>
-      <c r="L24" s="181"/>
-      <c r="M24" s="181"/>
-      <c r="N24" s="181"/>
-      <c r="O24" s="181"/>
-      <c r="P24" s="182"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="184"/>
       <c r="R24" s="11" t="s">
         <v>117</v>
       </c>
@@ -32957,21 +33605,21 @@
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
-      <c r="D25" s="181" t="s">
+      <c r="D25" s="183" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="181"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="181"/>
-      <c r="M25" s="181"/>
-      <c r="N25" s="181"/>
-      <c r="O25" s="181"/>
-      <c r="P25" s="182"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="184"/>
       <c r="R25" s="11" t="s">
         <v>127</v>
       </c>
@@ -32982,21 +33630,21 @@
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
-      <c r="D26" s="181" t="s">
+      <c r="D26" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="181"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="181"/>
-      <c r="L26" s="181"/>
-      <c r="M26" s="181"/>
-      <c r="N26" s="181"/>
-      <c r="O26" s="181"/>
-      <c r="P26" s="182"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="184"/>
       <c r="R26" s="11" t="s">
         <v>128</v>
       </c>
@@ -33029,22 +33677,22 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="94"/>
-      <c r="C28" s="185" t="s">
+      <c r="C28" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="185"/>
-      <c r="K28" s="185"/>
-      <c r="L28" s="185"/>
-      <c r="M28" s="185"/>
-      <c r="N28" s="185"/>
-      <c r="O28" s="185"/>
-      <c r="P28" s="186"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="182"/>
+      <c r="O28" s="182"/>
+      <c r="P28" s="191"/>
       <c r="R28" s="11" t="s">
         <v>130</v>
       </c>
@@ -33055,21 +33703,21 @@
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
-      <c r="D29" s="181" t="s">
+      <c r="D29" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="181"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="181"/>
-      <c r="P29" s="182"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="184"/>
       <c r="R29" s="11" t="s">
         <v>135</v>
       </c>
@@ -33080,21 +33728,21 @@
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="94"/>
       <c r="C30" s="95"/>
-      <c r="D30" s="181" t="s">
+      <c r="D30" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="181"/>
-      <c r="L30" s="181"/>
-      <c r="M30" s="181"/>
-      <c r="N30" s="181"/>
-      <c r="O30" s="181"/>
-      <c r="P30" s="182"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="183"/>
+      <c r="L30" s="183"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="183"/>
+      <c r="P30" s="184"/>
       <c r="R30" s="11" t="s">
         <v>136</v>
       </c>
@@ -33105,21 +33753,21 @@
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="94"/>
       <c r="C31" s="95"/>
-      <c r="D31" s="181" t="s">
+      <c r="D31" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="181"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="181"/>
-      <c r="M31" s="181"/>
-      <c r="N31" s="181"/>
-      <c r="O31" s="181"/>
-      <c r="P31" s="182"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="183"/>
+      <c r="O31" s="183"/>
+      <c r="P31" s="184"/>
       <c r="R31" s="11" t="s">
         <v>137</v>
       </c>
@@ -33130,21 +33778,21 @@
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="94"/>
       <c r="C32" s="95"/>
-      <c r="D32" s="181" t="s">
+      <c r="D32" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="181"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="181"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="181"/>
-      <c r="L32" s="181"/>
-      <c r="M32" s="181"/>
-      <c r="N32" s="181"/>
-      <c r="O32" s="181"/>
-      <c r="P32" s="182"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="183"/>
+      <c r="L32" s="183"/>
+      <c r="M32" s="183"/>
+      <c r="N32" s="183"/>
+      <c r="O32" s="183"/>
+      <c r="P32" s="184"/>
       <c r="R32" s="11" t="s">
         <v>112</v>
       </c>
@@ -33155,21 +33803,21 @@
     <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="94"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="187" t="s">
+      <c r="D33" s="194" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="187"/>
-      <c r="L33" s="187"/>
-      <c r="M33" s="187"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="187"/>
-      <c r="P33" s="188"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="194"/>
+      <c r="O33" s="194"/>
+      <c r="P33" s="195"/>
       <c r="R33" s="11" t="s">
         <v>111</v>
       </c>
@@ -33180,21 +33828,21 @@
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="100"/>
       <c r="C34" s="101"/>
-      <c r="D34" s="183" t="s">
+      <c r="D34" s="192" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="183"/>
-      <c r="L34" s="183"/>
-      <c r="M34" s="183"/>
-      <c r="N34" s="183"/>
-      <c r="O34" s="183"/>
-      <c r="P34" s="184"/>
+      <c r="E34" s="192"/>
+      <c r="F34" s="192"/>
+      <c r="G34" s="192"/>
+      <c r="H34" s="192"/>
+      <c r="I34" s="192"/>
+      <c r="J34" s="192"/>
+      <c r="K34" s="192"/>
+      <c r="L34" s="192"/>
+      <c r="M34" s="192"/>
+      <c r="N34" s="192"/>
+      <c r="O34" s="192"/>
+      <c r="P34" s="193"/>
       <c r="R34" s="11" t="s">
         <v>102</v>
       </c>
@@ -34688,6 +35336,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="C28:P28"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -34702,22 +35366,6 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C28:P28"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -34726,7 +35374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -34752,23 +35400,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
       <c r="R2" s="11" t="s">
         <v>98</v>
       </c>
@@ -34780,23 +35428,23 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="195" t="s">
+      <c r="B3" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="196"/>
-      <c r="N3" s="196"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
       <c r="R3" s="11" t="s">
         <v>100</v>
       </c>
@@ -34809,22 +35457,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="104"/>
-      <c r="C4" s="201" t="s">
+      <c r="C4" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="201"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="201"/>
-      <c r="K4" s="201"/>
-      <c r="L4" s="201"/>
-      <c r="M4" s="201"/>
-      <c r="N4" s="201"/>
-      <c r="O4" s="201"/>
-      <c r="P4" s="202"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="201"/>
       <c r="R4" s="11" t="s">
         <v>153</v>
       </c>
@@ -34837,22 +35485,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="104"/>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-      <c r="K5" s="201"/>
-      <c r="L5" s="201"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201"/>
-      <c r="O5" s="201"/>
-      <c r="P5" s="202"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="200"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="201"/>
       <c r="R5" s="11" t="s">
         <v>146</v>
       </c>
@@ -34866,21 +35514,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="104"/>
       <c r="C6" s="105"/>
-      <c r="D6" s="203" t="s">
+      <c r="D6" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="203"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="203"/>
-      <c r="K6" s="203"/>
-      <c r="L6" s="203"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="203"/>
-      <c r="O6" s="203"/>
-      <c r="P6" s="204"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
+      <c r="L6" s="202"/>
+      <c r="M6" s="202"/>
+      <c r="N6" s="202"/>
+      <c r="O6" s="202"/>
+      <c r="P6" s="203"/>
       <c r="R6" s="11" t="s">
         <v>162</v>
       </c>
@@ -34894,21 +35542,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="104"/>
       <c r="C7" s="105"/>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="203"/>
-      <c r="H7" s="203"/>
-      <c r="I7" s="203"/>
-      <c r="J7" s="203"/>
-      <c r="K7" s="203"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="204"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="203"/>
       <c r="R7" s="11" t="s">
         <v>151</v>
       </c>
@@ -34922,21 +35570,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="104"/>
       <c r="C8" s="105"/>
-      <c r="D8" s="201" t="s">
+      <c r="D8" s="200" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="203"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="203"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="203"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="203"/>
-      <c r="N8" s="203"/>
-      <c r="O8" s="203"/>
-      <c r="P8" s="204"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
+      <c r="P8" s="203"/>
       <c r="R8" s="11" t="s">
         <v>148</v>
       </c>
@@ -34950,21 +35598,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="104"/>
       <c r="C9" s="105"/>
-      <c r="D9" s="201" t="s">
+      <c r="D9" s="200" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="203"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="203"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="203"/>
-      <c r="K9" s="203"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="203"/>
-      <c r="O9" s="203"/>
-      <c r="P9" s="204"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="202"/>
+      <c r="P9" s="203"/>
       <c r="R9" s="62" t="s">
         <v>289</v>
       </c>
@@ -34978,21 +35626,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="104"/>
       <c r="C10" s="105"/>
-      <c r="D10" s="201" t="s">
+      <c r="D10" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="203"/>
-      <c r="K10" s="203"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="203"/>
-      <c r="O10" s="203"/>
-      <c r="P10" s="204"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="202"/>
+      <c r="P10" s="203"/>
       <c r="R10" s="11" t="s">
         <v>155</v>
       </c>
@@ -35005,22 +35653,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="104"/>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201"/>
-      <c r="N11" s="201"/>
-      <c r="O11" s="201"/>
-      <c r="P11" s="202"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="200"/>
+      <c r="L11" s="200"/>
+      <c r="M11" s="200"/>
+      <c r="N11" s="200"/>
+      <c r="O11" s="200"/>
+      <c r="P11" s="201"/>
       <c r="R11" s="11" t="s">
         <v>97</v>
       </c>
@@ -35033,22 +35681,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104"/>
-      <c r="C12" s="201" t="s">
+      <c r="C12" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="201"/>
-      <c r="E12" s="201"/>
-      <c r="F12" s="201"/>
-      <c r="G12" s="201"/>
-      <c r="H12" s="201"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="201"/>
-      <c r="M12" s="201"/>
-      <c r="N12" s="201"/>
-      <c r="O12" s="201"/>
-      <c r="P12" s="202"/>
+      <c r="D12" s="200"/>
+      <c r="E12" s="200"/>
+      <c r="F12" s="200"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="200"/>
+      <c r="L12" s="200"/>
+      <c r="M12" s="200"/>
+      <c r="N12" s="200"/>
+      <c r="O12" s="200"/>
+      <c r="P12" s="201"/>
       <c r="R12" s="62" t="s">
         <v>99</v>
       </c>
@@ -35086,23 +35734,23 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="195" t="s">
+      <c r="B14" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="196"/>
-      <c r="D14" s="196"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="196"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="196"/>
-      <c r="L14" s="196"/>
-      <c r="M14" s="196"/>
-      <c r="N14" s="196"/>
-      <c r="O14" s="196"/>
-      <c r="P14" s="197"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="205"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="205"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="205"/>
+      <c r="L14" s="205"/>
+      <c r="M14" s="205"/>
+      <c r="N14" s="205"/>
+      <c r="O14" s="205"/>
+      <c r="P14" s="206"/>
       <c r="R14" s="11" t="s">
         <v>89</v>
       </c>
@@ -35115,22 +35763,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="104"/>
-      <c r="C15" s="201" t="s">
+      <c r="C15" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="201"/>
-      <c r="M15" s="201"/>
-      <c r="N15" s="201"/>
-      <c r="O15" s="201"/>
-      <c r="P15" s="202"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="200"/>
+      <c r="L15" s="200"/>
+      <c r="M15" s="200"/>
+      <c r="N15" s="200"/>
+      <c r="O15" s="200"/>
+      <c r="P15" s="201"/>
       <c r="R15" s="11" t="s">
         <v>163</v>
       </c>
@@ -35144,21 +35792,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="104"/>
       <c r="C16" s="107"/>
-      <c r="D16" s="203" t="s">
+      <c r="D16" s="202" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="203"/>
-      <c r="K16" s="203"/>
-      <c r="L16" s="203"/>
-      <c r="M16" s="203"/>
-      <c r="N16" s="203"/>
-      <c r="O16" s="203"/>
-      <c r="P16" s="204"/>
+      <c r="E16" s="202"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="202"/>
+      <c r="L16" s="202"/>
+      <c r="M16" s="202"/>
+      <c r="N16" s="202"/>
+      <c r="O16" s="202"/>
+      <c r="P16" s="203"/>
       <c r="R16" s="11" t="s">
         <v>149</v>
       </c>
@@ -35200,21 +35848,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104"/>
       <c r="C18" s="105"/>
-      <c r="D18" s="203" t="s">
+      <c r="D18" s="202" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="203"/>
-      <c r="J18" s="203"/>
-      <c r="K18" s="203"/>
-      <c r="L18" s="203"/>
-      <c r="M18" s="203"/>
-      <c r="N18" s="203"/>
-      <c r="O18" s="203"/>
-      <c r="P18" s="204"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="202"/>
+      <c r="M18" s="202"/>
+      <c r="N18" s="202"/>
+      <c r="O18" s="202"/>
+      <c r="P18" s="203"/>
       <c r="R18" s="62" t="s">
         <v>156</v>
       </c>
@@ -35228,21 +35876,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="104"/>
       <c r="C19" s="105"/>
-      <c r="D19" s="203" t="s">
+      <c r="D19" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="203"/>
-      <c r="O19" s="203"/>
-      <c r="P19" s="204"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="202"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="202"/>
+      <c r="M19" s="202"/>
+      <c r="N19" s="202"/>
+      <c r="O19" s="202"/>
+      <c r="P19" s="203"/>
       <c r="R19" s="62" t="s">
         <v>87</v>
       </c>
@@ -35256,21 +35904,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="104"/>
       <c r="C20" s="105"/>
-      <c r="D20" s="203" t="s">
+      <c r="D20" s="202" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="203"/>
-      <c r="K20" s="203"/>
-      <c r="L20" s="203"/>
-      <c r="M20" s="203"/>
-      <c r="N20" s="203"/>
-      <c r="O20" s="203"/>
-      <c r="P20" s="204"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="202"/>
+      <c r="L20" s="202"/>
+      <c r="M20" s="202"/>
+      <c r="N20" s="202"/>
+      <c r="O20" s="202"/>
+      <c r="P20" s="203"/>
       <c r="R20" s="62" t="s">
         <v>154</v>
       </c>
@@ -35284,21 +35932,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="104"/>
       <c r="C21" s="105"/>
-      <c r="D21" s="203" t="s">
+      <c r="D21" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="203"/>
-      <c r="K21" s="203"/>
-      <c r="L21" s="203"/>
-      <c r="M21" s="203"/>
-      <c r="N21" s="203"/>
-      <c r="O21" s="203"/>
-      <c r="P21" s="204"/>
+      <c r="E21" s="202"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="202"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="202"/>
+      <c r="J21" s="202"/>
+      <c r="K21" s="202"/>
+      <c r="L21" s="202"/>
+      <c r="M21" s="202"/>
+      <c r="N21" s="202"/>
+      <c r="O21" s="202"/>
+      <c r="P21" s="203"/>
       <c r="R21" s="62" t="s">
         <v>158</v>
       </c>
@@ -35312,21 +35960,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="104"/>
       <c r="C22" s="105"/>
-      <c r="D22" s="203" t="s">
+      <c r="D22" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="203"/>
-      <c r="K22" s="203"/>
-      <c r="L22" s="203"/>
-      <c r="M22" s="203"/>
-      <c r="N22" s="203"/>
-      <c r="O22" s="203"/>
-      <c r="P22" s="204"/>
+      <c r="E22" s="202"/>
+      <c r="F22" s="202"/>
+      <c r="G22" s="202"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="202"/>
+      <c r="K22" s="202"/>
+      <c r="L22" s="202"/>
+      <c r="M22" s="202"/>
+      <c r="N22" s="202"/>
+      <c r="O22" s="202"/>
+      <c r="P22" s="203"/>
       <c r="R22" s="62" t="s">
         <v>101</v>
       </c>
@@ -35340,21 +35988,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="104"/>
       <c r="C23" s="105"/>
-      <c r="D23" s="203" t="s">
+      <c r="D23" s="202" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="203"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="203"/>
-      <c r="J23" s="203"/>
-      <c r="K23" s="203"/>
-      <c r="L23" s="203"/>
-      <c r="M23" s="203"/>
-      <c r="N23" s="203"/>
-      <c r="O23" s="203"/>
-      <c r="P23" s="204"/>
+      <c r="E23" s="202"/>
+      <c r="F23" s="202"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="202"/>
+      <c r="I23" s="202"/>
+      <c r="J23" s="202"/>
+      <c r="K23" s="202"/>
+      <c r="L23" s="202"/>
+      <c r="M23" s="202"/>
+      <c r="N23" s="202"/>
+      <c r="O23" s="202"/>
+      <c r="P23" s="203"/>
       <c r="R23" s="62" t="s">
         <v>157</v>
       </c>
@@ -35368,21 +36016,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="104"/>
       <c r="C24" s="105"/>
-      <c r="D24" s="203" t="s">
+      <c r="D24" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="203"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="203"/>
-      <c r="H24" s="203"/>
-      <c r="I24" s="203"/>
-      <c r="J24" s="203"/>
-      <c r="K24" s="203"/>
-      <c r="L24" s="203"/>
-      <c r="M24" s="203"/>
-      <c r="N24" s="203"/>
-      <c r="O24" s="203"/>
-      <c r="P24" s="204"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="202"/>
+      <c r="K24" s="202"/>
+      <c r="L24" s="202"/>
+      <c r="M24" s="202"/>
+      <c r="N24" s="202"/>
+      <c r="O24" s="202"/>
+      <c r="P24" s="203"/>
       <c r="R24" s="62" t="s">
         <v>291</v>
       </c>
@@ -35396,21 +36044,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="104"/>
       <c r="C25" s="105"/>
-      <c r="D25" s="203" t="s">
+      <c r="D25" s="202" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="203"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="203"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="203"/>
-      <c r="J25" s="203"/>
-      <c r="K25" s="203"/>
-      <c r="L25" s="203"/>
-      <c r="M25" s="203"/>
-      <c r="N25" s="203"/>
-      <c r="O25" s="203"/>
-      <c r="P25" s="204"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="202"/>
+      <c r="K25" s="202"/>
+      <c r="L25" s="202"/>
+      <c r="M25" s="202"/>
+      <c r="N25" s="202"/>
+      <c r="O25" s="202"/>
+      <c r="P25" s="203"/>
       <c r="R25" s="62" t="s">
         <v>147</v>
       </c>
@@ -35424,21 +36072,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="104"/>
       <c r="C26" s="105"/>
-      <c r="D26" s="203" t="s">
+      <c r="D26" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="203"/>
-      <c r="J26" s="203"/>
-      <c r="K26" s="203"/>
-      <c r="L26" s="203"/>
-      <c r="M26" s="203"/>
-      <c r="N26" s="203"/>
-      <c r="O26" s="203"/>
-      <c r="P26" s="204"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="202"/>
+      <c r="K26" s="202"/>
+      <c r="L26" s="202"/>
+      <c r="M26" s="202"/>
+      <c r="N26" s="202"/>
+      <c r="O26" s="202"/>
+      <c r="P26" s="203"/>
       <c r="R26" s="62" t="s">
         <v>159</v>
       </c>
@@ -35452,21 +36100,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="104"/>
       <c r="C27" s="105"/>
-      <c r="D27" s="203" t="s">
+      <c r="D27" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="203"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="203"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="203"/>
-      <c r="J27" s="203"/>
-      <c r="K27" s="203"/>
-      <c r="L27" s="203"/>
-      <c r="M27" s="203"/>
-      <c r="N27" s="203"/>
-      <c r="O27" s="203"/>
-      <c r="P27" s="204"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="202"/>
+      <c r="K27" s="202"/>
+      <c r="L27" s="202"/>
+      <c r="M27" s="202"/>
+      <c r="N27" s="202"/>
+      <c r="O27" s="202"/>
+      <c r="P27" s="203"/>
       <c r="R27" s="62" t="s">
         <v>290</v>
       </c>
@@ -35505,22 +36153,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="104"/>
-      <c r="C29" s="201" t="s">
+      <c r="C29" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="201"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="201"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="201"/>
-      <c r="J29" s="201"/>
-      <c r="K29" s="201"/>
-      <c r="L29" s="201"/>
-      <c r="M29" s="201"/>
-      <c r="N29" s="201"/>
-      <c r="O29" s="201"/>
-      <c r="P29" s="202"/>
+      <c r="D29" s="200"/>
+      <c r="E29" s="200"/>
+      <c r="F29" s="200"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="200"/>
+      <c r="L29" s="200"/>
+      <c r="M29" s="200"/>
+      <c r="N29" s="200"/>
+      <c r="O29" s="200"/>
+      <c r="P29" s="201"/>
       <c r="R29" s="62" t="s">
         <v>150</v>
       </c>
@@ -35534,21 +36182,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="104"/>
       <c r="C30" s="105"/>
-      <c r="D30" s="203" t="s">
+      <c r="D30" s="202" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="203"/>
-      <c r="F30" s="203"/>
-      <c r="G30" s="203"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="203"/>
-      <c r="J30" s="203"/>
-      <c r="K30" s="203"/>
-      <c r="L30" s="203"/>
-      <c r="M30" s="203"/>
-      <c r="N30" s="203"/>
-      <c r="O30" s="203"/>
-      <c r="P30" s="204"/>
+      <c r="E30" s="202"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="202"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="202"/>
+      <c r="J30" s="202"/>
+      <c r="K30" s="202"/>
+      <c r="L30" s="202"/>
+      <c r="M30" s="202"/>
+      <c r="N30" s="202"/>
+      <c r="O30" s="202"/>
+      <c r="P30" s="203"/>
       <c r="R30" s="62" t="s">
         <v>88</v>
       </c>
@@ -35562,21 +36210,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="104"/>
       <c r="C31" s="105"/>
-      <c r="D31" s="203" t="s">
+      <c r="D31" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="203"/>
-      <c r="F31" s="203"/>
-      <c r="G31" s="203"/>
-      <c r="H31" s="203"/>
-      <c r="I31" s="203"/>
-      <c r="J31" s="203"/>
-      <c r="K31" s="203"/>
-      <c r="L31" s="203"/>
-      <c r="M31" s="203"/>
-      <c r="N31" s="203"/>
-      <c r="O31" s="203"/>
-      <c r="P31" s="204"/>
+      <c r="E31" s="202"/>
+      <c r="F31" s="202"/>
+      <c r="G31" s="202"/>
+      <c r="H31" s="202"/>
+      <c r="I31" s="202"/>
+      <c r="J31" s="202"/>
+      <c r="K31" s="202"/>
+      <c r="L31" s="202"/>
+      <c r="M31" s="202"/>
+      <c r="N31" s="202"/>
+      <c r="O31" s="202"/>
+      <c r="P31" s="203"/>
       <c r="R31" s="62" t="s">
         <v>243</v>
       </c>
@@ -35590,21 +36238,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="104"/>
       <c r="C32" s="105"/>
-      <c r="D32" s="203" t="s">
+      <c r="D32" s="202" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="203"/>
-      <c r="F32" s="203"/>
-      <c r="G32" s="203"/>
-      <c r="H32" s="203"/>
-      <c r="I32" s="203"/>
-      <c r="J32" s="203"/>
-      <c r="K32" s="203"/>
-      <c r="L32" s="203"/>
-      <c r="M32" s="203"/>
-      <c r="N32" s="203"/>
-      <c r="O32" s="203"/>
-      <c r="P32" s="204"/>
+      <c r="E32" s="202"/>
+      <c r="F32" s="202"/>
+      <c r="G32" s="202"/>
+      <c r="H32" s="202"/>
+      <c r="I32" s="202"/>
+      <c r="J32" s="202"/>
+      <c r="K32" s="202"/>
+      <c r="L32" s="202"/>
+      <c r="M32" s="202"/>
+      <c r="N32" s="202"/>
+      <c r="O32" s="202"/>
+      <c r="P32" s="203"/>
       <c r="R32" s="62" t="s">
         <v>312</v>
       </c>
@@ -35618,21 +36266,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="104"/>
       <c r="C33" s="105"/>
-      <c r="D33" s="203" t="s">
+      <c r="D33" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="203"/>
-      <c r="F33" s="203"/>
-      <c r="G33" s="203"/>
-      <c r="H33" s="203"/>
-      <c r="I33" s="203"/>
-      <c r="J33" s="203"/>
-      <c r="K33" s="203"/>
-      <c r="L33" s="203"/>
-      <c r="M33" s="203"/>
-      <c r="N33" s="203"/>
-      <c r="O33" s="203"/>
-      <c r="P33" s="204"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="202"/>
+      <c r="L33" s="202"/>
+      <c r="M33" s="202"/>
+      <c r="N33" s="202"/>
+      <c r="O33" s="202"/>
+      <c r="P33" s="203"/>
       <c r="R33" s="121" t="s">
         <v>448</v>
       </c>
@@ -35646,21 +36294,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="104"/>
       <c r="C34" s="105"/>
-      <c r="D34" s="205" t="s">
+      <c r="D34" s="196" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="205"/>
-      <c r="F34" s="205"/>
-      <c r="G34" s="205"/>
-      <c r="H34" s="205"/>
-      <c r="I34" s="205"/>
-      <c r="J34" s="205"/>
-      <c r="K34" s="205"/>
-      <c r="L34" s="205"/>
-      <c r="M34" s="205"/>
-      <c r="N34" s="205"/>
-      <c r="O34" s="205"/>
-      <c r="P34" s="206"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="196"/>
+      <c r="L34" s="196"/>
+      <c r="M34" s="196"/>
+      <c r="N34" s="196"/>
+      <c r="O34" s="196"/>
+      <c r="P34" s="197"/>
       <c r="R34" s="62" t="s">
         <v>603</v>
       </c>
@@ -35674,21 +36322,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="104"/>
       <c r="C35" s="105"/>
-      <c r="D35" s="205" t="s">
+      <c r="D35" s="196" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="205"/>
-      <c r="F35" s="205"/>
-      <c r="G35" s="205"/>
-      <c r="H35" s="205"/>
-      <c r="I35" s="205"/>
-      <c r="J35" s="205"/>
-      <c r="K35" s="205"/>
-      <c r="L35" s="205"/>
-      <c r="M35" s="205"/>
-      <c r="N35" s="205"/>
-      <c r="O35" s="205"/>
-      <c r="P35" s="206"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="196"/>
+      <c r="K35" s="196"/>
+      <c r="L35" s="196"/>
+      <c r="M35" s="196"/>
+      <c r="N35" s="196"/>
+      <c r="O35" s="196"/>
+      <c r="P35" s="197"/>
       <c r="R35" s="62" t="s">
         <v>630</v>
       </c>
@@ -35702,21 +36350,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="110"/>
       <c r="C36" s="111"/>
-      <c r="D36" s="207" t="s">
+      <c r="D36" s="198" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="207"/>
-      <c r="J36" s="207"/>
-      <c r="K36" s="207"/>
-      <c r="L36" s="207"/>
-      <c r="M36" s="207"/>
-      <c r="N36" s="207"/>
-      <c r="O36" s="207"/>
-      <c r="P36" s="208"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="198"/>
+      <c r="G36" s="198"/>
+      <c r="H36" s="198"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="198"/>
+      <c r="K36" s="198"/>
+      <c r="L36" s="198"/>
+      <c r="M36" s="198"/>
+      <c r="N36" s="198"/>
+      <c r="O36" s="198"/>
+      <c r="P36" s="199"/>
       <c r="R36" s="62" t="s">
         <v>631</v>
       </c>
@@ -35897,14 +36545,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="B14:P14"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="C4:P4"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="C11:P11"/>
+    <mergeCell ref="C12:P12"/>
     <mergeCell ref="D27:P27"/>
     <mergeCell ref="C15:P15"/>
     <mergeCell ref="D16:P16"/>
@@ -35917,18 +36569,14 @@
     <mergeCell ref="D24:P24"/>
     <mergeCell ref="D25:P25"/>
     <mergeCell ref="D26:P26"/>
-    <mergeCell ref="B14:P14"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="C4:P4"/>
-    <mergeCell ref="C5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="C11:P11"/>
-    <mergeCell ref="C12:P12"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/2017/BANGKE - 17.xlsx
+++ b/2017/BANGKE - 17.xlsx
@@ -19861,9 +19861,9 @@
   <dimension ref="A1:P382"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="14" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="E265" sqref="E265:E359"/>
+      <selection pane="bottomLeft" activeCell="J371" sqref="J371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25312,7 +25312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -25342,7 +25342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -25372,7 +25372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="9">
         <f t="shared" si="9"/>
         <v>144</v>
@@ -25407,7 +25407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -25437,7 +25437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -25467,7 +25467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -25573,7 +25573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -25641,7 +25641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -25823,7 +25823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -25967,7 +25967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -27099,7 +27099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -27433,7 +27433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="9" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -27463,7 +27463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="9" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -27873,7 +27873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="9" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -28359,7 +28359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="9" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -28541,7 +28541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="9">
         <f t="shared" si="24"/>
         <v>230</v>
@@ -28579,7 +28579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="9">
         <f t="shared" ref="B256:B266" si="29">IF(G256&lt;&gt;"",ROW()-25,"")</f>
         <v>231</v>
@@ -28617,7 +28617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="9">
         <f t="shared" si="29"/>
         <v>232</v>
@@ -28655,7 +28655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="9">
         <f t="shared" si="29"/>
         <v>233</v>
@@ -28693,7 +28693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="9">
         <f t="shared" si="29"/>
         <v>234</v>
@@ -28731,7 +28731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="9">
         <f t="shared" si="29"/>
         <v>235</v>
@@ -28769,7 +28769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="9">
         <f t="shared" si="29"/>
         <v>236</v>
@@ -28807,7 +28807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="9">
         <f t="shared" si="29"/>
         <v>237</v>
@@ -28845,7 +28845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="9">
         <f t="shared" si="29"/>
         <v>238</v>
@@ -28883,7 +28883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="9">
         <f t="shared" si="29"/>
         <v>239</v>
@@ -28921,7 +28921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="2:12" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:12" s="155" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="148" t="str">
         <f t="shared" si="29"/>
         <v/>
@@ -28951,7 +28951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="9">
         <f t="shared" si="29"/>
         <v>241</v>
@@ -28989,7 +28989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="9">
         <f t="shared" si="24"/>
         <v>242</v>
@@ -29027,7 +29027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="9">
         <f t="shared" si="24"/>
         <v>243</v>
@@ -29065,7 +29065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="9">
         <f t="shared" si="24"/>
         <v>244</v>
@@ -29103,7 +29103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="9">
         <f t="shared" si="24"/>
         <v>245</v>
@@ -29141,7 +29141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="9">
         <f t="shared" si="24"/>
         <v>246</v>
@@ -29179,7 +29179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="9">
         <f t="shared" si="24"/>
         <v>247</v>
@@ -29217,7 +29217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="9">
         <f t="shared" si="24"/>
         <v>248</v>
@@ -29255,7 +29255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="9">
         <f t="shared" si="24"/>
         <v>249</v>
@@ -29293,7 +29293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="9">
         <f t="shared" si="24"/>
         <v>250</v>
@@ -29331,7 +29331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="9">
         <f t="shared" si="24"/>
         <v>251</v>
@@ -29369,7 +29369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="9">
         <f t="shared" si="24"/>
         <v>252</v>
@@ -29407,7 +29407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="9">
         <f t="shared" ref="B278:B288" si="32">IF(G278&lt;&gt;"",ROW()-25,"")</f>
         <v>253</v>
@@ -29445,7 +29445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="9">
         <f t="shared" si="32"/>
         <v>254</v>
@@ -29483,7 +29483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="9">
         <f t="shared" si="32"/>
         <v>255</v>
@@ -29521,7 +29521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="9">
         <f t="shared" si="32"/>
         <v>256</v>
@@ -29559,7 +29559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="9">
         <f t="shared" si="32"/>
         <v>257</v>
@@ -29597,7 +29597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="9">
         <f t="shared" si="32"/>
         <v>258</v>
@@ -29635,7 +29635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="9">
         <f t="shared" si="32"/>
         <v>259</v>
@@ -29673,7 +29673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="9">
         <f t="shared" si="32"/>
         <v>260</v>
@@ -29711,7 +29711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="9">
         <f t="shared" si="32"/>
         <v>261</v>
@@ -29749,7 +29749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="2:12" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:12" s="155" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="148">
         <f t="shared" si="32"/>
         <v>262</v>
@@ -29787,7 +29787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="2:12" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:12" s="155" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="148">
         <f t="shared" si="32"/>
         <v>263</v>
@@ -29825,7 +29825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="2:12" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:12" s="155" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="148" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -29855,7 +29855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="2:12" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:12" s="155" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="148">
         <f t="shared" si="24"/>
         <v>265</v>
@@ -29893,7 +29893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="2:12" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:12" s="155" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="148" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -29923,7 +29923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="2:12" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:12" s="155" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="148">
         <f t="shared" si="24"/>
         <v>267</v>
@@ -29961,7 +29961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="2:12" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:12" s="155" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="148">
         <f t="shared" si="24"/>
         <v>268</v>
@@ -29999,7 +29999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="2:12" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:12" s="155" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="148">
         <f t="shared" si="24"/>
         <v>269</v>
@@ -30037,7 +30037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="2:12" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:12" s="155" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="148">
         <f t="shared" si="24"/>
         <v>270</v>
@@ -30075,7 +30075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="2:12" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:12" s="155" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="148">
         <f t="shared" si="24"/>
         <v>271</v>
@@ -30113,7 +30113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="2:12" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:12" s="155" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="148">
         <f t="shared" si="24"/>
         <v>272</v>
@@ -30151,7 +30151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="148">
         <f t="shared" si="24"/>
         <v>273</v>
@@ -30189,7 +30189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="148">
         <f t="shared" si="24"/>
         <v>274</v>
@@ -30227,7 +30227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="148">
         <f t="shared" ref="B300:B370" si="34">IF(G300&lt;&gt;"",ROW()-25,"")</f>
         <v>275</v>
@@ -30265,7 +30265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="148">
         <f t="shared" si="34"/>
         <v>276</v>
@@ -30303,7 +30303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="148">
         <f t="shared" si="34"/>
         <v>277</v>
@@ -30341,7 +30341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="148">
         <f t="shared" si="34"/>
         <v>278</v>
@@ -30379,7 +30379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="148">
         <f t="shared" si="34"/>
         <v>279</v>
@@ -30417,7 +30417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="148">
         <f t="shared" si="34"/>
         <v>280</v>
@@ -30455,7 +30455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="148">
         <f t="shared" si="34"/>
         <v>281</v>
@@ -30493,7 +30493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="148" t="str">
         <f t="shared" si="34"/>
         <v/>
@@ -30523,7 +30523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="148">
         <f t="shared" si="34"/>
         <v>283</v>
@@ -30561,7 +30561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="148" t="str">
         <f t="shared" si="34"/>
         <v/>
@@ -30591,7 +30591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B310" s="148">
         <f t="shared" si="34"/>
         <v>285</v>
@@ -30629,7 +30629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="148" t="str">
         <f t="shared" si="34"/>
         <v/>
@@ -30659,7 +30659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="148">
         <f t="shared" si="34"/>
         <v>287</v>
@@ -30697,7 +30697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="148">
         <f t="shared" si="34"/>
         <v>288</v>
@@ -30735,7 +30735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="148" t="str">
         <f t="shared" si="34"/>
         <v/>
@@ -30765,7 +30765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315" s="148" t="str">
         <f t="shared" si="34"/>
         <v/>
@@ -30795,7 +30795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316" s="148" t="str">
         <f t="shared" si="34"/>
         <v/>
@@ -30825,7 +30825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="148">
         <f t="shared" si="34"/>
         <v>292</v>
@@ -30863,7 +30863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="148">
         <f t="shared" si="34"/>
         <v>293</v>
@@ -30901,7 +30901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="148">
         <f t="shared" si="34"/>
         <v>294</v>
@@ -30939,7 +30939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="148">
         <f t="shared" si="34"/>
         <v>295</v>
@@ -30977,7 +30977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="148">
         <f t="shared" si="34"/>
         <v>296</v>
@@ -31015,7 +31015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="148">
         <f t="shared" si="34"/>
         <v>297</v>
@@ -31053,7 +31053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="148">
         <f t="shared" si="34"/>
         <v>298</v>
@@ -31091,7 +31091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="148">
         <f t="shared" si="34"/>
         <v>299</v>
@@ -31129,7 +31129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="148">
         <f t="shared" si="34"/>
         <v>300</v>
@@ -31167,7 +31167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="148">
         <f t="shared" si="34"/>
         <v>301</v>
@@ -31205,7 +31205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="148">
         <f t="shared" si="34"/>
         <v>302</v>
@@ -31243,7 +31243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="148">
         <f t="shared" si="34"/>
         <v>303</v>
@@ -31281,7 +31281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="148">
         <f t="shared" si="34"/>
         <v>304</v>
@@ -31319,7 +31319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="148">
         <f t="shared" si="34"/>
         <v>305</v>
@@ -31357,7 +31357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="148" t="str">
         <f t="shared" si="34"/>
         <v/>
@@ -31387,7 +31387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="148">
         <f t="shared" si="34"/>
         <v>307</v>
@@ -31425,7 +31425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="148" t="str">
         <f t="shared" si="34"/>
         <v/>
@@ -31455,7 +31455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="148">
         <f t="shared" si="34"/>
         <v>309</v>
@@ -31493,7 +31493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="148">
         <f t="shared" si="34"/>
         <v>310</v>
@@ -31531,7 +31531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="148">
         <f t="shared" si="34"/>
         <v>311</v>
@@ -31569,7 +31569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="148">
         <f t="shared" si="34"/>
         <v>312</v>
@@ -31607,7 +31607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="148">
         <f t="shared" si="34"/>
         <v>313</v>
@@ -31645,7 +31645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="148">
         <f t="shared" ref="B339:B355" si="42">IF(G339&lt;&gt;"",ROW()-25,"")</f>
         <v>314</v>
@@ -31683,7 +31683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="148">
         <f t="shared" si="42"/>
         <v>315</v>
@@ -31721,7 +31721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="148">
         <f t="shared" si="42"/>
         <v>316</v>
@@ -31759,7 +31759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="148">
         <f t="shared" si="42"/>
         <v>317</v>
@@ -31797,7 +31797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="148">
         <f t="shared" si="42"/>
         <v>318</v>
@@ -31835,7 +31835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="148">
         <f t="shared" si="42"/>
         <v>319</v>
@@ -31873,7 +31873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="148">
         <f t="shared" si="42"/>
         <v>320</v>
@@ -31911,7 +31911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="162" t="str">
         <f t="shared" si="42"/>
         <v/>
@@ -31941,7 +31941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="148">
         <f t="shared" si="42"/>
         <v>322</v>
@@ -31979,7 +31979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="148">
         <f t="shared" si="42"/>
         <v>323</v>
@@ -32017,7 +32017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="148">
         <f t="shared" si="42"/>
         <v>324</v>
@@ -32055,7 +32055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="148">
         <f t="shared" si="42"/>
         <v>325</v>
@@ -32093,7 +32093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="148">
         <f t="shared" si="42"/>
         <v>326</v>
@@ -32131,7 +32131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B352" s="148">
         <f t="shared" si="42"/>
         <v>327</v>
@@ -32169,7 +32169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B353" s="162" t="str">
         <f t="shared" si="42"/>
         <v/>
@@ -32199,7 +32199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="148">
         <f t="shared" si="42"/>
         <v>329</v>
@@ -32237,7 +32237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B355" s="148">
         <f t="shared" si="42"/>
         <v>330</v>
@@ -32275,7 +32275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B356" s="162" t="str">
         <f t="shared" ref="B356:B368" si="43">IF(G356&lt;&gt;"",ROW()-25,"")</f>
         <v/>
@@ -32305,7 +32305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="148">
         <f t="shared" si="43"/>
         <v>332</v>
@@ -32343,7 +32343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="148">
         <f t="shared" si="43"/>
         <v>333</v>
@@ -32381,7 +32381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="148" t="str">
         <f t="shared" si="43"/>
         <v/>
@@ -32411,7 +32411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="148">
         <f t="shared" si="43"/>
         <v>335</v>
@@ -32449,7 +32449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="148">
         <f t="shared" si="43"/>
         <v>336</v>
@@ -32487,7 +32487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="148">
         <f t="shared" si="43"/>
         <v>337</v>
@@ -32525,7 +32525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="148">
         <f t="shared" si="43"/>
         <v>338</v>
@@ -32563,7 +32563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="148">
         <f t="shared" si="43"/>
         <v>339</v>
@@ -32601,7 +32601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="148">
         <f t="shared" si="43"/>
         <v>340</v>
@@ -32639,7 +32639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="148">
         <f t="shared" si="43"/>
         <v>341</v>
@@ -32677,7 +32677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="148">
         <f t="shared" si="43"/>
         <v>342</v>
@@ -32715,7 +32715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:12" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="148">
         <f t="shared" si="43"/>
         <v>343</v>
@@ -32753,7 +32753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="2:16" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:16" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="148">
         <f t="shared" ref="B369" si="44">IF(G369&lt;&gt;"",ROW()-25,"")</f>
         <v>344</v>
@@ -32823,11 +32823,11 @@
       <c r="I371" s="28"/>
       <c r="J371" s="29">
         <f>SUBTOTAL(9,J26:J370)</f>
-        <v>3528570668</v>
+        <v>15695000</v>
       </c>
       <c r="K371" s="29">
         <f>SUBTOTAL(9,K26:K370)</f>
-        <v>352857071</v>
+        <v>0</v>
       </c>
       <c r="L371" s="30"/>
     </row>
@@ -32887,7 +32887,7 @@
       <c r="G376" s="16"/>
       <c r="H376" s="87">
         <f>J371</f>
-        <v>3528570668</v>
+        <v>15695000</v>
       </c>
       <c r="I376" s="16"/>
       <c r="L376" s="16"/>
@@ -32902,7 +32902,7 @@
       <c r="G377" s="16"/>
       <c r="H377" s="87">
         <f>K371</f>
-        <v>352857071</v>
+        <v>0</v>
       </c>
       <c r="I377" s="16"/>
       <c r="L377" s="16"/>
@@ -32969,9 +32969,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A25:N370">
+    <filterColumn colId="10">
+      <filters blank="1">
+        <filter val="-"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="11">
       <filters>
-        <filter val="4"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>
